--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB14527F-B3C5-4888-85CB-2C6AE855E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E9D2B4-CE5A-461D-A837-C231F5BEB56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="294">
   <si>
     <t>公司名稱</t>
   </si>
@@ -64,180 +64,60 @@
     <t>亞力電機股份有限公司</t>
   </si>
   <si>
-    <t>25.6 / 25.09 / 24.26 / 23.76</t>
-  </si>
-  <si>
-    <t>1296.0 / 958.4 / 629.7 / 488.23</t>
-  </si>
-  <si>
-    <t>9.61 / 9.26 / 8.84 / 8.49</t>
-  </si>
-  <si>
-    <t>0.0 / 0.0 / 0.09 / 0.14</t>
-  </si>
-  <si>
     <t>弘裕</t>
   </si>
   <si>
     <t>弘裕企業股份有限公司</t>
   </si>
   <si>
-    <t>15.3 / 15.12 / 15.04 / 15.15</t>
-  </si>
-  <si>
-    <t>282.0 / 416.0 / 439.0 / 1400.37</t>
-  </si>
-  <si>
-    <t>1.72 / 1.64 / 1.49 / 2.58</t>
-  </si>
-  <si>
-    <t>0.08 / 0.07 / 0.06 / 0.12</t>
-  </si>
-  <si>
     <t>吉茂</t>
   </si>
   <si>
     <t>吉茂精密股份有限公司</t>
   </si>
   <si>
-    <t>25.75 / 25.33 / 25.4 / 26.16</t>
-  </si>
-  <si>
-    <t>105.0 / 101.04 / 117.19 / 249.23</t>
-  </si>
-  <si>
-    <t>21.5 / 21.48 / 21.5 / 21.74</t>
-  </si>
-  <si>
-    <t>0.29 / 0.32 / 0.55 / 0.51</t>
-  </si>
-  <si>
     <t>至上</t>
   </si>
   <si>
     <t>至上電子股份有限公司</t>
   </si>
   <si>
-    <t>47.6 / 47.41 / 46.06 / 44.35</t>
-  </si>
-  <si>
-    <t>1793.0 / 2497.2 / 4601.5 / 3540.9</t>
-  </si>
-  <si>
-    <t>23.2 / 23.06 / 22.29 / 22.1</t>
-  </si>
-  <si>
-    <t>0.6 / 0.58 / 0.41 / 0.6</t>
-  </si>
-  <si>
     <t>南茂</t>
   </si>
   <si>
     <t>南茂科技股份有限公司</t>
   </si>
   <si>
-    <t>47.5 / 46.43 / 46.22 / 46.15</t>
-  </si>
-  <si>
-    <t>8900.0 / 6085.6 / 5587.4 / 6705.08</t>
-  </si>
-  <si>
-    <t>46.6 / 46.38 / 46.76 / 50.03</t>
-  </si>
-  <si>
-    <t>4.22 / 6.84 / 6.93 / 7.05</t>
-  </si>
-  <si>
     <t>力山</t>
   </si>
   <si>
     <t>力山工業股份有限公司</t>
   </si>
   <si>
-    <t>57.5 / 56.38 / 60.18 / 64.21</t>
-  </si>
-  <si>
-    <t>1454.0 / 1319.0 / 1257.8 / 764.4</t>
-  </si>
-  <si>
-    <t>7.85 / 7.79 / 7.76 / 8.78</t>
-  </si>
-  <si>
-    <t>5.03 / 4.17 / 2.32 / 1.28</t>
-  </si>
-  <si>
     <t>建國</t>
   </si>
   <si>
     <t>建國工程股份有限公司</t>
   </si>
   <si>
-    <t>13.75 / 13.75 / 13.92 / 13.56</t>
-  </si>
-  <si>
-    <t>511.0 / 339.2 / 348.45 / 266.87</t>
-  </si>
-  <si>
-    <t>6.18 / 6.15 / 6.27 / 6.45</t>
-  </si>
-  <si>
-    <t>0.0 / 0.13 / 0.29 / 0.1</t>
-  </si>
-  <si>
     <t>美亞</t>
   </si>
   <si>
     <t>美亞鋼管廠股份有限公司</t>
   </si>
   <si>
-    <t>32.15 / 31.92 / 31.86 / 30.94</t>
-  </si>
-  <si>
-    <t>465.0 / 485.6 / 737.6 / 875.78</t>
-  </si>
-  <si>
-    <t>3.4 / 3.3 / 3.2 / 2.86</t>
-  </si>
-  <si>
-    <t>0.34 / 0.34 / 0.5 / 0.84</t>
-  </si>
-  <si>
     <t>根基</t>
   </si>
   <si>
     <t>根基營造股份有限公司</t>
   </si>
   <si>
-    <t>48.85 / 48.92 / 49.43 / 48.31</t>
-  </si>
-  <si>
-    <t>27.5 / 45.62 / 74.02 / 102.56</t>
-  </si>
-  <si>
-    <t>3.74 / 3.74 / 3.76 / 3.62</t>
-  </si>
-  <si>
-    <t>0.0 / 0.0 / 0.0 / 0.0</t>
-  </si>
-  <si>
     <t>富邦金</t>
   </si>
   <si>
     <t>富邦金融控股股份有限公司</t>
   </si>
   <si>
-    <t>74.8 / 74.54 / 74.59 / 74.51</t>
-  </si>
-  <si>
-    <t>12868.0 / 30191.6 / 23276.35 / 20960.92</t>
-  </si>
-  <si>
-    <t>21.8 / 21.84 / 21.99 / 23.36</t>
-  </si>
-  <si>
-    <t>10.9 / 10.86 / 10.12 / 19.38</t>
-  </si>
-  <si>
     <t>群光</t>
   </si>
   <si>
@@ -262,54 +142,18 @@
     <t>運錩鋼鐵股份有限公司</t>
   </si>
   <si>
-    <t>36.05 / 35.75 / 36.0 / 33.96</t>
-  </si>
-  <si>
-    <t>2786.0 / 2952.2 / 4178.5 / 4392.0</t>
-  </si>
-  <si>
-    <t>2.03 / 1.81 / 1.64 / 1.47</t>
-  </si>
-  <si>
-    <t>5.54 / 5.35 / 6.79 / 5.04</t>
-  </si>
-  <si>
     <t>義隆</t>
   </si>
   <si>
     <t>義隆電子股份有限公司</t>
   </si>
   <si>
-    <t>168.0 / 165.1 / 162.6 / 160.47</t>
-  </si>
-  <si>
-    <t>5823.0 / 3827.2 / 2293.6 / 3082.22</t>
-  </si>
-  <si>
-    <t>22.2 / 21.82 / 21.55 / 22.5</t>
-  </si>
-  <si>
-    <t>19.9 / 20.08 / 21.47 / 24.71</t>
-  </si>
-  <si>
     <t>聯強</t>
   </si>
   <si>
     <t>聯強國際股份有限公司</t>
   </si>
   <si>
-    <t>65.0 / 65.12 / 61.76 / 56.72</t>
-  </si>
-  <si>
-    <t>26317.0 / 24576.8 / 12327.85 / 6578.25</t>
-  </si>
-  <si>
-    <t>33.8 / 34.68 / 34.9 / 35.02</t>
-  </si>
-  <si>
-    <t>7.0 / 4.58 / 3.8 / 4.71</t>
-  </si>
-  <si>
     <t>神基</t>
   </si>
   <si>
@@ -332,18 +176,6 @@
   </si>
   <si>
     <t>神達投資控股股份有限公司</t>
-  </si>
-  <si>
-    <t>33.9 / 33.96 / 33.02 / 30.49</t>
-  </si>
-  <si>
-    <t>5035.0 / 14974.4 / 13252.45 / 10411.17</t>
-  </si>
-  <si>
-    <t>11.4 / 11.24 / 11.05 / 10.6</t>
-  </si>
-  <si>
-    <t>0.88 / 0.71 / 0.64 / 0.6</t>
   </si>
   <si>
     <t>淨值比</t>
@@ -484,18 +316,6 @@
     <t>志超科技股份有限公司</t>
   </si>
   <si>
-    <t>47.7 / 47.6 / 47.19 / 46.94</t>
-  </si>
-  <si>
-    <t>499.0 / 744.8 / 665.15 / 909.17</t>
-  </si>
-  <si>
-    <t>20.5 / 20.52 / 20.79 / 20.45</t>
-  </si>
-  <si>
-    <t>0.17 / 0.18 / 0.19 / 0.26</t>
-  </si>
-  <si>
     <t>聯華</t>
   </si>
   <si>
@@ -829,6 +649,321 @@
   </si>
   <si>
     <t xml:space="preserve">   0.0 /    2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.4 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.3 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.6 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.7 /    0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.7 /    0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.6 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.0 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.5 /    0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.1 /    0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.44 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.0 /   1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.7 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.85 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.4 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.42 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.8 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.5 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.54 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.64 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.3 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.6 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9.0 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6.5 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.0 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.58 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.57 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.16 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.0 /    1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.3 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.0 /    1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.5 /    1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3 /    1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.52 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.7 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.8 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.48 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.2 /      0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.8 /      0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2 /      0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.3 /      0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.0 /      0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.5 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.55 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.18 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.51 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.15 /    15.15 /    15.04 /    15.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   523.0 /    493.6 /   443.45 /  1292.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.72 /     1.64 /     1.49 /     2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.08 /     0.07 /     0.06 /     0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25.55 /    25.24 /    24.32 /     23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   888.0 /   1065.0 /    657.6 /   497.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.61 /     9.26 /     8.84 /     8.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.09 /     0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    57.5 /    56.76 /     59.8 /    63.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   638.0 /   1179.6 /  1252.05 /   770.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.85 /     7.79 /     7.76 /     8.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.03 /     4.17 /     2.32 /     1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25.75 /    25.47 /     25.4 /    26.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    70.8 /     92.2 /   115.28 /   240.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.5 /    21.48 /     21.5 /    21.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.29 /     0.32 /     0.55 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.95 /    31.98 /    31.85 /    30.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   260.0 /    494.8 /    619.4 /   870.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4 /      3.3 /      3.2 /     2.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.34 /     0.34 /      0.5 /     0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   35.65 /    35.83 /    35.84 /    33.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1484.0 /   2789.6 /  3444.45 /  4384.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.03 /     1.81 /     1.64 /     1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.54 /     5.35 /     6.79 /     5.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    65.8 /    65.28 /    62.11 /    56.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19571.0 /  26158.6 / 12908.95 /  6878.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.8 /    34.68 /     34.9 /    35.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.0 /     4.58 /      3.8 /     4.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   167.5 /    166.9 /   162.68 /   160.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2131.0 /   3820.6 /   2278.2 /   3088.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    21.82 /    21.55 /     22.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.9 /    20.08 /    21.47 /    24.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.25 /    48.98 /    49.39 /    48.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    69.2 /     43.8 /    73.91 /   103.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.74 /     3.74 /     3.76 /     3.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /      0.0 /      0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    74.4 /     74.5 /    74.59 /    74.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11957.0 /  29732.8 /  22993.0 / 20957.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.8 /    21.84 /    21.99 /    23.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.9 /    10.86 /    10.12 /    19.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.7 /    33.96 /     33.0 /    30.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4663.0 /  14264.4 / 12787.15 / 10430.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.4 /    11.24 /    11.05 /     10.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.88 /     0.71 /     0.64 /      0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.85 /    13.76 /    13.91 /    13.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   177.0 /    306.4 /   339.35 /   268.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.19 /     6.16 /     6.25 /     6.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /     0.13 /     0.29 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.9 /    47.57 /    46.23 /     44.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2525.0 /   2412.0 /   4676.3 /   3558.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.3 /    23.16 /    22.39 /    22.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.6 /     0.58 /     0.41 /      0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.1 /    46.99 /     46.3 /    46.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10957.0 /   7501.4 /  5946.15 /  6808.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.7 /    46.46 /    46.73 /    49.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.22 /     6.84 /     6.93 /     7.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   47.85 /    47.72 /    47.18 /    46.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   504.0 /    732.8 /    648.6 /   901.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.6 /    20.54 /    20.76 /    20.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.17 /     0.18 /     0.19 /     0.26</t>
   </si>
 </sst>
 </file>
@@ -836,7 +971,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -903,9 +1038,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,27 +1051,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,17 +1394,17 @@
   <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI28" sqref="AI28"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="7" customWidth="1"/>
     <col min="5" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="9" width="6.625" customWidth="1"/>
     <col min="10" max="13" width="32.625" customWidth="1"/>
@@ -1281,178 +1416,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="I1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="7" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AA1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
+      <c r="AC1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="1">
+    <row r="2" spans="1:40" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="5">
         <v>2021</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="5">
         <v>2020</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="5">
         <v>2019</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2" s="5">
         <v>2018</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2" s="5">
         <v>2017</v>
       </c>
     </row>
@@ -1461,12 +1596,12 @@
         <v>1229</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="10">
+        <v>79</v>
+      </c>
+      <c r="D3" s="7">
         <v>14096480360</v>
       </c>
       <c r="E3">
@@ -1485,16 +1620,16 @@
         <v>2.09</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -1563,19 +1698,19 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="AK3" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="AL3" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="AM3" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="AN3" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1583,12 +1718,12 @@
         <v>1231</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="10">
+        <v>81</v>
+      </c>
+      <c r="D4" s="7">
         <v>2017623940</v>
       </c>
       <c r="E4">
@@ -1607,16 +1742,16 @@
         <v>3.2</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="N4">
         <v>11</v>
@@ -1684,23 +1819,23 @@
       <c r="AI4">
         <v>43</v>
       </c>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1409</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="10">
+        <v>107</v>
+      </c>
+      <c r="D5" s="7">
         <v>16184092910</v>
       </c>
       <c r="E5">
@@ -1719,16 +1854,16 @@
         <v>0.95</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>9</v>
@@ -1797,19 +1932,19 @@
         <v>47</v>
       </c>
       <c r="AJ5" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="AK5" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="AL5" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="AM5" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="AN5" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1817,12 +1952,12 @@
         <v>1474</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
         <v>1298969690</v>
       </c>
       <c r="E6">
@@ -1841,16 +1976,16 @@
         <v>0.98</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="N6">
         <v>13</v>
@@ -1918,8 +2053,23 @@
       <c r="AI6">
         <v>43</v>
       </c>
+      <c r="AJ6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1514</v>
       </c>
@@ -1929,7 +2079,7 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>2283266720</v>
       </c>
       <c r="E7">
@@ -1948,16 +2098,16 @@
         <v>1.73</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="N7">
         <v>13</v>
@@ -2025,135 +2175,155 @@
       <c r="AI7">
         <v>34</v>
       </c>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
+      <c r="AJ7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>1515</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8">
         <v>1814735000</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>19730430</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>19950204</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>6.26</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>9.06</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>2.68</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="J8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K8" t="s">
+        <v>243</v>
+      </c>
+      <c r="L8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N8" s="6">
         <v>12</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="6">
         <v>76.2</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <v>15.6</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="6">
         <v>99.06</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <v>19.2</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <v>121.9</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="6">
         <v>22.8</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="6">
         <v>144.80000000000001</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="6">
         <v>26.4</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="6">
         <v>167.6</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="6">
         <v>30</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="6">
         <v>190.5</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="6">
         <v>13.81</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="6">
         <v>8.14</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="6">
         <v>28.22</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="6">
         <v>7.63</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AD8" s="6">
         <v>6.12</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AE8" s="6">
         <v>1.74</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="6">
         <v>106.68</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AG8" s="6">
         <v>7.24</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="6">
         <v>2.77</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="6">
         <v>51</v>
       </c>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
+      <c r="AJ8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1587</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7">
         <v>686244490</v>
       </c>
       <c r="E9">
@@ -2172,16 +2342,16 @@
         <v>1.4</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="N9">
         <v>14</v>
@@ -2249,247 +2419,277 @@
       <c r="AI9">
         <v>36</v>
       </c>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
+      <c r="AJ9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>2020</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8">
         <v>2225261000</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>19590929</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>19930427</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>5.29</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>9.0299999999999994</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>2</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="8">
+      <c r="J10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" t="s">
+        <v>253</v>
+      </c>
+      <c r="N10" s="6">
         <v>12</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="6">
         <v>42.72</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="6">
         <v>14.8</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="6">
         <v>52.69</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="6">
         <v>17.600000000000001</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="6">
         <v>62.66</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="6">
         <v>20.399999999999999</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="6">
         <v>72.62</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="6">
         <v>23.2</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="6">
         <v>82.59</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="6">
         <v>26</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="6">
         <v>92.56</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="6">
         <v>14.3</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA10" s="6">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="6">
         <v>27.47</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="6">
         <v>16.52</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AD10" s="6">
         <v>14.13</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE10" s="6">
         <v>0.89</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="6">
         <v>57.32</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AG10" s="6">
         <v>0.9</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="6">
         <v>1.46</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AI10" s="6">
         <v>47</v>
       </c>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
+      <c r="AJ10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>2069</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7">
         <v>1663868360</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>19870724</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>20160322</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>1.53</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>9.36</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>1.51</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="8">
+      <c r="J11" t="s">
+        <v>254</v>
+      </c>
+      <c r="K11" t="s">
+        <v>255</v>
+      </c>
+      <c r="L11" t="s">
+        <v>256</v>
+      </c>
+      <c r="M11" t="s">
+        <v>257</v>
+      </c>
+      <c r="N11" s="6">
         <v>10</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="6">
         <v>38.6</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <v>13.4</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="6">
         <v>51.72</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="6">
         <v>16.8</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="6">
         <v>64.849999999999994</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="6">
         <v>20.2</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="6">
         <v>77.97</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="6">
         <v>23.6</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="6">
         <v>91.1</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="6">
         <v>27</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="6">
         <v>104.2</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z11" s="6">
         <v>13</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="6">
         <v>6.49</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AB11" s="6">
         <v>19.260000000000002</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AC11" s="6">
         <v>6.18</v>
       </c>
-      <c r="AD11" s="8">
+      <c r="AD11" s="6">
         <v>5.03</v>
       </c>
-      <c r="AE11" s="8">
+      <c r="AE11" s="6">
         <v>1.39</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11" s="6">
         <v>105.02</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AG11" s="6">
         <v>-7.36</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AH11" s="6">
         <v>-9.52</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AI11" s="6">
         <v>34</v>
       </c>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
+      <c r="AJ11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2324</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="10">
+        <v>118</v>
+      </c>
+      <c r="D12" s="7">
         <v>44071466250</v>
       </c>
       <c r="E12">
@@ -2508,16 +2708,16 @@
         <v>0.96</v>
       </c>
       <c r="J12" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="N12">
         <v>9</v>
@@ -2586,32 +2786,32 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="AM12" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="AN12" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2347</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="10">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7">
         <v>16679469680</v>
       </c>
       <c r="E13">
@@ -2630,16 +2830,16 @@
         <v>1.84</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="N13">
         <v>9</v>
@@ -2707,23 +2907,33 @@
       <c r="AI13">
         <v>40</v>
       </c>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
+      <c r="AJ13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2352</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="10">
+        <v>126</v>
+      </c>
+      <c r="D14" s="7">
         <v>19667819580</v>
       </c>
       <c r="E14">
@@ -2742,16 +2952,16 @@
         <v>1.63</v>
       </c>
       <c r="J14" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="N14">
         <v>8</v>
@@ -2820,144 +3030,144 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="AM14" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="AN14" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>2385</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7">
         <v>7452927490</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>19830222</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>19990105</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>6.74</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>10.06</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>2.04</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="J15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="6">
         <v>10</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="6">
         <v>81.2</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="6">
         <v>11</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="6">
         <v>89.32</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="6">
         <v>12</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="6">
         <v>97.44</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="6">
         <v>13</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="6">
         <v>105.6</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="6">
         <v>14</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="6">
         <v>113.7</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="6">
         <v>15</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="6">
         <v>121.8</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z15" s="6">
         <v>17.55</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AA15" s="6">
         <v>7.9</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AB15" s="6">
         <v>22.24</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AC15" s="6">
         <v>8.7799999999999994</v>
       </c>
-      <c r="AD15" s="8">
+      <c r="AD15" s="6">
         <v>7.09</v>
       </c>
-      <c r="AE15" s="8">
+      <c r="AE15" s="6">
         <v>1.32</v>
       </c>
-      <c r="AF15" s="8">
+      <c r="AF15" s="6">
         <v>89.98</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AG15" s="6">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AH15" s="8">
+      <c r="AH15" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AI15" s="8">
+      <c r="AI15" s="6">
         <v>38</v>
       </c>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2417</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="10">
+        <v>136</v>
+      </c>
+      <c r="D16" s="7">
         <v>1543138640</v>
       </c>
       <c r="E16">
@@ -2976,16 +3186,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N16">
         <v>13</v>
@@ -3054,144 +3264,154 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="AM16" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="AN16" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>2458</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7">
         <v>3038803920</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>19940505</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>20010917</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>5.36</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>9.6199999999999992</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>5.03</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="J17" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" t="s">
+        <v>264</v>
+      </c>
+      <c r="M17" t="s">
+        <v>265</v>
+      </c>
+      <c r="N17" s="6">
         <v>12</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="6">
         <v>205.2</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="6">
         <v>14.2</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="6">
         <v>242.8</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="6">
         <v>16.399999999999999</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="6">
         <v>280.39999999999998</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="6">
         <v>18.600000000000001</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="6">
         <v>318.10000000000002</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="6">
         <v>20.8</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="6">
         <v>355.7</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="6">
         <v>23</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y17" s="6">
         <v>393.3</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="6">
         <v>49.84</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AA17" s="6">
         <v>31.99</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AB17" s="6">
         <v>52.13</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AC17" s="6">
         <v>32.97</v>
       </c>
-      <c r="AD17" s="8">
+      <c r="AD17" s="6">
         <v>26.28</v>
       </c>
-      <c r="AE17" s="8">
+      <c r="AE17" s="6">
         <v>1.23</v>
       </c>
-      <c r="AF17" s="8">
+      <c r="AF17" s="6">
         <v>97.03</v>
       </c>
-      <c r="AG17" s="8">
+      <c r="AG17" s="6">
         <v>12.18</v>
       </c>
-      <c r="AH17" s="8">
+      <c r="AH17" s="6">
         <v>18.04</v>
       </c>
-      <c r="AI17" s="8">
+      <c r="AI17" s="6">
         <v>74</v>
       </c>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
+      <c r="AJ17" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2505</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="10">
+        <v>144</v>
+      </c>
+      <c r="D18" s="7">
         <v>3800000000</v>
       </c>
       <c r="E18">
@@ -3210,16 +3430,16 @@
         <v>0.97</v>
       </c>
       <c r="J18" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="N18">
         <v>9</v>
@@ -3288,19 +3508,19 @@
         <v>57</v>
       </c>
       <c r="AJ18" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="AK18" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="AL18" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="AM18" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="AN18" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
@@ -3308,12 +3528,12 @@
         <v>2520</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="10">
+        <v>152</v>
+      </c>
+      <c r="D19" s="7">
         <v>5541701000</v>
       </c>
       <c r="E19">
@@ -3332,16 +3552,16 @@
         <v>1.24</v>
       </c>
       <c r="J19" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="M19" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="N19">
         <v>7</v>
@@ -3410,256 +3630,276 @@
         <v>53</v>
       </c>
       <c r="AJ19" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="AK19" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="AL19" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="AM19" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="AN19" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>2546</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="7">
         <v>1060356600</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>19820413</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>20000911</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>7.37</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>6.95</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>1.55</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" s="8">
+      <c r="J20" t="s">
+        <v>266</v>
+      </c>
+      <c r="K20" t="s">
+        <v>267</v>
+      </c>
+      <c r="L20" t="s">
+        <v>268</v>
+      </c>
+      <c r="M20" t="s">
+        <v>269</v>
+      </c>
+      <c r="N20" s="6">
         <v>7</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="6">
         <v>49.21</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="6">
         <v>8</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="6">
         <v>56.24</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="6">
         <v>9</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="6">
         <v>63.27</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="6">
         <v>10</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="6">
         <v>70.3</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="6">
         <v>11</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="6">
         <v>77.33</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="6">
         <v>12</v>
       </c>
-      <c r="Y20" s="8">
+      <c r="Y20" s="6">
         <v>84.36</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="Z20" s="6">
         <v>11.23</v>
       </c>
-      <c r="AA20" s="8">
+      <c r="AA20" s="6">
         <v>8.3800000000000008</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AB20" s="6">
         <v>23.02</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AC20" s="6">
         <v>9.17</v>
       </c>
-      <c r="AD20" s="8">
+      <c r="AD20" s="6">
         <v>7.35</v>
       </c>
-      <c r="AE20" s="8">
+      <c r="AE20" s="6">
         <v>1.07</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AF20" s="6">
         <v>91.38</v>
       </c>
-      <c r="AG20" s="8">
+      <c r="AG20" s="6">
         <v>5.88</v>
       </c>
-      <c r="AH20" s="8">
+      <c r="AH20" s="6">
         <v>5.85</v>
       </c>
-      <c r="AI20" s="8">
+      <c r="AI20" s="6">
         <v>45</v>
       </c>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
+      <c r="AJ20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>2881</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7">
         <v>134049543940</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>20011219</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>20011219</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>4.01</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>6.16</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="J21" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L21" t="s">
+        <v>272</v>
+      </c>
+      <c r="M21" t="s">
+        <v>273</v>
+      </c>
+      <c r="N21" s="6">
         <v>7</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="6">
         <v>92.68</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="6">
         <v>7.8</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="6">
         <v>103.3</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="6">
         <v>8.6</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="6">
         <v>113.9</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="6">
         <v>9.4</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="6">
         <v>124.5</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="6">
         <v>135</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X21" s="6">
         <v>11</v>
       </c>
-      <c r="Y21" s="8">
+      <c r="Y21" s="6">
         <v>145.6</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z21" s="6">
         <v>0</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AA21" s="6">
         <v>0</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AB21" s="6">
         <v>21.39</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AC21" s="6">
         <v>39.32</v>
       </c>
-      <c r="AD21" s="8">
+      <c r="AD21" s="6">
         <v>34.96</v>
       </c>
-      <c r="AE21" s="8">
+      <c r="AE21" s="6">
         <v>0.05</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="6">
         <v>0</v>
       </c>
-      <c r="AG21" s="8">
+      <c r="AG21" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AH21" s="8">
+      <c r="AH21" s="6">
         <v>4.46</v>
       </c>
-      <c r="AI21" s="8">
+      <c r="AI21" s="6">
         <v>56</v>
       </c>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
+      <c r="AJ21" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3005</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="10">
+        <v>40</v>
+      </c>
+      <c r="D22" s="7">
         <v>5954614000</v>
       </c>
       <c r="E22">
@@ -3678,16 +3918,16 @@
         <v>1.86</v>
       </c>
       <c r="J22" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L22" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="M22" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -3755,23 +3995,23 @@
       <c r="AI22">
         <v>57</v>
       </c>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3044</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="10">
+        <v>87</v>
+      </c>
+      <c r="D23" s="7">
         <v>5256058980</v>
       </c>
       <c r="E23">
@@ -3790,16 +4030,16 @@
         <v>1.74</v>
       </c>
       <c r="J23" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="M23" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="N23">
         <v>8</v>
@@ -3868,19 +4108,19 @@
         <v>49</v>
       </c>
       <c r="AJ23" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="AL23" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="AM23" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="AN23" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -3888,12 +4128,12 @@
         <v>3209</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="10">
+        <v>160</v>
+      </c>
+      <c r="D24" s="7">
         <v>2005321840</v>
       </c>
       <c r="E24">
@@ -3912,16 +4152,16 @@
         <v>1.65</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="M24" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="N24">
         <v>9</v>
@@ -3990,19 +4230,19 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AK24" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="AL24" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="AM24" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="AN24" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -4010,12 +4250,12 @@
         <v>3706</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="10">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7">
         <v>12065567890</v>
       </c>
       <c r="E25">
@@ -4034,16 +4274,16 @@
         <v>0.82</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c r="N25">
         <v>8</v>
@@ -4111,135 +4351,155 @@
       <c r="AI25">
         <v>57</v>
       </c>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="12"/>
-      <c r="AN25" s="12"/>
+      <c r="AJ25" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>5515</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="B26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8">
         <v>2574401050</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="6">
         <v>19601121</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>20031006</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>5.82</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <v>7.6</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>0.76</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N26" s="8">
+      <c r="J26" t="s">
+        <v>278</v>
+      </c>
+      <c r="K26" t="s">
+        <v>279</v>
+      </c>
+      <c r="L26" t="s">
+        <v>280</v>
+      </c>
+      <c r="M26" t="s">
+        <v>281</v>
+      </c>
+      <c r="N26" s="6">
         <v>11</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="6">
         <v>19.8</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="6">
         <v>12.4</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="6">
         <v>22.32</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="6">
         <v>13.8</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="6">
         <v>24.84</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="6">
         <v>15.2</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="6">
         <v>27.36</v>
       </c>
-      <c r="V26" s="8">
+      <c r="V26" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W26" s="6">
         <v>29.88</v>
       </c>
-      <c r="X26" s="8">
+      <c r="X26" s="6">
         <v>18</v>
       </c>
-      <c r="Y26" s="8">
+      <c r="Y26" s="6">
         <v>32.4</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="Z26" s="6">
         <v>13.13</v>
       </c>
-      <c r="AA26" s="8">
+      <c r="AA26" s="6">
         <v>7.24</v>
       </c>
-      <c r="AB26" s="8">
+      <c r="AB26" s="6">
         <v>10.87</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AC26" s="6">
         <v>12.76</v>
       </c>
-      <c r="AD26" s="8">
+      <c r="AD26" s="6">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AE26" s="8">
+      <c r="AE26" s="6">
         <v>0.61</v>
       </c>
-      <c r="AF26" s="8">
+      <c r="AF26" s="6">
         <v>56.74</v>
       </c>
-      <c r="AG26" s="8">
+      <c r="AG26" s="6">
         <v>1.3</v>
       </c>
-      <c r="AH26" s="8">
+      <c r="AH26" s="6">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AI26" s="8">
+      <c r="AI26" s="6">
         <v>51</v>
       </c>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
+      <c r="AJ26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6257</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="10">
+        <v>171</v>
+      </c>
+      <c r="D27" s="7">
         <v>4444791420</v>
       </c>
       <c r="E27">
@@ -4258,16 +4518,16 @@
         <v>1.81</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="N27">
         <v>9</v>
@@ -4336,19 +4596,19 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="AK27" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="AL27" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="AM27" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="AN27" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
@@ -4356,12 +4616,12 @@
         <v>8112</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="10">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7">
         <v>4284964730</v>
       </c>
       <c r="E28">
@@ -4380,16 +4640,16 @@
         <v>1.93</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="N28">
         <v>7</v>
@@ -4457,135 +4717,155 @@
       <c r="AI28">
         <v>32</v>
       </c>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="12"/>
+      <c r="AJ28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>8150</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="B29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="8">
         <v>7272401260</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <v>19970728</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>20140411</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>4.63</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <v>7.98</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="6">
         <v>1.51</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" s="8">
+      <c r="J29" t="s">
+        <v>286</v>
+      </c>
+      <c r="K29" t="s">
+        <v>287</v>
+      </c>
+      <c r="L29" t="s">
+        <v>288</v>
+      </c>
+      <c r="M29" t="s">
+        <v>289</v>
+      </c>
+      <c r="N29" s="6">
         <v>9</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="6">
         <v>53.55</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="6">
         <v>10.8</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="6">
         <v>64.260000000000005</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="6">
         <v>12.6</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29" s="6">
         <v>74.97</v>
       </c>
-      <c r="T29" s="8">
+      <c r="T29" s="6">
         <v>14.4</v>
       </c>
-      <c r="U29" s="8">
+      <c r="U29" s="6">
         <v>85.68</v>
       </c>
-      <c r="V29" s="8">
+      <c r="V29" s="6">
         <v>16.2</v>
       </c>
-      <c r="W29" s="8">
+      <c r="W29" s="6">
         <v>96.39</v>
       </c>
-      <c r="X29" s="8">
+      <c r="X29" s="6">
         <v>18</v>
       </c>
-      <c r="Y29" s="8">
+      <c r="Y29" s="6">
         <v>107.1</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="Z29" s="6">
         <v>26.62</v>
       </c>
-      <c r="AA29" s="8">
+      <c r="AA29" s="6">
         <v>20.51</v>
       </c>
-      <c r="AB29" s="8">
+      <c r="AB29" s="6">
         <v>22.24</v>
       </c>
-      <c r="AC29" s="8">
+      <c r="AC29" s="6">
         <v>21.26</v>
       </c>
-      <c r="AD29" s="8">
+      <c r="AD29" s="6">
         <v>17.670000000000002</v>
       </c>
-      <c r="AE29" s="8">
+      <c r="AE29" s="6">
         <v>0.74</v>
       </c>
-      <c r="AF29" s="8">
+      <c r="AF29" s="6">
         <v>96.47</v>
       </c>
-      <c r="AG29" s="8">
+      <c r="AG29" s="6">
         <v>7.35</v>
       </c>
-      <c r="AH29" s="8">
+      <c r="AH29" s="6">
         <v>1.02</v>
       </c>
-      <c r="AI29" s="8">
+      <c r="AI29" s="6">
         <v>66</v>
       </c>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
+      <c r="AJ29" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8213</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="10">
+        <v>77</v>
+      </c>
+      <c r="D30" s="7">
         <v>2712424880</v>
       </c>
       <c r="E30">
@@ -4604,16 +4884,16 @@
         <v>0.99</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s">
-        <v>137</v>
+        <v>293</v>
       </c>
       <c r="N30">
         <v>6</v>
@@ -4681,23 +4961,33 @@
       <c r="AI30">
         <v>47</v>
       </c>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="12"/>
-      <c r="AN30" s="12"/>
+      <c r="AJ30" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9945</v>
       </c>
       <c r="B31" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D31" s="10">
+        <v>181</v>
+      </c>
+      <c r="D31" s="7">
         <v>21068333970</v>
       </c>
       <c r="E31">
@@ -4716,16 +5006,16 @@
         <v>1.24</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="N31">
         <v>4</v>
@@ -4794,19 +5084,19 @@
         <v>60</v>
       </c>
       <c r="AJ31" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="AK31" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="AL31" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="AM31" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="AN31" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4814,6 +5104,11 @@
     <sortCondition ref="A3:A31"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -4825,11 +5120,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="N1:W1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="AG1:AG2"/>

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E9D2B4-CE5A-461D-A837-C231F5BEB56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8399ED88-F4BE-4FA1-85BB-680E3E5874D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -1394,10 +1394,10 @@
   <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1407,9 @@
     <col min="4" max="4" width="16.5" style="7" customWidth="1"/>
     <col min="5" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="9" width="6.625" customWidth="1"/>
-    <col min="10" max="13" width="32.625" customWidth="1"/>
+    <col min="10" max="10" width="30.625" customWidth="1"/>
+    <col min="11" max="11" width="35.625" customWidth="1"/>
+    <col min="12" max="13" width="30.625" customWidth="1"/>
     <col min="14" max="25" width="6.625" customWidth="1"/>
     <col min="26" max="32" width="8.625" customWidth="1"/>
     <col min="33" max="34" width="9.625" customWidth="1"/>
@@ -5104,11 +5106,6 @@
     <sortCondition ref="A3:A31"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -5125,6 +5122,11 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF31">

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8399ED88-F4BE-4FA1-85BB-680E3E5874D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58816398-28B1-4E3C-8BE6-8E9DD5D60A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="303">
   <si>
     <t>公司名稱</t>
   </si>
@@ -124,18 +124,6 @@
     <t>群光電子股份有限公司</t>
   </si>
   <si>
-    <t>81.6 / 81.6 / 81.02 / 80.05</t>
-  </si>
-  <si>
-    <t>2464.0 / 2262.6 / 1676.5 / 1709.87</t>
-  </si>
-  <si>
-    <t>33.4 / 33.4 / 33.39 / 33.48</t>
-  </si>
-  <si>
-    <t>0.03 / 0.05 / 0.21 / 0.83</t>
-  </si>
-  <si>
     <t>運錩</t>
   </si>
   <si>
@@ -158,18 +146,6 @@
   </si>
   <si>
     <t>神基投資控股股份有限公司</t>
-  </si>
-  <si>
-    <t>53.5 / 53.76 / 53.75 / 52.89</t>
-  </si>
-  <si>
-    <t>424.0 / 1428.4 / 1060.2 / 891.1</t>
-  </si>
-  <si>
-    <t>31.0 / 31.0 / 31.16 / 31.34</t>
-  </si>
-  <si>
-    <t>0.69 / 0.69 / 0.69 / 0.69</t>
   </si>
   <si>
     <t>神達</t>
@@ -328,18 +304,6 @@
     <t>聯華食品工業股份有限公司</t>
   </si>
   <si>
-    <t>68.1 / 68.1 / 68.28 / 67.72</t>
-  </si>
-  <si>
-    <t>66.9 / 73.4 / 127.43 / 213.59</t>
-  </si>
-  <si>
-    <t>1.82 / 1.82 / 1.85 / 1.99</t>
-  </si>
-  <si>
-    <t>0.0 / 0.0 / 0.0 / 0.03</t>
-  </si>
-  <si>
     <t>健鼎</t>
   </si>
   <si>
@@ -964,6 +928,69 @@
   </si>
   <si>
     <t xml:space="preserve">    0.17 /     0.18 /     0.19 /     0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    68.1 /    68.12 /    68.26 /    67.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   139.0 /    82.38 /   128.78 /   213.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.82 /     1.82 /     1.85 /     1.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /      0.0 /     0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.6 /    1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.8 /    0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.4 /    0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.75 /   0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.5 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.8 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.45 /   0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.25 /   0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    53.8 /    53.64 /    53.77 /    52.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   241.0 /   1346.6 /   1011.8 /   881.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.0 /     31.0 /    31.14 /    31.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.69 /     0.69 /     0.69 /      0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    81.3 /    81.74 /    81.06 /    80.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2239.0 /   2539.8 /   1715.8 /  1737.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.5 /    33.42 /    33.39 /    33.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.03 /     0.03 /     0.13 /     0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.59 /    0.0</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,12 +1088,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1394,10 +1415,10 @@
   <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="J29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1418,165 +1439,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>47</v>
+      <c r="I1" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AA1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
+      <c r="AC1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="S2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
       <c r="AJ2" s="5">
         <v>2021</v>
       </c>
@@ -1598,10 +1619,10 @@
         <v>1229</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D3" s="7">
         <v>14096480360</v>
@@ -1622,16 +1643,16 @@
         <v>2.09</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -1700,19 +1721,19 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AK3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="AL3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AM3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AN3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1720,10 +1741,10 @@
         <v>1231</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
         <v>2017623940</v>
@@ -1744,16 +1765,16 @@
         <v>3.2</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="N4">
         <v>11</v>
@@ -1821,21 +1842,31 @@
       <c r="AI4">
         <v>43</v>
       </c>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
+      <c r="AJ4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1409</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D5" s="7">
         <v>16184092910</v>
@@ -1856,16 +1887,16 @@
         <v>0.95</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="N5">
         <v>9</v>
@@ -1934,19 +1965,19 @@
         <v>47</v>
       </c>
       <c r="AJ5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AL5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AM5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AN5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1978,16 +2009,16 @@
         <v>0.98</v>
       </c>
       <c r="J6" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L6" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="M6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="N6">
         <v>13</v>
@@ -2056,19 +2087,19 @@
         <v>43</v>
       </c>
       <c r="AJ6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="AK6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="AL6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="AM6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="AN6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2100,16 +2131,16 @@
         <v>1.73</v>
       </c>
       <c r="J7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="K7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="L7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="M7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N7">
         <v>13</v>
@@ -2178,19 +2209,19 @@
         <v>34</v>
       </c>
       <c r="AJ7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="AK7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="AL7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="AM7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AN7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2222,16 +2253,16 @@
         <v>2.68</v>
       </c>
       <c r="J8" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K8" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M8" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="N8" s="6">
         <v>12</v>
@@ -2300,19 +2331,19 @@
         <v>51</v>
       </c>
       <c r="AJ8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AK8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AL8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AN8" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2344,16 +2375,16 @@
         <v>1.4</v>
       </c>
       <c r="J9" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="K9" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="L9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="M9" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="N9">
         <v>14</v>
@@ -2422,19 +2453,19 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="AK9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AL9" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="AM9" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="AN9" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2466,16 +2497,16 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="K10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="L10" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="M10" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="N10" s="6">
         <v>12</v>
@@ -2544,19 +2575,19 @@
         <v>47</v>
       </c>
       <c r="AJ10" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AK10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AL10" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AM10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AN10" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2564,10 +2595,10 @@
         <v>2069</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
         <v>1663868360</v>
@@ -2588,16 +2619,16 @@
         <v>1.51</v>
       </c>
       <c r="J11" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K11" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L11" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="M11" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="N11" s="6">
         <v>10</v>
@@ -2666,19 +2697,19 @@
         <v>34</v>
       </c>
       <c r="AJ11" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AL11" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="AM11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="AN11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2686,10 +2717,10 @@
         <v>2324</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D12" s="7">
         <v>44071466250</v>
@@ -2710,16 +2741,16 @@
         <v>0.96</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N12">
         <v>9</v>
@@ -2788,19 +2819,19 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AK12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AL12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AM12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AN12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2808,10 +2839,10 @@
         <v>2347</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
         <v>16679469680</v>
@@ -2832,16 +2863,16 @@
         <v>1.84</v>
       </c>
       <c r="J13" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="K13" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="L13" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="M13" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="N13">
         <v>9</v>
@@ -2910,19 +2941,19 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AK13" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="AL13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2930,10 +2961,10 @@
         <v>2352</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D14" s="7">
         <v>19667819580</v>
@@ -2954,16 +2985,16 @@
         <v>1.63</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="N14">
         <v>8</v>
@@ -3032,19 +3063,19 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AK14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AL14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AM14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AN14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3075,52 +3106,52 @@
       <c r="I15" s="6">
         <v>2.04</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="J15" t="s">
+        <v>298</v>
+      </c>
+      <c r="K15" t="s">
+        <v>299</v>
+      </c>
+      <c r="L15" t="s">
+        <v>300</v>
+      </c>
+      <c r="M15" t="s">
+        <v>301</v>
+      </c>
+      <c r="N15">
         <v>10</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15">
         <v>81.2</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15">
         <v>11</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15">
         <v>89.32</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15">
         <v>12</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15">
         <v>97.44</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15">
         <v>13</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15">
         <v>105.6</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15">
         <v>14</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15">
         <v>113.7</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15">
         <v>15</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15">
         <v>121.8</v>
       </c>
       <c r="Z15" s="6">
@@ -3153,21 +3184,31 @@
       <c r="AI15" s="6">
         <v>38</v>
       </c>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
+      <c r="AJ15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2417</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D16" s="7">
         <v>1543138640</v>
@@ -3188,16 +3229,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="N16">
         <v>13</v>
@@ -3266,19 +3307,19 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AK16" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AL16" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
@@ -3286,10 +3327,10 @@
         <v>2458</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7">
         <v>3038803920</v>
@@ -3310,16 +3351,16 @@
         <v>5.03</v>
       </c>
       <c r="J17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="L17" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M17" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="N17" s="6">
         <v>12</v>
@@ -3388,19 +3429,19 @@
         <v>74</v>
       </c>
       <c r="AJ17" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AK17" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
@@ -3408,10 +3449,10 @@
         <v>2505</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D18" s="7">
         <v>3800000000</v>
@@ -3432,16 +3473,16 @@
         <v>0.97</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="N18">
         <v>9</v>
@@ -3510,19 +3551,19 @@
         <v>57</v>
       </c>
       <c r="AJ18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AK18" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="AL18" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AM18" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AN18" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
@@ -3530,10 +3571,10 @@
         <v>2520</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7">
         <v>5541701000</v>
@@ -3554,16 +3595,16 @@
         <v>1.24</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="N19">
         <v>7</v>
@@ -3632,19 +3673,19 @@
         <v>53</v>
       </c>
       <c r="AJ19" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AK19" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AL19" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="AM19" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AN19" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
@@ -3676,16 +3717,16 @@
         <v>1.55</v>
       </c>
       <c r="J20" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K20" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="M20" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N20" s="6">
         <v>7</v>
@@ -3754,19 +3795,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AK20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AL20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
@@ -3798,16 +3839,16 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="K21" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="L21" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="M21" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="N21" s="6">
         <v>7</v>
@@ -3876,19 +3917,19 @@
         <v>56</v>
       </c>
       <c r="AJ21" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="AK21" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AL21" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AM21" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="AN21" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
@@ -3896,10 +3937,10 @@
         <v>3005</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7">
         <v>5954614000</v>
@@ -3920,16 +3961,16 @@
         <v>1.86</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -3997,21 +4038,31 @@
       <c r="AI22">
         <v>57</v>
       </c>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
+      <c r="AJ22" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3044</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D23" s="7">
         <v>5256058980</v>
@@ -4032,16 +4083,16 @@
         <v>1.74</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="M23" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="N23">
         <v>8</v>
@@ -4110,19 +4161,19 @@
         <v>49</v>
       </c>
       <c r="AJ23" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="AK23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="AL23" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AM23" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AN23" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -4130,10 +4181,10 @@
         <v>3209</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D24" s="7">
         <v>2005321840</v>
@@ -4154,16 +4205,16 @@
         <v>1.65</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="N24">
         <v>9</v>
@@ -4232,19 +4283,19 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="AK24" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="AL24" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AM24" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="AN24" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -4252,10 +4303,10 @@
         <v>3706</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D25" s="7">
         <v>12065567890</v>
@@ -4276,16 +4327,16 @@
         <v>0.82</v>
       </c>
       <c r="J25" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="N25">
         <v>8</v>
@@ -4354,19 +4405,19 @@
         <v>57</v>
       </c>
       <c r="AJ25" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AL25" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AM25" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AN25" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
@@ -4398,16 +4449,16 @@
         <v>0.76</v>
       </c>
       <c r="J26" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="N26" s="6">
         <v>11</v>
@@ -4476,19 +4527,19 @@
         <v>51</v>
       </c>
       <c r="AJ26" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="AK26" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AL26" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AM26" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AN26" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
@@ -4496,10 +4547,10 @@
         <v>6257</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D27" s="7">
         <v>4444791420</v>
@@ -4520,16 +4571,16 @@
         <v>1.81</v>
       </c>
       <c r="J27" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M27" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="N27">
         <v>9</v>
@@ -4598,19 +4649,19 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AK27" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="AL27" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AM27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AN27" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
@@ -4642,16 +4693,16 @@
         <v>1.93</v>
       </c>
       <c r="J28" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="N28">
         <v>7</v>
@@ -4720,23 +4771,23 @@
         <v>32</v>
       </c>
       <c r="AJ28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AK28" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="AL28" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AM28" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AN28" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29">
         <v>8150</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4764,16 +4815,16 @@
         <v>1.51</v>
       </c>
       <c r="J29" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="N29" s="6">
         <v>9</v>
@@ -4842,19 +4893,19 @@
         <v>66</v>
       </c>
       <c r="AJ29" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AK29" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="AL29" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="AM29" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="AN29" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
@@ -4862,10 +4913,10 @@
         <v>8213</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D30" s="7">
         <v>2712424880</v>
@@ -4886,16 +4937,16 @@
         <v>0.99</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="N30">
         <v>6</v>
@@ -4964,19 +5015,19 @@
         <v>47</v>
       </c>
       <c r="AJ30" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AK30" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="AL30" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AM30" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AN30" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
@@ -4984,10 +5035,10 @@
         <v>9945</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D31" s="7">
         <v>21068333970</v>
@@ -5008,16 +5059,16 @@
         <v>1.24</v>
       </c>
       <c r="J31" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N31">
         <v>4</v>
@@ -5086,19 +5137,19 @@
         <v>60</v>
       </c>
       <c r="AJ31" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="AK31" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AL31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AM31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AN31" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5106,6 +5157,11 @@
     <sortCondition ref="A3:A31"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -5122,11 +5178,6 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF31">

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58816398-28B1-4E3C-8BE6-8E9DD5D60A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E384BDD-AA81-487B-AA6F-E9A45605B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="32370" yWindow="2970" windowWidth="23505" windowHeight="11235" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="297">
   <si>
     <t>公司名稱</t>
   </si>
@@ -314,27 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   121.5 /    122.4 /    122.3 /   117.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1068.0 /   1229.6 /  1057.65 /   1024.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.2 /    42.02 /    41.72 /    41.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.08 /     0.96 /     0.99 /     1.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1580.0 /   1137.0 /   996.95 /   1509.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.9 /    11.88 /     11.9 /     12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.05 /     1.08 /     1.21 /      2.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.7 /    1.0</t>
   </si>
   <si>
@@ -347,10 +326,6 @@
     <t xml:space="preserve">   1.8 /    1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    58.7 /    57.98 /     57.4 /    56.64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  7.35 /    0.0</t>
   </si>
   <si>
@@ -372,18 +347,6 @@
     <t>新光合成纖維股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">   20.05 /    19.88 /    19.75 /    19.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4341.0 /   4103.4 /  3162.05 /   5261.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.8 /     13.7 /    13.62 /    13.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.79 /     0.62 /     0.42 /     0.49</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.1 /    0.0</t>
   </si>
   <si>
@@ -405,18 +368,6 @@
     <t>仁寶電腦工業股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    24.0 /    23.95 /    23.72 /    23.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15332.0 /  16975.0 / 16035.35 / 14478.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.6 /    45.58 /    45.97 /    47.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.28 /      1.3 /     1.53 /     3.17</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.6 /    0.0</t>
   </si>
   <si>
@@ -429,18 +380,6 @@
     <t>佳世達科技股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">   29.95 /     29.8 /    29.86 /    30.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2386.0 /   4007.6 /   6307.9 /  7796.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.9 /     19.9 /    20.36 /    21.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.25 /     1.31 /     1.21 /     1.67</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.5 /    0.0</t>
   </si>
   <si>
@@ -459,42 +398,12 @@
     <t>圓剛科技股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">   24.85 /    24.63 /    24.96 /     26.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   701.0 /    497.6 /    871.0 /  1426.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.07 /     2.01 /     2.24 /     2.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.17 /     7.19 /     8.88 /     9.78</t>
-  </si>
-  <si>
     <t xml:space="preserve">   2.0 /    0.0</t>
   </si>
   <si>
     <t xml:space="preserve">   0.1 /    0.0</t>
   </si>
   <si>
-    <t>國揚</t>
-  </si>
-  <si>
-    <t>國揚實業股份有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.7 /     23.4 /    23.52 /    24.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   467.0 /    290.2 /   593.55 /   720.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.88 /     4.88 /      5.1 /      5.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.26 /     0.28 /      0.2 /     0.46</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.65 /    0.0</t>
   </si>
   <si>
@@ -507,18 +416,6 @@
     <t>冠德建設股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">   37.65 /     37.7 /    38.29 /    38.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1111.0 /   1623.4 /  1644.95 /   1713.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.2 /    21.28 /    21.33 /    21.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.65 /     0.64 /     0.58 /     0.67</t>
-  </si>
-  <si>
     <t xml:space="preserve">   2.4 /    1.0</t>
   </si>
   <si>
@@ -531,18 +428,6 @@
     <t>全科科技股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    29.0 /    28.86 /    28.94 /    29.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   206.0 /    334.4 /    428.7 /    643.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.23 /     4.28 /     4.71 /     5.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.46 /     0.43 /     0.46 /     0.45</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.4 /    0.6</t>
   </si>
   <si>
@@ -594,18 +479,6 @@
     <t>潤泰創新國際股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    62.0 /    61.78 /    63.18 /    63.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3008.0 /   4005.2 /   5979.5 /  8590.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.4 /    14.44 /    14.62 /    14.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.01 /     5.08 /     4.88 /    28.63</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.0 /    4.0</t>
   </si>
   <si>
@@ -750,195 +623,9 @@
     <t xml:space="preserve">  1.51 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">   15.15 /    15.15 /    15.04 /    15.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   523.0 /    493.6 /   443.45 /  1292.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.72 /     1.64 /     1.49 /     2.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.08 /     0.07 /     0.06 /     0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   25.55 /    25.24 /    24.32 /     23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   888.0 /   1065.0 /    657.6 /   497.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.61 /     9.26 /     8.84 /     8.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.09 /     0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    57.5 /    56.76 /     59.8 /    63.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   638.0 /   1179.6 /  1252.05 /   770.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.85 /     7.79 /     7.76 /     8.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.03 /     4.17 /     2.32 /     1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   25.75 /    25.47 /     25.4 /    26.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    70.8 /     92.2 /   115.28 /   240.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.5 /    21.48 /     21.5 /    21.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.29 /     0.32 /     0.55 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.95 /    31.98 /    31.85 /    30.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   260.0 /    494.8 /    619.4 /   870.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.4 /      3.3 /      3.2 /     2.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.34 /     0.34 /      0.5 /     0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   35.65 /    35.83 /    35.84 /    33.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1484.0 /   2789.6 /  3444.45 /  4384.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.03 /     1.81 /     1.64 /     1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.54 /     5.35 /     6.79 /     5.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    65.8 /    65.28 /    62.11 /    56.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19571.0 /  26158.6 / 12908.95 /  6878.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.8 /    34.68 /     34.9 /    35.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     7.0 /     4.58 /      3.8 /     4.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   167.5 /    166.9 /   162.68 /   160.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2131.0 /   3820.6 /   2278.2 /   3088.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /    21.82 /    21.55 /     22.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.9 /    20.08 /    21.47 /    24.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.25 /    48.98 /    49.39 /    48.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    69.2 /     43.8 /    73.91 /   103.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.74 /     3.74 /     3.76 /     3.62</t>
-  </si>
-  <si>
     <t xml:space="preserve">     0.0 /      0.0 /      0.0 /      0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    74.4 /     74.5 /    74.59 /    74.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11957.0 /  29732.8 /  22993.0 / 20957.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.8 /    21.84 /    21.99 /    23.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.9 /    10.86 /    10.12 /    19.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.7 /    33.96 /     33.0 /    30.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4663.0 /  14264.4 / 12787.15 / 10430.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.4 /    11.24 /    11.05 /     10.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.88 /     0.71 /     0.64 /      0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   13.85 /    13.76 /    13.91 /    13.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   177.0 /    306.4 /   339.35 /   268.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.19 /     6.16 /     6.25 /     6.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /     0.13 /     0.29 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.9 /    47.57 /    46.23 /     44.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2525.0 /   2412.0 /   4676.3 /   3558.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.3 /    23.16 /    22.39 /    22.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.6 /     0.58 /     0.41 /      0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.1 /    46.99 /     46.3 /    46.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10957.0 /   7501.4 /  5946.15 /  6808.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.7 /    46.46 /    46.73 /    49.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.22 /     6.84 /     6.93 /     7.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   47.85 /    47.72 /    47.18 /    46.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   504.0 /    732.8 /    648.6 /   901.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.6 /    20.54 /    20.76 /    20.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.17 /     0.18 /     0.19 /     0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    68.1 /    68.12 /    68.26 /    67.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   139.0 /    82.38 /   128.78 /   213.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.82 /     1.82 /     1.85 /     1.98</t>
-  </si>
-  <si>
     <t xml:space="preserve">     0.0 /      0.0 /      0.0 /     0.03</t>
   </si>
   <si>
@@ -966,31 +653,325 @@
     <t xml:space="preserve">  4.25 /   0.05</t>
   </si>
   <si>
-    <t xml:space="preserve">    53.8 /    53.64 /    53.77 /    52.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   241.0 /   1346.6 /   1011.8 /   881.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.0 /     31.0 /    31.14 /    31.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.69 /     0.69 /     0.69 /      0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    81.3 /    81.74 /    81.06 /    80.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2239.0 /   2539.8 /   1715.8 /  1737.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.5 /    33.42 /    33.39 /    33.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.03 /     0.03 /     0.13 /     0.81</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3.59 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    59.8 /    58.34 /    57.54 /    56.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2553.0 /   1486.0 /  1091.95 /  1514.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.0 /     11.9 /     11.9 /    12.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.02 /     1.04 /     1.21 /     2.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    68.8 /    68.22 /    68.28 /    67.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   170.0 /    99.82 /    132.3 /   213.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.84 /     1.83 /     1.85 /     1.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.1 /    19.99 /    19.75 /    19.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2068.0 /   3904.4 /   3187.6 /  5112.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.9 /     13.8 /    13.66 /    13.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.79 /      0.8 /     0.47 /     0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.5 /    15.26 /    15.07 /    15.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1478.0 /    688.8 /    500.6 /  1288.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.29 /     1.84 /     1.55 /     2.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.08 /     0.08 /     0.07 /     0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25.35 /     25.3 /    24.38 /    23.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   754.0 /   1090.4 /    684.1 /   500.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.55 /     9.45 /     8.91 /     8.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.08 /     0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    57.1 /    57.02 /    59.38 /    63.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   747.0 /   1101.6 /   1262.4 /   775.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.6 /     7.76 /     7.73 /     8.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.64 /     4.94 /     2.81 /     1.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25.85 /    25.58 /     25.4 /    26.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    78.6 /    90.06 /   116.56 /   238.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.6 /    21.52 /    21.49 /    21.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.29 /     0.29 /     0.47 /     0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.85 /    32.03 /    31.84 /    30.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   313.0 /    494.6 /   587.35 /   861.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.37 /     3.38 /     3.24 /      2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.35 /     0.34 /     0.46 /     0.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.5 /    35.88 /    35.67 /    34.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1106.0 /   2433.4 /   2914.8 /  4366.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.96 /     1.98 /     1.62 /     1.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.64 /     5.59 /     6.08 /      5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.8 /    23.91 /    23.74 /    23.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17629.0 /  17711.4 / 16511.05 / 14492.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.6 /     45.6 /    45.88 /    47.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.28 /     1.29 /     1.48 /     3.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    67.7 /    65.68 /    62.49 /    57.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16550.0 /  26354.6 /  13288.4 /  7095.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.9 /     33.8 /    34.72 /    34.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.0 /     6.85 /     4.29 /     4.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.05 /    29.83 /    29.86 /    30.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2857.0 /   3734.2 /  6163.75 /  7761.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.9 /    19.86 /    20.23 /    21.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.07 /     1.24 /     1.23 /     1.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    82.2 /    81.84 /    81.16 /     80.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2768.0 /   2709.4 /  1775.95 /  1757.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.8 /     33.5 /    33.41 /    33.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.03 /     0.03 /     0.06 /     0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    27.3 /    25.14 /    25.06 /    26.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7972.0 /   1988.4 /   1245.8 /  1556.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.17 /     2.08 /     2.15 /     2.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.93 /      7.6 /     8.36 /      9.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   169.0 /    167.2 /    162.7 /   161.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3306.0 /   3412.4 /   2289.2 /   3090.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /     22.1 /     21.6 /    22.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /    19.94 /    21.75 /     24.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37.45 /    37.62 /    38.26 /    38.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2260.0 /   1520.0 /  1663.75 /  1727.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.9 /    21.14 /    21.35 /    21.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.71 /     0.69 /     0.61 /     0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.05 /    49.01 /    49.35 /    48.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   111.0 /    57.42 /    77.38 /   104.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.71 /     3.73 /     3.76 /     3.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    74.8 /    74.48 /    74.61 /    74.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9255.0 /  29253.6 /  22812.6 / 20796.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.8 /    21.82 /    21.94 /    23.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.0 /     10.9 /    10.25 /    19.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.0 /    53.62 /     53.8 /    52.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   472.0 /   1140.4 /   983.75 /    862.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.0 /     31.0 /    31.12 /    31.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.7 /     0.69 /     0.69 /      0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   123.0 /    122.0 /    122.5 /   118.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1265.0 /   1304.8 /   1088.3 /   1016.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.4 /    42.18 /    41.82 /    41.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.23 /     1.09 /     1.01 /     1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.0 /    28.92 /    28.92 /    29.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   308.0 /    318.8 /    423.5 /   634.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.21 /     4.23 /     4.61 /      5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.44 /     0.44 /     0.46 /     0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.0 /    33.88 /    33.06 /    30.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6991.0 /  12238.0 / 11673.55 / 10489.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.6 /    11.32 /     11.1 /    10.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.01 /     0.83 /     0.67 /     0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.9 /    13.78 /     13.9 /    13.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   255.0 /    307.8 /    332.9 /   267.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.18 /     6.17 /     6.23 /     6.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /     0.03 /     0.29 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   47.15 /    47.57 /    46.36 /    44.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6538.0 /   3339.4 /   4933.5 /  3610.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.1 /     23.2 /    22.49 /    22.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.71 /     0.61 /     0.45 /      0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.1 /    47.28 /    46.39 /    46.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7016.0 /   7454.6 /  6076.45 /  6674.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.8 /    46.52 /    46.72 /    49.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.49 /     5.03 /     6.64 /     6.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.05 /    47.84 /    47.19 /    46.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   907.0 /    823.6 /    667.2 /   891.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.7 /    20.58 /    20.74 /    20.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.17 /     0.16 /      0.2 /     0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    62.5 /    61.92 /    62.97 /     63.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2476.0 /   3903.2 /  5934.15 /   8479.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.4 /     14.4 /    14.58 /    14.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.9 /     5.03 /     4.91 /    27.17</t>
   </si>
 </sst>
 </file>
@@ -1412,13 +1393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="J29:M29"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1643,16 +1624,16 @@
         <v>2.09</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -1721,19 +1702,19 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1765,16 +1746,16 @@
         <v>3.2</v>
       </c>
       <c r="J4" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="K4" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="L4" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="M4" t="s">
-        <v>285</v>
+        <v>181</v>
       </c>
       <c r="N4">
         <v>11</v>
@@ -1843,19 +1824,19 @@
         <v>43</v>
       </c>
       <c r="AJ4" t="s">
-        <v>286</v>
+        <v>182</v>
       </c>
       <c r="AK4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="AM4" t="s">
-        <v>288</v>
+        <v>184</v>
       </c>
       <c r="AN4" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -1863,10 +1844,10 @@
         <v>1409</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
         <v>16184092910</v>
@@ -1887,16 +1868,16 @@
         <v>0.95</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="N5">
         <v>9</v>
@@ -1965,19 +1946,19 @@
         <v>47</v>
       </c>
       <c r="AJ5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AK5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="AL5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AN5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -2009,16 +1990,16 @@
         <v>0.98</v>
       </c>
       <c r="J6" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="L6" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="M6" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="N6">
         <v>13</v>
@@ -2087,19 +2068,19 @@
         <v>43</v>
       </c>
       <c r="AJ6" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="AK6" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="AL6" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="AM6" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="AN6" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2131,16 +2112,16 @@
         <v>1.73</v>
       </c>
       <c r="J7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="K7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="L7" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="M7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="N7">
         <v>13</v>
@@ -2209,19 +2190,19 @@
         <v>34</v>
       </c>
       <c r="AJ7" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="AK7" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="AL7" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="AM7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AN7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2253,16 +2234,16 @@
         <v>2.68</v>
       </c>
       <c r="J8" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K8" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="L8" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="N8" s="6">
         <v>12</v>
@@ -2331,19 +2312,19 @@
         <v>51</v>
       </c>
       <c r="AJ8" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="AK8" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="AL8" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="AM8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AN8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2375,16 +2356,16 @@
         <v>1.4</v>
       </c>
       <c r="J9" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="K9" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="L9" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="M9" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="N9">
         <v>14</v>
@@ -2453,19 +2434,19 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AL9" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="AM9" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="AN9" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2497,16 +2478,16 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="K10" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="L10" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="M10" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="N10" s="6">
         <v>12</v>
@@ -2575,19 +2556,19 @@
         <v>47</v>
       </c>
       <c r="AJ10" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="AL10" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="AM10" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="AN10" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2619,16 +2600,16 @@
         <v>1.51</v>
       </c>
       <c r="J11" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="L11" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="M11" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="N11" s="6">
         <v>10</v>
@@ -2697,19 +2678,19 @@
         <v>34</v>
       </c>
       <c r="AJ11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="AK11" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AL11" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2717,10 +2698,10 @@
         <v>2324</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D12" s="7">
         <v>44071466250</v>
@@ -2741,16 +2722,16 @@
         <v>0.96</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="N12">
         <v>9</v>
@@ -2819,19 +2800,19 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AL12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AM12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AN12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2863,16 +2844,16 @@
         <v>1.84</v>
       </c>
       <c r="J13" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K13" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="L13" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="M13" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="N13">
         <v>9</v>
@@ -2941,19 +2922,19 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="AK13" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="AM13" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="AN13" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2961,10 +2942,10 @@
         <v>2352</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D14" s="7">
         <v>19667819580</v>
@@ -2985,16 +2966,16 @@
         <v>1.63</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="M14" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="N14">
         <v>8</v>
@@ -3063,19 +3044,19 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AL14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN14" t="s">
         <v>102</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3107,16 +3088,16 @@
         <v>2.04</v>
       </c>
       <c r="J15" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="K15" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="L15" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="M15" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -3185,19 +3166,19 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="AK15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AL15" t="s">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="AM15" t="s">
-        <v>292</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s">
-        <v>293</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -3205,10 +3186,10 @@
         <v>2417</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7">
         <v>1543138640</v>
@@ -3229,16 +3210,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="L16" t="s">
-        <v>127</v>
+        <v>244</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="N16">
         <v>13</v>
@@ -3307,19 +3288,19 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="AK16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="AL16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="AM16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="AN16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
@@ -3351,16 +3332,16 @@
         <v>5.03</v>
       </c>
       <c r="J17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N17" s="6">
         <v>12</v>
@@ -3429,1739 +3410,1612 @@
         <v>74</v>
       </c>
       <c r="AJ17" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="AK17" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="AL17" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="AM17" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="AN17" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2505</v>
+        <v>2520</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D18" s="7">
-        <v>3800000000</v>
+        <v>5541701000</v>
       </c>
       <c r="E18">
-        <v>19720602</v>
+        <v>19791123</v>
       </c>
       <c r="F18">
-        <v>19791114</v>
+        <v>19931027</v>
       </c>
       <c r="G18">
-        <v>10.66</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="H18">
-        <v>8.69</v>
+        <v>4.43</v>
       </c>
       <c r="I18">
-        <v>0.97</v>
+        <v>1.24</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="L18" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="M18" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="N18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>24.21</v>
+        <v>59.57</v>
       </c>
       <c r="P18">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="Q18">
-        <v>29.59</v>
+        <v>71.48</v>
       </c>
       <c r="R18">
-        <v>13</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="S18">
-        <v>34.97</v>
+        <v>83.4</v>
       </c>
       <c r="T18">
-        <v>15</v>
+        <v>11.2</v>
       </c>
       <c r="U18">
-        <v>40.35</v>
+        <v>95.31</v>
       </c>
       <c r="V18">
-        <v>17</v>
+        <v>12.6</v>
       </c>
       <c r="W18">
-        <v>45.73</v>
+        <v>107.2</v>
       </c>
       <c r="X18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Y18">
-        <v>51.11</v>
+        <v>119.1</v>
       </c>
       <c r="Z18">
-        <v>28.13</v>
+        <v>26.73</v>
       </c>
       <c r="AA18">
-        <v>21.16</v>
+        <v>19.5</v>
       </c>
       <c r="AB18">
-        <v>12.18</v>
+        <v>21.09</v>
       </c>
       <c r="AC18">
-        <v>23.29</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AD18">
-        <v>18.260000000000002</v>
+        <v>15.12</v>
       </c>
       <c r="AE18">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="AF18">
-        <v>90.85</v>
+        <v>103.17</v>
       </c>
       <c r="AG18">
-        <v>1.63</v>
+        <v>10.72</v>
       </c>
       <c r="AH18">
-        <v>1.39</v>
+        <v>10.69</v>
       </c>
       <c r="AI18">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AJ18" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="AK18" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="AL18" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AM18" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="AN18" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2520</v>
-      </c>
-      <c r="B19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="A19" s="6">
+        <v>2546</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1060356600</v>
+      </c>
+      <c r="E19" s="6">
+        <v>19820413</v>
+      </c>
+      <c r="F19" s="6">
+        <v>20000911</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7.37</v>
+      </c>
+      <c r="H19" s="6">
+        <v>6.95</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" t="s">
+        <v>256</v>
+      </c>
+      <c r="M19" t="s">
+        <v>180</v>
+      </c>
+      <c r="N19" s="6">
+        <v>7</v>
+      </c>
+      <c r="O19" s="6">
+        <v>49.21</v>
+      </c>
+      <c r="P19" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>56.24</v>
+      </c>
+      <c r="R19" s="6">
+        <v>9</v>
+      </c>
+      <c r="S19" s="6">
+        <v>63.27</v>
+      </c>
+      <c r="T19" s="6">
+        <v>10</v>
+      </c>
+      <c r="U19" s="6">
+        <v>70.3</v>
+      </c>
+      <c r="V19" s="6">
+        <v>11</v>
+      </c>
+      <c r="W19" s="6">
+        <v>77.33</v>
+      </c>
+      <c r="X19" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>84.36</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>11.23</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>23.02</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>9.17</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>7.35</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>1.07</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>91.38</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>5.88</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>5.85</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>45</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="7">
-        <v>5541701000</v>
-      </c>
-      <c r="E19">
-        <v>19791123</v>
-      </c>
-      <c r="F19">
-        <v>19931027</v>
-      </c>
-      <c r="G19">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="H19">
-        <v>4.43</v>
-      </c>
-      <c r="I19">
-        <v>1.24</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="AK19" t="s">
         <v>141</v>
       </c>
-      <c r="K19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M19" t="s">
-        <v>144</v>
-      </c>
-      <c r="N19">
-        <v>7</v>
-      </c>
-      <c r="O19">
-        <v>59.57</v>
-      </c>
-      <c r="P19">
-        <v>8.4</v>
-      </c>
-      <c r="Q19">
-        <v>71.48</v>
-      </c>
-      <c r="R19">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="S19">
-        <v>83.4</v>
-      </c>
-      <c r="T19">
-        <v>11.2</v>
-      </c>
-      <c r="U19">
-        <v>95.31</v>
-      </c>
-      <c r="V19">
-        <v>12.6</v>
-      </c>
-      <c r="W19">
-        <v>107.2</v>
-      </c>
-      <c r="X19">
-        <v>14</v>
-      </c>
-      <c r="Y19">
-        <v>119.1</v>
-      </c>
-      <c r="Z19">
-        <v>26.73</v>
-      </c>
-      <c r="AA19">
-        <v>19.5</v>
-      </c>
-      <c r="AB19">
-        <v>21.09</v>
-      </c>
-      <c r="AC19">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AD19">
-        <v>15.12</v>
-      </c>
-      <c r="AE19">
-        <v>0.46</v>
-      </c>
-      <c r="AF19">
-        <v>103.17</v>
-      </c>
-      <c r="AG19">
-        <v>10.72</v>
-      </c>
-      <c r="AH19">
-        <v>10.69</v>
-      </c>
-      <c r="AI19">
-        <v>53</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>119</v>
-      </c>
       <c r="AL19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AM19" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="AN19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>2546</v>
+        <v>2881</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>1060356600</v>
+        <v>134049543940</v>
       </c>
       <c r="E20" s="6">
-        <v>19820413</v>
+        <v>20011219</v>
       </c>
       <c r="F20" s="6">
-        <v>20000911</v>
+        <v>20011219</v>
       </c>
       <c r="G20" s="6">
-        <v>7.37</v>
+        <v>4.01</v>
       </c>
       <c r="H20" s="6">
-        <v>6.95</v>
+        <v>6.16</v>
       </c>
       <c r="I20" s="6">
-        <v>1.55</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N20" s="6">
         <v>7</v>
       </c>
       <c r="O20" s="6">
-        <v>49.21</v>
+        <v>92.68</v>
       </c>
       <c r="P20" s="6">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Q20" s="6">
-        <v>56.24</v>
+        <v>103.3</v>
       </c>
       <c r="R20" s="6">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="S20" s="6">
-        <v>63.27</v>
+        <v>113.9</v>
       </c>
       <c r="T20" s="6">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="U20" s="6">
-        <v>70.3</v>
+        <v>124.5</v>
       </c>
       <c r="V20" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W20" s="6">
+        <v>135</v>
+      </c>
+      <c r="X20" s="6">
         <v>11</v>
       </c>
-      <c r="W20" s="6">
-        <v>77.33</v>
-      </c>
-      <c r="X20" s="6">
-        <v>12</v>
-      </c>
       <c r="Y20" s="6">
-        <v>84.36</v>
+        <v>145.6</v>
       </c>
       <c r="Z20" s="6">
-        <v>11.23</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="6">
-        <v>8.3800000000000008</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="6">
-        <v>23.02</v>
+        <v>21.39</v>
       </c>
       <c r="AC20" s="6">
-        <v>9.17</v>
+        <v>39.32</v>
       </c>
       <c r="AD20" s="6">
-        <v>7.35</v>
+        <v>34.96</v>
       </c>
       <c r="AE20" s="6">
-        <v>1.07</v>
+        <v>0.05</v>
       </c>
       <c r="AF20" s="6">
-        <v>91.38</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="6">
-        <v>5.88</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH20" s="6">
-        <v>5.85</v>
+        <v>4.46</v>
       </c>
       <c r="AI20" s="6">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AJ20" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="AK20" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AL20" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AM20" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="AN20" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>2881</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
+      <c r="A21">
+        <v>3005</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
       </c>
       <c r="D21" s="7">
-        <v>134049543940</v>
-      </c>
-      <c r="E21" s="6">
-        <v>20011219</v>
-      </c>
-      <c r="F21" s="6">
-        <v>20011219</v>
-      </c>
-      <c r="G21" s="6">
-        <v>4.01</v>
-      </c>
-      <c r="H21" s="6">
-        <v>6.16</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1.1100000000000001</v>
+        <v>5954614000</v>
+      </c>
+      <c r="E21">
+        <v>19891005</v>
+      </c>
+      <c r="F21">
+        <v>20020225</v>
+      </c>
+      <c r="G21">
+        <v>6.71</v>
+      </c>
+      <c r="H21">
+        <v>7.37</v>
+      </c>
+      <c r="I21">
+        <v>1.86</v>
       </c>
       <c r="J21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L21" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M21" t="s">
-        <v>261</v>
-      </c>
-      <c r="N21" s="6">
-        <v>7</v>
-      </c>
-      <c r="O21" s="6">
-        <v>92.68</v>
-      </c>
-      <c r="P21" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>103.3</v>
-      </c>
-      <c r="R21" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="S21" s="6">
+        <v>264</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>73</v>
+      </c>
+      <c r="P21">
+        <v>11.4</v>
+      </c>
+      <c r="Q21">
+        <v>83.22</v>
+      </c>
+      <c r="R21">
+        <v>12.8</v>
+      </c>
+      <c r="S21">
+        <v>93.44</v>
+      </c>
+      <c r="T21">
+        <v>14.2</v>
+      </c>
+      <c r="U21">
+        <v>103.7</v>
+      </c>
+      <c r="V21">
+        <v>15.6</v>
+      </c>
+      <c r="W21">
         <v>113.9</v>
       </c>
-      <c r="T21" s="6">
-        <v>9.4</v>
-      </c>
-      <c r="U21" s="6">
-        <v>124.5</v>
-      </c>
-      <c r="V21" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="W21" s="6">
-        <v>135</v>
-      </c>
-      <c r="X21" s="6">
-        <v>11</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>145.6</v>
-      </c>
-      <c r="Z21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="6">
-        <v>21.39</v>
-      </c>
-      <c r="AC21" s="6">
-        <v>39.32</v>
-      </c>
-      <c r="AD21" s="6">
-        <v>34.96</v>
-      </c>
-      <c r="AE21" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AF21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AH21" s="6">
-        <v>4.46</v>
-      </c>
-      <c r="AI21" s="6">
-        <v>56</v>
+      <c r="X21">
+        <v>17</v>
+      </c>
+      <c r="Y21">
+        <v>124.1</v>
+      </c>
+      <c r="Z21">
+        <v>24.89</v>
+      </c>
+      <c r="AA21">
+        <v>8.01</v>
+      </c>
+      <c r="AB21">
+        <v>25.54</v>
+      </c>
+      <c r="AC21">
+        <v>20.46</v>
+      </c>
+      <c r="AD21">
+        <v>15.77</v>
+      </c>
+      <c r="AE21">
+        <v>0.86</v>
+      </c>
+      <c r="AF21">
+        <v>39.15</v>
+      </c>
+      <c r="AG21">
+        <v>0.9</v>
+      </c>
+      <c r="AH21">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AI21">
+        <v>57</v>
       </c>
       <c r="AJ21" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="AK21" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="AL21" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="AM21" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="AN21" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3005</v>
+        <v>3044</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7">
-        <v>5954614000</v>
+        <v>5256058980</v>
       </c>
       <c r="E22">
-        <v>19891005</v>
+        <v>19911216</v>
       </c>
       <c r="F22">
-        <v>20020225</v>
+        <v>20020826</v>
       </c>
       <c r="G22">
-        <v>6.71</v>
+        <v>6.07</v>
       </c>
       <c r="H22">
-        <v>7.37</v>
+        <v>10.32</v>
       </c>
       <c r="I22">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="J22" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="K22" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="L22" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="M22" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O22">
-        <v>73</v>
+        <v>93.92</v>
       </c>
       <c r="P22">
-        <v>11.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Q22">
-        <v>83.22</v>
+        <v>108</v>
       </c>
       <c r="R22">
+        <v>10.4</v>
+      </c>
+      <c r="S22">
+        <v>122.1</v>
+      </c>
+      <c r="T22">
+        <v>11.6</v>
+      </c>
+      <c r="U22">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="V22">
         <v>12.8</v>
       </c>
-      <c r="S22">
-        <v>93.44</v>
-      </c>
-      <c r="T22">
-        <v>14.2</v>
-      </c>
-      <c r="U22">
-        <v>103.7</v>
-      </c>
-      <c r="V22">
-        <v>15.6</v>
-      </c>
       <c r="W22">
-        <v>113.9</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="X22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y22">
-        <v>124.1</v>
+        <v>164.4</v>
       </c>
       <c r="Z22">
-        <v>24.89</v>
+        <v>18.75</v>
       </c>
       <c r="AA22">
-        <v>8.01</v>
+        <v>10.47</v>
       </c>
       <c r="AB22">
-        <v>25.54</v>
+        <v>15.91</v>
       </c>
       <c r="AC22">
-        <v>20.46</v>
+        <v>11.99</v>
       </c>
       <c r="AD22">
-        <v>15.77</v>
+        <v>9.36</v>
       </c>
       <c r="AE22">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="AF22">
-        <v>39.15</v>
+        <v>87.32</v>
       </c>
       <c r="AG22">
-        <v>0.9</v>
+        <v>7.58</v>
       </c>
       <c r="AH22">
-        <v>4.0599999999999996</v>
+        <v>-10.16</v>
       </c>
       <c r="AI22">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AJ22" t="s">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="AM22" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="AN22" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3044</v>
+        <v>3209</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="D23" s="7">
-        <v>5256058980</v>
+        <v>2005321840</v>
       </c>
       <c r="E23">
-        <v>19911216</v>
+        <v>19910415</v>
       </c>
       <c r="F23">
-        <v>20020826</v>
+        <v>20081126</v>
       </c>
       <c r="G23">
-        <v>6.07</v>
+        <v>6.92</v>
       </c>
       <c r="H23">
-        <v>10.32</v>
+        <v>8.1</v>
       </c>
       <c r="I23">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="L23" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="N23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23">
-        <v>93.92</v>
+        <v>32.04</v>
       </c>
       <c r="P23">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="Q23">
-        <v>108</v>
+        <v>35.6</v>
       </c>
       <c r="R23">
-        <v>10.4</v>
+        <v>11</v>
       </c>
       <c r="S23">
-        <v>122.1</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="T23">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="U23">
-        <v>136.19999999999999</v>
+        <v>42.72</v>
       </c>
       <c r="V23">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="W23">
-        <v>150.30000000000001</v>
+        <v>46.28</v>
       </c>
       <c r="X23">
         <v>14</v>
       </c>
       <c r="Y23">
-        <v>164.4</v>
+        <v>49.84</v>
       </c>
       <c r="Z23">
-        <v>18.75</v>
+        <v>5.31</v>
       </c>
       <c r="AA23">
-        <v>10.47</v>
+        <v>2.25</v>
       </c>
       <c r="AB23">
-        <v>15.91</v>
+        <v>22.5</v>
       </c>
       <c r="AC23">
-        <v>11.99</v>
+        <v>2.11</v>
       </c>
       <c r="AD23">
-        <v>9.36</v>
+        <v>1.63</v>
       </c>
       <c r="AE23">
-        <v>0.78</v>
+        <v>3.25</v>
       </c>
       <c r="AF23">
-        <v>87.32</v>
+        <v>106.64</v>
       </c>
       <c r="AG23">
-        <v>7.58</v>
+        <v>0.7</v>
       </c>
       <c r="AH23">
-        <v>-10.16</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="AI23">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="AK23" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="AL23" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="AM23" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="AN23" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3209</v>
+        <v>3706</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D24" s="7">
-        <v>2005321840</v>
+        <v>12065567890</v>
       </c>
       <c r="E24">
-        <v>19910415</v>
+        <v>20130912</v>
       </c>
       <c r="F24">
-        <v>20081126</v>
+        <v>20130912</v>
       </c>
       <c r="G24">
-        <v>6.92</v>
+        <v>2.95</v>
       </c>
       <c r="H24">
-        <v>8.1</v>
+        <v>3.28</v>
       </c>
       <c r="I24">
-        <v>1.65</v>
+        <v>0.82</v>
       </c>
       <c r="J24" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="K24" t="s">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="L24" t="s">
+        <v>275</v>
+      </c>
+      <c r="M24" t="s">
+        <v>276</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>82.56</v>
+      </c>
+      <c r="P24">
+        <v>9.4</v>
+      </c>
+      <c r="Q24">
+        <v>97.01</v>
+      </c>
+      <c r="R24">
+        <v>10.8</v>
+      </c>
+      <c r="S24">
+        <v>111.5</v>
+      </c>
+      <c r="T24">
+        <v>12.2</v>
+      </c>
+      <c r="U24">
+        <v>125.9</v>
+      </c>
+      <c r="V24">
+        <v>13.6</v>
+      </c>
+      <c r="W24">
+        <v>140.4</v>
+      </c>
+      <c r="X24">
+        <v>15</v>
+      </c>
+      <c r="Y24">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="Z24">
+        <v>9.75</v>
+      </c>
+      <c r="AA24">
+        <v>-0.09</v>
+      </c>
+      <c r="AB24">
+        <v>33</v>
+      </c>
+      <c r="AC24">
+        <v>55.14</v>
+      </c>
+      <c r="AD24">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="AE24">
+        <v>0.68</v>
+      </c>
+      <c r="AF24">
+        <v>-0.16</v>
+      </c>
+      <c r="AG24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH24">
+        <v>1.44</v>
+      </c>
+      <c r="AI24">
+        <v>57</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN24" t="s">
         <v>151</v>
-      </c>
-      <c r="M24" t="s">
-        <v>152</v>
-      </c>
-      <c r="N24">
-        <v>9</v>
-      </c>
-      <c r="O24">
-        <v>32.04</v>
-      </c>
-      <c r="P24">
-        <v>10</v>
-      </c>
-      <c r="Q24">
-        <v>35.6</v>
-      </c>
-      <c r="R24">
-        <v>11</v>
-      </c>
-      <c r="S24">
-        <v>39.159999999999997</v>
-      </c>
-      <c r="T24">
-        <v>12</v>
-      </c>
-      <c r="U24">
-        <v>42.72</v>
-      </c>
-      <c r="V24">
-        <v>13</v>
-      </c>
-      <c r="W24">
-        <v>46.28</v>
-      </c>
-      <c r="X24">
-        <v>14</v>
-      </c>
-      <c r="Y24">
-        <v>49.84</v>
-      </c>
-      <c r="Z24">
-        <v>5.31</v>
-      </c>
-      <c r="AA24">
-        <v>2.25</v>
-      </c>
-      <c r="AB24">
-        <v>22.5</v>
-      </c>
-      <c r="AC24">
-        <v>2.11</v>
-      </c>
-      <c r="AD24">
-        <v>1.63</v>
-      </c>
-      <c r="AE24">
-        <v>3.25</v>
-      </c>
-      <c r="AF24">
-        <v>106.64</v>
-      </c>
-      <c r="AG24">
-        <v>0.7</v>
-      </c>
-      <c r="AH24">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="AI24">
-        <v>38</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3706</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="7">
-        <v>12065567890</v>
-      </c>
-      <c r="E25">
-        <v>20130912</v>
-      </c>
-      <c r="F25">
-        <v>20130912</v>
-      </c>
-      <c r="G25">
-        <v>2.95</v>
-      </c>
-      <c r="H25">
-        <v>3.28</v>
-      </c>
-      <c r="I25">
-        <v>0.82</v>
+      <c r="A25" s="6">
+        <v>5515</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2574401050</v>
+      </c>
+      <c r="E25" s="6">
+        <v>19601121</v>
+      </c>
+      <c r="F25" s="6">
+        <v>20031006</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="H25" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.76</v>
       </c>
       <c r="J25" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="M25" t="s">
-        <v>265</v>
-      </c>
-      <c r="N25">
-        <v>8</v>
-      </c>
-      <c r="O25">
-        <v>82.56</v>
-      </c>
-      <c r="P25">
-        <v>9.4</v>
-      </c>
-      <c r="Q25">
-        <v>97.01</v>
-      </c>
-      <c r="R25">
-        <v>10.8</v>
-      </c>
-      <c r="S25">
-        <v>111.5</v>
-      </c>
-      <c r="T25">
-        <v>12.2</v>
-      </c>
-      <c r="U25">
-        <v>125.9</v>
-      </c>
-      <c r="V25">
-        <v>13.6</v>
-      </c>
-      <c r="W25">
-        <v>140.4</v>
-      </c>
-      <c r="X25">
-        <v>15</v>
-      </c>
-      <c r="Y25">
-        <v>154.80000000000001</v>
-      </c>
-      <c r="Z25">
-        <v>9.75</v>
-      </c>
-      <c r="AA25">
-        <v>-0.09</v>
-      </c>
-      <c r="AB25">
-        <v>33</v>
-      </c>
-      <c r="AC25">
-        <v>55.14</v>
-      </c>
-      <c r="AD25">
-        <v>34.869999999999997</v>
-      </c>
-      <c r="AE25">
-        <v>0.68</v>
-      </c>
-      <c r="AF25">
-        <v>-0.16</v>
-      </c>
-      <c r="AG25">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AH25">
-        <v>1.44</v>
-      </c>
-      <c r="AI25">
-        <v>57</v>
+        <v>280</v>
+      </c>
+      <c r="N25" s="6">
+        <v>11</v>
+      </c>
+      <c r="O25" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="P25" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>22.32</v>
+      </c>
+      <c r="R25" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="S25" s="6">
+        <v>24.84</v>
+      </c>
+      <c r="T25" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="U25" s="6">
+        <v>27.36</v>
+      </c>
+      <c r="V25" s="6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W25" s="6">
+        <v>29.88</v>
+      </c>
+      <c r="X25" s="6">
+        <v>18</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>13.13</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>7.24</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>10.87</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>12.76</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>56.74</v>
+      </c>
+      <c r="AG25" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="AH25" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AI25" s="6">
+        <v>51</v>
       </c>
       <c r="AJ25" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AK25" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="AL25" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="AM25" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="AN25" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>5515</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2574401050</v>
-      </c>
-      <c r="E26" s="6">
-        <v>19601121</v>
-      </c>
-      <c r="F26" s="6">
-        <v>20031006</v>
-      </c>
-      <c r="G26" s="6">
-        <v>5.82</v>
-      </c>
-      <c r="H26" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.76</v>
+      <c r="A26">
+        <v>6257</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4444791420</v>
+      </c>
+      <c r="E26">
+        <v>19881215</v>
+      </c>
+      <c r="F26">
+        <v>20030825</v>
+      </c>
+      <c r="G26">
+        <v>4.96</v>
+      </c>
+      <c r="H26">
+        <v>10.09</v>
+      </c>
+      <c r="I26">
+        <v>1.81</v>
       </c>
       <c r="J26" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="K26" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="L26" t="s">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="M26" t="s">
-        <v>269</v>
-      </c>
-      <c r="N26" s="6">
-        <v>11</v>
-      </c>
-      <c r="O26" s="6">
-        <v>19.8</v>
-      </c>
-      <c r="P26" s="6">
-        <v>12.4</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>22.32</v>
-      </c>
-      <c r="R26" s="6">
+        <v>125</v>
+      </c>
+      <c r="N26">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <v>52.47</v>
+      </c>
+      <c r="P26">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>59.47</v>
+      </c>
+      <c r="R26">
+        <v>11.4</v>
+      </c>
+      <c r="S26">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="T26">
+        <v>12.6</v>
+      </c>
+      <c r="U26">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="V26">
         <v>13.8</v>
       </c>
-      <c r="S26" s="6">
-        <v>24.84</v>
-      </c>
-      <c r="T26" s="6">
-        <v>15.2</v>
-      </c>
-      <c r="U26" s="6">
-        <v>27.36</v>
-      </c>
-      <c r="V26" s="6">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="W26" s="6">
-        <v>29.88</v>
-      </c>
-      <c r="X26" s="6">
-        <v>18</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>32.4</v>
-      </c>
-      <c r="Z26" s="6">
-        <v>13.13</v>
-      </c>
-      <c r="AA26" s="6">
-        <v>7.24</v>
-      </c>
-      <c r="AB26" s="6">
-        <v>10.87</v>
-      </c>
-      <c r="AC26" s="6">
-        <v>12.76</v>
-      </c>
-      <c r="AD26" s="6">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="AE26" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="AF26" s="6">
-        <v>56.74</v>
-      </c>
-      <c r="AG26" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="AH26" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="AI26" s="6">
-        <v>51</v>
+      <c r="W26">
+        <v>80.45</v>
+      </c>
+      <c r="X26">
+        <v>15</v>
+      </c>
+      <c r="Y26">
+        <v>87.45</v>
+      </c>
+      <c r="Z26">
+        <v>30.03</v>
+      </c>
+      <c r="AA26">
+        <v>21.36</v>
+      </c>
+      <c r="AB26">
+        <v>19.16</v>
+      </c>
+      <c r="AC26">
+        <v>22.37</v>
+      </c>
+      <c r="AD26">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="AE26">
+        <v>0.51</v>
+      </c>
+      <c r="AF26">
+        <v>95.49</v>
+      </c>
+      <c r="AG26">
+        <v>17.23</v>
+      </c>
+      <c r="AH26">
+        <v>-2.14</v>
+      </c>
+      <c r="AI26">
+        <v>64</v>
       </c>
       <c r="AJ26" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="AK26" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="AL26" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="AM26" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="AN26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>6257</v>
+        <v>8112</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="D27" s="7">
-        <v>4444791420</v>
+        <v>4284964730</v>
       </c>
       <c r="E27">
-        <v>19881215</v>
+        <v>19870305</v>
       </c>
       <c r="F27">
-        <v>20030825</v>
+        <v>20071231</v>
       </c>
       <c r="G27">
-        <v>4.96</v>
+        <v>6.3</v>
       </c>
       <c r="H27">
-        <v>10.09</v>
+        <v>7.51</v>
       </c>
       <c r="I27">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="M27" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="N27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O27">
-        <v>52.47</v>
+        <v>46.97</v>
       </c>
       <c r="P27">
-        <v>10.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q27">
-        <v>59.47</v>
+        <v>55.02</v>
       </c>
       <c r="R27">
-        <v>11.4</v>
+        <v>9.4</v>
       </c>
       <c r="S27">
-        <v>66.459999999999994</v>
+        <v>63.07</v>
       </c>
       <c r="T27">
-        <v>12.6</v>
+        <v>10.6</v>
       </c>
       <c r="U27">
-        <v>73.459999999999994</v>
+        <v>71.13</v>
       </c>
       <c r="V27">
-        <v>13.8</v>
+        <v>11.8</v>
       </c>
       <c r="W27">
-        <v>80.45</v>
+        <v>79.180000000000007</v>
       </c>
       <c r="X27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y27">
-        <v>87.45</v>
+        <v>87.23</v>
       </c>
       <c r="Z27">
-        <v>30.03</v>
+        <v>3.26</v>
       </c>
       <c r="AA27">
-        <v>21.36</v>
+        <v>2.17</v>
       </c>
       <c r="AB27">
-        <v>19.16</v>
+        <v>31.83</v>
       </c>
       <c r="AC27">
-        <v>22.37</v>
+        <v>2.02</v>
       </c>
       <c r="AD27">
-        <v>18.329999999999998</v>
+        <v>1.53</v>
       </c>
       <c r="AE27">
-        <v>0.51</v>
+        <v>4.42</v>
       </c>
       <c r="AF27">
-        <v>95.49</v>
+        <v>107.43</v>
       </c>
       <c r="AG27">
-        <v>17.23</v>
+        <v>-12.76</v>
       </c>
       <c r="AH27">
-        <v>-2.14</v>
+        <v>-8.07</v>
       </c>
       <c r="AI27">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="AJ27" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AL27" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="AM27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN27" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>8112</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="7">
-        <v>4284964730</v>
-      </c>
-      <c r="E28">
-        <v>19870305</v>
-      </c>
-      <c r="F28">
-        <v>20071231</v>
-      </c>
-      <c r="G28">
-        <v>6.3</v>
-      </c>
-      <c r="H28">
-        <v>7.51</v>
-      </c>
-      <c r="I28">
-        <v>1.93</v>
+        <v>8150</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="8">
+        <v>7272401260</v>
+      </c>
+      <c r="E28" s="6">
+        <v>19970728</v>
+      </c>
+      <c r="F28" s="6">
+        <v>20140411</v>
+      </c>
+      <c r="G28" s="6">
+        <v>4.63</v>
+      </c>
+      <c r="H28" s="6">
+        <v>7.98</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1.51</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s">
-        <v>273</v>
-      </c>
-      <c r="N28">
-        <v>7</v>
-      </c>
-      <c r="O28">
-        <v>46.97</v>
-      </c>
-      <c r="P28">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Q28">
-        <v>55.02</v>
-      </c>
-      <c r="R28">
-        <v>9.4</v>
-      </c>
-      <c r="S28">
-        <v>63.07</v>
-      </c>
-      <c r="T28">
-        <v>10.6</v>
-      </c>
-      <c r="U28">
-        <v>71.13</v>
-      </c>
-      <c r="V28">
-        <v>11.8</v>
-      </c>
-      <c r="W28">
-        <v>79.180000000000007</v>
-      </c>
-      <c r="X28">
-        <v>13</v>
-      </c>
-      <c r="Y28">
-        <v>87.23</v>
-      </c>
-      <c r="Z28">
-        <v>3.26</v>
-      </c>
-      <c r="AA28">
-        <v>2.17</v>
-      </c>
-      <c r="AB28">
-        <v>31.83</v>
-      </c>
-      <c r="AC28">
-        <v>2.02</v>
-      </c>
-      <c r="AD28">
-        <v>1.53</v>
-      </c>
-      <c r="AE28">
-        <v>4.42</v>
-      </c>
-      <c r="AF28">
-        <v>107.43</v>
-      </c>
-      <c r="AG28">
-        <v>-12.76</v>
-      </c>
-      <c r="AH28">
-        <v>-8.07</v>
-      </c>
-      <c r="AI28">
-        <v>32</v>
+        <v>288</v>
+      </c>
+      <c r="N28" s="6">
+        <v>9</v>
+      </c>
+      <c r="O28" s="6">
+        <v>53.55</v>
+      </c>
+      <c r="P28" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="R28" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="S28" s="6">
+        <v>74.97</v>
+      </c>
+      <c r="T28" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="U28" s="6">
+        <v>85.68</v>
+      </c>
+      <c r="V28" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="W28" s="6">
+        <v>96.39</v>
+      </c>
+      <c r="X28" s="6">
+        <v>18</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>107.1</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>26.62</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>20.51</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>22.24</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>21.26</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>96.47</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>7.35</v>
+      </c>
+      <c r="AH28" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="AI28" s="6">
+        <v>66</v>
       </c>
       <c r="AJ28" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AK28" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="AL28" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AM28" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="AN28" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>8150</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="8">
-        <v>7272401260</v>
-      </c>
-      <c r="E29" s="6">
-        <v>19970728</v>
-      </c>
-      <c r="F29" s="6">
-        <v>20140411</v>
-      </c>
-      <c r="G29" s="6">
-        <v>4.63</v>
-      </c>
-      <c r="H29" s="6">
-        <v>7.98</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1.51</v>
+        <v>8213</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2712424880</v>
+      </c>
+      <c r="E29">
+        <v>19980421</v>
+      </c>
+      <c r="F29">
+        <v>20091225</v>
+      </c>
+      <c r="G29">
+        <v>7.34</v>
+      </c>
+      <c r="H29">
+        <v>7.88</v>
+      </c>
+      <c r="I29">
+        <v>0.99</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s">
-        <v>277</v>
-      </c>
-      <c r="N29" s="6">
+        <v>292</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <v>42.77</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>48.88</v>
+      </c>
+      <c r="T29">
         <v>9</v>
       </c>
-      <c r="O29" s="6">
-        <v>53.55</v>
-      </c>
-      <c r="P29" s="6">
-        <v>10.8</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>64.260000000000005</v>
-      </c>
-      <c r="R29" s="6">
-        <v>12.6</v>
-      </c>
-      <c r="S29" s="6">
-        <v>74.97</v>
-      </c>
-      <c r="T29" s="6">
-        <v>14.4</v>
-      </c>
-      <c r="U29" s="6">
-        <v>85.68</v>
-      </c>
-      <c r="V29" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="W29" s="6">
-        <v>96.39</v>
-      </c>
-      <c r="X29" s="6">
-        <v>18</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>107.1</v>
-      </c>
-      <c r="Z29" s="6">
-        <v>26.62</v>
-      </c>
-      <c r="AA29" s="6">
-        <v>20.51</v>
-      </c>
-      <c r="AB29" s="6">
-        <v>22.24</v>
-      </c>
-      <c r="AC29" s="6">
-        <v>21.26</v>
-      </c>
-      <c r="AD29" s="6">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="AE29" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="AF29" s="6">
-        <v>96.47</v>
-      </c>
-      <c r="AG29" s="6">
-        <v>7.35</v>
-      </c>
-      <c r="AH29" s="6">
-        <v>1.02</v>
-      </c>
-      <c r="AI29" s="6">
-        <v>66</v>
+      <c r="U29">
+        <v>54.99</v>
+      </c>
+      <c r="V29">
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <v>61.1</v>
+      </c>
+      <c r="X29">
+        <v>11</v>
+      </c>
+      <c r="Y29">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="Z29">
+        <v>15.64</v>
+      </c>
+      <c r="AA29">
+        <v>8.6</v>
+      </c>
+      <c r="AB29">
+        <v>13.51</v>
+      </c>
+      <c r="AC29">
+        <v>9.09</v>
+      </c>
+      <c r="AD29">
+        <v>6.58</v>
+      </c>
+      <c r="AE29">
+        <v>0.86</v>
+      </c>
+      <c r="AF29">
+        <v>94.61</v>
+      </c>
+      <c r="AG29">
+        <v>2.02</v>
+      </c>
+      <c r="AH29">
+        <v>0.38</v>
+      </c>
+      <c r="AI29">
+        <v>47</v>
       </c>
       <c r="AJ29" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="AK29" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="AL29" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="AM29" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="AN29" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>8213</v>
+        <v>9945</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D30" s="7">
-        <v>2712424880</v>
+        <v>21068333970</v>
       </c>
       <c r="E30">
-        <v>19980421</v>
+        <v>19770912</v>
       </c>
       <c r="F30">
-        <v>20091225</v>
+        <v>19920430</v>
       </c>
       <c r="G30">
-        <v>7.34</v>
+        <v>8.01</v>
       </c>
       <c r="H30">
-        <v>7.88</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I30">
-        <v>0.99</v>
+        <v>1.24</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>36.659999999999997</v>
+        <v>29.24</v>
       </c>
       <c r="P30">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="Q30">
-        <v>42.77</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="R30">
+        <v>5.6</v>
+      </c>
+      <c r="S30">
+        <v>40.94</v>
+      </c>
+      <c r="T30">
+        <v>6.4</v>
+      </c>
+      <c r="U30">
+        <v>46.78</v>
+      </c>
+      <c r="V30">
+        <v>7.2</v>
+      </c>
+      <c r="W30">
+        <v>52.63</v>
+      </c>
+      <c r="X30">
         <v>8</v>
       </c>
-      <c r="S30">
-        <v>48.88</v>
-      </c>
-      <c r="T30">
-        <v>9</v>
-      </c>
-      <c r="U30">
-        <v>54.99</v>
-      </c>
-      <c r="V30">
-        <v>10</v>
-      </c>
-      <c r="W30">
-        <v>61.1</v>
-      </c>
-      <c r="X30">
-        <v>11</v>
-      </c>
       <c r="Y30">
-        <v>67.209999999999994</v>
+        <v>58.48</v>
       </c>
       <c r="Z30">
-        <v>15.64</v>
+        <v>21.08</v>
       </c>
       <c r="AA30">
-        <v>8.6</v>
+        <v>13.8</v>
       </c>
       <c r="AB30">
-        <v>13.51</v>
+        <v>17.79</v>
       </c>
       <c r="AC30">
-        <v>9.09</v>
+        <v>79.52</v>
       </c>
       <c r="AD30">
-        <v>6.58</v>
+        <v>76.819999999999993</v>
       </c>
       <c r="AE30">
-        <v>0.86</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF30">
-        <v>94.61</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="AG30">
-        <v>2.02</v>
+        <v>0.88</v>
       </c>
       <c r="AH30">
-        <v>0.38</v>
+        <v>0.9</v>
       </c>
       <c r="AI30">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="AJ30" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="AK30" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="AL30" t="s">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="AM30" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="AN30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>9945</v>
-      </c>
-      <c r="B31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="7">
-        <v>21068333970</v>
-      </c>
-      <c r="E31">
-        <v>19770912</v>
-      </c>
-      <c r="F31">
-        <v>19920430</v>
-      </c>
-      <c r="G31">
-        <v>8.01</v>
-      </c>
-      <c r="H31">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I31">
-        <v>1.24</v>
-      </c>
-      <c r="J31" t="s">
-        <v>170</v>
-      </c>
-      <c r="K31" t="s">
-        <v>171</v>
-      </c>
-      <c r="L31" t="s">
-        <v>172</v>
-      </c>
-      <c r="M31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N31">
-        <v>4</v>
-      </c>
-      <c r="O31">
-        <v>29.24</v>
-      </c>
-      <c r="P31">
-        <v>4.8</v>
-      </c>
-      <c r="Q31">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="R31">
-        <v>5.6</v>
-      </c>
-      <c r="S31">
-        <v>40.94</v>
-      </c>
-      <c r="T31">
-        <v>6.4</v>
-      </c>
-      <c r="U31">
-        <v>46.78</v>
-      </c>
-      <c r="V31">
-        <v>7.2</v>
-      </c>
-      <c r="W31">
-        <v>52.63</v>
-      </c>
-      <c r="X31">
-        <v>8</v>
-      </c>
-      <c r="Y31">
-        <v>58.48</v>
-      </c>
-      <c r="Z31">
-        <v>21.08</v>
-      </c>
-      <c r="AA31">
-        <v>13.8</v>
-      </c>
-      <c r="AB31">
-        <v>17.79</v>
-      </c>
-      <c r="AC31">
-        <v>79.52</v>
-      </c>
-      <c r="AD31">
-        <v>76.819999999999993</v>
-      </c>
-      <c r="AE31">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AF31">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="AG31">
-        <v>0.88</v>
-      </c>
-      <c r="AH31">
-        <v>0.9</v>
-      </c>
-      <c r="AI31">
-        <v>60</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AN31">
-    <sortCondition ref="A3:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AN33">
+    <sortCondition ref="A3:A33"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -5178,10 +5032,15 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AF3:AF31">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="AF3:AF30">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5190,8 +5049,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA31">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="AA4:AA30">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5200,8 +5059,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z31">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="Z3:Z30">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5210,8 +5069,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA31">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="AA3:AA30">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5220,7 +5079,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD31">
+  <conditionalFormatting sqref="AD3:AD30">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E384BDD-AA81-487B-AA6F-E9A45605B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20238D1-ABAC-4FAB-A97A-187817A65A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32370" yWindow="2970" windowWidth="23505" windowHeight="11235" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -1396,10 +1396,10 @@
   <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1626,7 @@
       <c r="J3" t="s">
         <v>191</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>192</v>
       </c>
       <c r="L3" t="s">
@@ -1748,7 +1748,7 @@
       <c r="J4" t="s">
         <v>195</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>196</v>
       </c>
       <c r="L4" t="s">
@@ -1870,7 +1870,7 @@
       <c r="J5" t="s">
         <v>198</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>199</v>
       </c>
       <c r="L5" t="s">
@@ -1992,7 +1992,7 @@
       <c r="J6" t="s">
         <v>202</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="6" t="s">
         <v>203</v>
       </c>
       <c r="L6" t="s">
@@ -2114,7 +2114,7 @@
       <c r="J7" t="s">
         <v>206</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="6" t="s">
         <v>207</v>
       </c>
       <c r="L7" t="s">
@@ -2236,7 +2236,7 @@
       <c r="J8" t="s">
         <v>210</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
         <v>211</v>
       </c>
       <c r="L8" t="s">
@@ -2358,7 +2358,7 @@
       <c r="J9" t="s">
         <v>214</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="6" t="s">
         <v>215</v>
       </c>
       <c r="L9" t="s">
@@ -2480,7 +2480,7 @@
       <c r="J10" t="s">
         <v>218</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>219</v>
       </c>
       <c r="L10" t="s">
@@ -2602,7 +2602,7 @@
       <c r="J11" t="s">
         <v>222</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="6" t="s">
         <v>223</v>
       </c>
       <c r="L11" t="s">
@@ -2724,7 +2724,7 @@
       <c r="J12" t="s">
         <v>226</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="6" t="s">
         <v>227</v>
       </c>
       <c r="L12" t="s">
@@ -2846,7 +2846,7 @@
       <c r="J13" t="s">
         <v>230</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="6" t="s">
         <v>231</v>
       </c>
       <c r="L13" t="s">
@@ -2968,7 +2968,7 @@
       <c r="J14" t="s">
         <v>234</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="6" t="s">
         <v>235</v>
       </c>
       <c r="L14" t="s">
@@ -3090,7 +3090,7 @@
       <c r="J15" t="s">
         <v>238</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="6" t="s">
         <v>239</v>
       </c>
       <c r="L15" t="s">
@@ -3212,7 +3212,7 @@
       <c r="J16" t="s">
         <v>242</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="6" t="s">
         <v>243</v>
       </c>
       <c r="L16" t="s">
@@ -5016,6 +5016,11 @@
     <sortCondition ref="A3:A33"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -5032,11 +5037,6 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF30">

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20238D1-ABAC-4FAB-A97A-187817A65A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12553C41-F6FA-48C5-B319-E1A240A7B3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32370" yWindow="2970" windowWidth="23505" windowHeight="11235" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -449,18 +449,6 @@
     <t>矽格股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    58.2 /     57.7 /    58.76 /    58.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1109.0 /   1519.6 /  2389.95 /  3901.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.1 /     24.2 /    24.88 /     26.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.08 /     1.06 /      1.4 /     3.47</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2.87 /    0.0</t>
   </si>
   <si>
@@ -656,322 +644,334 @@
     <t xml:space="preserve">  3.59 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    59.8 /    58.34 /    57.54 /    56.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2553.0 /   1486.0 /  1091.95 /  1514.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.0 /     11.9 /     11.9 /    12.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.02 /     1.04 /     1.21 /     2.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    68.8 /    68.22 /    68.28 /    67.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   170.0 /    99.82 /    132.3 /   213.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.84 /     1.83 /     1.85 /     1.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.1 /    19.99 /    19.75 /    19.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2068.0 /   3904.4 /   3187.6 /  5112.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.9 /     13.8 /    13.66 /    13.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.79 /      0.8 /     0.47 /     0.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15.5 /    15.26 /    15.07 /    15.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1478.0 /    688.8 /    500.6 /  1288.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.29 /     1.84 /     1.55 /     2.48</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.08 /     0.08 /     0.07 /     0.12</t>
   </si>
   <si>
-    <t xml:space="preserve">   25.35 /     25.3 /    24.38 /    23.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   754.0 /   1090.4 /    684.1 /   500.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.55 /     9.45 /     8.91 /     8.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.08 /     0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    57.1 /    57.02 /    59.38 /    63.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   747.0 /   1101.6 /   1262.4 /   775.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     7.6 /     7.76 /     7.73 /     8.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.64 /     4.94 /     2.81 /     1.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   25.85 /    25.58 /     25.4 /    26.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    78.6 /    90.06 /   116.56 /   238.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.6 /    21.52 /    21.49 /    21.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.29 /     0.29 /     0.47 /     0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.85 /    32.03 /    31.84 /    30.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   313.0 /    494.6 /   587.35 /   861.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.37 /     3.38 /     3.24 /      2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.35 /     0.34 /     0.46 /     0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.5 /    35.88 /    35.67 /    34.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1106.0 /   2433.4 /   2914.8 /  4366.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.96 /     1.98 /     1.62 /     1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.64 /     5.59 /     6.08 /      5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.8 /    23.91 /    23.74 /    23.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17629.0 /  17711.4 / 16511.05 / 14492.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.6 /     45.6 /    45.88 /    47.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.28 /     1.29 /     1.48 /     3.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    67.7 /    65.68 /    62.49 /    57.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16550.0 /  26354.6 /  13288.4 /  7095.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.9 /     33.8 /    34.72 /    34.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.0 /     6.85 /     4.29 /     4.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.05 /    29.83 /    29.86 /    30.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2857.0 /   3734.2 /  6163.75 /  7761.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.9 /    19.86 /    20.23 /    21.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.07 /     1.24 /     1.23 /     1.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    82.2 /    81.84 /    81.16 /     80.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2768.0 /   2709.4 /  1775.95 /  1757.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.8 /     33.5 /    33.41 /    33.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.03 /     0.03 /     0.06 /     0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    27.3 /    25.14 /    25.06 /    26.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7972.0 /   1988.4 /   1245.8 /  1556.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.17 /     2.08 /     2.15 /     2.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.93 /      7.6 /     8.36 /      9.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   169.0 /    167.2 /    162.7 /   161.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3306.0 /   3412.4 /   2289.2 /   3090.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /     22.1 /     21.6 /    22.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /    19.94 /    21.75 /     24.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   37.45 /    37.62 /    38.26 /    38.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2260.0 /   1520.0 /  1663.75 /  1727.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.9 /    21.14 /    21.35 /    21.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.71 /     0.69 /     0.61 /     0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.05 /    49.01 /    49.35 /    48.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   111.0 /    57.42 /    77.38 /   104.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.71 /     3.73 /     3.76 /     3.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    74.8 /    74.48 /    74.61 /    74.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9255.0 /  29253.6 /  22812.6 / 20796.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.8 /    21.82 /    21.94 /    23.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.0 /     10.9 /    10.25 /    19.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.0 /    53.62 /     53.8 /    52.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   472.0 /   1140.4 /   983.75 /    862.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.0 /     31.0 /    31.12 /    31.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.7 /     0.69 /     0.69 /      0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   123.0 /    122.0 /    122.5 /   118.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1265.0 /   1304.8 /   1088.3 /   1016.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.4 /    42.18 /    41.82 /    41.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.23 /     1.09 /     1.01 /     1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.0 /    28.92 /    28.92 /    29.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   308.0 /    318.8 /    423.5 /   634.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.21 /     4.23 /     4.61 /      5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.44 /     0.44 /     0.46 /     0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.0 /    33.88 /    33.06 /    30.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6991.0 /  12238.0 / 11673.55 / 10489.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.6 /    11.32 /     11.1 /    10.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.01 /     0.83 /     0.67 /     0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.9 /    13.78 /     13.9 /    13.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   255.0 /    307.8 /    332.9 /   267.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.18 /     6.17 /     6.23 /     6.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /     0.03 /     0.29 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   47.15 /    47.57 /    46.36 /    44.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6538.0 /   3339.4 /   4933.5 /  3610.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.1 /     23.2 /    22.49 /    22.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.71 /     0.61 /     0.45 /      0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.1 /    47.28 /    46.39 /    46.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7016.0 /   7454.6 /  6076.45 /  6674.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.8 /    46.52 /    46.72 /    49.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.49 /     5.03 /     6.64 /     6.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   48.05 /    47.84 /    47.19 /    46.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   907.0 /    823.6 /    667.2 /   891.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.7 /    20.58 /    20.74 /    20.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.17 /     0.16 /      0.2 /     0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    62.5 /    61.92 /    62.97 /     63.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2476.0 /   3903.2 /  5934.15 /   8479.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.4 /     14.4 /    14.58 /    14.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     4.9 /     5.03 /     4.91 /    27.17</t>
+    <t xml:space="preserve">    61.0 /    59.46 /    57.95 /    56.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2076.0 /   1726.2 /  1124.25 /  1491.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.0 /    11.96 /    11.91 /    12.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.06 /     1.04 /     1.19 /     2.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    69.1 /    68.64 /    68.42 /    67.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   133.0 /   119.42 /   130.31 /   204.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.85 /     1.83 /     1.84 /     1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20.05 /    20.06 /     19.8 /     19.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2067.0 /   2663.8 /   2945.7 /  3808.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.0 /     13.9 /     13.7 /    13.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.75 /     0.77 /     0.51 /     0.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.45 /    15.36 /    15.12 /    15.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   436.0 /    683.4 /    501.9 /  1193.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.33 /     2.05 /     1.65 /     2.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    25.8 /    25.58 /    24.57 /    23.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   857.0 /   1031.0 /   757.25 /   499.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.95 /      9.7 /     9.03 /     8.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.06 /     0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    56.9 /    57.16 /    58.66 /    63.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   866.0 /    842.8 /   1268.9 /    782.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.76 /     7.69 /      7.7 /     8.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.95 /     5.28 /     3.22 /     1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   26.25 /    25.96 /     25.5 /    26.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   167.0 /   126.28 /   109.16 /    176.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.7 /     21.6 /    21.52 /     21.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.28 /     0.29 /     0.41 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.65 /    31.86 /    31.88 /    31.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   338.0 /    315.4 /   531.35 /    829.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.31 /     3.36 /     3.27 /     2.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.36 /     0.35 /     0.42 /     0.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   35.55 /    35.62 /    35.59 /    34.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   879.0 /   1449.8 /   2414.8 /  4302.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.94 /     1.94 /     1.61 /     1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.48 /     5.57 /     5.64 /     5.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.15 /    23.97 /    23.81 /    23.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5582.0 /  12853.4 / 16162.15 / 14162.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.6 /     45.6 /     45.8 /    47.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.34 /      1.3 /     1.43 /     3.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    66.2 /    66.24 /    63.33 /     57.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3886.0 /  14651.8 /  13039.7 /   7180.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /     33.1 /    34.52 /    34.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.36 /     8.66 /     4.83 /     4.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.25 /    30.05 /    29.92 /    30.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4475.0 /   2918.4 /  5780.55 /  7693.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.9 /    19.88 /    20.12 /    21.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.04 /     1.14 /     1.22 /     1.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    82.4 /    81.94 /    81.43 /    80.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1180.0 /   1961.2 /  1763.85 /  1741.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.8 /    33.66 /    33.46 /    33.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.03 /     0.03 /     0.05 /     0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.5 /    27.49 /    25.53 /    26.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20774.0 /   8889.2 /  2690.15 /  2143.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.0 /     2.08 /     2.09 /     2.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.9 /    13.49 /     9.27 /    10.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   168.0 /    168.3 /   163.05 /    161.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   824.0 /   2635.8 /  2197.45 /  3038.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.1 /    22.18 /    21.63 /    22.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.1 /    19.94 /    21.42 /    24.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.6 /    37.56 /    38.22 /    38.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   704.0 /   1301.2 /   1556.3 /   1682.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.8 /    20.98 /    21.33 /     21.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.72 /     0.69 /     0.64 /     0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.6 /    49.16 /    49.31 /     48.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   114.0 /    71.86 /    72.36 /   104.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.72 /     3.72 /     3.75 /     3.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    75.2 /    74.88 /    74.75 /     74.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9593.0 /  11167.6 / 20999.35 / 20325.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.8 /     21.8 /    21.91 /    23.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.1 /     11.0 /    10.37 /    18.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.6 /     54.0 /    53.93 /    53.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1201.0 /    550.2 /    966.5 /   853.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.0 /     31.0 /    31.08 /    31.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.5 /     0.66 /     0.68 /      0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   124.0 /    122.5 /   122.72 /   118.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   463.0 /    841.0 /   987.75 /   992.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.5 /    42.36 /    41.92 /    41.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.84 /     1.01 /     0.99 /     1.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   29.15 /    28.99 /    28.93 /    29.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   661.0 /    358.0 /    405.7 /   620.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.26 /     4.22 /     4.52 /     5.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.43 /     0.45 /     0.45 /     0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   34.35 /    33.95 /    33.28 /    30.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9421.0 /   6016.4 /  10733.2 / 10600.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.9 /    11.58 /    11.16 /    10.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.98 /     0.94 /     0.68 /     0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.0 /    13.89 /    13.92 /    13.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   266.0 /    277.0 /    310.5 /   263.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.17 /     6.18 /      6.2 /     6.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.29 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    58.9 /    58.54 /    58.68 /    58.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2036.0 /   1508.0 /   2164.2 /  3735.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.9 /    24.06 /    24.64 /    25.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.88 /     0.96 /     1.28 /     3.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.7 /    47.51 /    46.72 /    44.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2810.0 /   3170.4 /  4875.85 /  3583.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.4 /    23.24 /    22.72 /    22.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.71 /     0.67 /     0.49 /      0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.1 /    48.22 /    46.77 /    46.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7919.0 /   8087.4 /  5975.15 /   6705.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.1 /    46.84 /    46.75 /    49.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.37 /      3.6 /     6.19 /     6.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.1 /    47.92 /    47.31 /    47.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   990.0 /    683.8 /   638.75 /   882.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.8 /    20.66 /    20.71 /    20.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.18 /     0.17 /      0.2 /     0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    63.0 /    62.64 /    62.85 /    63.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3910.0 /   4232.4 /   5139.6 /  8332.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.4 /     14.4 /    14.53 /    14.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.77 /      4.9 /     4.92 /     25.7</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1019,16 +1019,333 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1036,13 +1353,243 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,9 +1626,53 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1396,10 +1987,10 @@
   <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1614,26 +2205,26 @@
       <c r="F3">
         <v>19760719</v>
       </c>
-      <c r="G3">
-        <v>4.66</v>
-      </c>
-      <c r="H3">
-        <v>16.48</v>
-      </c>
-      <c r="I3">
-        <v>2.09</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="G3" s="12">
+        <v>4.43</v>
+      </c>
+      <c r="H3" s="12">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="I3" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="L3" t="s">
-        <v>193</v>
-      </c>
-      <c r="M3" t="s">
-        <v>194</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -1736,26 +2327,26 @@
       <c r="F4">
         <v>19951102</v>
       </c>
-      <c r="G4">
-        <v>3.82</v>
-      </c>
-      <c r="H4">
-        <v>17.28</v>
-      </c>
-      <c r="I4">
-        <v>3.2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L4" t="s">
-        <v>197</v>
-      </c>
-      <c r="M4" t="s">
-        <v>181</v>
+      <c r="G4" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="H4" s="12">
+        <v>17.54</v>
+      </c>
+      <c r="I4" s="12">
+        <v>3.24</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="N4">
         <v>11</v>
@@ -1824,19 +2415,19 @@
         <v>43</v>
       </c>
       <c r="AJ4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AK4" t="s">
         <v>79</v>
       </c>
       <c r="AL4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AM4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -1858,26 +2449,26 @@
       <c r="F5">
         <v>19730831</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <v>5.49</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="12">
         <v>8.83</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="12">
         <v>0.95</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="L5" t="s">
-        <v>200</v>
-      </c>
-      <c r="M5" t="s">
-        <v>201</v>
       </c>
       <c r="N5">
         <v>9</v>
@@ -1980,26 +2571,26 @@
       <c r="F6">
         <v>20001031</v>
       </c>
-      <c r="G6">
-        <v>2.61</v>
-      </c>
-      <c r="H6">
-        <v>10.85</v>
-      </c>
-      <c r="I6">
-        <v>0.98</v>
-      </c>
-      <c r="J6" t="s">
-        <v>202</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6" t="s">
-        <v>204</v>
-      </c>
-      <c r="M6" t="s">
-        <v>205</v>
+      <c r="G6" s="12">
+        <v>2.59</v>
+      </c>
+      <c r="H6" s="12">
+        <v>10.96</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="N6">
         <v>13</v>
@@ -2068,19 +2659,19 @@
         <v>43</v>
       </c>
       <c r="AJ6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AK6" t="s">
         <v>108</v>
       </c>
       <c r="AL6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AM6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AN6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2102,26 +2693,26 @@
       <c r="F7">
         <v>19940326</v>
       </c>
-      <c r="G7">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="H7">
-        <v>16.84</v>
-      </c>
-      <c r="I7">
-        <v>1.73</v>
-      </c>
-      <c r="J7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="L7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M7" t="s">
-        <v>209</v>
+      <c r="G7" s="12">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H7" s="12">
+        <v>16.97</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="N7">
         <v>13</v>
@@ -2190,13 +2781,13 @@
         <v>34</v>
       </c>
       <c r="AJ7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AM7" t="s">
         <v>91</v>
@@ -2224,26 +2815,26 @@
       <c r="F8" s="6">
         <v>19950204</v>
       </c>
-      <c r="G8" s="6">
-        <v>6.26</v>
-      </c>
-      <c r="H8" s="6">
-        <v>9.06</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2.68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>210</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" t="s">
-        <v>213</v>
+      <c r="G8" s="12">
+        <v>6.33</v>
+      </c>
+      <c r="H8" s="12">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2.66</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="N8" s="6">
         <v>12</v>
@@ -2312,10 +2903,10 @@
         <v>51</v>
       </c>
       <c r="AJ8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AK8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AL8" t="s">
         <v>105</v>
@@ -2346,26 +2937,26 @@
       <c r="F9">
         <v>20180416</v>
       </c>
-      <c r="G9">
-        <v>7.77</v>
-      </c>
-      <c r="H9">
-        <v>14.63</v>
-      </c>
-      <c r="I9">
-        <v>1.4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" t="s">
-        <v>216</v>
-      </c>
-      <c r="M9" t="s">
-        <v>217</v>
+      <c r="G9" s="12">
+        <v>7.62</v>
+      </c>
+      <c r="H9" s="12">
+        <v>14.91</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1.42</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="N9">
         <v>14</v>
@@ -2434,19 +3025,19 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s">
         <v>91</v>
       </c>
       <c r="AL9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AM9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2468,26 +3059,26 @@
       <c r="F10" s="6">
         <v>19930427</v>
       </c>
-      <c r="G10" s="6">
-        <v>5.29</v>
-      </c>
-      <c r="H10" s="6">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="I10" s="6">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="L10" t="s">
-        <v>220</v>
-      </c>
-      <c r="M10" t="s">
-        <v>221</v>
+      <c r="G10" s="12">
+        <v>5.37</v>
+      </c>
+      <c r="H10" s="12">
+        <v>8.89</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="N10" s="6">
         <v>12</v>
@@ -2556,19 +3147,19 @@
         <v>47</v>
       </c>
       <c r="AJ10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN10" t="s">
         <v>146</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2590,26 +3181,26 @@
       <c r="F11" s="6">
         <v>20160322</v>
       </c>
-      <c r="G11" s="6">
-        <v>1.53</v>
-      </c>
-      <c r="H11" s="6">
-        <v>9.36</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1.51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>222</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="L11" t="s">
-        <v>224</v>
-      </c>
-      <c r="M11" t="s">
-        <v>225</v>
+      <c r="G11" s="12">
+        <v>1.55</v>
+      </c>
+      <c r="H11" s="12">
+        <v>9.23</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1.49</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N11" s="6">
         <v>10</v>
@@ -2684,13 +3275,13 @@
         <v>91</v>
       </c>
       <c r="AL11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AN11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2712,26 +3303,26 @@
       <c r="F12">
         <v>19920218</v>
       </c>
-      <c r="G12">
-        <v>6.71</v>
-      </c>
-      <c r="H12">
-        <v>7.41</v>
-      </c>
-      <c r="I12">
-        <v>0.96</v>
-      </c>
-      <c r="J12" t="s">
-        <v>226</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="L12" t="s">
-        <v>228</v>
-      </c>
-      <c r="M12" t="s">
-        <v>229</v>
+      <c r="G12" s="12">
+        <v>6.63</v>
+      </c>
+      <c r="H12" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="N12">
         <v>9</v>
@@ -2834,26 +3425,26 @@
       <c r="F13">
         <v>19951213</v>
       </c>
-      <c r="G13">
-        <v>5.08</v>
-      </c>
-      <c r="H13">
-        <v>6.49</v>
-      </c>
-      <c r="I13">
-        <v>1.84</v>
-      </c>
-      <c r="J13" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="L13" t="s">
-        <v>232</v>
-      </c>
-      <c r="M13" t="s">
-        <v>233</v>
+      <c r="G13" s="12">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H13" s="12">
+        <v>6.61</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1.87</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="N13">
         <v>9</v>
@@ -2922,16 +3513,16 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s">
         <v>105</v>
       </c>
       <c r="AM13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AN13" t="s">
         <v>112</v>
@@ -2956,26 +3547,26 @@
       <c r="F14">
         <v>19960722</v>
       </c>
-      <c r="G14">
-        <v>5.01</v>
-      </c>
-      <c r="H14">
-        <v>6.5</v>
-      </c>
-      <c r="I14">
-        <v>1.63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="L14" t="s">
-        <v>236</v>
-      </c>
-      <c r="M14" t="s">
-        <v>237</v>
+      <c r="G14" s="12">
+        <v>4.96</v>
+      </c>
+      <c r="H14" s="12">
+        <v>6.56</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="N14">
         <v>8</v>
@@ -3078,26 +3669,26 @@
       <c r="F15" s="6">
         <v>19990105</v>
       </c>
-      <c r="G15" s="6">
-        <v>6.74</v>
-      </c>
-      <c r="H15" s="6">
-        <v>10.06</v>
-      </c>
-      <c r="I15" s="6">
-        <v>2.04</v>
-      </c>
-      <c r="J15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="L15" t="s">
-        <v>240</v>
-      </c>
-      <c r="M15" t="s">
-        <v>241</v>
+      <c r="G15" s="12">
+        <v>6.67</v>
+      </c>
+      <c r="H15" s="12">
+        <v>10.16</v>
+      </c>
+      <c r="I15" s="12">
+        <v>2.06</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -3166,19 +3757,19 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AK15" t="s">
         <v>83</v>
       </c>
       <c r="AL15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -3200,26 +3791,26 @@
       <c r="F16">
         <v>20000911</v>
       </c>
-      <c r="G16">
-        <v>8.06</v>
-      </c>
-      <c r="H16">
-        <v>9.19</v>
-      </c>
-      <c r="I16">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J16" t="s">
-        <v>242</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" t="s">
-        <v>244</v>
-      </c>
-      <c r="M16" t="s">
-        <v>245</v>
+      <c r="G16" s="12">
+        <v>6.56</v>
+      </c>
+      <c r="H16" s="12">
+        <v>11.3</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1.39</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="N16">
         <v>13</v>
@@ -3322,26 +3913,26 @@
       <c r="F17" s="6">
         <v>20010917</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="12">
         <v>5.36</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="12">
         <v>9.6199999999999992</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="12">
         <v>5.03</v>
       </c>
-      <c r="J17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K17" t="s">
-        <v>247</v>
-      </c>
-      <c r="L17" t="s">
-        <v>248</v>
-      </c>
-      <c r="M17" t="s">
-        <v>249</v>
+      <c r="J17" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="N17" s="6">
         <v>12</v>
@@ -3410,19 +4001,19 @@
         <v>74</v>
       </c>
       <c r="AJ17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN17" t="s">
         <v>156</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
@@ -3444,26 +4035,26 @@
       <c r="F18">
         <v>19931027</v>
       </c>
-      <c r="G18">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="H18">
-        <v>4.43</v>
-      </c>
-      <c r="I18">
+      <c r="G18" s="12">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H18" s="12">
+        <v>4.42</v>
+      </c>
+      <c r="I18" s="12">
         <v>1.24</v>
       </c>
-      <c r="J18" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" t="s">
-        <v>251</v>
-      </c>
-      <c r="L18" t="s">
-        <v>252</v>
-      </c>
-      <c r="M18" t="s">
-        <v>253</v>
+      <c r="J18" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="N18">
         <v>7</v>
@@ -3566,26 +4157,26 @@
       <c r="F19" s="6">
         <v>20000911</v>
       </c>
-      <c r="G19" s="6">
-        <v>7.37</v>
-      </c>
-      <c r="H19" s="6">
-        <v>6.95</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1.55</v>
-      </c>
-      <c r="J19" t="s">
-        <v>254</v>
-      </c>
-      <c r="K19" t="s">
-        <v>255</v>
-      </c>
-      <c r="L19" t="s">
-        <v>256</v>
-      </c>
-      <c r="M19" t="s">
-        <v>180</v>
+      <c r="G19" s="12">
+        <v>7.26</v>
+      </c>
+      <c r="H19" s="12">
+        <v>7.06</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1.57</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="N19" s="6">
         <v>7</v>
@@ -3654,16 +4245,16 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AL19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AM19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s">
         <v>99</v>
@@ -3688,26 +4279,26 @@
       <c r="F20" s="6">
         <v>20011219</v>
       </c>
-      <c r="G20" s="6">
-        <v>4.01</v>
-      </c>
-      <c r="H20" s="6">
-        <v>6.16</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J20" t="s">
-        <v>257</v>
-      </c>
-      <c r="K20" t="s">
-        <v>258</v>
-      </c>
-      <c r="L20" t="s">
-        <v>259</v>
-      </c>
-      <c r="M20" t="s">
-        <v>260</v>
+      <c r="G20" s="12">
+        <v>3.99</v>
+      </c>
+      <c r="H20" s="12">
+        <v>6.19</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="N20" s="6">
         <v>7</v>
@@ -3776,7 +4367,7 @@
         <v>56</v>
       </c>
       <c r="AJ20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AK20" t="s">
         <v>105</v>
@@ -3785,7 +4376,7 @@
         <v>105</v>
       </c>
       <c r="AM20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AN20" t="s">
         <v>105</v>
@@ -3810,26 +4401,26 @@
       <c r="F21">
         <v>20020225</v>
       </c>
-      <c r="G21">
-        <v>6.71</v>
-      </c>
-      <c r="H21">
-        <v>7.37</v>
-      </c>
-      <c r="I21">
-        <v>1.86</v>
-      </c>
-      <c r="J21" t="s">
-        <v>261</v>
-      </c>
-      <c r="K21" t="s">
-        <v>262</v>
-      </c>
-      <c r="L21" t="s">
-        <v>263</v>
-      </c>
-      <c r="M21" t="s">
-        <v>264</v>
+      <c r="G21" s="12">
+        <v>6.58</v>
+      </c>
+      <c r="H21" s="12">
+        <v>7.52</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -3898,19 +4489,19 @@
         <v>57</v>
       </c>
       <c r="AJ21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AK21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AL21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AM21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AN21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
@@ -3932,26 +4523,26 @@
       <c r="F22">
         <v>20020826</v>
       </c>
-      <c r="G22">
-        <v>6.07</v>
-      </c>
-      <c r="H22">
-        <v>10.32</v>
-      </c>
-      <c r="I22">
-        <v>1.74</v>
-      </c>
-      <c r="J22" t="s">
-        <v>265</v>
-      </c>
-      <c r="K22" t="s">
-        <v>266</v>
-      </c>
-      <c r="L22" t="s">
-        <v>267</v>
-      </c>
-      <c r="M22" t="s">
-        <v>268</v>
+      <c r="G22" s="12">
+        <v>5.93</v>
+      </c>
+      <c r="H22" s="12">
+        <v>10.57</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="N22">
         <v>8</v>
@@ -4054,26 +4645,26 @@
       <c r="F23">
         <v>20081126</v>
       </c>
-      <c r="G23">
-        <v>6.92</v>
-      </c>
-      <c r="H23">
-        <v>8.1</v>
-      </c>
-      <c r="I23">
-        <v>1.65</v>
-      </c>
-      <c r="J23" t="s">
-        <v>269</v>
-      </c>
-      <c r="K23" t="s">
-        <v>270</v>
-      </c>
-      <c r="L23" t="s">
-        <v>271</v>
-      </c>
-      <c r="M23" t="s">
-        <v>272</v>
+      <c r="G23" s="12">
+        <v>6.86</v>
+      </c>
+      <c r="H23" s="12">
+        <v>8.17</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1.67</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="N23">
         <v>9</v>
@@ -4176,26 +4767,26 @@
       <c r="F24">
         <v>20130912</v>
       </c>
-      <c r="G24">
-        <v>2.95</v>
-      </c>
-      <c r="H24">
-        <v>3.28</v>
-      </c>
-      <c r="I24">
-        <v>0.82</v>
-      </c>
-      <c r="J24" t="s">
-        <v>273</v>
-      </c>
-      <c r="K24" t="s">
-        <v>274</v>
-      </c>
-      <c r="L24" t="s">
-        <v>275</v>
-      </c>
-      <c r="M24" t="s">
-        <v>276</v>
+      <c r="G24" s="12">
+        <v>2.91</v>
+      </c>
+      <c r="H24" s="12">
+        <v>3.33</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -4267,16 +4858,16 @@
         <v>112</v>
       </c>
       <c r="AK24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AL24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AM24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AN24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -4298,26 +4889,26 @@
       <c r="F25" s="6">
         <v>20031006</v>
       </c>
-      <c r="G25" s="6">
-        <v>5.82</v>
-      </c>
-      <c r="H25" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="J25" t="s">
-        <v>277</v>
-      </c>
-      <c r="K25" t="s">
-        <v>278</v>
-      </c>
-      <c r="L25" t="s">
-        <v>279</v>
-      </c>
-      <c r="M25" t="s">
-        <v>280</v>
+      <c r="G25" s="12">
+        <v>5.71</v>
+      </c>
+      <c r="H25" s="12">
+        <v>7.73</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="N25" s="6">
         <v>11</v>
@@ -4386,10 +4977,10 @@
         <v>51</v>
       </c>
       <c r="AJ25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AL25" t="s">
         <v>91</v>
@@ -4420,26 +5011,26 @@
       <c r="F26">
         <v>20030825</v>
       </c>
-      <c r="G26">
-        <v>4.96</v>
-      </c>
-      <c r="H26">
-        <v>10.09</v>
-      </c>
-      <c r="I26">
-        <v>1.81</v>
-      </c>
-      <c r="J26" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" t="s">
-        <v>124</v>
-      </c>
-      <c r="M26" t="s">
-        <v>125</v>
+      <c r="G26" s="12">
+        <v>4.87</v>
+      </c>
+      <c r="H26" s="12">
+        <v>10.26</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1.85</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="N26">
         <v>9</v>
@@ -4508,16 +5099,16 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AM26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AN26" t="s">
         <v>107</v>
@@ -4542,25 +5133,25 @@
       <c r="F27">
         <v>20071231</v>
       </c>
-      <c r="G27">
-        <v>6.3</v>
-      </c>
-      <c r="H27">
-        <v>7.51</v>
-      </c>
-      <c r="I27">
-        <v>1.93</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="G27" s="12">
+        <v>6.29</v>
+      </c>
+      <c r="H27" s="12">
+        <v>7.52</v>
+      </c>
+      <c r="I27" s="12">
+        <v>1.94</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="12" t="s">
         <v>284</v>
       </c>
       <c r="N27">
@@ -4630,19 +5221,19 @@
         <v>32</v>
       </c>
       <c r="AJ27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AL27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AM27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AN27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
@@ -4664,25 +5255,25 @@
       <c r="F28" s="6">
         <v>20140411</v>
       </c>
-      <c r="G28" s="6">
-        <v>4.63</v>
-      </c>
-      <c r="H28" s="6">
-        <v>7.98</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1.51</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="G28" s="12">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H28" s="12">
+        <v>8.25</v>
+      </c>
+      <c r="I28" s="12">
+        <v>1.56</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="12" t="s">
         <v>288</v>
       </c>
       <c r="N28" s="6">
@@ -4752,19 +5343,19 @@
         <v>66</v>
       </c>
       <c r="AJ28" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN28" t="s">
         <v>171</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
@@ -4786,25 +5377,25 @@
       <c r="F29">
         <v>20091225</v>
       </c>
-      <c r="G29">
-        <v>7.34</v>
-      </c>
-      <c r="H29">
-        <v>7.88</v>
-      </c>
-      <c r="I29">
+      <c r="G29" s="12">
+        <v>7.28</v>
+      </c>
+      <c r="H29" s="12">
+        <v>7.95</v>
+      </c>
+      <c r="I29" s="12">
         <v>0.99</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="12" t="s">
         <v>292</v>
       </c>
       <c r="N29">
@@ -4874,16 +5465,16 @@
         <v>47</v>
       </c>
       <c r="AJ29" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AK29" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AM29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AN29" t="s">
         <v>99</v>
@@ -4894,10 +5485,10 @@
         <v>9945</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D30" s="7">
         <v>21068333970</v>
@@ -4908,25 +5499,25 @@
       <c r="F30">
         <v>19920430</v>
       </c>
-      <c r="G30">
-        <v>8.01</v>
-      </c>
-      <c r="H30">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I30">
-        <v>1.24</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="G30" s="12">
+        <v>7.94</v>
+      </c>
+      <c r="H30" s="12">
+        <v>8.89</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="12" t="s">
         <v>296</v>
       </c>
       <c r="N30">
@@ -4996,10 +5587,10 @@
         <v>60</v>
       </c>
       <c r="AJ30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AK30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AL30" t="s">
         <v>105</v>
@@ -5008,7 +5599,7 @@
         <v>105</v>
       </c>
       <c r="AN30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5016,11 +5607,6 @@
     <sortCondition ref="A3:A33"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -5037,6 +5623,11 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF30">

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12553C41-F6FA-48C5-B319-E1A240A7B3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9272F82-3248-4CE4-A4E1-220946534A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="312">
   <si>
     <t>公司名稱</t>
   </si>
@@ -647,331 +647,376 @@
     <t xml:space="preserve">    0.08 /     0.08 /     0.07 /     0.12</t>
   </si>
   <si>
-    <t xml:space="preserve">    61.0 /    59.46 /    57.95 /    56.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2076.0 /   1726.2 /  1124.25 /  1491.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.0 /    11.96 /    11.91 /    12.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.06 /     1.04 /     1.19 /     2.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    69.1 /    68.64 /    68.42 /    67.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   133.0 /   119.42 /   130.31 /   204.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.85 /     1.83 /     1.84 /     1.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   20.05 /    20.06 /     19.8 /     19.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2067.0 /   2663.8 /   2945.7 /  3808.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /     13.9 /     13.7 /    13.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.75 /     0.77 /     0.51 /     0.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.45 /    15.36 /    15.12 /    15.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   436.0 /    683.4 /    501.9 /  1193.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.33 /     2.05 /     1.65 /     2.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    25.8 /    25.58 /    24.57 /    23.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   857.0 /   1031.0 /   757.25 /   499.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.95 /      9.7 /     9.03 /     8.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.06 /     0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    56.9 /    57.16 /    58.66 /    63.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   866.0 /    842.8 /   1268.9 /    782.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.76 /     7.69 /      7.7 /     8.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.95 /     5.28 /     3.22 /     1.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   26.25 /    25.96 /     25.5 /    26.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   167.0 /   126.28 /   109.16 /    176.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.7 /     21.6 /    21.52 /     21.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.28 /     0.29 /     0.41 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.65 /    31.86 /    31.88 /    31.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   338.0 /    315.4 /   531.35 /    829.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.31 /     3.36 /     3.27 /     2.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.36 /     0.35 /     0.42 /     0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   35.55 /    35.62 /    35.59 /    34.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   879.0 /   1449.8 /   2414.8 /  4302.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.94 /     1.94 /     1.61 /     1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.48 /     5.57 /     5.64 /     5.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.15 /    23.97 /    23.81 /    23.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5582.0 /  12853.4 / 16162.15 / 14162.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.6 /     45.6 /     45.8 /    47.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.34 /      1.3 /     1.43 /     3.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    66.2 /    66.24 /    63.33 /     57.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3886.0 /  14651.8 /  13039.7 /   7180.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /     33.1 /    34.52 /    34.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.36 /     8.66 /     4.83 /     4.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.25 /    30.05 /    29.92 /    30.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4475.0 /   2918.4 /  5780.55 /  7693.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.9 /    19.88 /    20.12 /    21.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.04 /     1.14 /     1.22 /     1.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    82.4 /    81.94 /    81.43 /    80.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1180.0 /   1961.2 /  1763.85 /  1741.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.8 /    33.66 /    33.46 /    33.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.03 /     0.03 /     0.05 /     0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.5 /    27.49 /    25.53 /    26.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20774.0 /   8889.2 /  2690.15 /  2143.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.0 /     2.08 /     2.09 /     2.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.9 /    13.49 /     9.27 /    10.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   168.0 /    168.3 /   163.05 /    161.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   824.0 /   2635.8 /  2197.45 /  3038.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.1 /    22.18 /    21.63 /    22.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.1 /    19.94 /    21.42 /    24.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    37.6 /    37.56 /    38.22 /    38.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   704.0 /   1301.2 /   1556.3 /   1682.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.8 /    20.98 /    21.33 /     21.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.72 /     0.69 /     0.64 /     0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.6 /    49.16 /    49.31 /     48.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   114.0 /    71.86 /    72.36 /   104.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.72 /     3.72 /     3.75 /     3.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    75.2 /    74.88 /    74.75 /     74.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9593.0 /  11167.6 / 20999.35 / 20325.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.8 /     21.8 /    21.91 /    23.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.1 /     11.0 /    10.37 /    18.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.6 /     54.0 /    53.93 /    53.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1201.0 /    550.2 /    966.5 /   853.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.0 /     31.0 /    31.08 /    31.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.5 /     0.66 /     0.68 /      0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   124.0 /    122.5 /   122.72 /   118.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   463.0 /    841.0 /   987.75 /   992.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.5 /    42.36 /    41.92 /    41.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.84 /     1.01 /     0.99 /     1.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   29.15 /    28.99 /    28.93 /    29.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   661.0 /    358.0 /    405.7 /   620.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.26 /     4.22 /     4.52 /     5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.43 /     0.45 /     0.45 /     0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   34.35 /    33.95 /    33.28 /    30.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9421.0 /   6016.4 /  10733.2 / 10600.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.9 /    11.58 /    11.16 /    10.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.98 /     0.94 /     0.68 /     0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /    13.89 /    13.92 /    13.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   266.0 /    277.0 /    310.5 /   263.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.17 /     6.18 /      6.2 /     6.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.29 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    58.9 /    58.54 /    58.68 /    58.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2036.0 /   1508.0 /   2164.2 /  3735.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.9 /    24.06 /    24.64 /    25.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.88 /     0.96 /     1.28 /     3.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.7 /    47.51 /    46.72 /    44.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2810.0 /   3170.4 /  4875.85 /  3583.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.4 /    23.24 /    22.72 /    22.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.71 /     0.67 /     0.49 /      0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.1 /    48.22 /    46.77 /    46.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7919.0 /   8087.4 /  5975.15 /   6705.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.1 /    46.84 /    46.75 /    49.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.37 /      3.6 /     6.19 /     6.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.1 /    47.92 /    47.31 /    47.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   990.0 /    683.8 /   638.75 /   882.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.8 /    20.66 /    20.71 /    20.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.18 /     0.17 /      0.2 /     0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    63.0 /    62.64 /    62.85 /    63.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3910.0 /   4232.4 /   5139.6 /  8332.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.4 /     14.4 /    14.53 /    14.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.77 /      4.9 /     4.92 /     25.7</t>
+    <t>厚生</t>
+  </si>
+  <si>
+    <t>厚生股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22.85 /    22.69 /    22.64 /    22.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   276.0 /    241.8 /    306.6 /   393.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.89 /      9.9 /    10.09 /    10.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.15 /     0.15 /     0.15 /     0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.82 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.68 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.65 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    62.2 /     60.3 /    58.18 /    57.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2612.0 /   2103.0 /  1182.55 /   1506.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.1 /     12.0 /    11.92 /    12.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.09 /     1.05 /     1.17 /     2.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    69.9 /     69.0 /    68.51 /    67.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   226.0 /   151.24 /   136.91 /   202.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.88 /     1.85 /     1.85 /     1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /    20.05 /    19.83 /    19.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3058.0 /   2676.2 /  2945.55 /  3704.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.0 /    13.94 /    13.72 /    13.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.81 /     0.78 /     0.54 /     0.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.35 /    15.37 /    15.14 /    15.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   369.0 /    700.8 /   495.55 /   1170.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.4 /     2.19 /      1.7 /     2.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25.65 /    25.59 /    24.68 /    23.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   722.0 /    916.2 /    786.3 /   503.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.95 /     9.77 /     9.09 /     8.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.05 /     0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    57.5 /    57.16 /    58.33 /    63.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   642.0 /    680.4 /  1276.75 /   777.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.96 /     7.72 /      7.7 /     8.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.01 /     5.28 /     3.42 /     1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.2 /    26.05 /    25.54 /    26.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    79.6 /    121.2 /   109.06 /   166.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.6 /    21.62 /    21.53 /     21.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.28 /     0.28 /      0.4 /      0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.6 /    31.75 /    31.89 /    31.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   237.0 /    269.8 /   517.25 /   801.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.3 /     3.34 /     3.29 /     2.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.36 /     0.35 /     0.41 /     0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   35.15 /    35.44 /    35.57 /    34.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1143.0 /   1121.2 /   2336.6 /  4253.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.75 /     1.88 /      1.6 /     1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.56 /     5.58 /     5.48 /      5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.2 /    24.04 /    23.86 /    23.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7406.0 /  10481.0 /  14979.5 / 14054.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.6 /     45.6 /    45.77 /     47.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.36 /     1.31 /     1.42 /     3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    66.5 /    66.54 /    63.74 /    57.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2892.0 /   9966.8 /  12675.8 /  7191.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.9 /    32.92 /    34.43 /    34.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.59 /     9.18 /     5.13 /     5.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.25 /    30.11 /    29.95 /    30.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3911.0 /   3111.2 /   5433.3 /  7687.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.9 /    19.88 /    20.08 /    21.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.05 /      1.1 /     1.21 /     1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    82.3 /    82.08 /    81.57 /    80.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1232.0 /   1714.8 /   1720.7 /  1737.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.9 /    33.76 /    33.49 /    33.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.12 /     0.05 /     0.05 /     0.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.55 /    29.24 /    25.95 /    26.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25994.0 /  13993.6 /  3946.95 /  2569.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.28 /     2.12 /      2.1 /     2.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.0 /    18.25 /    10.31 /    11.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   165.5 /    167.8 /   163.22 /   162.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1283.0 /   1727.8 /  2193.45 /  3018.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.0 /    22.14 /    21.64 /    22.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /    19.96 /    21.25 /    23.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.6 /    37.55 /    38.17 /    38.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   781.0 /   1164.8 /  1515.45 /  1660.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.8 /     20.9 /    21.31 /    21.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.72 /      0.7 /     0.65 /      0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.7 /    49.33 /    49.31 /    48.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   180.0 /   102.36 /    78.14 /   106.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.7 /     3.71 /     3.75 /     3.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    75.9 /     75.1 /    74.89 /    74.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17438.0 /  12081.6 /  19548.9 / 20260.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.9 /    21.82 /     21.9 /    23.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 /    10.94 /    10.43 /    18.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.8 /    54.26 /    53.98 /    53.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   478.0 /    561.0 /   936.15 /   852.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.9 /    30.98 /    31.06 /     31.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.29 /     0.58 /     0.66 /     0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   124.0 /    123.1 /   122.68 /   118.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   425.0 /    700.0 /    921.9 /   982.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.5 /    42.42 /    41.97 /    41.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.85 /     0.97 /     0.98 /     1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.4 /    29.09 /    28.94 /    29.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   737.0 /    457.4 /   426.75 /   612.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.33 /     4.24 /     4.48 /     5.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.53 /     0.46 /     0.46 /     0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.5 /    34.07 /     33.4 /    30.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7843.0 /   6578.0 / 10644.55 / 10661.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.0 /     11.7 /     11.2 /    10.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.02 /     0.97 /      0.7 /     0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.0 /    13.94 /    13.92 /     13.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   326.0 /    240.0 /    304.3 /   264.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.17 /     6.18 /     6.19 /     6.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.27 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    58.8 /    58.72 /    58.65 /    58.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1965.0 /   1689.2 /  2126.35 /  3684.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.8 /     24.0 /    24.58 /     25.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.87 /     0.92 /     1.25 /     3.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.9 /    47.77 /    46.91 /    44.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11306.0 /   5073.0 /   5134.6 /  3715.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.8 /    23.36 /    22.82 /    22.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.88 /     0.72 /     0.53 /     0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.5 /    48.42 /    46.89 /    46.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7609.0 /   7829.2 /   6066.8 /  6734.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.1 /    46.94 /    46.76 /    49.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.61 /     3.47 /      6.0 /     6.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.25 /    48.03 /     47.4 /    47.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1124.0 /    808.8 /    654.7 /    886.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.9 /    20.74 /    20.71 /    20.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.19 /     0.18 /      0.2 /     0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    63.0 /    62.76 /    62.79 /    63.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2431.0 /   3460.4 /  4673.35 /   8224.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.4 /     14.4 /    14.51 /    14.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.77 /     4.85 /     4.91 /    24.92</t>
+  </si>
+  <si>
+    <t>台虹</t>
+  </si>
+  <si>
+    <t>台虹科技股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.6 /    46.96 /    46.59 /    46.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   653.0 /    469.0 /    369.6 /   464.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.9 /    14.78 /    14.94 /    14.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.14 /     0.11 /     0.13 /     1.01</t>
   </si>
 </sst>
 </file>
@@ -1617,6 +1662,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1625,9 +1673,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1984,13 +2029,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2011,31 +2056,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>39</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -2050,68 +2095,68 @@
       <c r="M1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
@@ -2160,16 +2205,16 @@
       <c r="Y2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
       <c r="AJ2" s="5">
         <v>2021</v>
       </c>
@@ -2205,26 +2250,26 @@
       <c r="F3">
         <v>19760719</v>
       </c>
-      <c r="G3" s="12">
-        <v>4.43</v>
-      </c>
-      <c r="H3" s="12">
-        <v>17.329999999999998</v>
-      </c>
-      <c r="I3" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>191</v>
+      <c r="G3" s="9">
+        <v>4.34</v>
+      </c>
+      <c r="H3" s="9">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -2327,25 +2372,25 @@
       <c r="F4">
         <v>19951102</v>
       </c>
-      <c r="G4" s="12">
-        <v>3.76</v>
-      </c>
-      <c r="H4" s="12">
-        <v>17.54</v>
-      </c>
-      <c r="I4" s="12">
-        <v>3.24</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="G4" s="9">
+        <v>3.72</v>
+      </c>
+      <c r="H4" s="9">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>177</v>
       </c>
       <c r="N4">
@@ -2449,26 +2494,26 @@
       <c r="F5">
         <v>19730831</v>
       </c>
-      <c r="G5" s="12">
-        <v>5.49</v>
-      </c>
-      <c r="H5" s="12">
-        <v>8.83</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>198</v>
+      <c r="G5" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>8.81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="N5">
         <v>9</v>
@@ -2571,25 +2616,25 @@
       <c r="F6">
         <v>20001031</v>
       </c>
-      <c r="G6" s="12">
-        <v>2.59</v>
-      </c>
-      <c r="H6" s="12">
-        <v>10.96</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.99</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="G6" s="9">
+        <v>2.61</v>
+      </c>
+      <c r="H6" s="9">
+        <v>10.89</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>187</v>
       </c>
       <c r="N6">
@@ -2693,26 +2738,26 @@
       <c r="F7">
         <v>19940326</v>
       </c>
-      <c r="G7" s="12">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="H7" s="12">
-        <v>16.97</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>205</v>
+      <c r="G7" s="9">
+        <v>4.68</v>
+      </c>
+      <c r="H7" s="9">
+        <v>16.88</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.74</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="N7">
         <v>13</v>
@@ -2815,26 +2860,26 @@
       <c r="F8" s="6">
         <v>19950204</v>
       </c>
-      <c r="G8" s="12">
-        <v>6.33</v>
-      </c>
-      <c r="H8" s="12">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="I8" s="12">
-        <v>2.66</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>209</v>
+      <c r="G8" s="9">
+        <v>6.26</v>
+      </c>
+      <c r="H8" s="9">
+        <v>9.06</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="N8" s="6">
         <v>12</v>
@@ -2937,26 +2982,26 @@
       <c r="F9">
         <v>20180416</v>
       </c>
-      <c r="G9" s="12">
-        <v>7.62</v>
-      </c>
-      <c r="H9" s="12">
-        <v>14.91</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="G9" s="9">
+        <v>7.63</v>
+      </c>
+      <c r="H9" s="9">
+        <v>14.89</v>
+      </c>
+      <c r="I9" s="9">
         <v>1.42</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>213</v>
+      <c r="J9" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="N9">
         <v>14</v>
@@ -3059,26 +3104,26 @@
       <c r="F10" s="6">
         <v>19930427</v>
       </c>
-      <c r="G10" s="12">
-        <v>5.37</v>
-      </c>
-      <c r="H10" s="12">
-        <v>8.89</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="G10" s="9">
+        <v>5.38</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="I10" s="9">
         <v>1.97</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>217</v>
+      <c r="J10" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="N10" s="6">
         <v>12</v>
@@ -3181,26 +3226,26 @@
       <c r="F11" s="6">
         <v>20160322</v>
       </c>
-      <c r="G11" s="12">
-        <v>1.55</v>
-      </c>
-      <c r="H11" s="12">
-        <v>9.23</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1.49</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>221</v>
+      <c r="G11" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="H11" s="9">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1.47</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="N11" s="6">
         <v>10</v>
@@ -3285,2320 +3330,2564 @@
       </c>
     </row>
     <row r="12" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2324</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
+      <c r="A12" s="9">
+        <v>2107</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="D12" s="7">
-        <v>44071466250</v>
-      </c>
-      <c r="E12">
-        <v>19840601</v>
-      </c>
-      <c r="F12">
-        <v>19920218</v>
-      </c>
-      <c r="G12" s="12">
-        <v>6.63</v>
-      </c>
-      <c r="H12" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0.97</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="N12">
-        <v>9</v>
-      </c>
-      <c r="O12">
-        <v>28.98</v>
-      </c>
-      <c r="P12">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q12">
-        <v>32.840000000000003</v>
-      </c>
-      <c r="R12">
-        <v>11.4</v>
-      </c>
-      <c r="S12">
-        <v>36.71</v>
-      </c>
-      <c r="T12">
-        <v>12.6</v>
-      </c>
-      <c r="U12">
-        <v>40.57</v>
-      </c>
-      <c r="V12">
-        <v>13.8</v>
-      </c>
-      <c r="W12">
-        <v>44.44</v>
-      </c>
-      <c r="X12">
-        <v>15</v>
-      </c>
-      <c r="Y12">
-        <v>48.3</v>
-      </c>
-      <c r="Z12">
-        <v>3.35</v>
-      </c>
-      <c r="AA12">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AB12">
-        <v>11.72</v>
-      </c>
-      <c r="AC12">
-        <v>1.49</v>
-      </c>
-      <c r="AD12">
-        <v>1.18</v>
-      </c>
-      <c r="AE12">
-        <v>2.33</v>
-      </c>
-      <c r="AF12">
-        <v>73.150000000000006</v>
-      </c>
-      <c r="AG12">
-        <v>-5.67</v>
-      </c>
-      <c r="AH12">
-        <v>-7.8</v>
-      </c>
-      <c r="AI12">
-        <v>36</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>96</v>
+        <v>3423260000</v>
+      </c>
+      <c r="E12" s="9">
+        <v>19630122</v>
+      </c>
+      <c r="F12" s="9">
+        <v>19920303</v>
+      </c>
+      <c r="G12" s="9">
+        <v>6.56</v>
+      </c>
+      <c r="H12" s="9">
+        <v>11.6</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="N12" s="9">
+        <v>7</v>
+      </c>
+      <c r="O12" s="9">
+        <v>13.72</v>
+      </c>
+      <c r="P12" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>16.07</v>
+      </c>
+      <c r="R12" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="S12" s="9">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="T12" s="9">
+        <v>10.6</v>
+      </c>
+      <c r="U12" s="9">
+        <v>20.78</v>
+      </c>
+      <c r="V12" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="W12" s="9">
+        <v>23.13</v>
+      </c>
+      <c r="X12" s="9">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>25.48</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>31.42</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>22.86</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>6.74</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>31.19</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>27.54</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>4.25</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>1.91</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>70</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2347</v>
+        <v>2324</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>16679469680</v>
+        <v>44071466250</v>
       </c>
       <c r="E13">
-        <v>19880912</v>
+        <v>19840601</v>
       </c>
       <c r="F13">
-        <v>19951213</v>
-      </c>
-      <c r="G13" s="12">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="H13" s="12">
+        <v>19920218</v>
+      </c>
+      <c r="G13" s="9">
         <v>6.61</v>
       </c>
-      <c r="I13" s="12">
-        <v>1.87</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>229</v>
+      <c r="H13" s="9">
+        <v>7.52</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="N13">
         <v>9</v>
       </c>
       <c r="O13">
-        <v>90.18</v>
+        <v>28.98</v>
       </c>
       <c r="P13">
         <v>10.199999999999999</v>
       </c>
       <c r="Q13">
-        <v>102.2</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="R13">
         <v>11.4</v>
       </c>
       <c r="S13">
-        <v>114.2</v>
+        <v>36.71</v>
       </c>
       <c r="T13">
         <v>12.6</v>
       </c>
       <c r="U13">
-        <v>126.3</v>
+        <v>40.57</v>
       </c>
       <c r="V13">
         <v>13.8</v>
       </c>
       <c r="W13">
-        <v>138.30000000000001</v>
+        <v>44.44</v>
       </c>
       <c r="X13">
         <v>15</v>
       </c>
       <c r="Y13">
-        <v>150.30000000000001</v>
+        <v>48.3</v>
       </c>
       <c r="Z13">
-        <v>4.4000000000000004</v>
+        <v>3.35</v>
       </c>
       <c r="AA13">
-        <v>2.29</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB13">
-        <v>32.94</v>
+        <v>11.72</v>
       </c>
       <c r="AC13">
-        <v>6.79</v>
+        <v>1.49</v>
       </c>
       <c r="AD13">
-        <v>5.12</v>
+        <v>1.18</v>
       </c>
       <c r="AE13">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AF13">
-        <v>33.729999999999997</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="AG13">
-        <v>3.64</v>
+        <v>-5.67</v>
       </c>
       <c r="AH13">
-        <v>0.68</v>
+        <v>-7.8</v>
       </c>
       <c r="AI13">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="AL13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="AM13" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="AN13" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>19667819580</v>
+        <v>16679469680</v>
       </c>
       <c r="E14">
-        <v>19840421</v>
+        <v>19880912</v>
       </c>
       <c r="F14">
-        <v>19960722</v>
-      </c>
-      <c r="G14" s="12">
+        <v>19951213</v>
+      </c>
+      <c r="G14" s="9">
         <v>4.96</v>
       </c>
-      <c r="H14" s="12">
-        <v>6.56</v>
-      </c>
-      <c r="I14" s="12">
-        <v>1.65</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>233</v>
+      <c r="H14" s="9">
+        <v>6.64</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14">
-        <v>36.96</v>
+        <v>90.18</v>
       </c>
       <c r="P14">
         <v>10.199999999999999</v>
       </c>
       <c r="Q14">
-        <v>47.12</v>
+        <v>102.2</v>
       </c>
       <c r="R14">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="S14">
-        <v>57.29</v>
+        <v>114.2</v>
       </c>
       <c r="T14">
-        <v>14.6</v>
+        <v>12.6</v>
       </c>
       <c r="U14">
-        <v>67.45</v>
+        <v>126.3</v>
       </c>
       <c r="V14">
-        <v>16.8</v>
+        <v>13.8</v>
       </c>
       <c r="W14">
-        <v>77.62</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="X14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y14">
-        <v>87.78</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="Z14">
-        <v>14.67</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AA14">
-        <v>3.42</v>
+        <v>2.29</v>
       </c>
       <c r="AB14">
-        <v>20.170000000000002</v>
+        <v>32.94</v>
       </c>
       <c r="AC14">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="AD14">
-        <v>5.45</v>
+        <v>5.12</v>
       </c>
       <c r="AE14">
-        <v>1.24</v>
+        <v>2.25</v>
       </c>
       <c r="AF14">
-        <v>51.12</v>
+        <v>33.729999999999997</v>
       </c>
       <c r="AG14">
-        <v>-1.7</v>
+        <v>3.64</v>
       </c>
       <c r="AH14">
-        <v>-5.0199999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="AI14">
         <v>40</v>
       </c>
       <c r="AJ14" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="AK14" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="AL14" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AM14" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AN14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>2385</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
+      <c r="A15">
+        <v>2352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
       </c>
       <c r="D15" s="7">
-        <v>7452927490</v>
-      </c>
-      <c r="E15" s="6">
-        <v>19830222</v>
-      </c>
-      <c r="F15" s="6">
-        <v>19990105</v>
-      </c>
-      <c r="G15" s="12">
-        <v>6.67</v>
-      </c>
-      <c r="H15" s="12">
-        <v>10.16</v>
-      </c>
-      <c r="I15" s="12">
-        <v>2.06</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>237</v>
+        <v>19667819580</v>
+      </c>
+      <c r="E15">
+        <v>19840421</v>
+      </c>
+      <c r="F15">
+        <v>19960722</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="H15" s="9">
+        <v>6.56</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O15">
-        <v>81.2</v>
+        <v>36.96</v>
       </c>
       <c r="P15">
-        <v>11</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q15">
-        <v>89.32</v>
+        <v>47.12</v>
       </c>
       <c r="R15">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="S15">
-        <v>97.44</v>
+        <v>57.29</v>
       </c>
       <c r="T15">
-        <v>13</v>
+        <v>14.6</v>
       </c>
       <c r="U15">
-        <v>105.6</v>
+        <v>67.45</v>
       </c>
       <c r="V15">
-        <v>14</v>
+        <v>16.8</v>
       </c>
       <c r="W15">
-        <v>113.7</v>
+        <v>77.62</v>
       </c>
       <c r="X15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y15">
-        <v>121.8</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>17.55</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="AB15" s="6">
-        <v>22.24</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>7.09</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>1.32</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>89.98</v>
-      </c>
-      <c r="AG15" s="6">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="AH15" s="6">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AI15" s="6">
-        <v>38</v>
+        <v>87.78</v>
+      </c>
+      <c r="Z15">
+        <v>14.67</v>
+      </c>
+      <c r="AA15">
+        <v>3.42</v>
+      </c>
+      <c r="AB15">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="AC15">
+        <v>6.69</v>
+      </c>
+      <c r="AD15">
+        <v>5.45</v>
+      </c>
+      <c r="AE15">
+        <v>1.24</v>
+      </c>
+      <c r="AF15">
+        <v>51.12</v>
+      </c>
+      <c r="AG15">
+        <v>-1.7</v>
+      </c>
+      <c r="AH15">
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="AI15">
+        <v>40</v>
       </c>
       <c r="AJ15" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="AM15" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="AN15" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2417</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
+      <c r="A16" s="6">
+        <v>2385</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>1543138640</v>
-      </c>
-      <c r="E16">
-        <v>19900117</v>
-      </c>
-      <c r="F16">
-        <v>20000911</v>
-      </c>
-      <c r="G16" s="12">
-        <v>6.56</v>
-      </c>
-      <c r="H16" s="12">
-        <v>11.3</v>
-      </c>
-      <c r="I16" s="12">
-        <v>1.39</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>241</v>
+        <v>7452927490</v>
+      </c>
+      <c r="E16" s="6">
+        <v>19830222</v>
+      </c>
+      <c r="F16" s="6">
+        <v>19990105</v>
+      </c>
+      <c r="G16" s="9">
+        <v>6.68</v>
+      </c>
+      <c r="H16" s="9">
+        <v>10.15</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2.06</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>81.2</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <v>89.32</v>
+      </c>
+      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
+        <v>97.44</v>
+      </c>
+      <c r="T16">
         <v>13</v>
       </c>
-      <c r="O16">
-        <v>28.34</v>
-      </c>
-      <c r="P16">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q16">
-        <v>35.75</v>
-      </c>
-      <c r="R16">
-        <v>19.8</v>
-      </c>
-      <c r="S16">
-        <v>43.16</v>
-      </c>
-      <c r="T16">
-        <v>23.2</v>
-      </c>
       <c r="U16">
-        <v>50.58</v>
+        <v>105.6</v>
       </c>
       <c r="V16">
-        <v>26.6</v>
+        <v>14</v>
       </c>
       <c r="W16">
-        <v>57.99</v>
+        <v>113.7</v>
       </c>
       <c r="X16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y16">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="Z16">
-        <v>48.85</v>
-      </c>
-      <c r="AA16">
-        <v>12.06</v>
-      </c>
-      <c r="AB16">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="AC16">
-        <v>12.15</v>
-      </c>
-      <c r="AD16">
-        <v>9.57</v>
-      </c>
-      <c r="AE16">
-        <v>0.67</v>
-      </c>
-      <c r="AF16">
-        <v>99.26</v>
-      </c>
-      <c r="AG16">
-        <v>0.98</v>
-      </c>
-      <c r="AH16">
-        <v>-0.77</v>
-      </c>
-      <c r="AI16">
-        <v>60</v>
+        <v>121.8</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>17.55</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>22.24</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>7.09</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>1.32</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>89.98</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AI16" s="6">
+        <v>38</v>
       </c>
       <c r="AJ16" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AL16" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>2458</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
+      <c r="A17">
+        <v>2417</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
       </c>
       <c r="D17" s="7">
-        <v>3038803920</v>
-      </c>
-      <c r="E17" s="6">
-        <v>19940505</v>
-      </c>
-      <c r="F17" s="6">
-        <v>20010917</v>
-      </c>
-      <c r="G17" s="12">
-        <v>5.36</v>
-      </c>
-      <c r="H17" s="12">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="I17" s="12">
-        <v>5.03</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="N17" s="6">
-        <v>12</v>
-      </c>
-      <c r="O17" s="6">
-        <v>205.2</v>
-      </c>
-      <c r="P17" s="6">
-        <v>14.2</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>242.8</v>
-      </c>
-      <c r="R17" s="6">
+        <v>1543138640</v>
+      </c>
+      <c r="E17">
+        <v>19900117</v>
+      </c>
+      <c r="F17">
+        <v>20000911</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5.96</v>
+      </c>
+      <c r="H17" s="9">
+        <v>12.43</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1.53</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>28.34</v>
+      </c>
+      <c r="P17">
         <v>16.399999999999999</v>
       </c>
-      <c r="S17" s="6">
-        <v>280.39999999999998</v>
-      </c>
-      <c r="T17" s="6">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="U17" s="6">
-        <v>318.10000000000002</v>
-      </c>
-      <c r="V17" s="6">
-        <v>20.8</v>
-      </c>
-      <c r="W17" s="6">
-        <v>355.7</v>
-      </c>
-      <c r="X17" s="6">
-        <v>23</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>393.3</v>
-      </c>
-      <c r="Z17" s="6">
-        <v>49.84</v>
-      </c>
-      <c r="AA17" s="6">
-        <v>31.99</v>
-      </c>
-      <c r="AB17" s="6">
-        <v>52.13</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>32.97</v>
-      </c>
-      <c r="AD17" s="6">
-        <v>26.28</v>
-      </c>
-      <c r="AE17" s="6">
-        <v>1.23</v>
-      </c>
-      <c r="AF17" s="6">
-        <v>97.03</v>
-      </c>
-      <c r="AG17" s="6">
-        <v>12.18</v>
-      </c>
-      <c r="AH17" s="6">
-        <v>18.04</v>
-      </c>
-      <c r="AI17" s="6">
-        <v>74</v>
+      <c r="Q17">
+        <v>35.75</v>
+      </c>
+      <c r="R17">
+        <v>19.8</v>
+      </c>
+      <c r="S17">
+        <v>43.16</v>
+      </c>
+      <c r="T17">
+        <v>23.2</v>
+      </c>
+      <c r="U17">
+        <v>50.58</v>
+      </c>
+      <c r="V17">
+        <v>26.6</v>
+      </c>
+      <c r="W17">
+        <v>57.99</v>
+      </c>
+      <c r="X17">
+        <v>30</v>
+      </c>
+      <c r="Y17">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="Z17">
+        <v>48.85</v>
+      </c>
+      <c r="AA17">
+        <v>12.06</v>
+      </c>
+      <c r="AB17">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="AC17">
+        <v>12.15</v>
+      </c>
+      <c r="AD17">
+        <v>9.57</v>
+      </c>
+      <c r="AE17">
+        <v>0.67</v>
+      </c>
+      <c r="AF17">
+        <v>99.26</v>
+      </c>
+      <c r="AG17">
+        <v>0.98</v>
+      </c>
+      <c r="AH17">
+        <v>-0.77</v>
+      </c>
+      <c r="AI17">
+        <v>60</v>
       </c>
       <c r="AJ17" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="AK17" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AL17" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="AM17" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="AN17" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2520</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
+      <c r="A18" s="6">
+        <v>2458</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>5541701000</v>
-      </c>
-      <c r="E18">
-        <v>19791123</v>
-      </c>
-      <c r="F18">
-        <v>19931027</v>
-      </c>
-      <c r="G18" s="12">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="H18" s="12">
-        <v>4.42</v>
-      </c>
-      <c r="I18" s="12">
-        <v>1.24</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="N18">
-        <v>7</v>
-      </c>
-      <c r="O18">
-        <v>59.57</v>
-      </c>
-      <c r="P18">
-        <v>8.4</v>
-      </c>
-      <c r="Q18">
-        <v>71.48</v>
-      </c>
-      <c r="R18">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="S18">
-        <v>83.4</v>
-      </c>
-      <c r="T18">
-        <v>11.2</v>
-      </c>
-      <c r="U18">
-        <v>95.31</v>
-      </c>
-      <c r="V18">
-        <v>12.6</v>
-      </c>
-      <c r="W18">
-        <v>107.2</v>
-      </c>
-      <c r="X18">
-        <v>14</v>
-      </c>
-      <c r="Y18">
-        <v>119.1</v>
-      </c>
-      <c r="Z18">
-        <v>26.73</v>
-      </c>
-      <c r="AA18">
-        <v>19.5</v>
-      </c>
-      <c r="AB18">
-        <v>21.09</v>
-      </c>
-      <c r="AC18">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AD18">
-        <v>15.12</v>
-      </c>
-      <c r="AE18">
-        <v>0.46</v>
-      </c>
-      <c r="AF18">
-        <v>103.17</v>
-      </c>
-      <c r="AG18">
-        <v>10.72</v>
-      </c>
-      <c r="AH18">
-        <v>10.69</v>
-      </c>
-      <c r="AI18">
-        <v>53</v>
+        <v>3038803920</v>
+      </c>
+      <c r="E18" s="6">
+        <v>19940505</v>
+      </c>
+      <c r="F18" s="6">
+        <v>20010917</v>
+      </c>
+      <c r="G18" s="9">
+        <v>5.44</v>
+      </c>
+      <c r="H18" s="9">
+        <v>9.48</v>
+      </c>
+      <c r="I18" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="N18" s="6">
+        <v>12</v>
+      </c>
+      <c r="O18" s="6">
+        <v>205.2</v>
+      </c>
+      <c r="P18" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>242.8</v>
+      </c>
+      <c r="R18" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S18" s="6">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="T18" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="U18" s="6">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="V18" s="6">
+        <v>20.8</v>
+      </c>
+      <c r="W18" s="6">
+        <v>355.7</v>
+      </c>
+      <c r="X18" s="6">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>393.3</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>49.84</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>31.99</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>52.13</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>32.97</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>26.28</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>1.23</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>97.03</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>12.18</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>18.04</v>
+      </c>
+      <c r="AI18" s="6">
+        <v>74</v>
       </c>
       <c r="AJ18" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="AK18" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AL18" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="AM18" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="AN18" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>2546</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>24</v>
+      <c r="A19">
+        <v>2520</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
       </c>
       <c r="D19" s="7">
-        <v>1060356600</v>
-      </c>
-      <c r="E19" s="6">
-        <v>19820413</v>
-      </c>
-      <c r="F19" s="6">
-        <v>20000911</v>
-      </c>
-      <c r="G19" s="12">
-        <v>7.26</v>
-      </c>
-      <c r="H19" s="12">
-        <v>7.06</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1.57</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="N19" s="6">
+        <v>5541701000</v>
+      </c>
+      <c r="E19">
+        <v>19791123</v>
+      </c>
+      <c r="F19">
+        <v>19931027</v>
+      </c>
+      <c r="G19" s="9">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H19" s="9">
+        <v>4.42</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1.24</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N19">
         <v>7</v>
       </c>
-      <c r="O19" s="6">
-        <v>49.21</v>
-      </c>
-      <c r="P19" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>56.24</v>
-      </c>
-      <c r="R19" s="6">
-        <v>9</v>
-      </c>
-      <c r="S19" s="6">
-        <v>63.27</v>
-      </c>
-      <c r="T19" s="6">
-        <v>10</v>
-      </c>
-      <c r="U19" s="6">
-        <v>70.3</v>
-      </c>
-      <c r="V19" s="6">
-        <v>11</v>
-      </c>
-      <c r="W19" s="6">
-        <v>77.33</v>
-      </c>
-      <c r="X19" s="6">
-        <v>12</v>
-      </c>
-      <c r="Y19" s="6">
-        <v>84.36</v>
-      </c>
-      <c r="Z19" s="6">
-        <v>11.23</v>
-      </c>
-      <c r="AA19" s="6">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="AB19" s="6">
-        <v>23.02</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>9.17</v>
-      </c>
-      <c r="AD19" s="6">
-        <v>7.35</v>
-      </c>
-      <c r="AE19" s="6">
-        <v>1.07</v>
-      </c>
-      <c r="AF19" s="6">
-        <v>91.38</v>
-      </c>
-      <c r="AG19" s="6">
-        <v>5.88</v>
-      </c>
-      <c r="AH19" s="6">
-        <v>5.85</v>
-      </c>
-      <c r="AI19" s="6">
-        <v>45</v>
+      <c r="O19">
+        <v>59.57</v>
+      </c>
+      <c r="P19">
+        <v>8.4</v>
+      </c>
+      <c r="Q19">
+        <v>71.48</v>
+      </c>
+      <c r="R19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="S19">
+        <v>83.4</v>
+      </c>
+      <c r="T19">
+        <v>11.2</v>
+      </c>
+      <c r="U19">
+        <v>95.31</v>
+      </c>
+      <c r="V19">
+        <v>12.6</v>
+      </c>
+      <c r="W19">
+        <v>107.2</v>
+      </c>
+      <c r="X19">
+        <v>14</v>
+      </c>
+      <c r="Y19">
+        <v>119.1</v>
+      </c>
+      <c r="Z19">
+        <v>26.73</v>
+      </c>
+      <c r="AA19">
+        <v>19.5</v>
+      </c>
+      <c r="AB19">
+        <v>21.09</v>
+      </c>
+      <c r="AC19">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AD19">
+        <v>15.12</v>
+      </c>
+      <c r="AE19">
+        <v>0.46</v>
+      </c>
+      <c r="AF19">
+        <v>103.17</v>
+      </c>
+      <c r="AG19">
+        <v>10.72</v>
+      </c>
+      <c r="AH19">
+        <v>10.69</v>
+      </c>
+      <c r="AI19">
+        <v>53</v>
       </c>
       <c r="AJ19" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="AK19" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="AL19" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="AM19" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="AN19" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>2881</v>
+        <v>2546</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>134049543940</v>
+        <v>1060356600</v>
       </c>
       <c r="E20" s="6">
-        <v>20011219</v>
+        <v>19820413</v>
       </c>
       <c r="F20" s="6">
-        <v>20011219</v>
-      </c>
-      <c r="G20" s="12">
-        <v>3.99</v>
-      </c>
-      <c r="H20" s="12">
-        <v>6.19</v>
-      </c>
-      <c r="I20" s="12">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>256</v>
+        <v>20000911</v>
+      </c>
+      <c r="G20" s="9">
+        <v>7.24</v>
+      </c>
+      <c r="H20" s="9">
+        <v>7.07</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1.58</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="N20" s="6">
         <v>7</v>
       </c>
       <c r="O20" s="6">
-        <v>92.68</v>
+        <v>49.21</v>
       </c>
       <c r="P20" s="6">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="6">
-        <v>103.3</v>
+        <v>56.24</v>
       </c>
       <c r="R20" s="6">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="S20" s="6">
-        <v>113.9</v>
+        <v>63.27</v>
       </c>
       <c r="T20" s="6">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="U20" s="6">
-        <v>124.5</v>
+        <v>70.3</v>
       </c>
       <c r="V20" s="6">
-        <v>10.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="W20" s="6">
-        <v>135</v>
+        <v>77.33</v>
       </c>
       <c r="X20" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y20" s="6">
-        <v>145.6</v>
+        <v>84.36</v>
       </c>
       <c r="Z20" s="6">
-        <v>0</v>
+        <v>11.23</v>
       </c>
       <c r="AA20" s="6">
-        <v>0</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="AB20" s="6">
-        <v>21.39</v>
+        <v>23.02</v>
       </c>
       <c r="AC20" s="6">
-        <v>39.32</v>
+        <v>9.17</v>
       </c>
       <c r="AD20" s="6">
-        <v>34.96</v>
+        <v>7.35</v>
       </c>
       <c r="AE20" s="6">
-        <v>0.05</v>
+        <v>1.07</v>
       </c>
       <c r="AF20" s="6">
-        <v>0</v>
+        <v>91.38</v>
       </c>
       <c r="AG20" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.88</v>
       </c>
       <c r="AH20" s="6">
-        <v>4.46</v>
+        <v>5.85</v>
       </c>
       <c r="AI20" s="6">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AJ20" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="AL20" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="AM20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AN20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3005</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
+      <c r="A21" s="6">
+        <v>2881</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>5954614000</v>
-      </c>
-      <c r="E21">
-        <v>19891005</v>
-      </c>
-      <c r="F21">
-        <v>20020225</v>
-      </c>
-      <c r="G21" s="12">
-        <v>6.58</v>
-      </c>
-      <c r="H21" s="12">
-        <v>7.52</v>
-      </c>
-      <c r="I21" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="N21">
-        <v>10</v>
-      </c>
-      <c r="O21">
-        <v>73</v>
-      </c>
-      <c r="P21">
-        <v>11.4</v>
-      </c>
-      <c r="Q21">
-        <v>83.22</v>
-      </c>
-      <c r="R21">
-        <v>12.8</v>
-      </c>
-      <c r="S21">
-        <v>93.44</v>
-      </c>
-      <c r="T21">
-        <v>14.2</v>
-      </c>
-      <c r="U21">
-        <v>103.7</v>
-      </c>
-      <c r="V21">
-        <v>15.6</v>
-      </c>
-      <c r="W21">
+        <v>134049543940</v>
+      </c>
+      <c r="E21" s="6">
+        <v>20011219</v>
+      </c>
+      <c r="F21" s="6">
+        <v>20011219</v>
+      </c>
+      <c r="G21" s="9">
+        <v>3.95</v>
+      </c>
+      <c r="H21" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="N21" s="6">
+        <v>7</v>
+      </c>
+      <c r="O21" s="6">
+        <v>92.68</v>
+      </c>
+      <c r="P21" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>103.3</v>
+      </c>
+      <c r="R21" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="S21" s="6">
         <v>113.9</v>
       </c>
-      <c r="X21">
-        <v>17</v>
-      </c>
-      <c r="Y21">
-        <v>124.1</v>
-      </c>
-      <c r="Z21">
-        <v>24.89</v>
-      </c>
-      <c r="AA21">
-        <v>8.01</v>
-      </c>
-      <c r="AB21">
-        <v>25.54</v>
-      </c>
-      <c r="AC21">
-        <v>20.46</v>
-      </c>
-      <c r="AD21">
-        <v>15.77</v>
-      </c>
-      <c r="AE21">
-        <v>0.86</v>
-      </c>
-      <c r="AF21">
-        <v>39.15</v>
-      </c>
-      <c r="AG21">
-        <v>0.9</v>
-      </c>
-      <c r="AH21">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="AI21">
-        <v>57</v>
+      <c r="T21" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="U21" s="6">
+        <v>124.5</v>
+      </c>
+      <c r="V21" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W21" s="6">
+        <v>135</v>
+      </c>
+      <c r="X21" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>145.6</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>21.39</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>39.32</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>34.96</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH21" s="6">
+        <v>4.46</v>
+      </c>
+      <c r="AI21" s="6">
+        <v>56</v>
       </c>
       <c r="AJ21" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="AK21" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="AL21" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="AM21" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AN21" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3044</v>
+        <v>3005</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7">
-        <v>5256058980</v>
+        <v>5954614000</v>
       </c>
       <c r="E22">
-        <v>19911216</v>
+        <v>19891005</v>
       </c>
       <c r="F22">
-        <v>20020826</v>
-      </c>
-      <c r="G22" s="12">
-        <v>5.93</v>
-      </c>
-      <c r="H22" s="12">
-        <v>10.57</v>
-      </c>
-      <c r="I22" s="12">
-        <v>1.78</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>264</v>
+        <v>20020225</v>
+      </c>
+      <c r="G22" s="9">
+        <v>6.55</v>
+      </c>
+      <c r="H22" s="9">
+        <v>7.55</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="N22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O22">
-        <v>93.92</v>
+        <v>73</v>
       </c>
       <c r="P22">
-        <v>9.1999999999999993</v>
+        <v>11.4</v>
       </c>
       <c r="Q22">
-        <v>108</v>
+        <v>83.22</v>
       </c>
       <c r="R22">
-        <v>10.4</v>
+        <v>12.8</v>
       </c>
       <c r="S22">
-        <v>122.1</v>
+        <v>93.44</v>
       </c>
       <c r="T22">
-        <v>11.6</v>
+        <v>14.2</v>
       </c>
       <c r="U22">
-        <v>136.19999999999999</v>
+        <v>103.7</v>
       </c>
       <c r="V22">
-        <v>12.8</v>
+        <v>15.6</v>
       </c>
       <c r="W22">
-        <v>150.30000000000001</v>
+        <v>113.9</v>
       </c>
       <c r="X22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y22">
-        <v>164.4</v>
+        <v>124.1</v>
       </c>
       <c r="Z22">
-        <v>18.75</v>
+        <v>24.89</v>
       </c>
       <c r="AA22">
-        <v>10.47</v>
+        <v>8.01</v>
       </c>
       <c r="AB22">
-        <v>15.91</v>
+        <v>25.54</v>
       </c>
       <c r="AC22">
-        <v>11.99</v>
+        <v>20.46</v>
       </c>
       <c r="AD22">
-        <v>9.36</v>
+        <v>15.77</v>
       </c>
       <c r="AE22">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="AF22">
-        <v>87.32</v>
+        <v>39.15</v>
       </c>
       <c r="AG22">
-        <v>7.58</v>
+        <v>0.9</v>
       </c>
       <c r="AH22">
-        <v>-10.16</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AI22">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AJ22" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="AK22" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="AL22" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="AM22" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="AN22" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3209</v>
+        <v>3044</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D23" s="7">
-        <v>2005321840</v>
+        <v>5256058980</v>
       </c>
       <c r="E23">
-        <v>19910415</v>
+        <v>19911216</v>
       </c>
       <c r="F23">
-        <v>20081126</v>
-      </c>
-      <c r="G23" s="12">
-        <v>6.86</v>
-      </c>
-      <c r="H23" s="12">
-        <v>8.17</v>
-      </c>
-      <c r="I23" s="12">
-        <v>1.67</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>268</v>
+        <v>20020826</v>
+      </c>
+      <c r="G23" s="9">
+        <v>5.93</v>
+      </c>
+      <c r="H23" s="9">
+        <v>10.57</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1.78</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="N23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23">
-        <v>32.04</v>
+        <v>93.92</v>
       </c>
       <c r="P23">
-        <v>10</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Q23">
-        <v>35.6</v>
+        <v>108</v>
       </c>
       <c r="R23">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="S23">
-        <v>39.159999999999997</v>
+        <v>122.1</v>
       </c>
       <c r="T23">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="U23">
-        <v>42.72</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="V23">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="W23">
-        <v>46.28</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="X23">
         <v>14</v>
       </c>
       <c r="Y23">
-        <v>49.84</v>
+        <v>164.4</v>
       </c>
       <c r="Z23">
-        <v>5.31</v>
+        <v>18.75</v>
       </c>
       <c r="AA23">
-        <v>2.25</v>
+        <v>10.47</v>
       </c>
       <c r="AB23">
-        <v>22.5</v>
+        <v>15.91</v>
       </c>
       <c r="AC23">
-        <v>2.11</v>
+        <v>11.99</v>
       </c>
       <c r="AD23">
-        <v>1.63</v>
+        <v>9.36</v>
       </c>
       <c r="AE23">
-        <v>3.25</v>
+        <v>0.78</v>
       </c>
       <c r="AF23">
-        <v>106.64</v>
+        <v>87.32</v>
       </c>
       <c r="AG23">
-        <v>0.7</v>
+        <v>7.58</v>
       </c>
       <c r="AH23">
-        <v>-1.1599999999999999</v>
+        <v>-10.16</v>
       </c>
       <c r="AI23">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AJ23" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AM23" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="AN23" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3706</v>
+        <v>3209</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2005321840</v>
+      </c>
+      <c r="E24">
+        <v>19910415</v>
+      </c>
+      <c r="F24">
+        <v>20081126</v>
+      </c>
+      <c r="G24" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="H24" s="9">
+        <v>8.24</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1.68</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="N24">
+        <v>9</v>
+      </c>
+      <c r="O24">
+        <v>32.04</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>35.6</v>
+      </c>
+      <c r="R24">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="T24">
+        <v>12</v>
+      </c>
+      <c r="U24">
+        <v>42.72</v>
+      </c>
+      <c r="V24">
+        <v>13</v>
+      </c>
+      <c r="W24">
+        <v>46.28</v>
+      </c>
+      <c r="X24">
+        <v>14</v>
+      </c>
+      <c r="Y24">
+        <v>49.84</v>
+      </c>
+      <c r="Z24">
+        <v>5.31</v>
+      </c>
+      <c r="AA24">
+        <v>2.25</v>
+      </c>
+      <c r="AB24">
+        <v>22.5</v>
+      </c>
+      <c r="AC24">
+        <v>2.11</v>
+      </c>
+      <c r="AD24">
+        <v>1.63</v>
+      </c>
+      <c r="AE24">
+        <v>3.25</v>
+      </c>
+      <c r="AF24">
+        <v>106.64</v>
+      </c>
+      <c r="AG24">
+        <v>0.7</v>
+      </c>
+      <c r="AH24">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AI24">
         <v>38</v>
       </c>
-      <c r="D24" s="7">
-        <v>12065567890</v>
-      </c>
-      <c r="E24">
-        <v>20130912</v>
-      </c>
-      <c r="F24">
-        <v>20130912</v>
-      </c>
-      <c r="G24" s="12">
-        <v>2.91</v>
-      </c>
-      <c r="H24" s="12">
-        <v>3.33</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0.83</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="N24">
-        <v>8</v>
-      </c>
-      <c r="O24">
-        <v>82.56</v>
-      </c>
-      <c r="P24">
-        <v>9.4</v>
-      </c>
-      <c r="Q24">
-        <v>97.01</v>
-      </c>
-      <c r="R24">
-        <v>10.8</v>
-      </c>
-      <c r="S24">
-        <v>111.5</v>
-      </c>
-      <c r="T24">
-        <v>12.2</v>
-      </c>
-      <c r="U24">
-        <v>125.9</v>
-      </c>
-      <c r="V24">
-        <v>13.6</v>
-      </c>
-      <c r="W24">
-        <v>140.4</v>
-      </c>
-      <c r="X24">
-        <v>15</v>
-      </c>
-      <c r="Y24">
-        <v>154.80000000000001</v>
-      </c>
-      <c r="Z24">
-        <v>9.75</v>
-      </c>
-      <c r="AA24">
-        <v>-0.09</v>
-      </c>
-      <c r="AB24">
-        <v>33</v>
-      </c>
-      <c r="AC24">
-        <v>55.14</v>
-      </c>
-      <c r="AD24">
-        <v>34.869999999999997</v>
-      </c>
-      <c r="AE24">
-        <v>0.68</v>
-      </c>
-      <c r="AF24">
-        <v>-0.16</v>
-      </c>
-      <c r="AG24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AH24">
-        <v>1.44</v>
-      </c>
-      <c r="AI24">
-        <v>57</v>
-      </c>
       <c r="AJ24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK24" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="AL24" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="AM24" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="AN24" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>5515</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2574401050</v>
-      </c>
-      <c r="E25" s="6">
-        <v>19601121</v>
-      </c>
-      <c r="F25" s="6">
-        <v>20031006</v>
-      </c>
-      <c r="G25" s="12">
-        <v>5.71</v>
-      </c>
-      <c r="H25" s="12">
-        <v>7.73</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0.77</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="N25" s="6">
-        <v>11</v>
-      </c>
-      <c r="O25" s="6">
-        <v>19.8</v>
-      </c>
-      <c r="P25" s="6">
-        <v>12.4</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>22.32</v>
-      </c>
-      <c r="R25" s="6">
-        <v>13.8</v>
-      </c>
-      <c r="S25" s="6">
-        <v>24.84</v>
-      </c>
-      <c r="T25" s="6">
-        <v>15.2</v>
-      </c>
-      <c r="U25" s="6">
-        <v>27.36</v>
-      </c>
-      <c r="V25" s="6">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="W25" s="6">
-        <v>29.88</v>
-      </c>
-      <c r="X25" s="6">
-        <v>18</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>32.4</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>13.13</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>7.24</v>
-      </c>
-      <c r="AB25" s="6">
-        <v>10.87</v>
-      </c>
-      <c r="AC25" s="6">
-        <v>12.76</v>
-      </c>
-      <c r="AD25" s="6">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="AE25" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="AF25" s="6">
-        <v>56.74</v>
-      </c>
-      <c r="AG25" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="AH25" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="AI25" s="6">
-        <v>51</v>
+      <c r="A25">
+        <v>3706</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7">
+        <v>12065567890</v>
+      </c>
+      <c r="E25">
+        <v>20130912</v>
+      </c>
+      <c r="F25">
+        <v>20130912</v>
+      </c>
+      <c r="G25" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="H25" s="9">
+        <v>3.34</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>82.56</v>
+      </c>
+      <c r="P25">
+        <v>9.4</v>
+      </c>
+      <c r="Q25">
+        <v>97.01</v>
+      </c>
+      <c r="R25">
+        <v>10.8</v>
+      </c>
+      <c r="S25">
+        <v>111.5</v>
+      </c>
+      <c r="T25">
+        <v>12.2</v>
+      </c>
+      <c r="U25">
+        <v>125.9</v>
+      </c>
+      <c r="V25">
+        <v>13.6</v>
+      </c>
+      <c r="W25">
+        <v>140.4</v>
+      </c>
+      <c r="X25">
+        <v>15</v>
+      </c>
+      <c r="Y25">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>9.75</v>
+      </c>
+      <c r="AA25">
+        <v>-0.09</v>
+      </c>
+      <c r="AB25">
+        <v>33</v>
+      </c>
+      <c r="AC25">
+        <v>55.14</v>
+      </c>
+      <c r="AD25">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="AE25">
+        <v>0.68</v>
+      </c>
+      <c r="AF25">
+        <v>-0.16</v>
+      </c>
+      <c r="AG25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH25">
+        <v>1.44</v>
+      </c>
+      <c r="AI25">
+        <v>57</v>
       </c>
       <c r="AJ25" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="AK25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AL25" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="AM25" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AN25" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>6257</v>
-      </c>
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>121</v>
+      <c r="A26" s="6">
+        <v>5515</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D26" s="7">
-        <v>4444791420</v>
-      </c>
-      <c r="E26">
-        <v>19881215</v>
-      </c>
-      <c r="F26">
-        <v>20030825</v>
-      </c>
-      <c r="G26" s="12">
-        <v>4.87</v>
-      </c>
-      <c r="H26" s="12">
-        <v>10.26</v>
-      </c>
-      <c r="I26" s="12">
-        <v>1.85</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="N26">
-        <v>9</v>
-      </c>
-      <c r="O26">
-        <v>52.47</v>
-      </c>
-      <c r="P26">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q26">
-        <v>59.47</v>
-      </c>
-      <c r="R26">
-        <v>11.4</v>
-      </c>
-      <c r="S26">
-        <v>66.459999999999994</v>
-      </c>
-      <c r="T26">
-        <v>12.6</v>
-      </c>
-      <c r="U26">
-        <v>73.459999999999994</v>
-      </c>
-      <c r="V26">
+        <v>2574401050</v>
+      </c>
+      <c r="E26" s="6">
+        <v>19601121</v>
+      </c>
+      <c r="F26" s="6">
+        <v>20031006</v>
+      </c>
+      <c r="G26" s="9">
+        <v>5.71</v>
+      </c>
+      <c r="H26" s="9">
+        <v>7.73</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="N26" s="6">
+        <v>11</v>
+      </c>
+      <c r="O26" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="P26" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>22.32</v>
+      </c>
+      <c r="R26" s="6">
         <v>13.8</v>
       </c>
-      <c r="W26">
-        <v>80.45</v>
-      </c>
-      <c r="X26">
-        <v>15</v>
-      </c>
-      <c r="Y26">
-        <v>87.45</v>
-      </c>
-      <c r="Z26">
-        <v>30.03</v>
-      </c>
-      <c r="AA26">
-        <v>21.36</v>
-      </c>
-      <c r="AB26">
-        <v>19.16</v>
-      </c>
-      <c r="AC26">
-        <v>22.37</v>
-      </c>
-      <c r="AD26">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="AE26">
-        <v>0.51</v>
-      </c>
-      <c r="AF26">
-        <v>95.49</v>
-      </c>
-      <c r="AG26">
-        <v>17.23</v>
-      </c>
-      <c r="AH26">
-        <v>-2.14</v>
-      </c>
-      <c r="AI26">
-        <v>64</v>
+      <c r="S26" s="6">
+        <v>24.84</v>
+      </c>
+      <c r="T26" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="U26" s="6">
+        <v>27.36</v>
+      </c>
+      <c r="V26" s="6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W26" s="6">
+        <v>29.88</v>
+      </c>
+      <c r="X26" s="6">
+        <v>18</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>13.13</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>7.24</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>10.87</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>12.76</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>56.74</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="AH26" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AI26" s="6">
+        <v>51</v>
       </c>
       <c r="AJ26" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="AK26" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="AL26" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AM26" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="AN26" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8112</v>
+        <v>6257</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="D27" s="7">
-        <v>4284964730</v>
+        <v>4444791420</v>
       </c>
       <c r="E27">
-        <v>19870305</v>
+        <v>19881215</v>
       </c>
       <c r="F27">
-        <v>20071231</v>
-      </c>
-      <c r="G27" s="12">
-        <v>6.29</v>
-      </c>
-      <c r="H27" s="12">
-        <v>7.52</v>
-      </c>
-      <c r="I27" s="12">
-        <v>1.94</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>284</v>
+        <v>20030825</v>
+      </c>
+      <c r="G27" s="9">
+        <v>4.88</v>
+      </c>
+      <c r="H27" s="9">
+        <v>10.24</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1.84</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O27">
-        <v>46.97</v>
+        <v>52.47</v>
       </c>
       <c r="P27">
-        <v>8.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q27">
-        <v>55.02</v>
+        <v>59.47</v>
       </c>
       <c r="R27">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="S27">
-        <v>63.07</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="T27">
-        <v>10.6</v>
+        <v>12.6</v>
       </c>
       <c r="U27">
-        <v>71.13</v>
+        <v>73.459999999999994</v>
       </c>
       <c r="V27">
-        <v>11.8</v>
+        <v>13.8</v>
       </c>
       <c r="W27">
-        <v>79.180000000000007</v>
+        <v>80.45</v>
       </c>
       <c r="X27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y27">
-        <v>87.23</v>
+        <v>87.45</v>
       </c>
       <c r="Z27">
-        <v>3.26</v>
+        <v>30.03</v>
       </c>
       <c r="AA27">
-        <v>2.17</v>
+        <v>21.36</v>
       </c>
       <c r="AB27">
-        <v>31.83</v>
+        <v>19.16</v>
       </c>
       <c r="AC27">
-        <v>2.02</v>
+        <v>22.37</v>
       </c>
       <c r="AD27">
-        <v>1.53</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="AE27">
-        <v>4.42</v>
+        <v>0.51</v>
       </c>
       <c r="AF27">
-        <v>107.43</v>
+        <v>95.49</v>
       </c>
       <c r="AG27">
-        <v>-12.76</v>
+        <v>17.23</v>
       </c>
       <c r="AH27">
-        <v>-8.07</v>
+        <v>-2.14</v>
       </c>
       <c r="AI27">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AJ27" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="AK27" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="AL27" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AM27" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="AN27" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>8150</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="8">
-        <v>7272401260</v>
-      </c>
-      <c r="E28" s="6">
-        <v>19970728</v>
-      </c>
-      <c r="F28" s="6">
-        <v>20140411</v>
-      </c>
-      <c r="G28" s="12">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="H28" s="12">
-        <v>8.25</v>
-      </c>
-      <c r="I28" s="12">
-        <v>1.56</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="N28" s="6">
+      <c r="A28" s="9">
+        <v>8039</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2091196920</v>
+      </c>
+      <c r="E28" s="9">
+        <v>19970816</v>
+      </c>
+      <c r="F28" s="9">
+        <v>20091217</v>
+      </c>
+      <c r="G28" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="H28" s="9">
+        <v>12.05</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1.33</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="N28" s="9">
         <v>9</v>
       </c>
-      <c r="O28" s="6">
-        <v>53.55</v>
-      </c>
-      <c r="P28" s="6">
-        <v>10.8</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>64.260000000000005</v>
-      </c>
-      <c r="R28" s="6">
-        <v>12.6</v>
-      </c>
-      <c r="S28" s="6">
-        <v>74.97</v>
-      </c>
-      <c r="T28" s="6">
-        <v>14.4</v>
-      </c>
-      <c r="U28" s="6">
-        <v>85.68</v>
-      </c>
-      <c r="V28" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="W28" s="6">
-        <v>96.39</v>
-      </c>
-      <c r="X28" s="6">
-        <v>18</v>
-      </c>
-      <c r="Y28" s="6">
-        <v>107.1</v>
-      </c>
-      <c r="Z28" s="6">
-        <v>26.62</v>
-      </c>
-      <c r="AA28" s="6">
-        <v>20.51</v>
-      </c>
-      <c r="AB28" s="6">
-        <v>22.24</v>
-      </c>
-      <c r="AC28" s="6">
-        <v>21.26</v>
-      </c>
-      <c r="AD28" s="6">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="AE28" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="AF28" s="6">
-        <v>96.47</v>
-      </c>
-      <c r="AG28" s="6">
-        <v>7.35</v>
-      </c>
-      <c r="AH28" s="6">
-        <v>1.02</v>
-      </c>
-      <c r="AI28" s="6">
-        <v>66</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>171</v>
+      <c r="O28" s="9">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="P28" s="9">
+        <v>10.6</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>41.87</v>
+      </c>
+      <c r="R28" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="S28" s="9">
+        <v>48.19</v>
+      </c>
+      <c r="T28" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="U28" s="9">
+        <v>54.51</v>
+      </c>
+      <c r="V28" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="W28" s="9">
+        <v>60.83</v>
+      </c>
+      <c r="X28" s="9">
+        <v>17</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>24.07</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>11.16</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>10.97</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>10.98</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>8.61</v>
+      </c>
+      <c r="AE28" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>101.64</v>
+      </c>
+      <c r="AG28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AH28" s="9">
+        <v>-4.01</v>
+      </c>
+      <c r="AI28" s="9">
+        <v>45</v>
+      </c>
+      <c r="AJ28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN28" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>8213</v>
+        <v>8112</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>2712424880</v>
+        <v>4284964730</v>
       </c>
       <c r="E29">
-        <v>19980421</v>
+        <v>19870305</v>
       </c>
       <c r="F29">
-        <v>20091225</v>
-      </c>
-      <c r="G29" s="12">
-        <v>7.28</v>
-      </c>
-      <c r="H29" s="12">
-        <v>7.95</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0.99</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="K29" s="12" t="s">
+        <v>20071231</v>
+      </c>
+      <c r="G29" s="9">
+        <v>6.13</v>
+      </c>
+      <c r="H29" s="9">
+        <v>7.71</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1.99</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="K29" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="L29" s="9" t="s">
         <v>292</v>
       </c>
+      <c r="M29" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="N29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O29">
-        <v>36.659999999999997</v>
+        <v>46.97</v>
       </c>
       <c r="P29">
-        <v>7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q29">
-        <v>42.77</v>
+        <v>55.02</v>
       </c>
       <c r="R29">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="S29">
-        <v>48.88</v>
+        <v>63.07</v>
       </c>
       <c r="T29">
-        <v>9</v>
+        <v>10.6</v>
       </c>
       <c r="U29">
-        <v>54.99</v>
+        <v>71.13</v>
       </c>
       <c r="V29">
-        <v>10</v>
+        <v>11.8</v>
       </c>
       <c r="W29">
-        <v>61.1</v>
+        <v>79.180000000000007</v>
       </c>
       <c r="X29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y29">
-        <v>67.209999999999994</v>
+        <v>87.23</v>
       </c>
       <c r="Z29">
-        <v>15.64</v>
+        <v>3.26</v>
       </c>
       <c r="AA29">
-        <v>8.6</v>
+        <v>2.17</v>
       </c>
       <c r="AB29">
-        <v>13.51</v>
+        <v>31.83</v>
       </c>
       <c r="AC29">
-        <v>9.09</v>
+        <v>2.02</v>
       </c>
       <c r="AD29">
-        <v>6.58</v>
+        <v>1.53</v>
       </c>
       <c r="AE29">
-        <v>0.86</v>
+        <v>4.42</v>
       </c>
       <c r="AF29">
-        <v>94.61</v>
+        <v>107.43</v>
       </c>
       <c r="AG29">
-        <v>2.02</v>
+        <v>-12.76</v>
       </c>
       <c r="AH29">
-        <v>0.38</v>
+        <v>-8.07</v>
       </c>
       <c r="AI29">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AJ29" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AL29" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="AM29" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AN29" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>8150</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7272401260</v>
+      </c>
+      <c r="E30" s="6">
+        <v>19970728</v>
+      </c>
+      <c r="F30" s="6">
+        <v>20140411</v>
+      </c>
+      <c r="G30" s="9">
+        <v>4.54</v>
+      </c>
+      <c r="H30" s="9">
+        <v>8.15</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="N30" s="6">
+        <v>9</v>
+      </c>
+      <c r="O30" s="6">
+        <v>53.55</v>
+      </c>
+      <c r="P30" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="R30" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="S30" s="6">
+        <v>74.97</v>
+      </c>
+      <c r="T30" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="U30" s="6">
+        <v>85.68</v>
+      </c>
+      <c r="V30" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="W30" s="6">
+        <v>96.39</v>
+      </c>
+      <c r="X30" s="6">
+        <v>18</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>107.1</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>26.62</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>20.51</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>22.24</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>21.26</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="AE30" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>96.47</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>7.35</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="AI30" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8213</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2712424880</v>
+      </c>
+      <c r="E31">
+        <v>19980421</v>
+      </c>
+      <c r="F31">
+        <v>20091225</v>
+      </c>
+      <c r="G31" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="H31" s="9">
+        <v>7.98</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="O31">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="P31">
+        <v>7</v>
+      </c>
+      <c r="Q31">
+        <v>42.77</v>
+      </c>
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>48.88</v>
+      </c>
+      <c r="T31">
+        <v>9</v>
+      </c>
+      <c r="U31">
+        <v>54.99</v>
+      </c>
+      <c r="V31">
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <v>61.1</v>
+      </c>
+      <c r="X31">
+        <v>11</v>
+      </c>
+      <c r="Y31">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="Z31">
+        <v>15.64</v>
+      </c>
+      <c r="AA31">
+        <v>8.6</v>
+      </c>
+      <c r="AB31">
+        <v>13.51</v>
+      </c>
+      <c r="AC31">
+        <v>9.09</v>
+      </c>
+      <c r="AD31">
+        <v>6.58</v>
+      </c>
+      <c r="AE31">
+        <v>0.86</v>
+      </c>
+      <c r="AF31">
+        <v>94.61</v>
+      </c>
+      <c r="AG31">
+        <v>2.02</v>
+      </c>
+      <c r="AH31">
+        <v>0.38</v>
+      </c>
+      <c r="AI31">
+        <v>47</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>9945</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D32" s="7">
         <v>21068333970</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>19770912</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <v>19920430</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G32" s="9">
         <v>7.94</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H32" s="9">
         <v>8.89</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I32" s="9">
         <v>1.25</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="N30">
+      <c r="J32" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="N32">
         <v>4</v>
       </c>
-      <c r="O30">
+      <c r="O32">
         <v>29.24</v>
       </c>
-      <c r="P30">
+      <c r="P32">
         <v>4.8</v>
       </c>
-      <c r="Q30">
+      <c r="Q32">
         <v>35.090000000000003</v>
       </c>
-      <c r="R30">
+      <c r="R32">
         <v>5.6</v>
       </c>
-      <c r="S30">
+      <c r="S32">
         <v>40.94</v>
       </c>
-      <c r="T30">
+      <c r="T32">
         <v>6.4</v>
       </c>
-      <c r="U30">
+      <c r="U32">
         <v>46.78</v>
       </c>
-      <c r="V30">
+      <c r="V32">
         <v>7.2</v>
       </c>
-      <c r="W30">
+      <c r="W32">
         <v>52.63</v>
       </c>
-      <c r="X30">
+      <c r="X32">
         <v>8</v>
       </c>
-      <c r="Y30">
+      <c r="Y32">
         <v>58.48</v>
       </c>
-      <c r="Z30">
+      <c r="Z32">
         <v>21.08</v>
       </c>
-      <c r="AA30">
+      <c r="AA32">
         <v>13.8</v>
       </c>
-      <c r="AB30">
+      <c r="AB32">
         <v>17.79</v>
       </c>
-      <c r="AC30">
+      <c r="AC32">
         <v>79.52</v>
       </c>
-      <c r="AD30">
+      <c r="AD32">
         <v>76.819999999999993</v>
       </c>
-      <c r="AE30">
+      <c r="AE32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AF30">
+      <c r="AF32">
         <v>17.350000000000001</v>
       </c>
-      <c r="AG30">
+      <c r="AG32">
         <v>0.88</v>
       </c>
-      <c r="AH30">
+      <c r="AH32">
         <v>0.9</v>
       </c>
-      <c r="AI30">
+      <c r="AI32">
         <v>60</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AJ32" t="s">
         <v>128</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AK32" t="s">
         <v>129</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AL32" t="s">
         <v>105</v>
       </c>
-      <c r="AM30" t="s">
+      <c r="AM32" t="s">
         <v>105</v>
       </c>
-      <c r="AN30" t="s">
+      <c r="AN32" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5630,8 +5919,8 @@
     <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AF3:AF30">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="AF3:AF27 AF29:AF32">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5640,8 +5929,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA30">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="AA4:AA27 AA29:AA32">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5650,8 +5939,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z30">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="Z3:Z27 Z29:Z32">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5660,8 +5949,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA30">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="AA3:AA27 AA29:AA32">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5670,8 +5959,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD30">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="AD3:AD27 AD29:AD32">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5680,8 +5969,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB30">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="AB3:AB27 AB29:AB32">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9272F82-3248-4CE4-A4E1-220946534A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E92940-197A-4BE7-82FC-76E4D2253786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="33060" yWindow="3660" windowWidth="23505" windowHeight="11235" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="305">
   <si>
     <t>公司名稱</t>
   </si>
@@ -461,21 +461,6 @@
     <t xml:space="preserve">  1.76 /    0.0</t>
   </si>
   <si>
-    <t>潤泰新</t>
-  </si>
-  <si>
-    <t>潤泰創新國際股份有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.0 /    4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.0 /    5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.0 /    2.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.4 /    0.0</t>
   </si>
   <si>
@@ -647,33 +632,6 @@
     <t xml:space="preserve">    0.08 /     0.08 /     0.07 /     0.12</t>
   </si>
   <si>
-    <t>厚生</t>
-  </si>
-  <si>
-    <t>厚生股份有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   22.85 /    22.69 /    22.64 /    22.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   276.0 /    241.8 /    306.6 /   393.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.89 /      9.9 /    10.09 /    10.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.15 /     0.15 /     0.15 /     0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.82 /    0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.68 /    0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.65 /    0.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">    62.2 /     60.3 /    58.18 /    57.02</t>
   </si>
   <si>
@@ -989,34 +947,55 @@
     <t xml:space="preserve">    0.19 /     0.18 /      0.2 /     0.24</t>
   </si>
   <si>
-    <t xml:space="preserve">    63.0 /    62.76 /    62.79 /    63.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2431.0 /   3460.4 /  4673.35 /   8224.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.4 /     14.4 /    14.51 /    14.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.77 /     4.85 /     4.91 /    24.92</t>
-  </si>
-  <si>
-    <t>台虹</t>
-  </si>
-  <si>
-    <t>台虹科技股份有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.6 /    46.96 /    46.59 /    46.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   653.0 /    469.0 /    369.6 /   464.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.9 /    14.78 /    14.94 /    14.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.14 /     0.11 /     0.13 /     1.01</t>
+    <t>明基材</t>
+  </si>
+  <si>
+    <t>明基材料股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    38.4 /    38.49 /    38.55 /    36.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4901.0 /   5128.2 /  16406.0 / 13439.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.81 /     2.98 /     3.71 /     4.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.5 /     2.52 /     3.44 /     6.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.7 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.9 /    0.0</t>
+  </si>
+  <si>
+    <t>大聯大</t>
+  </si>
+  <si>
+    <t>大聯大投資控股股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    52.5 /    51.74 /     50.8 /    50.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3547.0 /   3965.8 /  3726.05 /  3734.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.8 /    26.78 /    26.52 /    26.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.31 /     0.34 /      0.4 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.1 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.4 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.29 /    0.0</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1387,6 +1366,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1634,7 +1619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1659,10 +1644,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2029,13 +2017,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="BU1" sqref="AO1:BU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2056,31 +2044,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -2095,68 +2083,68 @@
       <c r="M1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
@@ -2205,16 +2193,16 @@
       <c r="Y2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
       <c r="AJ2" s="5">
         <v>2021</v>
       </c>
@@ -2250,26 +2238,26 @@
       <c r="F3">
         <v>19760719</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>4.34</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>17.670000000000002</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>2.2400000000000002</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>200</v>
+      <c r="J3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -2372,26 +2360,26 @@
       <c r="F4">
         <v>19951102</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>3.72</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>17.739999999999998</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>3.28</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>177</v>
+      <c r="J4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="N4">
         <v>11</v>
@@ -2460,19 +2448,19 @@
         <v>43</v>
       </c>
       <c r="AJ4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AK4" t="s">
         <v>79</v>
       </c>
       <c r="AL4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AM4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AN4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -2494,26 +2482,26 @@
       <c r="F5">
         <v>19730831</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>5.5</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>8.81</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0.94</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>207</v>
+      <c r="J5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="N5">
         <v>9</v>
@@ -2597,23 +2585,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>1474</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>1298969690</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>19700904</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>20001031</v>
       </c>
       <c r="G6" s="9">
@@ -2626,97 +2614,97 @@
         <v>0.98</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="N6">
+        <v>182</v>
+      </c>
+      <c r="N6" s="9">
         <v>13</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="9">
         <v>18.329999999999998</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="9">
         <v>15.4</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="9">
         <v>21.71</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="9">
         <v>17.8</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="9">
         <v>25.1</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="9">
         <v>20.2</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="9">
         <v>28.48</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="9">
         <v>22.6</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="9">
         <v>31.87</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="9">
         <v>25</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="9">
         <v>35.25</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="9">
         <v>16.04</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="9">
         <v>5.23</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="9">
         <v>8.11</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="9">
         <v>6.05</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="9">
         <v>4.8099999999999996</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="9">
         <v>0.85</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="9">
         <v>86.45</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="9">
         <v>0.86</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="9">
         <v>-0.96</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="9">
         <v>43</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AJ6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AL6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>133</v>
+      <c r="AL6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2738,26 +2726,26 @@
       <c r="F7">
         <v>19940326</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>4.68</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>16.88</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>1.74</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>214</v>
+      <c r="J7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="N7">
         <v>13</v>
@@ -2826,13 +2814,13 @@
         <v>34</v>
       </c>
       <c r="AJ7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AK7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AL7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="s">
         <v>91</v>
@@ -2841,23 +2829,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>1515</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <v>1814735000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>19730430</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="9">
         <v>19950204</v>
       </c>
       <c r="G8" s="9">
@@ -2870,96 +2858,96 @@
         <v>2.68</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="N8" s="6">
+        <v>204</v>
+      </c>
+      <c r="N8" s="9">
         <v>12</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="9">
         <v>76.2</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="9">
         <v>15.6</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="9">
         <v>99.06</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="9">
         <v>19.2</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="9">
         <v>121.9</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="9">
         <v>22.8</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="9">
         <v>144.80000000000001</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="9">
         <v>26.4</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="9">
         <v>167.6</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="9">
         <v>30</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="9">
         <v>190.5</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="9">
         <v>13.81</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="9">
         <v>8.14</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="9">
         <v>28.22</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8" s="9">
         <v>7.63</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="9">
         <v>6.12</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="9">
         <v>1.74</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="9">
         <v>106.68</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="9">
         <v>7.24</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AH8" s="9">
         <v>2.77</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="9">
         <v>51</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AJ8" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AM8" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN8" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2982,26 +2970,26 @@
       <c r="F9">
         <v>20180416</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>7.63</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>14.89</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>1.42</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>222</v>
+      <c r="J9" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="N9">
         <v>14</v>
@@ -3070,38 +3058,38 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s">
         <v>91</v>
       </c>
       <c r="AL9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AM9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>2020</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="10">
         <v>2225261000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <v>19590929</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="9">
         <v>19930427</v>
       </c>
       <c r="G10" s="9">
@@ -3114,116 +3102,116 @@
         <v>1.97</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="N10" s="6">
+        <v>212</v>
+      </c>
+      <c r="N10" s="9">
         <v>12</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="9">
         <v>42.72</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="9">
         <v>14.8</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="9">
         <v>52.69</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="9">
         <v>17.600000000000001</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="9">
         <v>62.66</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="9">
         <v>20.399999999999999</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="9">
         <v>72.62</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="9">
         <v>23.2</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="9">
         <v>82.59</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="9">
         <v>26</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="9">
         <v>92.56</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="9">
         <v>14.3</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="9">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="9">
         <v>27.47</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="9">
         <v>16.52</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="9">
         <v>14.13</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="9">
         <v>0.89</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="9">
         <v>57.32</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="9">
         <v>0.9</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AH10" s="9">
         <v>1.46</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="9">
         <v>47</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>146</v>
+      <c r="AJ10" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>2069</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <v>1663868360</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>19870724</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="9">
         <v>20160322</v>
       </c>
       <c r="G11" s="9">
@@ -3236,1702 +3224,1702 @@
         <v>1.47</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="N11" s="6">
+        <v>216</v>
+      </c>
+      <c r="N11" s="9">
         <v>10</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="9">
         <v>38.6</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="9">
         <v>13.4</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="9">
         <v>51.72</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="9">
         <v>16.8</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="9">
         <v>64.849999999999994</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="9">
         <v>20.2</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="9">
         <v>77.97</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="9">
         <v>23.6</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="9">
         <v>91.1</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="9">
         <v>27</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="9">
         <v>104.2</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="Z11" s="9">
         <v>13</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA11" s="9">
         <v>6.49</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB11" s="9">
         <v>19.260000000000002</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AC11" s="9">
         <v>6.18</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD11" s="9">
         <v>5.03</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="9">
         <v>1.39</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11" s="9">
         <v>105.02</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AG11" s="9">
         <v>-7.36</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AH11" s="9">
         <v>-9.52</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="9">
         <v>34</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AK11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AL11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>149</v>
+      <c r="AL11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>2107</v>
+        <v>2324</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3423260000</v>
+        <v>94</v>
+      </c>
+      <c r="D12" s="10">
+        <v>44071466250</v>
       </c>
       <c r="E12" s="9">
-        <v>19630122</v>
+        <v>19840601</v>
       </c>
       <c r="F12" s="9">
-        <v>19920303</v>
+        <v>19920218</v>
       </c>
       <c r="G12" s="9">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="H12" s="9">
-        <v>11.6</v>
+        <v>7.52</v>
       </c>
       <c r="I12" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="N12" s="9">
+        <v>9</v>
+      </c>
+      <c r="O12" s="9">
+        <v>28.98</v>
+      </c>
+      <c r="P12" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="R12" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="S12" s="9">
+        <v>36.71</v>
+      </c>
+      <c r="T12" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="U12" s="9">
+        <v>40.57</v>
+      </c>
+      <c r="V12" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="W12" s="9">
+        <v>44.44</v>
+      </c>
+      <c r="X12" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>48.3</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>3.35</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>11.72</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>2.33</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>-5.67</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>-7.8</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>2347</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="10">
+        <v>16679469680</v>
+      </c>
+      <c r="E13" s="9">
+        <v>19880912</v>
+      </c>
+      <c r="F13" s="9">
+        <v>19951213</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="H13" s="9">
+        <v>6.64</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="N13" s="9">
+        <v>9</v>
+      </c>
+      <c r="O13" s="9">
+        <v>90.18</v>
+      </c>
+      <c r="P13" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>102.2</v>
+      </c>
+      <c r="R13" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="S13" s="9">
+        <v>114.2</v>
+      </c>
+      <c r="T13" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="U13" s="9">
+        <v>126.3</v>
+      </c>
+      <c r="V13" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="W13" s="9">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="X13" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>2.29</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>32.94</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>6.79</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>5.12</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>3.64</v>
+      </c>
+      <c r="AH13" s="9">
         <v>0.68</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="N12" s="9">
-        <v>7</v>
-      </c>
-      <c r="O12" s="9">
-        <v>13.72</v>
-      </c>
-      <c r="P12" s="9">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>16.07</v>
-      </c>
-      <c r="R12" s="9">
-        <v>9.4</v>
-      </c>
-      <c r="S12" s="9">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="T12" s="9">
-        <v>10.6</v>
-      </c>
-      <c r="U12" s="9">
-        <v>20.78</v>
-      </c>
-      <c r="V12" s="9">
-        <v>11.8</v>
-      </c>
-      <c r="W12" s="9">
-        <v>23.13</v>
-      </c>
-      <c r="X12" s="9">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="9">
-        <v>25.48</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>31.42</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>22.86</v>
-      </c>
-      <c r="AB12" s="9">
-        <v>6.74</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>31.19</v>
-      </c>
-      <c r="AD12" s="9">
-        <v>27.54</v>
-      </c>
-      <c r="AE12" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="AF12" s="9">
-        <v>73.290000000000006</v>
-      </c>
-      <c r="AG12" s="9">
-        <v>4.25</v>
-      </c>
-      <c r="AH12" s="9">
-        <v>1.91</v>
-      </c>
-      <c r="AI12" s="9">
-        <v>70</v>
-      </c>
-      <c r="AJ12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK12" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL12" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM12" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN12" s="9" t="s">
-        <v>89</v>
+      <c r="AI13" s="9">
+        <v>40</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN13" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2324</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="7">
-        <v>44071466250</v>
-      </c>
-      <c r="E13">
-        <v>19840601</v>
-      </c>
-      <c r="F13">
-        <v>19920218</v>
-      </c>
-      <c r="G13" s="9">
-        <v>6.61</v>
-      </c>
-      <c r="H13" s="9">
-        <v>7.52</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.98</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="N13">
-        <v>9</v>
-      </c>
-      <c r="O13">
-        <v>28.98</v>
-      </c>
-      <c r="P13">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q13">
-        <v>32.840000000000003</v>
-      </c>
-      <c r="R13">
-        <v>11.4</v>
-      </c>
-      <c r="S13">
-        <v>36.71</v>
-      </c>
-      <c r="T13">
-        <v>12.6</v>
-      </c>
-      <c r="U13">
-        <v>40.57</v>
-      </c>
-      <c r="V13">
-        <v>13.8</v>
-      </c>
-      <c r="W13">
-        <v>44.44</v>
-      </c>
-      <c r="X13">
-        <v>15</v>
-      </c>
-      <c r="Y13">
-        <v>48.3</v>
-      </c>
-      <c r="Z13">
-        <v>3.35</v>
-      </c>
-      <c r="AA13">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AB13">
-        <v>11.72</v>
-      </c>
-      <c r="AC13">
-        <v>1.49</v>
-      </c>
-      <c r="AD13">
-        <v>1.18</v>
-      </c>
-      <c r="AE13">
-        <v>2.33</v>
-      </c>
-      <c r="AF13">
-        <v>73.150000000000006</v>
-      </c>
-      <c r="AG13">
-        <v>-5.67</v>
-      </c>
-      <c r="AH13">
-        <v>-7.8</v>
-      </c>
-      <c r="AI13">
-        <v>36</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2347</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7">
-        <v>16679469680</v>
-      </c>
-      <c r="E14">
-        <v>19880912</v>
-      </c>
-      <c r="F14">
-        <v>19951213</v>
+    <row r="14" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2352</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="10">
+        <v>19667819580</v>
+      </c>
+      <c r="E14" s="9">
+        <v>19840421</v>
+      </c>
+      <c r="F14" s="9">
+        <v>19960722</v>
       </c>
       <c r="G14" s="9">
         <v>4.96</v>
       </c>
       <c r="H14" s="9">
-        <v>6.64</v>
+        <v>6.56</v>
       </c>
       <c r="I14" s="9">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="N14">
-        <v>9</v>
-      </c>
-      <c r="O14">
-        <v>90.18</v>
-      </c>
-      <c r="P14">
+        <v>228</v>
+      </c>
+      <c r="N14" s="9">
+        <v>8</v>
+      </c>
+      <c r="O14" s="9">
+        <v>36.96</v>
+      </c>
+      <c r="P14" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q14">
-        <v>102.2</v>
-      </c>
-      <c r="R14">
-        <v>11.4</v>
-      </c>
-      <c r="S14">
-        <v>114.2</v>
-      </c>
-      <c r="T14">
-        <v>12.6</v>
-      </c>
-      <c r="U14">
-        <v>126.3</v>
-      </c>
-      <c r="V14">
-        <v>13.8</v>
-      </c>
-      <c r="W14">
-        <v>138.30000000000001</v>
-      </c>
-      <c r="X14">
+      <c r="Q14" s="9">
+        <v>47.12</v>
+      </c>
+      <c r="R14" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="S14" s="9">
+        <v>57.29</v>
+      </c>
+      <c r="T14" s="9">
+        <v>14.6</v>
+      </c>
+      <c r="U14" s="9">
+        <v>67.45</v>
+      </c>
+      <c r="V14" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="W14" s="9">
+        <v>77.62</v>
+      </c>
+      <c r="X14" s="9">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>87.78</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>14.67</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>3.42</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>6.69</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>5.45</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>1.24</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>51.12</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>-1.7</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>40</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2385</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7452927490</v>
+      </c>
+      <c r="E15" s="6">
+        <v>19830222</v>
+      </c>
+      <c r="F15" s="6">
+        <v>19990105</v>
+      </c>
+      <c r="G15" s="8">
+        <v>6.68</v>
+      </c>
+      <c r="H15" s="8">
+        <v>10.15</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2.06</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>81.2</v>
+      </c>
+      <c r="P15">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>89.32</v>
+      </c>
+      <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="S15">
+        <v>97.44</v>
+      </c>
+      <c r="T15">
+        <v>13</v>
+      </c>
+      <c r="U15">
+        <v>105.6</v>
+      </c>
+      <c r="V15">
+        <v>14</v>
+      </c>
+      <c r="W15">
+        <v>113.7</v>
+      </c>
+      <c r="X15">
         <v>15</v>
       </c>
-      <c r="Y14">
-        <v>150.30000000000001</v>
-      </c>
-      <c r="Z14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AA14">
-        <v>2.29</v>
-      </c>
-      <c r="AB14">
-        <v>32.94</v>
-      </c>
-      <c r="AC14">
-        <v>6.79</v>
-      </c>
-      <c r="AD14">
-        <v>5.12</v>
-      </c>
-      <c r="AE14">
-        <v>2.25</v>
-      </c>
-      <c r="AF14">
-        <v>33.729999999999997</v>
-      </c>
-      <c r="AG14">
-        <v>3.64</v>
-      </c>
-      <c r="AH14">
-        <v>0.68</v>
-      </c>
-      <c r="AI14">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2352</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="7">
-        <v>19667819580</v>
-      </c>
-      <c r="E15">
-        <v>19840421</v>
-      </c>
-      <c r="F15">
-        <v>19960722</v>
-      </c>
-      <c r="G15" s="9">
-        <v>4.96</v>
-      </c>
-      <c r="H15" s="9">
-        <v>6.56</v>
-      </c>
-      <c r="I15" s="9">
-        <v>1.65</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="N15">
-        <v>8</v>
-      </c>
-      <c r="O15">
-        <v>36.96</v>
-      </c>
-      <c r="P15">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q15">
-        <v>47.12</v>
-      </c>
-      <c r="R15">
-        <v>12.4</v>
-      </c>
-      <c r="S15">
-        <v>57.29</v>
-      </c>
-      <c r="T15">
-        <v>14.6</v>
-      </c>
-      <c r="U15">
-        <v>67.45</v>
-      </c>
-      <c r="V15">
-        <v>16.8</v>
-      </c>
-      <c r="W15">
-        <v>77.62</v>
-      </c>
-      <c r="X15">
-        <v>19</v>
-      </c>
       <c r="Y15">
-        <v>87.78</v>
-      </c>
-      <c r="Z15">
-        <v>14.67</v>
-      </c>
-      <c r="AA15">
-        <v>3.42</v>
-      </c>
-      <c r="AB15">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="AC15">
-        <v>6.69</v>
-      </c>
-      <c r="AD15">
-        <v>5.45</v>
-      </c>
-      <c r="AE15">
-        <v>1.24</v>
-      </c>
-      <c r="AF15">
-        <v>51.12</v>
-      </c>
-      <c r="AG15">
-        <v>-1.7</v>
-      </c>
-      <c r="AH15">
-        <v>-5.0199999999999996</v>
-      </c>
-      <c r="AI15">
-        <v>40</v>
+        <v>121.8</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>17.55</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>22.24</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>7.09</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>1.32</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>89.98</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>38</v>
       </c>
       <c r="AJ15" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="AK15" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AL15" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>2385</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
+      <c r="A16">
+        <v>2417</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>7452927490</v>
-      </c>
-      <c r="E16" s="6">
-        <v>19830222</v>
-      </c>
-      <c r="F16" s="6">
-        <v>19990105</v>
-      </c>
-      <c r="G16" s="9">
-        <v>6.68</v>
-      </c>
-      <c r="H16" s="9">
-        <v>10.15</v>
-      </c>
-      <c r="I16" s="9">
-        <v>2.06</v>
-      </c>
-      <c r="J16" s="9" t="s">
+        <v>1543138640</v>
+      </c>
+      <c r="E16">
+        <v>19900117</v>
+      </c>
+      <c r="F16">
+        <v>20000911</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5.96</v>
+      </c>
+      <c r="H16" s="8">
+        <v>12.43</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1.53</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <v>28.34</v>
+      </c>
+      <c r="P16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>35.75</v>
+      </c>
+      <c r="R16">
+        <v>19.8</v>
+      </c>
+      <c r="S16">
+        <v>43.16</v>
+      </c>
+      <c r="T16">
+        <v>23.2</v>
+      </c>
+      <c r="U16">
+        <v>50.58</v>
+      </c>
+      <c r="V16">
+        <v>26.6</v>
+      </c>
+      <c r="W16">
+        <v>57.99</v>
+      </c>
+      <c r="X16">
+        <v>30</v>
+      </c>
+      <c r="Y16">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="Z16">
+        <v>48.85</v>
+      </c>
+      <c r="AA16">
+        <v>12.06</v>
+      </c>
+      <c r="AB16">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="AC16">
+        <v>12.15</v>
+      </c>
+      <c r="AD16">
+        <v>9.57</v>
+      </c>
+      <c r="AE16">
+        <v>0.67</v>
+      </c>
+      <c r="AF16">
+        <v>99.26</v>
+      </c>
+      <c r="AG16">
+        <v>0.98</v>
+      </c>
+      <c r="AH16">
+        <v>-0.77</v>
+      </c>
+      <c r="AI16">
+        <v>60</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>2458</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3038803920</v>
+      </c>
+      <c r="E17" s="9">
+        <v>19940505</v>
+      </c>
+      <c r="F17" s="9">
+        <v>20010917</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5.44</v>
+      </c>
+      <c r="H17" s="9">
+        <v>9.48</v>
+      </c>
+      <c r="I17" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="N17" s="9">
+        <v>12</v>
+      </c>
+      <c r="O17" s="9">
+        <v>205.2</v>
+      </c>
+      <c r="P17" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>242.8</v>
+      </c>
+      <c r="R17" s="9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S17" s="9">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="T17" s="9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="U17" s="9">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="V17" s="9">
+        <v>20.8</v>
+      </c>
+      <c r="W17" s="9">
+        <v>355.7</v>
+      </c>
+      <c r="X17" s="9">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>393.3</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>49.84</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>31.99</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>52.13</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>32.97</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>26.28</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>1.23</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>97.03</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>12.18</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>18.04</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>74</v>
+      </c>
+      <c r="AJ17" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM17" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN17" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>2520</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="10">
+        <v>5541701000</v>
+      </c>
+      <c r="E18" s="9">
+        <v>19791123</v>
+      </c>
+      <c r="F18" s="9">
+        <v>19931027</v>
+      </c>
+      <c r="G18" s="9">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4.42</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1.24</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="N16">
-        <v>10</v>
-      </c>
-      <c r="O16">
-        <v>81.2</v>
-      </c>
-      <c r="P16">
-        <v>11</v>
-      </c>
-      <c r="Q16">
-        <v>89.32</v>
-      </c>
-      <c r="R16">
-        <v>12</v>
-      </c>
-      <c r="S16">
-        <v>97.44</v>
-      </c>
-      <c r="T16">
-        <v>13</v>
-      </c>
-      <c r="U16">
-        <v>105.6</v>
-      </c>
-      <c r="V16">
+      <c r="N18" s="9">
+        <v>7</v>
+      </c>
+      <c r="O18" s="9">
+        <v>59.57</v>
+      </c>
+      <c r="P18" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>71.48</v>
+      </c>
+      <c r="R18" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="S18" s="9">
+        <v>83.4</v>
+      </c>
+      <c r="T18" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="U18" s="9">
+        <v>95.31</v>
+      </c>
+      <c r="V18" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="W18" s="9">
+        <v>107.2</v>
+      </c>
+      <c r="X18" s="9">
         <v>14</v>
       </c>
-      <c r="W16">
-        <v>113.7</v>
-      </c>
-      <c r="X16">
-        <v>15</v>
-      </c>
-      <c r="Y16">
-        <v>121.8</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>17.55</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>22.24</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>7.09</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>1.32</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>89.98</v>
-      </c>
-      <c r="AG16" s="6">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="AH16" s="6">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AI16" s="6">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2417</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1543138640</v>
-      </c>
-      <c r="E17">
-        <v>19900117</v>
-      </c>
-      <c r="F17">
-        <v>20000911</v>
-      </c>
-      <c r="G17" s="9">
-        <v>5.96</v>
-      </c>
-      <c r="H17" s="9">
-        <v>12.43</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1.53</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="N17">
-        <v>13</v>
-      </c>
-      <c r="O17">
-        <v>28.34</v>
-      </c>
-      <c r="P17">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q17">
-        <v>35.75</v>
-      </c>
-      <c r="R17">
-        <v>19.8</v>
-      </c>
-      <c r="S17">
-        <v>43.16</v>
-      </c>
-      <c r="T17">
-        <v>23.2</v>
-      </c>
-      <c r="U17">
-        <v>50.58</v>
-      </c>
-      <c r="V17">
-        <v>26.6</v>
-      </c>
-      <c r="W17">
-        <v>57.99</v>
-      </c>
-      <c r="X17">
-        <v>30</v>
-      </c>
-      <c r="Y17">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="Z17">
-        <v>48.85</v>
-      </c>
-      <c r="AA17">
-        <v>12.06</v>
-      </c>
-      <c r="AB17">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="AC17">
-        <v>12.15</v>
-      </c>
-      <c r="AD17">
-        <v>9.57</v>
-      </c>
-      <c r="AE17">
-        <v>0.67</v>
-      </c>
-      <c r="AF17">
-        <v>99.26</v>
-      </c>
-      <c r="AG17">
-        <v>0.98</v>
-      </c>
-      <c r="AH17">
-        <v>-0.77</v>
-      </c>
-      <c r="AI17">
-        <v>60</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>2458</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3038803920</v>
-      </c>
-      <c r="E18" s="6">
-        <v>19940505</v>
-      </c>
-      <c r="F18" s="6">
-        <v>20010917</v>
-      </c>
-      <c r="G18" s="9">
-        <v>5.44</v>
-      </c>
-      <c r="H18" s="9">
-        <v>9.48</v>
-      </c>
-      <c r="I18" s="9">
-        <v>4.96</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="N18" s="6">
-        <v>12</v>
-      </c>
-      <c r="O18" s="6">
-        <v>205.2</v>
-      </c>
-      <c r="P18" s="6">
-        <v>14.2</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>242.8</v>
-      </c>
-      <c r="R18" s="6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S18" s="6">
-        <v>280.39999999999998</v>
-      </c>
-      <c r="T18" s="6">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="U18" s="6">
-        <v>318.10000000000002</v>
-      </c>
-      <c r="V18" s="6">
-        <v>20.8</v>
-      </c>
-      <c r="W18" s="6">
-        <v>355.7</v>
-      </c>
-      <c r="X18" s="6">
-        <v>23</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>393.3</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>49.84</v>
-      </c>
-      <c r="AA18" s="6">
-        <v>31.99</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>52.13</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>32.97</v>
-      </c>
-      <c r="AD18" s="6">
-        <v>26.28</v>
-      </c>
-      <c r="AE18" s="6">
-        <v>1.23</v>
-      </c>
-      <c r="AF18" s="6">
-        <v>97.03</v>
-      </c>
-      <c r="AG18" s="6">
-        <v>12.18</v>
-      </c>
-      <c r="AH18" s="6">
-        <v>18.04</v>
-      </c>
-      <c r="AI18" s="6">
-        <v>74</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>156</v>
+      <c r="Y18" s="9">
+        <v>119.1</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>26.73</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>21.09</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>15.12</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>103.17</v>
+      </c>
+      <c r="AG18" s="9">
+        <v>10.72</v>
+      </c>
+      <c r="AH18" s="9">
+        <v>10.69</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>53</v>
+      </c>
+      <c r="AJ18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN18" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2520</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
+      <c r="A19" s="6">
+        <v>2546</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>5541701000</v>
-      </c>
-      <c r="E19">
-        <v>19791123</v>
-      </c>
-      <c r="F19">
-        <v>19931027</v>
-      </c>
-      <c r="G19" s="9">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="H19" s="9">
-        <v>4.42</v>
-      </c>
-      <c r="I19" s="9">
-        <v>1.24</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N19">
+        <v>1060356600</v>
+      </c>
+      <c r="E19" s="6">
+        <v>19820413</v>
+      </c>
+      <c r="F19" s="6">
+        <v>20000911</v>
+      </c>
+      <c r="G19" s="8">
+        <v>7.24</v>
+      </c>
+      <c r="H19" s="8">
+        <v>7.07</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1.58</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" s="6">
         <v>7</v>
       </c>
-      <c r="O19">
-        <v>59.57</v>
-      </c>
-      <c r="P19">
-        <v>8.4</v>
-      </c>
-      <c r="Q19">
-        <v>71.48</v>
-      </c>
-      <c r="R19">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="S19">
-        <v>83.4</v>
-      </c>
-      <c r="T19">
-        <v>11.2</v>
-      </c>
-      <c r="U19">
-        <v>95.31</v>
-      </c>
-      <c r="V19">
-        <v>12.6</v>
-      </c>
-      <c r="W19">
-        <v>107.2</v>
-      </c>
-      <c r="X19">
-        <v>14</v>
-      </c>
-      <c r="Y19">
-        <v>119.1</v>
-      </c>
-      <c r="Z19">
-        <v>26.73</v>
-      </c>
-      <c r="AA19">
-        <v>19.5</v>
-      </c>
-      <c r="AB19">
-        <v>21.09</v>
-      </c>
-      <c r="AC19">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AD19">
-        <v>15.12</v>
-      </c>
-      <c r="AE19">
-        <v>0.46</v>
-      </c>
-      <c r="AF19">
-        <v>103.17</v>
-      </c>
-      <c r="AG19">
-        <v>10.72</v>
-      </c>
-      <c r="AH19">
-        <v>10.69</v>
-      </c>
-      <c r="AI19">
-        <v>53</v>
+      <c r="O19" s="6">
+        <v>49.21</v>
+      </c>
+      <c r="P19" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>56.24</v>
+      </c>
+      <c r="R19" s="6">
+        <v>9</v>
+      </c>
+      <c r="S19" s="6">
+        <v>63.27</v>
+      </c>
+      <c r="T19" s="6">
+        <v>10</v>
+      </c>
+      <c r="U19" s="6">
+        <v>70.3</v>
+      </c>
+      <c r="V19" s="6">
+        <v>11</v>
+      </c>
+      <c r="W19" s="6">
+        <v>77.33</v>
+      </c>
+      <c r="X19" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>84.36</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>11.23</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>23.02</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>9.17</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>7.35</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>1.07</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>91.38</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>5.88</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>5.85</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>45</v>
       </c>
       <c r="AJ19" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="AK19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN19" t="s">
         <v>99</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>2546</v>
+        <v>2881</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>1060356600</v>
+        <v>134049543940</v>
       </c>
       <c r="E20" s="6">
-        <v>19820413</v>
+        <v>20011219</v>
       </c>
       <c r="F20" s="6">
-        <v>20000911</v>
-      </c>
-      <c r="G20" s="9">
-        <v>7.24</v>
-      </c>
-      <c r="H20" s="9">
-        <v>7.07</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1.58</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>176</v>
+        <v>20011219</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="H20" s="8">
+        <v>6.25</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="N20" s="6">
         <v>7</v>
       </c>
       <c r="O20" s="6">
-        <v>49.21</v>
+        <v>92.68</v>
       </c>
       <c r="P20" s="6">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Q20" s="6">
-        <v>56.24</v>
+        <v>103.3</v>
       </c>
       <c r="R20" s="6">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="S20" s="6">
-        <v>63.27</v>
+        <v>113.9</v>
       </c>
       <c r="T20" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="U20" s="6">
+        <v>124.5</v>
+      </c>
+      <c r="V20" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W20" s="6">
+        <v>135</v>
+      </c>
+      <c r="X20" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>145.6</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>21.39</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>39.32</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>34.96</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>4.46</v>
+      </c>
+      <c r="AI20" s="6">
+        <v>56</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>3005</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="10">
+        <v>5954614000</v>
+      </c>
+      <c r="E21" s="9">
+        <v>19891005</v>
+      </c>
+      <c r="F21" s="9">
+        <v>20020225</v>
+      </c>
+      <c r="G21" s="9">
+        <v>6.55</v>
+      </c>
+      <c r="H21" s="9">
+        <v>7.55</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="N21" s="9">
         <v>10</v>
       </c>
-      <c r="U20" s="6">
-        <v>70.3</v>
-      </c>
-      <c r="V20" s="6">
-        <v>11</v>
-      </c>
-      <c r="W20" s="6">
-        <v>77.33</v>
-      </c>
-      <c r="X20" s="6">
-        <v>12</v>
-      </c>
-      <c r="Y20" s="6">
-        <v>84.36</v>
-      </c>
-      <c r="Z20" s="6">
-        <v>11.23</v>
-      </c>
-      <c r="AA20" s="6">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="AB20" s="6">
-        <v>23.02</v>
-      </c>
-      <c r="AC20" s="6">
-        <v>9.17</v>
-      </c>
-      <c r="AD20" s="6">
-        <v>7.35</v>
-      </c>
-      <c r="AE20" s="6">
-        <v>1.07</v>
-      </c>
-      <c r="AF20" s="6">
-        <v>91.38</v>
-      </c>
-      <c r="AG20" s="6">
-        <v>5.88</v>
-      </c>
-      <c r="AH20" s="6">
-        <v>5.85</v>
-      </c>
-      <c r="AI20" s="6">
-        <v>45</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>2881</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="7">
-        <v>134049543940</v>
-      </c>
-      <c r="E21" s="6">
-        <v>20011219</v>
-      </c>
-      <c r="F21" s="6">
-        <v>20011219</v>
-      </c>
-      <c r="G21" s="9">
-        <v>3.95</v>
-      </c>
-      <c r="H21" s="9">
-        <v>6.25</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="N21" s="6">
-        <v>7</v>
-      </c>
-      <c r="O21" s="6">
-        <v>92.68</v>
-      </c>
-      <c r="P21" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>103.3</v>
-      </c>
-      <c r="R21" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="S21" s="6">
+      <c r="O21" s="9">
+        <v>73</v>
+      </c>
+      <c r="P21" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>83.22</v>
+      </c>
+      <c r="R21" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="S21" s="9">
+        <v>93.44</v>
+      </c>
+      <c r="T21" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="U21" s="9">
+        <v>103.7</v>
+      </c>
+      <c r="V21" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="W21" s="9">
         <v>113.9</v>
       </c>
-      <c r="T21" s="6">
-        <v>9.4</v>
-      </c>
-      <c r="U21" s="6">
-        <v>124.5</v>
-      </c>
-      <c r="V21" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="W21" s="6">
-        <v>135</v>
-      </c>
-      <c r="X21" s="6">
-        <v>11</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>145.6</v>
-      </c>
-      <c r="Z21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="6">
-        <v>21.39</v>
-      </c>
-      <c r="AC21" s="6">
-        <v>39.32</v>
-      </c>
-      <c r="AD21" s="6">
-        <v>34.96</v>
-      </c>
-      <c r="AE21" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AF21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AH21" s="6">
-        <v>4.46</v>
-      </c>
-      <c r="AI21" s="6">
-        <v>56</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>105</v>
+      <c r="X21" s="9">
+        <v>17</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>124.1</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>24.89</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>8.01</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>25.54</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>20.46</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>15.77</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>39.15</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="AH21" s="9">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AI21" s="9">
+        <v>57</v>
+      </c>
+      <c r="AJ21" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL21" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN21" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3005</v>
+        <v>3044</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7">
-        <v>5954614000</v>
+        <v>5256058980</v>
       </c>
       <c r="E22">
-        <v>19891005</v>
+        <v>19911216</v>
       </c>
       <c r="F22">
-        <v>20020225</v>
-      </c>
-      <c r="G22" s="9">
-        <v>6.55</v>
-      </c>
-      <c r="H22" s="9">
-        <v>7.55</v>
-      </c>
-      <c r="I22" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>269</v>
+        <v>20020826</v>
+      </c>
+      <c r="G22" s="8">
+        <v>5.93</v>
+      </c>
+      <c r="H22" s="8">
+        <v>10.57</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1.78</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>93.92</v>
+      </c>
+      <c r="P22">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q22">
+        <v>108</v>
+      </c>
+      <c r="R22">
+        <v>10.4</v>
+      </c>
+      <c r="S22">
+        <v>122.1</v>
+      </c>
+      <c r="T22">
+        <v>11.6</v>
+      </c>
+      <c r="U22">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="V22">
+        <v>12.8</v>
+      </c>
+      <c r="W22">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="X22">
+        <v>14</v>
+      </c>
+      <c r="Y22">
+        <v>164.4</v>
+      </c>
+      <c r="Z22">
+        <v>18.75</v>
+      </c>
+      <c r="AA22">
+        <v>10.47</v>
+      </c>
+      <c r="AB22">
+        <v>15.91</v>
+      </c>
+      <c r="AC22">
+        <v>11.99</v>
+      </c>
+      <c r="AD22">
+        <v>9.36</v>
+      </c>
+      <c r="AE22">
+        <v>0.78</v>
+      </c>
+      <c r="AF22">
+        <v>87.32</v>
+      </c>
+      <c r="AG22">
+        <v>7.58</v>
+      </c>
+      <c r="AH22">
+        <v>-10.16</v>
+      </c>
+      <c r="AI22">
+        <v>49</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>3209</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2005321840</v>
+      </c>
+      <c r="E23" s="9">
+        <v>19910415</v>
+      </c>
+      <c r="F23" s="9">
+        <v>20081126</v>
+      </c>
+      <c r="G23" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="H23" s="9">
+        <v>8.24</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1.68</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="N23" s="9">
+        <v>9</v>
+      </c>
+      <c r="O23" s="9">
+        <v>32.04</v>
+      </c>
+      <c r="P23" s="9">
         <v>10</v>
       </c>
-      <c r="O22">
-        <v>73</v>
-      </c>
-      <c r="P22">
+      <c r="Q23" s="9">
+        <v>35.6</v>
+      </c>
+      <c r="R23" s="9">
+        <v>11</v>
+      </c>
+      <c r="S23" s="9">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="T23" s="9">
+        <v>12</v>
+      </c>
+      <c r="U23" s="9">
+        <v>42.72</v>
+      </c>
+      <c r="V23" s="9">
+        <v>13</v>
+      </c>
+      <c r="W23" s="9">
+        <v>46.28</v>
+      </c>
+      <c r="X23" s="9">
+        <v>14</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>49.84</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>5.31</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>22.5</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>2.11</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>1.63</v>
+      </c>
+      <c r="AE23" s="9">
+        <v>3.25</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>106.64</v>
+      </c>
+      <c r="AG23" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="AH23" s="9">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AI23" s="9">
+        <v>38</v>
+      </c>
+      <c r="AJ23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN23" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>3702</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="9">
+        <v>18790568330</v>
+      </c>
+      <c r="E24" s="9">
+        <v>20051109</v>
+      </c>
+      <c r="F24" s="9">
+        <v>20051109</v>
+      </c>
+      <c r="G24" s="9">
+        <v>5.94</v>
+      </c>
+      <c r="H24" s="9">
+        <v>9.02</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1.44</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="N24" s="9">
+        <v>9</v>
+      </c>
+      <c r="O24" s="9">
+        <v>55.71</v>
+      </c>
+      <c r="P24" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>60.66</v>
+      </c>
+      <c r="R24" s="9">
+        <v>10.6</v>
+      </c>
+      <c r="S24" s="9">
+        <v>65.61</v>
+      </c>
+      <c r="T24" s="9">
         <v>11.4</v>
       </c>
-      <c r="Q22">
-        <v>83.22</v>
-      </c>
-      <c r="R22">
-        <v>12.8</v>
-      </c>
-      <c r="S22">
-        <v>93.44</v>
-      </c>
-      <c r="T22">
-        <v>14.2</v>
-      </c>
-      <c r="U22">
-        <v>103.7</v>
-      </c>
-      <c r="V22">
-        <v>15.6</v>
-      </c>
-      <c r="W22">
-        <v>113.9</v>
-      </c>
-      <c r="X22">
-        <v>17</v>
-      </c>
-      <c r="Y22">
-        <v>124.1</v>
-      </c>
-      <c r="Z22">
-        <v>24.89</v>
-      </c>
-      <c r="AA22">
-        <v>8.01</v>
-      </c>
-      <c r="AB22">
-        <v>25.54</v>
-      </c>
-      <c r="AC22">
-        <v>20.46</v>
-      </c>
-      <c r="AD22">
-        <v>15.77</v>
-      </c>
-      <c r="AE22">
-        <v>0.86</v>
-      </c>
-      <c r="AF22">
-        <v>39.15</v>
-      </c>
-      <c r="AG22">
-        <v>0.9</v>
-      </c>
-      <c r="AH22">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="AI22">
-        <v>57</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>137</v>
+      <c r="U24" s="9">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="V24" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="W24" s="9">
+        <v>75.52</v>
+      </c>
+      <c r="X24" s="9">
+        <v>13</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>80.47</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>3.89</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>1.82</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>1.87</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="AE24" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="AF24" s="9">
+        <v>97.33</v>
+      </c>
+      <c r="AG24" s="9">
+        <v>-16.23</v>
+      </c>
+      <c r="AH24" s="9">
+        <v>-16.72</v>
+      </c>
+      <c r="AI24" s="9">
+        <v>28</v>
+      </c>
+      <c r="AJ24" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM24" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN24" s="9" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3044</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="7">
-        <v>5256058980</v>
-      </c>
-      <c r="E23">
-        <v>19911216</v>
-      </c>
-      <c r="F23">
-        <v>20020826</v>
-      </c>
-      <c r="G23" s="9">
-        <v>5.93</v>
-      </c>
-      <c r="H23" s="9">
-        <v>10.57</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1.78</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="N23">
-        <v>8</v>
-      </c>
-      <c r="O23">
-        <v>93.92</v>
-      </c>
-      <c r="P23">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="Q23">
-        <v>108</v>
-      </c>
-      <c r="R23">
-        <v>10.4</v>
-      </c>
-      <c r="S23">
-        <v>122.1</v>
-      </c>
-      <c r="T23">
-        <v>11.6</v>
-      </c>
-      <c r="U23">
-        <v>136.19999999999999</v>
-      </c>
-      <c r="V23">
-        <v>12.8</v>
-      </c>
-      <c r="W23">
-        <v>150.30000000000001</v>
-      </c>
-      <c r="X23">
-        <v>14</v>
-      </c>
-      <c r="Y23">
-        <v>164.4</v>
-      </c>
-      <c r="Z23">
-        <v>18.75</v>
-      </c>
-      <c r="AA23">
-        <v>10.47</v>
-      </c>
-      <c r="AB23">
-        <v>15.91</v>
-      </c>
-      <c r="AC23">
-        <v>11.99</v>
-      </c>
-      <c r="AD23">
-        <v>9.36</v>
-      </c>
-      <c r="AE23">
-        <v>0.78</v>
-      </c>
-      <c r="AF23">
-        <v>87.32</v>
-      </c>
-      <c r="AG23">
-        <v>7.58</v>
-      </c>
-      <c r="AH23">
-        <v>-10.16</v>
-      </c>
-      <c r="AI23">
-        <v>49</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3209</v>
-      </c>
-      <c r="B24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2005321840</v>
-      </c>
-      <c r="E24">
-        <v>19910415</v>
-      </c>
-      <c r="F24">
-        <v>20081126</v>
-      </c>
-      <c r="G24" s="9">
-        <v>6.8</v>
-      </c>
-      <c r="H24" s="9">
-        <v>8.24</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1.68</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="N24">
-        <v>9</v>
-      </c>
-      <c r="O24">
-        <v>32.04</v>
-      </c>
-      <c r="P24">
-        <v>10</v>
-      </c>
-      <c r="Q24">
-        <v>35.6</v>
-      </c>
-      <c r="R24">
-        <v>11</v>
-      </c>
-      <c r="S24">
-        <v>39.159999999999997</v>
-      </c>
-      <c r="T24">
-        <v>12</v>
-      </c>
-      <c r="U24">
-        <v>42.72</v>
-      </c>
-      <c r="V24">
-        <v>13</v>
-      </c>
-      <c r="W24">
-        <v>46.28</v>
-      </c>
-      <c r="X24">
-        <v>14</v>
-      </c>
-      <c r="Y24">
-        <v>49.84</v>
-      </c>
-      <c r="Z24">
-        <v>5.31</v>
-      </c>
-      <c r="AA24">
-        <v>2.25</v>
-      </c>
-      <c r="AB24">
-        <v>22.5</v>
-      </c>
-      <c r="AC24">
-        <v>2.11</v>
-      </c>
-      <c r="AD24">
-        <v>1.63</v>
-      </c>
-      <c r="AE24">
-        <v>3.25</v>
-      </c>
-      <c r="AF24">
-        <v>106.64</v>
-      </c>
-      <c r="AG24">
-        <v>0.7</v>
-      </c>
-      <c r="AH24">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="AI24">
+    <row r="25" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>3706</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3706</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="D25" s="10">
         <v>12065567890</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="9">
         <v>20130912</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="9">
         <v>20130912</v>
       </c>
       <c r="G25" s="9">
@@ -4944,116 +4932,116 @@
         <v>0.83</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="N25">
+        <v>267</v>
+      </c>
+      <c r="N25" s="9">
         <v>8</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="9">
         <v>82.56</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="9">
         <v>9.4</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="9">
         <v>97.01</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="9">
         <v>10.8</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="9">
         <v>111.5</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="9">
         <v>12.2</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="9">
         <v>125.9</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="9">
         <v>13.6</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="9">
         <v>140.4</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="9">
         <v>15</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="9">
         <v>154.80000000000001</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="9">
         <v>9.75</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="9">
         <v>-0.09</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="9">
         <v>33</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="9">
         <v>55.14</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="9">
         <v>34.869999999999997</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="9">
         <v>0.68</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="9">
         <v>-0.16</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="9">
         <v>1.44</v>
       </c>
-      <c r="AI25">
+      <c r="AI25" s="9">
         <v>57</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AJ25" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AK25" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>147</v>
+      <c r="AK25" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL25" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM25" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN25" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="9">
         <v>5515</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="10">
         <v>2574401050</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="9">
         <v>19601121</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="9">
         <v>20031006</v>
       </c>
       <c r="G26" s="9">
@@ -5066,96 +5054,96 @@
         <v>0.77</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="N26" s="6">
+        <v>271</v>
+      </c>
+      <c r="N26" s="9">
         <v>11</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="9">
         <v>19.8</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="9">
         <v>12.4</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="9">
         <v>22.32</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="9">
         <v>13.8</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="9">
         <v>24.84</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="9">
         <v>15.2</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="9">
         <v>27.36</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="9">
         <v>16.600000000000001</v>
       </c>
-      <c r="W26" s="6">
+      <c r="W26" s="9">
         <v>29.88</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="9">
         <v>18</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="9">
         <v>32.4</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="Z26" s="9">
         <v>13.13</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AA26" s="9">
         <v>7.24</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AB26" s="9">
         <v>10.87</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AC26" s="9">
         <v>12.76</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AD26" s="9">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AE26" s="9">
         <v>0.61</v>
       </c>
-      <c r="AF26" s="6">
+      <c r="AF26" s="9">
         <v>56.74</v>
       </c>
-      <c r="AG26" s="6">
+      <c r="AG26" s="9">
         <v>1.3</v>
       </c>
-      <c r="AH26" s="6">
+      <c r="AH26" s="9">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AI26" s="6">
+      <c r="AI26" s="9">
         <v>51</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL26" t="s">
+      <c r="AJ26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AM26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AN26" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5178,26 +5166,26 @@
       <c r="F27">
         <v>20030825</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>4.88</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>10.24</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>1.84</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>289</v>
+      <c r="J27" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="N27">
         <v>9</v>
@@ -5281,355 +5269,355 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>8039</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>307</v>
+    <row r="28" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
       </c>
       <c r="D28" s="7">
-        <v>2091196920</v>
-      </c>
-      <c r="E28" s="9">
-        <v>19970816</v>
-      </c>
-      <c r="F28" s="9">
-        <v>20091217</v>
-      </c>
-      <c r="G28" s="9">
-        <v>5.25</v>
-      </c>
-      <c r="H28" s="9">
-        <v>12.05</v>
-      </c>
-      <c r="I28" s="9">
-        <v>1.33</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="N28" s="9">
+        <v>4284964730</v>
+      </c>
+      <c r="E28">
+        <v>19870305</v>
+      </c>
+      <c r="F28">
+        <v>20071231</v>
+      </c>
+      <c r="G28" s="8">
+        <v>6.13</v>
+      </c>
+      <c r="H28" s="8">
+        <v>7.71</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1.99</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="O28">
+        <v>46.97</v>
+      </c>
+      <c r="P28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q28">
+        <v>55.02</v>
+      </c>
+      <c r="R28">
+        <v>9.4</v>
+      </c>
+      <c r="S28">
+        <v>63.07</v>
+      </c>
+      <c r="T28">
+        <v>10.6</v>
+      </c>
+      <c r="U28">
+        <v>71.13</v>
+      </c>
+      <c r="V28">
+        <v>11.8</v>
+      </c>
+      <c r="W28">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="X28">
+        <v>13</v>
+      </c>
+      <c r="Y28">
+        <v>87.23</v>
+      </c>
+      <c r="Z28">
+        <v>3.26</v>
+      </c>
+      <c r="AA28">
+        <v>2.17</v>
+      </c>
+      <c r="AB28">
+        <v>31.83</v>
+      </c>
+      <c r="AC28">
+        <v>2.02</v>
+      </c>
+      <c r="AD28">
+        <v>1.53</v>
+      </c>
+      <c r="AE28">
+        <v>4.42</v>
+      </c>
+      <c r="AF28">
+        <v>107.43</v>
+      </c>
+      <c r="AG28">
+        <v>-12.76</v>
+      </c>
+      <c r="AH28">
+        <v>-8.07</v>
+      </c>
+      <c r="AI28">
+        <v>32</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>8150</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="10">
+        <v>7272401260</v>
+      </c>
+      <c r="E29" s="9">
+        <v>19970728</v>
+      </c>
+      <c r="F29" s="9">
+        <v>20140411</v>
+      </c>
+      <c r="G29" s="9">
+        <v>4.54</v>
+      </c>
+      <c r="H29" s="9">
+        <v>8.15</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N29" s="9">
         <v>9</v>
       </c>
-      <c r="O28" s="9">
-        <v>35.549999999999997</v>
-      </c>
-      <c r="P28" s="9">
-        <v>10.6</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>41.87</v>
-      </c>
-      <c r="R28" s="9">
-        <v>12.2</v>
-      </c>
-      <c r="S28" s="9">
-        <v>48.19</v>
-      </c>
-      <c r="T28" s="9">
-        <v>13.8</v>
-      </c>
-      <c r="U28" s="9">
-        <v>54.51</v>
-      </c>
-      <c r="V28" s="9">
-        <v>15.4</v>
-      </c>
-      <c r="W28" s="9">
-        <v>60.83</v>
-      </c>
-      <c r="X28" s="9">
-        <v>17</v>
-      </c>
-      <c r="Y28" s="9">
-        <v>67.150000000000006</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>24.07</v>
-      </c>
-      <c r="AA28" s="9">
-        <v>11.16</v>
-      </c>
-      <c r="AB28" s="9">
-        <v>10.97</v>
-      </c>
-      <c r="AC28" s="9">
-        <v>10.98</v>
-      </c>
-      <c r="AD28" s="9">
-        <v>8.61</v>
-      </c>
-      <c r="AE28" s="9">
-        <v>0.79</v>
-      </c>
-      <c r="AF28" s="9">
-        <v>101.64</v>
-      </c>
-      <c r="AG28" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AH28" s="9">
-        <v>-4.01</v>
-      </c>
-      <c r="AI28" s="9">
-        <v>45</v>
-      </c>
-      <c r="AJ28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN28" s="9" t="s">
-        <v>105</v>
+      <c r="O29" s="9">
+        <v>53.55</v>
+      </c>
+      <c r="P29" s="9">
+        <v>10.8</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="R29" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="S29" s="9">
+        <v>74.97</v>
+      </c>
+      <c r="T29" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="U29" s="9">
+        <v>85.68</v>
+      </c>
+      <c r="V29" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="W29" s="9">
+        <v>96.39</v>
+      </c>
+      <c r="X29" s="9">
+        <v>18</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>107.1</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>26.62</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>20.51</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>22.24</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>21.26</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>96.47</v>
+      </c>
+      <c r="AG29" s="9">
+        <v>7.35</v>
+      </c>
+      <c r="AH29" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="AI29" s="9">
+        <v>66</v>
+      </c>
+      <c r="AJ29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL29" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM29" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN29" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>8112</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4284964730</v>
-      </c>
-      <c r="E29">
-        <v>19870305</v>
-      </c>
-      <c r="F29">
-        <v>20071231</v>
-      </c>
-      <c r="G29" s="9">
-        <v>6.13</v>
-      </c>
-      <c r="H29" s="9">
-        <v>7.71</v>
-      </c>
-      <c r="I29" s="9">
-        <v>1.99</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="N29">
+    <row r="30" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2712424880</v>
+      </c>
+      <c r="E30">
+        <v>19980421</v>
+      </c>
+      <c r="F30">
+        <v>20091225</v>
+      </c>
+      <c r="G30" s="8">
+        <v>7.25</v>
+      </c>
+      <c r="H30" s="8">
+        <v>7.98</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="P30">
         <v>7</v>
       </c>
-      <c r="O29">
-        <v>46.97</v>
-      </c>
-      <c r="P29">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Q29">
-        <v>55.02</v>
-      </c>
-      <c r="R29">
-        <v>9.4</v>
-      </c>
-      <c r="S29">
-        <v>63.07</v>
-      </c>
-      <c r="T29">
-        <v>10.6</v>
-      </c>
-      <c r="U29">
-        <v>71.13</v>
-      </c>
-      <c r="V29">
-        <v>11.8</v>
-      </c>
-      <c r="W29">
-        <v>79.180000000000007</v>
-      </c>
-      <c r="X29">
-        <v>13</v>
-      </c>
-      <c r="Y29">
-        <v>87.23</v>
-      </c>
-      <c r="Z29">
-        <v>3.26</v>
-      </c>
-      <c r="AA29">
-        <v>2.17</v>
-      </c>
-      <c r="AB29">
-        <v>31.83</v>
-      </c>
-      <c r="AC29">
+      <c r="Q30">
+        <v>42.77</v>
+      </c>
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>48.88</v>
+      </c>
+      <c r="T30">
+        <v>9</v>
+      </c>
+      <c r="U30">
+        <v>54.99</v>
+      </c>
+      <c r="V30">
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>61.1</v>
+      </c>
+      <c r="X30">
+        <v>11</v>
+      </c>
+      <c r="Y30">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="Z30">
+        <v>15.64</v>
+      </c>
+      <c r="AA30">
+        <v>8.6</v>
+      </c>
+      <c r="AB30">
+        <v>13.51</v>
+      </c>
+      <c r="AC30">
+        <v>9.09</v>
+      </c>
+      <c r="AD30">
+        <v>6.58</v>
+      </c>
+      <c r="AE30">
+        <v>0.86</v>
+      </c>
+      <c r="AF30">
+        <v>94.61</v>
+      </c>
+      <c r="AG30">
         <v>2.02</v>
       </c>
-      <c r="AD29">
-        <v>1.53</v>
-      </c>
-      <c r="AE29">
-        <v>4.42</v>
-      </c>
-      <c r="AF29">
-        <v>107.43</v>
-      </c>
-      <c r="AG29">
-        <v>-12.76</v>
-      </c>
-      <c r="AH29">
-        <v>-8.07</v>
-      </c>
-      <c r="AI29">
-        <v>32</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>8150</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="7">
-        <v>7272401260</v>
-      </c>
-      <c r="E30" s="6">
-        <v>19970728</v>
-      </c>
-      <c r="F30" s="6">
-        <v>20140411</v>
-      </c>
-      <c r="G30" s="9">
-        <v>4.54</v>
-      </c>
-      <c r="H30" s="9">
-        <v>8.15</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1.54</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="N30" s="6">
-        <v>9</v>
-      </c>
-      <c r="O30" s="6">
-        <v>53.55</v>
-      </c>
-      <c r="P30" s="6">
-        <v>10.8</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>64.260000000000005</v>
-      </c>
-      <c r="R30" s="6">
-        <v>12.6</v>
-      </c>
-      <c r="S30" s="6">
-        <v>74.97</v>
-      </c>
-      <c r="T30" s="6">
-        <v>14.4</v>
-      </c>
-      <c r="U30" s="6">
-        <v>85.68</v>
-      </c>
-      <c r="V30" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="W30" s="6">
-        <v>96.39</v>
-      </c>
-      <c r="X30" s="6">
-        <v>18</v>
-      </c>
-      <c r="Y30" s="6">
-        <v>107.1</v>
-      </c>
-      <c r="Z30" s="6">
-        <v>26.62</v>
-      </c>
-      <c r="AA30" s="6">
-        <v>20.51</v>
-      </c>
-      <c r="AB30" s="6">
-        <v>22.24</v>
-      </c>
-      <c r="AC30" s="6">
-        <v>21.26</v>
-      </c>
-      <c r="AD30" s="6">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="AE30" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="AF30" s="6">
-        <v>96.47</v>
-      </c>
-      <c r="AG30" s="6">
-        <v>7.35</v>
-      </c>
-      <c r="AH30" s="6">
-        <v>1.02</v>
-      </c>
-      <c r="AI30" s="6">
-        <v>66</v>
+      <c r="AH30">
+        <v>0.38</v>
+      </c>
+      <c r="AI30">
+        <v>47</v>
       </c>
       <c r="AJ30" t="s">
         <v>167</v>
@@ -5644,256 +5632,134 @@
         <v>170</v>
       </c>
       <c r="AN30" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>8213</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="7">
-        <v>2712424880</v>
-      </c>
-      <c r="E31">
-        <v>19980421</v>
-      </c>
-      <c r="F31">
-        <v>20091225</v>
+      <c r="A31" s="9">
+        <v>8215</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="10">
+        <v>3206745140</v>
+      </c>
+      <c r="E31" s="9">
+        <v>19980716</v>
+      </c>
+      <c r="F31" s="9">
+        <v>20101112</v>
       </c>
       <c r="G31" s="9">
-        <v>7.25</v>
+        <v>1.82</v>
       </c>
       <c r="H31" s="9">
-        <v>7.98</v>
+        <v>14.01</v>
       </c>
       <c r="I31" s="9">
-        <v>1</v>
+        <v>2.58</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="N31">
-        <v>6</v>
-      </c>
-      <c r="O31">
-        <v>36.659999999999997</v>
-      </c>
-      <c r="P31">
-        <v>7</v>
-      </c>
-      <c r="Q31">
-        <v>42.77</v>
-      </c>
-      <c r="R31">
-        <v>8</v>
-      </c>
-      <c r="S31">
-        <v>48.88</v>
-      </c>
-      <c r="T31">
-        <v>9</v>
-      </c>
-      <c r="U31">
-        <v>54.99</v>
-      </c>
-      <c r="V31">
-        <v>10</v>
-      </c>
-      <c r="W31">
-        <v>61.1</v>
-      </c>
-      <c r="X31">
-        <v>11</v>
-      </c>
-      <c r="Y31">
-        <v>67.209999999999994</v>
-      </c>
-      <c r="Z31">
-        <v>15.64</v>
-      </c>
-      <c r="AA31">
-        <v>8.6</v>
-      </c>
-      <c r="AB31">
-        <v>13.51</v>
-      </c>
-      <c r="AC31">
-        <v>9.09</v>
-      </c>
-      <c r="AD31">
-        <v>6.58</v>
-      </c>
-      <c r="AE31">
-        <v>0.86</v>
-      </c>
-      <c r="AF31">
-        <v>94.61</v>
-      </c>
-      <c r="AG31">
-        <v>2.02</v>
-      </c>
-      <c r="AH31">
-        <v>0.38</v>
-      </c>
-      <c r="AI31">
-        <v>47</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>173</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>9945</v>
-      </c>
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="7">
-        <v>21068333970</v>
-      </c>
-      <c r="E32">
-        <v>19770912</v>
-      </c>
-      <c r="F32">
-        <v>19920430</v>
-      </c>
-      <c r="G32" s="9">
-        <v>7.94</v>
-      </c>
-      <c r="H32" s="9">
-        <v>8.89</v>
-      </c>
-      <c r="I32" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <v>29.24</v>
-      </c>
-      <c r="P32">
-        <v>4.8</v>
-      </c>
-      <c r="Q32">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="R32">
-        <v>5.6</v>
-      </c>
-      <c r="S32">
-        <v>40.94</v>
-      </c>
-      <c r="T32">
-        <v>6.4</v>
-      </c>
-      <c r="U32">
-        <v>46.78</v>
-      </c>
-      <c r="V32">
-        <v>7.2</v>
-      </c>
-      <c r="W32">
-        <v>52.63</v>
-      </c>
-      <c r="X32">
-        <v>8</v>
-      </c>
-      <c r="Y32">
-        <v>58.48</v>
-      </c>
-      <c r="Z32">
-        <v>21.08</v>
-      </c>
-      <c r="AA32">
-        <v>13.8</v>
-      </c>
-      <c r="AB32">
-        <v>17.79</v>
-      </c>
-      <c r="AC32">
-        <v>79.52</v>
-      </c>
-      <c r="AD32">
-        <v>76.819999999999993</v>
-      </c>
-      <c r="AE32">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AF32">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="AG32">
-        <v>0.88</v>
-      </c>
-      <c r="AH32">
-        <v>0.9</v>
-      </c>
-      <c r="AI32">
-        <v>60</v>
-      </c>
-      <c r="AJ32" t="s">
+        <v>293</v>
+      </c>
+      <c r="N31" s="9">
+        <v>15</v>
+      </c>
+      <c r="O31" s="9">
+        <v>41.1</v>
+      </c>
+      <c r="P31" s="9">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>49.32</v>
+      </c>
+      <c r="R31" s="9">
+        <v>21</v>
+      </c>
+      <c r="S31" s="9">
+        <v>57.54</v>
+      </c>
+      <c r="T31" s="9">
+        <v>24</v>
+      </c>
+      <c r="U31" s="9">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="V31" s="9">
+        <v>27</v>
+      </c>
+      <c r="W31" s="9">
+        <v>73.98</v>
+      </c>
+      <c r="X31" s="9">
+        <v>30</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>82.2</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>6.21</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>20.77</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>7.17</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>5.72</v>
+      </c>
+      <c r="AE31" s="9">
+        <v>1.46</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>86.61</v>
+      </c>
+      <c r="AG31" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="AH31" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="AI31" s="9">
+        <v>40</v>
+      </c>
+      <c r="AJ31" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL31" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AK32" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>130</v>
+      <c r="AM31" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN31" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AN33">
-    <sortCondition ref="A3:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AN31">
+    <sortCondition ref="A3:A31"/>
   </sortState>
   <mergeCells count="21">
     <mergeCell ref="AJ1:AN1"/>
@@ -5919,8 +5785,8 @@
     <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AF3:AF27 AF29:AF32">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="AF3:AF30">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5929,8 +5795,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA27 AA29:AA32">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="AA4:AA30">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5939,8 +5805,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z27 Z29:Z32">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="Z3:Z30">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5949,8 +5815,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA27 AA29:AA32">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="AA3:AA30">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5959,8 +5825,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD27 AD29:AD32">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="AD3:AD30">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5969,8 +5835,50 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB27 AB29:AB32">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="AB3:AB30">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z29:Z31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AF31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AI31">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E92940-197A-4BE7-82FC-76E4D2253786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507D271F-F1B1-4F50-A54B-69BCAF024D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33060" yWindow="3660" windowWidth="23505" windowHeight="11235" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -629,321 +629,6 @@
     <t xml:space="preserve">  3.59 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.08 /     0.08 /     0.07 /     0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    62.2 /     60.3 /    58.18 /    57.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2612.0 /   2103.0 /  1182.55 /   1506.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.1 /     12.0 /    11.92 /    12.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.09 /     1.05 /     1.17 /     2.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    69.9 /     69.0 /    68.51 /    67.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   226.0 /   151.24 /   136.91 /   202.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.88 /     1.85 /     1.85 /     1.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /    20.05 /    19.83 /    19.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3058.0 /   2676.2 /  2945.55 /  3704.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /    13.94 /    13.72 /    13.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.81 /     0.78 /     0.54 /     0.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.35 /    15.37 /    15.14 /    15.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   369.0 /    700.8 /   495.55 /   1170.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.4 /     2.19 /      1.7 /     2.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   25.65 /    25.59 /    24.68 /    23.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   722.0 /    916.2 /    786.3 /   503.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.95 /     9.77 /     9.09 /     8.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.05 /     0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    57.5 /    57.16 /    58.33 /    63.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   642.0 /    680.4 /  1276.75 /   777.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.96 /     7.72 /      7.7 /     8.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.01 /     5.28 /     3.42 /     1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.2 /    26.05 /    25.54 /    26.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    79.6 /    121.2 /   109.06 /   166.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.6 /    21.62 /    21.53 /     21.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.28 /     0.28 /      0.4 /      0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.6 /    31.75 /    31.89 /    31.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   237.0 /    269.8 /   517.25 /   801.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.3 /     3.34 /     3.29 /     2.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.36 /     0.35 /     0.41 /     0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   35.15 /    35.44 /    35.57 /    34.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1143.0 /   1121.2 /   2336.6 /  4253.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.75 /     1.88 /      1.6 /     1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.56 /     5.58 /     5.48 /      5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.2 /    24.04 /    23.86 /    23.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7406.0 /  10481.0 /  14979.5 / 14054.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.6 /     45.6 /    45.77 /     47.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.36 /     1.31 /     1.42 /     3.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    66.5 /    66.54 /    63.74 /    57.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2892.0 /   9966.8 /  12675.8 /  7191.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.9 /    32.92 /    34.43 /    34.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.59 /     9.18 /     5.13 /     5.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.25 /    30.11 /    29.95 /    30.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3911.0 /   3111.2 /   5433.3 /  7687.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.9 /    19.88 /    20.08 /    21.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.05 /      1.1 /     1.21 /     1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    82.3 /    82.08 /    81.57 /    80.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1232.0 /   1714.8 /   1720.7 /  1737.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.9 /    33.76 /    33.49 /    33.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.12 /     0.05 /     0.05 /     0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.55 /    29.24 /    25.95 /    26.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25994.0 /  13993.6 /  3946.95 /  2569.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.28 /     2.12 /      2.1 /     2.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.0 /    18.25 /    10.31 /    11.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   165.5 /    167.8 /   163.22 /   162.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1283.0 /   1727.8 /  2193.45 /  3018.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.0 /    22.14 /    21.64 /    22.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /    19.96 /    21.25 /    23.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    37.6 /    37.55 /    38.17 /    38.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   781.0 /   1164.8 /  1515.45 /  1660.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.8 /     20.9 /    21.31 /    21.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.72 /      0.7 /     0.65 /      0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.7 /    49.33 /    49.31 /    48.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   180.0 /   102.36 /    78.14 /   106.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.7 /     3.71 /     3.75 /     3.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    75.9 /     75.1 /    74.89 /    74.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17438.0 /  12081.6 /  19548.9 / 20260.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.9 /    21.82 /     21.9 /    23.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.6 /    10.94 /    10.43 /    18.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.8 /    54.26 /    53.98 /    53.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   478.0 /    561.0 /   936.15 /   852.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.9 /    30.98 /    31.06 /     31.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.29 /     0.58 /     0.66 /     0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   124.0 /    123.1 /   122.68 /   118.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   425.0 /    700.0 /    921.9 /   982.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.5 /    42.42 /    41.97 /    41.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.85 /     0.97 /     0.98 /     1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.4 /    29.09 /    28.94 /    29.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   737.0 /    457.4 /   426.75 /   612.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.33 /     4.24 /     4.48 /     5.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.53 /     0.46 /     0.46 /     0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.5 /    34.07 /     33.4 /    30.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7843.0 /   6578.0 / 10644.55 / 10661.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.0 /     11.7 /     11.2 /    10.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.02 /     0.97 /      0.7 /     0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /    13.94 /    13.92 /     13.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   326.0 /    240.0 /    304.3 /   264.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.17 /     6.18 /     6.19 /     6.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.27 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    58.8 /    58.72 /    58.65 /    58.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1965.0 /   1689.2 /  2126.35 /  3684.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.8 /     24.0 /    24.58 /     25.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.87 /     0.92 /     1.25 /     3.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.9 /    47.77 /    46.91 /    44.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11306.0 /   5073.0 /   5134.6 /  3715.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.8 /    23.36 /    22.82 /    22.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.88 /     0.72 /     0.53 /     0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.5 /    48.42 /    46.89 /    46.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7609.0 /   7829.2 /   6066.8 /  6734.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.1 /    46.94 /    46.76 /    49.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.61 /     3.47 /      6.0 /     6.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   48.25 /    48.03 /     47.4 /    47.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1124.0 /    808.8 /    654.7 /    886.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.9 /    20.74 /    20.71 /    20.46</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.19 /     0.18 /      0.2 /     0.24</t>
   </si>
   <si>
@@ -953,18 +638,6 @@
     <t>明基材料股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    38.4 /    38.49 /    38.55 /    36.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4901.0 /   5128.2 /  16406.0 / 13439.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.81 /     2.98 /     3.71 /     4.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.5 /     2.52 /     3.44 /     6.79</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.7 /    0.0</t>
   </si>
   <si>
@@ -983,12 +656,6 @@
     <t xml:space="preserve">  3547.0 /   3965.8 /  3726.05 /  3734.18</t>
   </si>
   <si>
-    <t xml:space="preserve">    26.8 /    26.78 /    26.52 /    26.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.31 /     0.34 /      0.4 /     0.51</t>
-  </si>
-  <si>
     <t xml:space="preserve">   3.1 /    0.0</t>
   </si>
   <si>
@@ -996,6 +663,339 @@
   </si>
   <si>
     <t xml:space="preserve">  2.29 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    62.0 /    60.96 /    58.41 /    57.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2245.0 /   2236.0 /   1232.9 /  1516.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.1 /    12.04 /    11.93 /    12.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.09 /     1.06 /     1.16 /     2.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    69.6 /     69.3 /     68.6 /     67.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   222.0 /   167.84 /   142.86 /   199.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.89 /     1.86 /     1.85 /     1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.1 /    20.06 /    19.86 /    19.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3582.0 /   2524.4 /   3019.3 /   3664.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.2 /     14.0 /    13.76 /     13.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.84 /     0.79 /     0.56 /     0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.55 /    15.45 /    15.16 /    15.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   764.0 /    749.0 /    513.7 /  1160.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.68 /     2.38 /     1.77 /     2.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.08 /     0.08 /     0.07 /     0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.0 /    25.68 /     24.8 /    23.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1194.0 /    977.4 /   834.85 /   512.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.2 /      9.9 /     9.16 /     8.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.04 /     0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    57.3 /    57.12 /    58.04 /    63.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   688.0 /    690.4 /   1265.9 /   781.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.88 /     7.75 /     7.71 /      8.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.45 /     5.29 /     3.62 /     1.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   26.25 /    26.15 /    25.56 /    26.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    77.5 /   122.54 /   106.08 /   163.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.7 /    21.66 /    21.54 /    21.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.47 /     0.32 /      0.4 /      0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.7 /     31.7 /    31.88 /    31.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   170.0 /    251.8 /    493.8 /   782.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.31 /     3.32 /      3.3 /     2.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.36 /     0.36 /     0.39 /     0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.1 /    35.33 /    35.54 /    34.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   906.0 /   1005.6 /  2305.75 /   4223.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.77 /     1.85 /     1.59 /     1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.56 /     5.57 /     5.38 /     5.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.25 /    24.09 /     23.9 /    23.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7574.0 /   8929.4 /  14735.4 /  13947.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.6 /     45.6 /    45.74 /    47.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.41 /     1.34 /     1.39 /     3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    66.6 /     66.7 /     64.1 /    58.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2631.0 /   6578.8 /  12461.6 /  7189.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.9 /    32.86 /    34.34 /    34.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.66 /     9.47 /     5.41 /     5.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.25 /    30.17 /    29.99 /    30.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4299.0 /   3493.8 /  5403.25 /  7708.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.9 /     19.9 /    20.04 /    21.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.05 /     1.06 /      1.2 /     1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    82.4 /     82.3 /    81.64 /    80.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1489.0 /   1564.8 /   1718.6 /  1744.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.9 /    33.84 /    33.52 /    33.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.32 /     0.11 /     0.07 /     0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /    30.83 /    26.33 /     26.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23381.0 /  18529.6 /  5085.45 /  2934.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.73 /     2.03 /     2.08 /      2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.6 /    22.73 /    11.28 /    11.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   168.0 /    167.9 /   163.43 /   162.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1069.0 /   1515.4 /  2143.35 /   2996.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    22.12 /    21.67 /    22.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.3 /    20.02 /    21.09 /    23.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.8 /    37.58 /    38.13 /    38.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   668.0 /   1076.2 /   1465.6 /  1643.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.7 /    20.82 /    21.29 /    21.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.77 /     0.72 /     0.66 /      0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.55 /    49.39 /    49.29 /    48.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   122.0 /   112.92 /    81.76 /   108.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.7 /     3.71 /     3.74 /     3.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    76.6 /    75.54 /    75.02 /    74.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19964.0 /  13683.0 / 19718.65 / 20187.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.0 /    21.86 /     21.9 /     23.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.7 /    10.88 /    10.49 /    18.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.8 /    54.46 /    53.99 /    53.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   454.0 /    603.6 /    901.4 /   848.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.9 /    30.96 /    31.05 /    31.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.29 /      0.5 /     0.64 /     0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   123.5 /    123.5 /    122.7 /   118.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   428.0 /    572.0 /    904.6 /   961.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.4 /    42.44 /    42.02 /    41.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.86 /     0.92 /     0.97 /     1.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   29.45 /    29.18 /    28.96 /    29.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   308.0 /    477.8 /    429.5 /   606.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.31 /     4.26 /     4.45 /     5.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.43 /     0.45 /     0.45 /     0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.9 /    26.84 /    26.54 /    26.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.31 /     0.33 /     0.39 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   34.95 /    34.32 /    33.54 /    31.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16913.0 /   9028.0 / 11186.95 / 10897.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.5 /    11.92 /    11.27 /    10.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.17 /     1.03 /     0.72 /     0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.05 /    13.98 /    13.92 /    13.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   258.0 /    256.2 /    297.1 /   264.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.18 /     6.18 /     6.18 /     6.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.24 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    59.0 /    58.88 /     58.6 /    58.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1523.0 /   1772.0 /   2099.8 /  3605.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.7 /    23.92 /    24.49 /    25.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.87 /      0.9 /     1.21 /     3.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.7 /    48.13 /    47.15 /     44.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14628.0 /   7493.6 /   5751.0 /  3913.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.8 /    23.46 /    22.92 /    22.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.92 /     0.79 /     0.56 /     0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.6 /    48.52 /    47.01 /    46.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4945.0 /   6626.8 /  6088.05 /  6714.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.3 /    47.06 /    46.77 /    49.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.76 /     3.53 /     5.85 /     6.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.4 /    48.14 /    47.47 /    47.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1161.0 /    940.2 /    684.5 /   891.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.1 /    20.84 /    20.71 /    20.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    38.0 /    38.43 /     38.5 /    36.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5621.0 /   5533.0 /  16080.6 /  13419.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.76 /     2.89 /     3.54 /      4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.53 /     2.53 /     3.32 /      6.6</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2023,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BU1" sqref="AO1:BU1048576"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2239,25 +2239,25 @@
         <v>19760719</v>
       </c>
       <c r="G3" s="8">
-        <v>4.34</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H3" s="8">
-        <v>17.670000000000002</v>
+        <v>17.61</v>
       </c>
       <c r="I3" s="8">
         <v>2.2400000000000002</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -2361,22 +2361,22 @@
         <v>19951102</v>
       </c>
       <c r="G4" s="8">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="H4" s="8">
-        <v>17.739999999999998</v>
+        <v>17.66</v>
       </c>
       <c r="I4" s="8">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>172</v>
@@ -2483,25 +2483,25 @@
         <v>19730831</v>
       </c>
       <c r="G5" s="8">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="H5" s="8">
-        <v>8.81</v>
+        <v>8.85</v>
       </c>
       <c r="I5" s="8">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>191</v>
+        <v>201</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N5">
         <v>9</v>
@@ -2604,26 +2604,26 @@
       <c r="F6" s="9">
         <v>20001031</v>
       </c>
-      <c r="G6" s="9">
-        <v>2.61</v>
-      </c>
-      <c r="H6" s="9">
-        <v>10.89</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.98</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>182</v>
+      <c r="G6" s="8">
+        <v>2.57</v>
+      </c>
+      <c r="H6" s="8">
+        <v>11.03</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="N6" s="9">
         <v>13</v>
@@ -2727,25 +2727,25 @@
         <v>19940326</v>
       </c>
       <c r="G7" s="8">
-        <v>4.68</v>
+        <v>4.62</v>
       </c>
       <c r="H7" s="8">
-        <v>16.88</v>
+        <v>17.11</v>
       </c>
       <c r="I7" s="8">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="N7">
         <v>13</v>
@@ -2848,26 +2848,26 @@
       <c r="F8" s="9">
         <v>19950204</v>
       </c>
-      <c r="G8" s="9">
-        <v>6.26</v>
-      </c>
-      <c r="H8" s="9">
-        <v>9.06</v>
-      </c>
-      <c r="I8" s="9">
-        <v>2.68</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>204</v>
+      <c r="G8" s="8">
+        <v>6.28</v>
+      </c>
+      <c r="H8" s="8">
+        <v>9.02</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2.67</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="N8" s="9">
         <v>12</v>
@@ -2971,25 +2971,25 @@
         <v>20180416</v>
       </c>
       <c r="G9" s="8">
-        <v>7.63</v>
+        <v>7.62</v>
       </c>
       <c r="H9" s="8">
-        <v>14.89</v>
+        <v>14.91</v>
       </c>
       <c r="I9" s="8">
         <v>1.42</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="N9">
         <v>14</v>
@@ -3092,26 +3092,26 @@
       <c r="F10" s="9">
         <v>19930427</v>
       </c>
-      <c r="G10" s="9">
-        <v>5.38</v>
-      </c>
-      <c r="H10" s="9">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="G10" s="8">
+        <v>5.36</v>
+      </c>
+      <c r="H10" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="I10" s="8">
         <v>1.97</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>212</v>
+      <c r="J10" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="N10" s="9">
         <v>12</v>
@@ -3214,26 +3214,26 @@
       <c r="F11" s="9">
         <v>20160322</v>
       </c>
-      <c r="G11" s="9">
-        <v>1.56</v>
-      </c>
-      <c r="H11" s="9">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="G11" s="8">
+        <v>1.57</v>
+      </c>
+      <c r="H11" s="8">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I11" s="8">
         <v>1.47</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>216</v>
+      <c r="J11" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="N11" s="9">
         <v>10</v>
@@ -3336,26 +3336,26 @@
       <c r="F12" s="9">
         <v>19920218</v>
       </c>
-      <c r="G12" s="9">
-        <v>6.61</v>
-      </c>
-      <c r="H12" s="9">
-        <v>7.52</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="G12" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="H12" s="8">
+        <v>7.53</v>
+      </c>
+      <c r="I12" s="8">
         <v>0.98</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>220</v>
+      <c r="J12" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="N12" s="9">
         <v>9</v>
@@ -3458,26 +3458,26 @@
       <c r="F13" s="9">
         <v>19951213</v>
       </c>
-      <c r="G13" s="9">
-        <v>4.96</v>
-      </c>
-      <c r="H13" s="9">
-        <v>6.64</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="G13" s="8">
+        <v>4.95</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6.65</v>
+      </c>
+      <c r="I13" s="8">
         <v>1.88</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>224</v>
+      <c r="J13" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="N13" s="9">
         <v>9</v>
@@ -3580,26 +3580,26 @@
       <c r="F14" s="9">
         <v>19960722</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>4.96</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>6.56</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>1.65</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>228</v>
+      <c r="J14" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="N14" s="9">
         <v>8</v>
@@ -3703,25 +3703,25 @@
         <v>19990105</v>
       </c>
       <c r="G15" s="8">
-        <v>6.68</v>
+        <v>6.67</v>
       </c>
       <c r="H15" s="8">
-        <v>10.15</v>
+        <v>10.16</v>
       </c>
       <c r="I15" s="8">
         <v>2.06</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -3825,25 +3825,25 @@
         <v>20000911</v>
       </c>
       <c r="G16" s="8">
-        <v>5.96</v>
+        <v>6.1</v>
       </c>
       <c r="H16" s="8">
-        <v>12.43</v>
+        <v>12.15</v>
       </c>
       <c r="I16" s="8">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="N16">
         <v>13</v>
@@ -3946,26 +3946,26 @@
       <c r="F17" s="9">
         <v>20010917</v>
       </c>
-      <c r="G17" s="9">
-        <v>5.44</v>
-      </c>
-      <c r="H17" s="9">
-        <v>9.48</v>
-      </c>
-      <c r="I17" s="9">
-        <v>4.96</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>240</v>
+      <c r="G17" s="8">
+        <v>5.36</v>
+      </c>
+      <c r="H17" s="8">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="I17" s="8">
+        <v>5.03</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="N17" s="9">
         <v>12</v>
@@ -4068,26 +4068,26 @@
       <c r="F18" s="9">
         <v>19931027</v>
       </c>
-      <c r="G18" s="9">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="H18" s="9">
-        <v>4.42</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="G18" s="8">
+        <v>8.99</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4.45</v>
+      </c>
+      <c r="I18" s="8">
         <v>1.24</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>244</v>
+      <c r="J18" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="N18" s="9">
         <v>7</v>
@@ -4191,22 +4191,22 @@
         <v>20000911</v>
       </c>
       <c r="G19" s="8">
-        <v>7.24</v>
+        <v>7.27</v>
       </c>
       <c r="H19" s="8">
-        <v>7.07</v>
+        <v>7.05</v>
       </c>
       <c r="I19" s="8">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>171</v>
@@ -4313,25 +4313,25 @@
         <v>20011219</v>
       </c>
       <c r="G20" s="8">
-        <v>3.95</v>
+        <v>3.92</v>
       </c>
       <c r="H20" s="8">
-        <v>6.25</v>
+        <v>6.31</v>
       </c>
       <c r="I20" s="8">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="N20" s="6">
         <v>7</v>
@@ -4434,26 +4434,26 @@
       <c r="F21" s="9">
         <v>20020225</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>6.55</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>7.55</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>1.9</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>255</v>
+      <c r="J21" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="N21" s="9">
         <v>10</v>
@@ -4557,25 +4557,25 @@
         <v>20020826</v>
       </c>
       <c r="G22" s="8">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="H22" s="8">
-        <v>10.57</v>
+        <v>10.53</v>
       </c>
       <c r="I22" s="8">
         <v>1.78</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="N22">
         <v>8</v>
@@ -4678,26 +4678,26 @@
       <c r="F23" s="9">
         <v>20081126</v>
       </c>
-      <c r="G23" s="9">
-        <v>6.8</v>
-      </c>
-      <c r="H23" s="9">
-        <v>8.24</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1.68</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>263</v>
+      <c r="G23" s="8">
+        <v>6.79</v>
+      </c>
+      <c r="H23" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.69</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="N23" s="9">
         <v>9</v>
@@ -4786,10 +4786,10 @@
         <v>3702</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>296</v>
+        <v>187</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="D24" s="9">
         <v>18790568330</v>
@@ -4800,26 +4800,26 @@
       <c r="F24" s="9">
         <v>20051109</v>
       </c>
-      <c r="G24" s="9">
-        <v>5.94</v>
-      </c>
-      <c r="H24" s="9">
-        <v>9.02</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1.44</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>301</v>
+      <c r="G24" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H24" s="8">
+        <v>9.07</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1.45</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="N24" s="9">
         <v>9</v>
@@ -4888,19 +4888,19 @@
         <v>28</v>
       </c>
       <c r="AJ24" s="9" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="AK24" s="9" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="AL24" s="9" t="s">
         <v>159</v>
       </c>
       <c r="AM24" s="9" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>304</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4922,26 +4922,26 @@
       <c r="F25" s="9">
         <v>20130912</v>
       </c>
-      <c r="G25" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="H25" s="9">
-        <v>3.34</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>264</v>
+      <c r="G25" s="8">
+        <v>2.86</v>
+      </c>
+      <c r="H25" s="8">
+        <v>3.39</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>267</v>
+        <v>279</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="N25" s="9">
         <v>8</v>
@@ -5044,26 +5044,26 @@
       <c r="F26" s="9">
         <v>20031006</v>
       </c>
-      <c r="G26" s="9">
-        <v>5.71</v>
-      </c>
-      <c r="H26" s="9">
-        <v>7.73</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="G26" s="8">
+        <v>5.69</v>
+      </c>
+      <c r="H26" s="8">
+        <v>7.76</v>
+      </c>
+      <c r="I26" s="8">
         <v>0.77</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>271</v>
+      <c r="J26" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="N26" s="9">
         <v>11</v>
@@ -5167,25 +5167,25 @@
         <v>20030825</v>
       </c>
       <c r="G27" s="8">
-        <v>4.88</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H27" s="8">
-        <v>10.24</v>
+        <v>10.28</v>
       </c>
       <c r="I27" s="8">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="N27">
         <v>9</v>
@@ -5289,25 +5289,25 @@
         <v>20071231</v>
       </c>
       <c r="G28" s="8">
-        <v>6.13</v>
+        <v>6.04</v>
       </c>
       <c r="H28" s="8">
-        <v>7.71</v>
+        <v>7.84</v>
       </c>
       <c r="I28" s="8">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="N28">
         <v>7</v>
@@ -5410,26 +5410,26 @@
       <c r="F29" s="9">
         <v>20140411</v>
       </c>
-      <c r="G29" s="9">
-        <v>4.54</v>
-      </c>
-      <c r="H29" s="9">
-        <v>8.15</v>
-      </c>
-      <c r="I29" s="9">
-        <v>1.54</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>283</v>
+      <c r="G29" s="8">
+        <v>4.53</v>
+      </c>
+      <c r="H29" s="8">
+        <v>8.17</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="N29" s="9">
         <v>9</v>
@@ -5533,25 +5533,25 @@
         <v>20091225</v>
       </c>
       <c r="G30" s="8">
-        <v>7.25</v>
+        <v>7.23</v>
       </c>
       <c r="H30" s="8">
-        <v>7.98</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8">
         <v>1</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>287</v>
+        <v>182</v>
       </c>
       <c r="N30">
         <v>6</v>
@@ -5640,10 +5640,10 @@
         <v>8215</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>288</v>
+        <v>183</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="D31" s="10">
         <v>3206745140</v>
@@ -5654,26 +5654,26 @@
       <c r="F31" s="9">
         <v>20101112</v>
       </c>
-      <c r="G31" s="9">
-        <v>1.82</v>
-      </c>
-      <c r="H31" s="9">
-        <v>14.01</v>
-      </c>
-      <c r="I31" s="9">
-        <v>2.58</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>293</v>
+      <c r="G31" s="8">
+        <v>1.84</v>
+      </c>
+      <c r="H31" s="8">
+        <v>13.87</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="N31" s="9">
         <v>15</v>
@@ -5742,7 +5742,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" s="9" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="AK31" s="9" t="s">
         <v>91</v>
@@ -5751,7 +5751,7 @@
         <v>128</v>
       </c>
       <c r="AM31" s="9" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="AN31" s="9" t="s">
         <v>108</v>
@@ -5762,6 +5762,11 @@
     <sortCondition ref="A3:A31"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -5778,11 +5783,6 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF30">

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507D271F-F1B1-4F50-A54B-69BCAF024D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19CB3A1-0ACB-4C30-87E2-BB55D4FBF174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -629,9 +629,6 @@
     <t xml:space="preserve">  3.59 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.19 /     0.18 /      0.2 /     0.24</t>
-  </si>
-  <si>
     <t>明基材</t>
   </si>
   <si>
@@ -650,12 +647,6 @@
     <t>大聯大投資控股股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    52.5 /    51.74 /     50.8 /    50.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3547.0 /   3965.8 /  3726.05 /  3734.18</t>
-  </si>
-  <si>
     <t xml:space="preserve">   3.1 /    0.0</t>
   </si>
   <si>
@@ -665,337 +656,346 @@
     <t xml:space="preserve">  2.29 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    62.0 /    60.96 /    58.41 /    57.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2245.0 /   2236.0 /   1232.9 /  1516.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.1 /    12.04 /    11.93 /    12.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.09 /     1.06 /     1.16 /     2.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    69.6 /     69.3 /     68.6 /     67.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   222.0 /   167.84 /   142.86 /   199.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.89 /     1.86 /     1.85 /     1.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.1 /    20.06 /    19.86 /    19.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3582.0 /   2524.4 /   3019.3 /   3664.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.2 /     14.0 /    13.76 /     13.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.84 /     0.79 /     0.56 /     0.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.55 /    15.45 /    15.16 /    15.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   764.0 /    749.0 /    513.7 /  1160.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.68 /     2.38 /     1.77 /     2.35</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.08 /     0.08 /     0.07 /     0.13</t>
   </si>
   <si>
-    <t xml:space="preserve">    26.0 /    25.68 /     24.8 /    23.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1194.0 /    977.4 /   834.85 /   512.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.2 /      9.9 /     9.16 /     8.64</t>
-  </si>
-  <si>
     <t xml:space="preserve">     0.0 /      0.0 /     0.04 /     0.14</t>
   </si>
   <si>
-    <t xml:space="preserve">    57.3 /    57.12 /    58.04 /    63.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   688.0 /    690.4 /   1265.9 /   781.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.88 /     7.75 /     7.71 /      8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.45 /     5.29 /     3.62 /     1.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   26.25 /    26.15 /    25.56 /    26.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    77.5 /   122.54 /   106.08 /   163.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.7 /    21.66 /    21.54 /    21.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.47 /     0.32 /      0.4 /      0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.7 /     31.7 /    31.88 /    31.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   170.0 /    251.8 /    493.8 /   782.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.31 /     3.32 /      3.3 /     2.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.36 /     0.36 /     0.39 /     0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.1 /    35.33 /    35.54 /    34.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   906.0 /   1005.6 /  2305.75 /   4223.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.77 /     1.85 /     1.59 /     1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.56 /     5.57 /     5.38 /     5.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.25 /    24.09 /     23.9 /    23.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7574.0 /   8929.4 /  14735.4 /  13947.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.6 /     45.6 /    45.74 /    47.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.41 /     1.34 /     1.39 /     3.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    66.6 /     66.7 /     64.1 /    58.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2631.0 /   6578.8 /  12461.6 /  7189.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.9 /    32.86 /    34.34 /    34.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.66 /     9.47 /     5.41 /     5.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.25 /    30.17 /    29.99 /    30.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4299.0 /   3493.8 /  5403.25 /  7708.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.9 /     19.9 /    20.04 /    21.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.05 /     1.06 /      1.2 /     1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    82.4 /     82.3 /    81.64 /    80.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1489.0 /   1564.8 /   1718.6 /  1744.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.9 /    33.84 /    33.52 /    33.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.32 /     0.11 /     0.07 /     0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /    30.83 /    26.33 /     26.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23381.0 /  18529.6 /  5085.45 /  2934.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.73 /     2.03 /     2.08 /      2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.6 /    22.73 /    11.28 /    11.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   168.0 /    167.9 /   163.43 /   162.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1069.0 /   1515.4 /  2143.35 /   2996.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /    22.12 /    21.67 /    22.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.3 /    20.02 /    21.09 /    23.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    37.8 /    37.58 /    38.13 /    38.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   668.0 /   1076.2 /   1465.6 /  1643.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.7 /    20.82 /    21.29 /    21.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.77 /     0.72 /     0.66 /      0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.55 /    49.39 /    49.29 /    48.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   122.0 /   112.92 /    81.76 /   108.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.7 /     3.71 /     3.74 /     3.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    76.6 /    75.54 /    75.02 /    74.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19964.0 /  13683.0 / 19718.65 / 20187.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.0 /    21.86 /     21.9 /     23.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.7 /    10.88 /    10.49 /    18.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.8 /    54.46 /    53.99 /    53.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   454.0 /    603.6 /    901.4 /   848.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.9 /    30.96 /    31.05 /    31.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.29 /      0.5 /     0.64 /     0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   123.5 /    123.5 /    122.7 /   118.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   428.0 /    572.0 /    904.6 /   961.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.4 /    42.44 /    42.02 /    41.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.86 /     0.92 /     0.97 /     1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   29.45 /    29.18 /    28.96 /    29.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   308.0 /    477.8 /    429.5 /   606.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.31 /     4.26 /     4.45 /     5.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.43 /     0.45 /     0.45 /     0.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.9 /    26.84 /    26.54 /    26.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.31 /     0.33 /     0.39 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   34.95 /    34.32 /    33.54 /    31.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16913.0 /   9028.0 / 11186.95 / 10897.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.5 /    11.92 /    11.27 /    10.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.17 /     1.03 /     0.72 /     0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.05 /    13.98 /    13.92 /    13.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   258.0 /    256.2 /    297.1 /   264.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.18 /     6.18 /     6.18 /     6.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.24 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    59.0 /    58.88 /     58.6 /    58.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1523.0 /   1772.0 /   2099.8 /  3605.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.7 /    23.92 /    24.49 /    25.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.87 /      0.9 /     1.21 /     3.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.7 /    48.13 /    47.15 /     44.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14628.0 /   7493.6 /   5751.0 /  3913.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.8 /    23.46 /    22.92 /    22.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.92 /     0.79 /     0.56 /     0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.6 /    48.52 /    47.01 /    46.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4945.0 /   6626.8 /  6088.05 /  6714.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.3 /    47.06 /    46.77 /    49.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.76 /     3.53 /     5.85 /     6.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.4 /    48.14 /    47.47 /    47.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1161.0 /    940.2 /    684.5 /   891.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.1 /    20.84 /    20.71 /    20.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    38.0 /    38.43 /     38.5 /    36.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5621.0 /   5533.0 /  16080.6 /  13419.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.76 /     2.89 /     3.54 /      4.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.53 /     2.53 /     3.32 /      6.6</t>
+    <t xml:space="preserve">    61.9 /    61.38 /    58.64 /    57.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2425.0 /   2210.4 /  1327.05 /  1533.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.1 /    12.06 /    11.94 /    12.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.08 /     1.07 /     1.15 /     1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    69.3 /     69.4 /    68.65 /    67.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   118.0 /   157.44 /   141.91 /   198.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.87 /     1.87 /     1.85 /     1.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.2 /    20.08 /    19.89 /    19.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2917.0 /   2694.2 /  3028.95 /  3547.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.2 /    14.06 /    13.79 /    13.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.83 /     0.79 /     0.58 /     0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.5 /    15.45 /    15.19 /    15.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   552.0 /    563.8 /   528.85 /  1145.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.78 /     2.48 /     1.84 /     2.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.0 /    25.81 /    24.93 /    24.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   598.0 /    946.2 /    842.9 /   514.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.3 /    10.05 /     9.25 /     8.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    56.5 /     57.0 /    57.73 /    62.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1243.0 /    789.6 /  1279.55 /   796.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.76 /     7.79 /     7.71 /     8.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.21 /     5.21 /     3.81 /     1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   26.15 /    26.21 /    25.61 /    25.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    78.8 /   122.58 /    98.27 /    161.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.7 /    21.68 /    21.55 /    21.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.47 /     0.36 /      0.4 /      0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.65 /    31.66 /    31.87 /    31.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   258.0 /    240.8 /    475.9 /   777.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.3 /     3.31 /     3.31 /      3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.52 /     0.39 /     0.39 /     0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   34.75 /    35.18 /    35.52 /    34.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1368.0 /   1058.0 /  2208.25 /   4202.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.48 /     1.75 /     1.58 /     1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.31 /      5.5 /     5.33 /     5.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.2 /    24.17 /    23.94 /    23.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8491.0 /   7101.8 / 14629.85 / 13756.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.6 /     45.6 /    45.72 /    47.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.42 /     1.36 /     1.38 /      3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    66.2 /     66.4 /    64.44 /    58.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2106.0 /   3690.0 /  12251.3 /   7173.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /    32.84 /    34.24 /    34.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.57 /     9.39 /     5.69 /     5.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.45 /    30.25 /    30.05 /    30.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4777.0 /   3877.8 /  5241.95 /  7681.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /    19.92 /    20.01 /    21.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.0 /     1.04 /     1.18 /     1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    82.3 /    82.32 /    81.72 /    80.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1312.0 /   1273.6 /   1717.1 /  1725.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.9 /    33.86 /    33.54 /    33.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.33 /     0.17 /     0.08 /     0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.0 /    31.77 /     26.7 /     26.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6487.0 /  18232.6 /   5358.5 /  2995.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.73 /     1.94 /     2.07 /     2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    27.9 /    26.52 /    12.23 /    11.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   170.0 /    168.1 /   163.88 /   162.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1529.0 /   1160.0 /  2125.05 /   2995.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.4 /    22.16 /    21.72 /     22.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.6 /    20.14 /    20.96 /    23.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37.75 /    37.64 /    38.09 /    38.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   794.0 /    783.0 /   1435.1 /  1628.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.7 /    20.78 /    21.26 /    21.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.79 /     0.74 /     0.67 /      0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.65 /    49.51 /    49.29 /    48.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   192.0 /   129.12 /    89.73 /   111.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.69 /      3.7 /     3.74 /     3.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    76.3 /    75.84 /    75.14 /     74.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13553.0 /  14542.6 / 19665.85 / 20033.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.0 /     21.9 /     21.9 /    22.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.7 /    10.82 /    10.55 /    18.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    55.7 /     54.8 /    54.08 /    53.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1541.0 /    817.4 /   948.85 /   864.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.0 /    30.96 /    31.03 /    31.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.28 /     0.41 /     0.62 /     0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   124.5 /    123.8 /   122.88 /   119.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   453.0 /    409.6 /    889.2 /   960.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.5 /    42.46 /    42.07 /    41.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.87 /     0.85 /     0.96 /     1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.4 /    29.26 /    28.98 /    29.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   331.0 /    482.4 /   417.05 /    604.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.27 /     4.27 /     4.42 /      5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.05 /     0.38 /     0.43 /     0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    52.6 /    52.08 /    50.92 /    50.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3648.0 /   3665.2 /  3804.95 /  3744.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.8 /    26.84 /    26.55 /    26.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.31 /     0.32 /     0.38 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.2 /    34.56 /    33.72 /    31.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15721.0 /  10774.0 / 11616.05 / 11131.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 /    12.06 /    11.34 /    10.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.15 /     1.06 /     0.75 /     0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.1 /    14.02 /    13.93 /    13.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   309.0 /    267.0 /   296.25 /   268.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.19 /     6.18 /     6.18 /      6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.22 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    58.8 /    58.88 /    58.54 /     58.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2118.0 /   1878.4 /   2088.8 /  3574.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.6 /    23.82 /    24.42 /    25.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.89 /     0.87 /     1.18 /     2.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.5 /     48.8 /    47.46 /    44.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16507.0 /   9487.4 /   6464.5 /  4136.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.1 /    23.66 /    23.04 /    22.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.19 /     0.88 /     0.61 /     0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.6 /    48.62 /    47.16 /    46.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4043.0 /   6032.2 /   5964.0 /  6703.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.4 /    47.18 /     46.8 /    49.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.72 /     3.57 /      5.7 /     5.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.55 /    48.24 /    47.56 /    47.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1436.0 /   1046.0 /   720.95 /   902.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.3 /    20.96 /    20.73 /    20.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.19 /     0.19 /      0.2 /     0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37.95 /    38.31 /    38.51 /    36.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4265.0 /   4575.0 /  14132.3 / 13317.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.86 /     2.86 /     3.51 /     4.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.73 /     2.57 /     3.27 /     6.42</t>
   </si>
 </sst>
 </file>
@@ -2020,10 +2020,10 @@
   <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2239,25 +2239,25 @@
         <v>19760719</v>
       </c>
       <c r="G3" s="8">
-        <v>4.3499999999999996</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="H3" s="8">
-        <v>17.61</v>
+        <v>17.59</v>
       </c>
       <c r="I3" s="8">
-        <v>2.2400000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -2361,22 +2361,22 @@
         <v>19951102</v>
       </c>
       <c r="G4" s="8">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="H4" s="8">
-        <v>17.66</v>
+        <v>17.59</v>
       </c>
       <c r="I4" s="8">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>172</v>
@@ -2483,25 +2483,25 @@
         <v>19730831</v>
       </c>
       <c r="G5" s="8">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="H5" s="8">
-        <v>8.85</v>
+        <v>8.9</v>
       </c>
       <c r="I5" s="8">
         <v>0.95</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="N5">
         <v>9</v>
@@ -2605,25 +2605,25 @@
         <v>20001031</v>
       </c>
       <c r="G6" s="8">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="H6" s="8">
-        <v>11.03</v>
+        <v>10.99</v>
       </c>
       <c r="I6" s="8">
         <v>0.99</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="M6" s="8" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="N6" s="9">
         <v>13</v>
@@ -2736,16 +2736,16 @@
         <v>1.76</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="M7" s="8" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="N7">
         <v>13</v>
@@ -2849,25 +2849,25 @@
         <v>19950204</v>
       </c>
       <c r="G8" s="8">
-        <v>6.28</v>
+        <v>6.37</v>
       </c>
       <c r="H8" s="8">
-        <v>9.02</v>
+        <v>8.9</v>
       </c>
       <c r="I8" s="8">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="N8" s="9">
         <v>12</v>
@@ -2971,25 +2971,25 @@
         <v>20180416</v>
       </c>
       <c r="G9" s="8">
-        <v>7.62</v>
+        <v>7.65</v>
       </c>
       <c r="H9" s="8">
-        <v>14.91</v>
+        <v>14.86</v>
       </c>
       <c r="I9" s="8">
         <v>1.42</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="N9">
         <v>14</v>
@@ -3093,25 +3093,25 @@
         <v>19930427</v>
       </c>
       <c r="G10" s="8">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="H10" s="8">
-        <v>8.9</v>
+        <v>8.89</v>
       </c>
       <c r="I10" s="8">
         <v>1.97</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="N10" s="9">
         <v>12</v>
@@ -3215,25 +3215,25 @@
         <v>20160322</v>
       </c>
       <c r="G11" s="8">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H11" s="8">
-        <v>9.1199999999999992</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="I11" s="8">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="N11" s="9">
         <v>10</v>
@@ -3337,25 +3337,25 @@
         <v>19920218</v>
       </c>
       <c r="G12" s="8">
-        <v>6.6</v>
+        <v>6.61</v>
       </c>
       <c r="H12" s="8">
-        <v>7.53</v>
+        <v>7.52</v>
       </c>
       <c r="I12" s="8">
         <v>0.98</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="N12" s="9">
         <v>9</v>
@@ -3459,25 +3459,25 @@
         <v>19951213</v>
       </c>
       <c r="G13" s="8">
-        <v>4.95</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H13" s="8">
-        <v>6.65</v>
+        <v>6.61</v>
       </c>
       <c r="I13" s="8">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="N13" s="9">
         <v>9</v>
@@ -3581,25 +3581,25 @@
         <v>19960722</v>
       </c>
       <c r="G14" s="8">
-        <v>4.96</v>
+        <v>4.93</v>
       </c>
       <c r="H14" s="8">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="I14" s="8">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="N14" s="9">
         <v>8</v>
@@ -3703,25 +3703,25 @@
         <v>19990105</v>
       </c>
       <c r="G15" s="8">
-        <v>6.67</v>
+        <v>6.68</v>
       </c>
       <c r="H15" s="8">
-        <v>10.16</v>
+        <v>10.15</v>
       </c>
       <c r="I15" s="8">
         <v>2.06</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -3825,25 +3825,25 @@
         <v>20000911</v>
       </c>
       <c r="G16" s="8">
-        <v>6.1</v>
+        <v>6.25</v>
       </c>
       <c r="H16" s="8">
-        <v>12.15</v>
+        <v>11.85</v>
       </c>
       <c r="I16" s="8">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="N16">
         <v>13</v>
@@ -3947,25 +3947,25 @@
         <v>20010917</v>
       </c>
       <c r="G17" s="8">
-        <v>5.36</v>
+        <v>5.29</v>
       </c>
       <c r="H17" s="8">
-        <v>9.6199999999999992</v>
+        <v>9.74</v>
       </c>
       <c r="I17" s="8">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="N17" s="9">
         <v>12</v>
@@ -4069,25 +4069,25 @@
         <v>19931027</v>
       </c>
       <c r="G18" s="8">
-        <v>8.99</v>
+        <v>9.01</v>
       </c>
       <c r="H18" s="8">
-        <v>4.45</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I18" s="8">
         <v>1.24</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="N18" s="9">
         <v>7</v>
@@ -4191,22 +4191,22 @@
         <v>20000911</v>
       </c>
       <c r="G19" s="8">
-        <v>7.27</v>
+        <v>7.25</v>
       </c>
       <c r="H19" s="8">
-        <v>7.05</v>
+        <v>7.06</v>
       </c>
       <c r="I19" s="8">
         <v>1.57</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>171</v>
@@ -4313,25 +4313,25 @@
         <v>20011219</v>
       </c>
       <c r="G20" s="8">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="H20" s="8">
-        <v>6.31</v>
+        <v>6.29</v>
       </c>
       <c r="I20" s="8">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="N20" s="6">
         <v>7</v>
@@ -4435,25 +4435,25 @@
         <v>20020225</v>
       </c>
       <c r="G21" s="8">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="H21" s="8">
-        <v>7.55</v>
+        <v>7.67</v>
       </c>
       <c r="I21" s="8">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="N21" s="9">
         <v>10</v>
@@ -4557,25 +4557,25 @@
         <v>20020826</v>
       </c>
       <c r="G22" s="8">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="H22" s="8">
-        <v>10.53</v>
+        <v>10.61</v>
       </c>
       <c r="I22" s="8">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="N22">
         <v>8</v>
@@ -4679,25 +4679,25 @@
         <v>20081126</v>
       </c>
       <c r="G23" s="8">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
       <c r="H23" s="8">
-        <v>8.25</v>
+        <v>8.24</v>
       </c>
       <c r="I23" s="8">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="N23" s="9">
         <v>9</v>
@@ -4786,10 +4786,10 @@
         <v>3702</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="D24" s="9">
         <v>18790568330</v>
@@ -4801,25 +4801,25 @@
         <v>20051109</v>
       </c>
       <c r="G24" s="8">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="H24" s="8">
-        <v>9.07</v>
+        <v>9.08</v>
       </c>
       <c r="I24" s="8">
         <v>1.45</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="L24" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="N24" s="9">
         <v>9</v>
@@ -4888,19 +4888,19 @@
         <v>28</v>
       </c>
       <c r="AJ24" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK24" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AL24" s="9" t="s">
         <v>159</v>
       </c>
       <c r="AM24" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4923,25 +4923,25 @@
         <v>20130912</v>
       </c>
       <c r="G25" s="8">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H25" s="8">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="I25" s="8">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J25" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="L25" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="M25" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="N25" s="9">
         <v>8</v>
@@ -5045,25 +5045,25 @@
         <v>20031006</v>
       </c>
       <c r="G26" s="8">
-        <v>5.69</v>
+        <v>5.67</v>
       </c>
       <c r="H26" s="8">
-        <v>7.76</v>
+        <v>7.79</v>
       </c>
       <c r="I26" s="8">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="L26" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="M26" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="N26" s="9">
         <v>11</v>
@@ -5167,25 +5167,25 @@
         <v>20030825</v>
       </c>
       <c r="G27" s="8">
-        <v>4.8600000000000003</v>
+        <v>4.88</v>
       </c>
       <c r="H27" s="8">
-        <v>10.28</v>
+        <v>10.24</v>
       </c>
       <c r="I27" s="8">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J27" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="L27" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="M27" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="N27">
         <v>9</v>
@@ -5289,25 +5289,25 @@
         <v>20071231</v>
       </c>
       <c r="G28" s="8">
-        <v>6.04</v>
+        <v>5.94</v>
       </c>
       <c r="H28" s="8">
-        <v>7.84</v>
+        <v>7.97</v>
       </c>
       <c r="I28" s="8">
-        <v>2.02</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J28" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="L28" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="M28" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="N28">
         <v>7</v>
@@ -5420,16 +5420,16 @@
         <v>1.55</v>
       </c>
       <c r="J29" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="L29" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="M29" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="N29" s="9">
         <v>9</v>
@@ -5533,25 +5533,25 @@
         <v>20091225</v>
       </c>
       <c r="G30" s="8">
-        <v>7.23</v>
+        <v>7.21</v>
       </c>
       <c r="H30" s="8">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="I30" s="8">
         <v>1</v>
       </c>
       <c r="J30" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="L30" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="M30" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="N30">
         <v>6</v>
@@ -5640,10 +5640,10 @@
         <v>8215</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="D31" s="10">
         <v>3206745140</v>
@@ -5658,7 +5658,7 @@
         <v>1.84</v>
       </c>
       <c r="H31" s="8">
-        <v>13.87</v>
+        <v>13.85</v>
       </c>
       <c r="I31" s="8">
         <v>2.5499999999999998</v>
@@ -5742,7 +5742,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK31" s="9" t="s">
         <v>91</v>
@@ -5751,7 +5751,7 @@
         <v>128</v>
       </c>
       <c r="AM31" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN31" s="9" t="s">
         <v>108</v>
@@ -5762,11 +5762,6 @@
     <sortCondition ref="A3:A31"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -5783,6 +5778,11 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF30">

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19CB3A1-0ACB-4C30-87E2-BB55D4FBF174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D887FB87-C30B-4477-92B1-0080F5C8E1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="325">
   <si>
     <t>公司名稱</t>
   </si>
@@ -996,6 +996,67 @@
   </si>
   <si>
     <t xml:space="preserve">    2.73 /     2.57 /     3.27 /     6.42</t>
+  </si>
+  <si>
+    <t>宏正</t>
+  </si>
+  <si>
+    <t>宏正自動科技股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    81.7 /    81.74 /    81.52 /    82.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    52.0 /    54.44 /    70.43 /   103.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.8 /    13.88 /    13.96 /    14.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.3 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.8 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8.0 /    0.0</t>
+  </si>
+  <si>
+    <t>久元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    84.3 /     83.6 /     83.3 /    84.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   915.0 /    599.2 /   716.65 /  1806.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.87 /     3.86 /      4.0 /     5.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.97 /     1.83 /     2.34 /     1.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.0 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1 /    0.0</t>
+  </si>
+  <si>
+    <t>鎰勝</t>
+  </si>
+  <si>
+    <t>鎰勝工業股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   42.95 /     42.9 /    42.68 /    42.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   109.0 /    84.32 /    73.68 /   153.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.16 /     8.17 /     8.18 /      8.3</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1366,12 +1427,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1619,47 +1674,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2017,3744 +2063,4090 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:M31"/>
+      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.625" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="1" max="2" width="6.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="7" customWidth="1"/>
-    <col min="5" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="9" width="6.625" customWidth="1"/>
-    <col min="10" max="10" width="30.625" customWidth="1"/>
-    <col min="11" max="11" width="35.625" customWidth="1"/>
-    <col min="12" max="13" width="30.625" customWidth="1"/>
-    <col min="14" max="25" width="6.625" customWidth="1"/>
-    <col min="26" max="32" width="8.625" customWidth="1"/>
-    <col min="33" max="34" width="9.625" customWidth="1"/>
-    <col min="35" max="35" width="6.625" customWidth="1"/>
-    <col min="36" max="40" width="10.625" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="6.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="25" width="6.625" style="1" customWidth="1"/>
+    <col min="26" max="32" width="8.625" style="1" customWidth="1"/>
+    <col min="33" max="34" width="9.625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="6.625" style="1" customWidth="1"/>
+    <col min="36" max="40" width="10.625" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="12" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
     </row>
-    <row r="2" spans="1:40" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="3" t="s">
+    <row r="2" spans="1:40" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="5">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="2">
         <v>2021</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AK2" s="2">
         <v>2020</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AL2" s="2">
         <v>2019</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AM2" s="2">
         <v>2018</v>
       </c>
-      <c r="AN2" s="5">
+      <c r="AN2" s="2">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1229</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="7">
         <v>14096480360</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>19550720</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>19760719</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="1">
         <v>4.3600000000000003</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="1">
         <v>17.59</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="1">
         <v>2.23</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>11</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>35.200000000000003</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>12.6</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>40.32</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>14.2</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>45.44</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>15.8</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>50.56</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>17.399999999999999</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>55.68</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>19</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>60.8</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>26.64</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>16.34</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="1">
         <v>12.1</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <v>53.98</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>52.93</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <v>0.18</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <v>30.27</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="1">
         <v>1.28</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="1">
         <v>0.52</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <v>60</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1231</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="7">
         <v>2017623940</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>19700707</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>19951102</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="1">
         <v>3.75</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="1">
         <v>17.59</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="1">
         <v>3.25</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>11</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>43.23</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>12.2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>47.95</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>13.4</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>52.66</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>14.6</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>57.38</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>15.8</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>62.09</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>17</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>66.81</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <v>23.18</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <v>9.2799999999999994</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="1">
         <v>17.32</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="1">
         <v>9.73</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>7.83</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="1">
         <v>1.03</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="1">
         <v>95.38</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="1">
         <v>0.91</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="1">
         <v>43</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1409</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="7">
         <v>16184092910</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>19670425</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>19730831</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="1">
         <v>5.45</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="1">
         <v>8.9</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="1">
         <v>0.95</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>9</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>20.43</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>10.6</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>24.06</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>12.2</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>27.69</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>13.8</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>31.33</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>15.4</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>34.96</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>17</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>38.590000000000003</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>24.73</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <v>13.99</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="1">
         <v>11.28</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="1">
         <v>13.87</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="1">
         <v>11.48</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="1">
         <v>0.24</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="1">
         <v>100.87</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="1">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="1">
         <v>-3.53</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="1">
         <v>47</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1474</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>1298969690</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="1">
         <v>19700904</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="1">
         <v>20001031</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="1">
         <v>2.58</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="1">
         <v>10.99</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="1">
         <v>0.99</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="1">
         <v>13</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="1">
         <v>15.4</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="1">
         <v>21.71</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="1">
         <v>17.8</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="1">
         <v>25.1</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="1">
         <v>20.2</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="1">
         <v>28.48</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="1">
         <v>22.6</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="1">
         <v>31.87</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="1">
         <v>25</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="1">
         <v>35.25</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="1">
         <v>16.04</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="1">
         <v>5.23</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="1">
         <v>8.11</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="1">
         <v>6.05</v>
       </c>
-      <c r="AD6" s="9">
+      <c r="AD6" s="1">
         <v>4.8099999999999996</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AE6" s="1">
         <v>0.85</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AF6" s="1">
         <v>86.45</v>
       </c>
-      <c r="AG6" s="9">
+      <c r="AG6" s="1">
         <v>0.86</v>
       </c>
-      <c r="AH6" s="9">
+      <c r="AH6" s="1">
         <v>-0.96</v>
       </c>
-      <c r="AI6" s="9">
+      <c r="AI6" s="1">
         <v>43</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AK6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AL6" s="9" t="s">
+      <c r="AL6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AM6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AN6" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1514</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="7">
         <v>2283266720</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>19680925</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>19940326</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="1">
         <v>4.62</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="1">
         <v>17.11</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="1">
         <v>1.76</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>13</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>19.760000000000002</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>14.8</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>22.5</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>25.23</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>27.97</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <v>20.2</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>30.7</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>22</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="1">
         <v>33.44</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>18.34</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="1">
         <v>7.73</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="1">
         <v>11.62</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="1">
         <v>8.6</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="1">
         <v>7.3</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="1">
         <v>0.79</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="1">
         <v>89.88</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="1">
         <v>-2.67</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="1">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="1">
         <v>34</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AK7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AM7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1515</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>1814735000</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="1">
         <v>19730430</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="1">
         <v>19950204</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="1">
         <v>6.37</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="1">
         <v>8.9</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="1">
         <v>2.64</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="1">
         <v>12</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="1">
         <v>76.2</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="1">
         <v>15.6</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="1">
         <v>99.06</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="1">
         <v>19.2</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="1">
         <v>121.9</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="1">
         <v>22.8</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="1">
         <v>144.80000000000001</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="1">
         <v>26.4</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="1">
         <v>167.6</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="1">
         <v>30</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="1">
         <v>190.5</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="1">
         <v>13.81</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AA8" s="1">
         <v>8.14</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="1">
         <v>28.22</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AC8" s="1">
         <v>7.63</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AD8" s="1">
         <v>6.12</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AE8" s="1">
         <v>1.74</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AF8" s="1">
         <v>106.68</v>
       </c>
-      <c r="AG8" s="9">
+      <c r="AG8" s="1">
         <v>7.24</v>
       </c>
-      <c r="AH8" s="9">
+      <c r="AH8" s="1">
         <v>2.77</v>
       </c>
-      <c r="AI8" s="9">
+      <c r="AI8" s="1">
         <v>51</v>
       </c>
-      <c r="AJ8" s="9" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AK8" s="9" t="s">
+      <c r="AK8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AL8" s="9" t="s">
+      <c r="AL8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AM8" s="9" t="s">
+      <c r="AM8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AN8" s="9" t="s">
+      <c r="AN8" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1587</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="7">
         <v>686244490</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>19840822</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>20180416</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="1">
         <v>7.65</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="1">
         <v>14.86</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="1">
         <v>1.42</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>14</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>24.64</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>16.8</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>29.57</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="1">
         <v>34.5</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="1">
         <v>22.4</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>39.42</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="1">
         <v>25.2</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="1">
         <v>44.35</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="1">
         <v>28</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="1">
         <v>49.28</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="1">
         <v>23.6</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="1">
         <v>7.66</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="1">
         <v>9.01</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="1">
         <v>7.17</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="1">
         <v>4.87</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="1">
         <v>0.84</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="1">
         <v>106.83</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="1">
         <v>-0.27</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="1">
         <v>-1.07</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="1">
         <v>36</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AK9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AL9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AM9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AN9" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2020</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>2225261000</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="1">
         <v>19590929</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="1">
         <v>19930427</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="1">
         <v>5.37</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="1">
         <v>8.89</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="1">
         <v>1.97</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="1">
         <v>12</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="1">
         <v>42.72</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="1">
         <v>14.8</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="1">
         <v>52.69</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="1">
         <v>62.66</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="1">
         <v>72.62</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="1">
         <v>23.2</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="1">
         <v>82.59</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="1">
         <v>26</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="1">
         <v>92.56</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="1">
         <v>14.3</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="1">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="1">
         <v>27.47</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="1">
         <v>16.52</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AD10" s="1">
         <v>14.13</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AE10" s="1">
         <v>0.89</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AF10" s="1">
         <v>57.32</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AG10" s="1">
         <v>0.9</v>
       </c>
-      <c r="AH10" s="9">
+      <c r="AH10" s="1">
         <v>1.46</v>
       </c>
-      <c r="AI10" s="9">
+      <c r="AI10" s="1">
         <v>47</v>
       </c>
-      <c r="AJ10" s="9" t="s">
+      <c r="AJ10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AK10" s="9" t="s">
+      <c r="AK10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AL10" s="9" t="s">
+      <c r="AL10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AM10" s="9" t="s">
+      <c r="AM10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AN10" s="9" t="s">
+      <c r="AN10" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2069</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>1663868360</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="1">
         <v>19870724</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="1">
         <v>20160322</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="1">
         <v>1.58</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="1">
         <v>9.0299999999999994</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="1">
         <v>1.46</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="1">
         <v>10</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="1">
         <v>38.6</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="1">
         <v>13.4</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="1">
         <v>51.72</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="1">
         <v>16.8</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="1">
         <v>64.849999999999994</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="1">
         <v>20.2</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="1">
         <v>77.97</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="1">
         <v>23.6</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="1">
         <v>91.1</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="1">
         <v>27</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="1">
         <v>104.2</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="1">
         <v>13</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AA11" s="1">
         <v>6.49</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="1">
         <v>19.260000000000002</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AC11" s="1">
         <v>6.18</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AD11" s="1">
         <v>5.03</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AE11" s="1">
         <v>1.39</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AF11" s="1">
         <v>105.02</v>
       </c>
-      <c r="AG11" s="9">
+      <c r="AG11" s="1">
         <v>-7.36</v>
       </c>
-      <c r="AH11" s="9">
+      <c r="AH11" s="1">
         <v>-9.52</v>
       </c>
-      <c r="AI11" s="9">
+      <c r="AI11" s="1">
         <v>34</v>
       </c>
-      <c r="AJ11" s="9" t="s">
+      <c r="AJ11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AK11" s="9" t="s">
+      <c r="AK11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AL11" s="9" t="s">
+      <c r="AL11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AM11" s="9" t="s">
+      <c r="AM11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AN11" s="9" t="s">
+      <c r="AN11" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2324</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>44071466250</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="1">
         <v>19840601</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="1">
         <v>19920218</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="1">
         <v>6.61</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="1">
         <v>7.52</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="1">
         <v>0.98</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="1">
         <v>9</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="1">
         <v>28.98</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="1">
         <v>32.840000000000003</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="1">
         <v>11.4</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="1">
         <v>36.71</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="1">
         <v>12.6</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="1">
         <v>40.57</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="1">
         <v>13.8</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="1">
         <v>44.44</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="1">
         <v>15</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="1">
         <v>48.3</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="1">
         <v>3.35</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="1">
         <v>11.72</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="1">
         <v>1.49</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="1">
         <v>1.18</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AE12" s="1">
         <v>2.33</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="1">
         <v>73.150000000000006</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="1">
         <v>-5.67</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AH12" s="1">
         <v>-7.8</v>
       </c>
-      <c r="AI12" s="9">
+      <c r="AI12" s="1">
         <v>36</v>
       </c>
-      <c r="AJ12" s="9" t="s">
+      <c r="AJ12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AK12" s="9" t="s">
+      <c r="AK12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AL12" s="9" t="s">
+      <c r="AL12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AM12" s="9" t="s">
+      <c r="AM12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AN12" s="9" t="s">
+      <c r="AN12" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2347</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>16679469680</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="1">
         <v>19880912</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="1">
         <v>19951213</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="1">
         <v>4.9800000000000004</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="1">
         <v>6.61</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="1">
         <v>1.87</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="1">
         <v>9</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="1">
         <v>90.18</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="1">
         <v>102.2</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="1">
         <v>11.4</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="1">
         <v>114.2</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="1">
         <v>12.6</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="1">
         <v>126.3</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="1">
         <v>13.8</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W13" s="1">
         <v>138.30000000000001</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="1">
         <v>15</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="Y13" s="1">
         <v>150.30000000000001</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z13" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AA13" s="1">
         <v>2.29</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="1">
         <v>32.94</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AC13" s="1">
         <v>6.79</v>
       </c>
-      <c r="AD13" s="9">
+      <c r="AD13" s="1">
         <v>5.12</v>
       </c>
-      <c r="AE13" s="9">
+      <c r="AE13" s="1">
         <v>2.25</v>
       </c>
-      <c r="AF13" s="9">
+      <c r="AF13" s="1">
         <v>33.729999999999997</v>
       </c>
-      <c r="AG13" s="9">
+      <c r="AG13" s="1">
         <v>3.64</v>
       </c>
-      <c r="AH13" s="9">
+      <c r="AH13" s="1">
         <v>0.68</v>
       </c>
-      <c r="AI13" s="9">
+      <c r="AI13" s="1">
         <v>40</v>
       </c>
-      <c r="AJ13" s="9" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AK13" s="9" t="s">
+      <c r="AK13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AL13" s="9" t="s">
+      <c r="AL13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AM13" s="9" t="s">
+      <c r="AM13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AN13" s="9" t="s">
+      <c r="AN13" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2352</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>19667819580</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="1">
         <v>19840421</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="1">
         <v>19960722</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="1">
         <v>4.93</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="1">
         <v>6.61</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="1">
         <v>1.66</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="1">
         <v>8</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="1">
         <v>36.96</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="1">
         <v>47.12</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="1">
         <v>12.4</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="1">
         <v>57.29</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="1">
         <v>14.6</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="1">
         <v>67.45</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="1">
         <v>16.8</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="1">
         <v>77.62</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="1">
         <v>19</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="1">
         <v>87.78</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="1">
         <v>14.67</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="1">
         <v>3.42</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="1">
         <v>20.170000000000002</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AC14" s="1">
         <v>6.69</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AD14" s="1">
         <v>5.45</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AE14" s="1">
         <v>1.24</v>
       </c>
-      <c r="AF14" s="9">
+      <c r="AF14" s="1">
         <v>51.12</v>
       </c>
-      <c r="AG14" s="9">
+      <c r="AG14" s="1">
         <v>-1.7</v>
       </c>
-      <c r="AH14" s="9">
+      <c r="AH14" s="1">
         <v>-5.0199999999999996</v>
       </c>
-      <c r="AI14" s="9">
+      <c r="AI14" s="1">
         <v>40</v>
       </c>
-      <c r="AJ14" s="9" t="s">
+      <c r="AJ14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AK14" s="9" t="s">
+      <c r="AK14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AL14" s="9" t="s">
+      <c r="AL14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AM14" s="9" t="s">
+      <c r="AM14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AN14" s="9" t="s">
+      <c r="AN14" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>2385</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="7">
         <v>7452927490</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="1">
         <v>19830222</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="1">
         <v>19990105</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="1">
         <v>6.68</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="1">
         <v>10.15</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="1">
         <v>2.06</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>10</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>81.2</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>11</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>89.32</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>12</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <v>97.44</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="1">
         <v>13</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>105.6</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <v>14</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="1">
         <v>113.7</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="1">
         <v>15</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="1">
         <v>121.8</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Z15" s="1">
         <v>17.55</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="1">
         <v>7.9</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="1">
         <v>22.24</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC15" s="1">
         <v>8.7799999999999994</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AD15" s="1">
         <v>7.09</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AE15" s="1">
         <v>1.32</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AF15" s="1">
         <v>89.98</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AG15" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AH15" s="6">
+      <c r="AH15" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AI15" s="1">
         <v>38</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AJ15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AL15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AM15" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AN15" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>2417</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="7">
         <v>1543138640</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>19900117</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>20000911</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="1">
         <v>6.25</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="1">
         <v>11.85</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="1">
         <v>1.46</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>13</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>28.34</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>35.75</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>19.8</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <v>43.16</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="1">
         <v>23.2</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <v>50.58</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <v>26.6</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="1">
         <v>57.99</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="1">
         <v>30</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="1">
         <v>65.400000000000006</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="1">
         <v>48.85</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="1">
         <v>12.06</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="1">
         <v>9.5399999999999991</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="1">
         <v>12.15</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="1">
         <v>9.57</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="1">
         <v>0.67</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="1">
         <v>99.26</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="1">
         <v>0.98</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="1">
         <v>-0.77</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="1">
         <v>60</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AJ16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AK16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AL16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AM16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AN16" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2458</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>3038803920</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="1">
         <v>19940505</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="1">
         <v>20010917</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="1">
         <v>5.29</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="1">
         <v>9.74</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="1">
         <v>5.09</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="1">
         <v>12</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="1">
         <v>205.2</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="1">
         <v>14.2</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="1">
         <v>242.8</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="1">
         <v>280.39999999999998</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="1">
         <v>318.10000000000002</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="1">
         <v>20.8</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="1">
         <v>355.7</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="1">
         <v>23</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="1">
         <v>393.3</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="1">
         <v>49.84</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="1">
         <v>31.99</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="1">
         <v>52.13</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AC17" s="1">
         <v>32.97</v>
       </c>
-      <c r="AD17" s="9">
+      <c r="AD17" s="1">
         <v>26.28</v>
       </c>
-      <c r="AE17" s="9">
+      <c r="AE17" s="1">
         <v>1.23</v>
       </c>
-      <c r="AF17" s="9">
+      <c r="AF17" s="1">
         <v>97.03</v>
       </c>
-      <c r="AG17" s="9">
+      <c r="AG17" s="1">
         <v>12.18</v>
       </c>
-      <c r="AH17" s="9">
+      <c r="AH17" s="1">
         <v>18.04</v>
       </c>
-      <c r="AI17" s="9">
+      <c r="AI17" s="1">
         <v>74</v>
       </c>
-      <c r="AJ17" s="9" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AK17" s="9" t="s">
+      <c r="AK17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AL17" s="9" t="s">
+      <c r="AL17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AM17" s="9" t="s">
+      <c r="AM17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AN17" s="9" t="s">
+      <c r="AN17" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2520</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>5541701000</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="1">
         <v>19791123</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="1">
         <v>19931027</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="1">
         <v>9.01</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="1">
         <v>4.4400000000000004</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="1">
         <v>1.24</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="1">
         <v>7</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="1">
         <v>59.57</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="1">
         <v>8.4</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="1">
         <v>71.48</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="1">
         <v>83.4</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="1">
         <v>11.2</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="1">
         <v>95.31</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="1">
         <v>12.6</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="1">
         <v>107.2</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="1">
         <v>14</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="1">
         <v>119.1</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="1">
         <v>26.73</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="1">
         <v>19.5</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AB18" s="1">
         <v>21.09</v>
       </c>
-      <c r="AC18" s="9">
+      <c r="AC18" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="AD18" s="9">
+      <c r="AD18" s="1">
         <v>15.12</v>
       </c>
-      <c r="AE18" s="9">
+      <c r="AE18" s="1">
         <v>0.46</v>
       </c>
-      <c r="AF18" s="9">
+      <c r="AF18" s="1">
         <v>103.17</v>
       </c>
-      <c r="AG18" s="9">
+      <c r="AG18" s="1">
         <v>10.72</v>
       </c>
-      <c r="AH18" s="9">
+      <c r="AH18" s="1">
         <v>10.69</v>
       </c>
-      <c r="AI18" s="9">
+      <c r="AI18" s="1">
         <v>53</v>
       </c>
-      <c r="AJ18" s="9" t="s">
+      <c r="AJ18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AK18" s="9" t="s">
+      <c r="AK18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AL18" s="9" t="s">
+      <c r="AL18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AM18" s="9" t="s">
+      <c r="AM18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AN18" s="9" t="s">
+      <c r="AN18" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="1">
         <v>2546</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="7">
         <v>1060356600</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="1">
         <v>19820413</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="1">
         <v>20000911</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="1">
         <v>7.25</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="1">
         <v>7.06</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="1">
         <v>1.57</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="1">
         <v>7</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="1">
         <v>49.21</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="1">
         <v>8</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="1">
         <v>56.24</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="1">
         <v>9</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="1">
         <v>63.27</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="1">
         <v>10</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="1">
         <v>70.3</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="1">
         <v>11</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="1">
         <v>77.33</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="1">
         <v>12</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="1">
         <v>84.36</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="1">
         <v>11.23</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="1">
         <v>23.02</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="1">
         <v>9.17</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="1">
         <v>7.35</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AE19" s="1">
         <v>1.07</v>
       </c>
-      <c r="AF19" s="6">
+      <c r="AF19" s="1">
         <v>91.38</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AG19" s="1">
         <v>5.88</v>
       </c>
-      <c r="AH19" s="6">
+      <c r="AH19" s="1">
         <v>5.85</v>
       </c>
-      <c r="AI19" s="6">
+      <c r="AI19" s="1">
         <v>45</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AJ19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AK19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AL19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AM19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AN19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="1">
         <v>2881</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="7">
         <v>134049543940</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="1">
         <v>20011219</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="1">
         <v>20011219</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="1">
         <v>3.93</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="1">
         <v>6.29</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="1">
         <v>7</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="1">
         <v>92.68</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="1">
         <v>7.8</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="1">
         <v>103.3</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="1">
         <v>8.6</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="1">
         <v>113.9</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="1">
         <v>9.4</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="1">
         <v>124.5</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="1">
         <v>135</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="1">
         <v>11</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="1">
         <v>145.6</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="1">
         <v>0</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="1">
         <v>0</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="1">
         <v>21.39</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AC20" s="1">
         <v>39.32</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD20" s="1">
         <v>34.96</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AE20" s="1">
         <v>0.05</v>
       </c>
-      <c r="AF20" s="6">
+      <c r="AF20" s="1">
         <v>0</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AG20" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AH20" s="6">
+      <c r="AH20" s="1">
         <v>4.46</v>
       </c>
-      <c r="AI20" s="6">
+      <c r="AI20" s="1">
         <v>56</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AK20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AL20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AM20" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AN20" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>3005</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>5954614000</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="1">
         <v>19891005</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="1">
         <v>20020225</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="1">
         <v>6.45</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="1">
         <v>7.67</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="1">
         <v>1.94</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="1">
         <v>10</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="1">
         <v>73</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="1">
         <v>11.4</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="1">
         <v>83.22</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="1">
         <v>12.8</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="1">
         <v>93.44</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="1">
         <v>14.2</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="1">
         <v>103.7</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="1">
         <v>15.6</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="1">
         <v>113.9</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="1">
         <v>17</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="1">
         <v>124.1</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="1">
         <v>24.89</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="1">
         <v>8.01</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="1">
         <v>25.54</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="1">
         <v>20.46</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AD21" s="1">
         <v>15.77</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AE21" s="1">
         <v>0.86</v>
       </c>
-      <c r="AF21" s="9">
+      <c r="AF21" s="1">
         <v>39.15</v>
       </c>
-      <c r="AG21" s="9">
+      <c r="AG21" s="1">
         <v>0.9</v>
       </c>
-      <c r="AH21" s="9">
+      <c r="AH21" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AI21" s="9">
+      <c r="AI21" s="1">
         <v>57</v>
       </c>
-      <c r="AJ21" s="9" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AK21" s="9" t="s">
+      <c r="AK21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AL21" s="9" t="s">
+      <c r="AL21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AM21" s="9" t="s">
+      <c r="AM21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AN21" s="9" t="s">
+      <c r="AN21" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>3044</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="7">
         <v>5256058980</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>19911216</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>20020826</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="1">
         <v>5.9</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="1">
         <v>10.61</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="1">
         <v>1.79</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>8</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>93.92</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>108</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>10.4</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>122.1</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="1">
         <v>11.6</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <v>136.19999999999999</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="1">
         <v>12.8</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="1">
         <v>150.30000000000001</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="1">
         <v>14</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="1">
         <v>164.4</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="1">
         <v>18.75</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="1">
         <v>10.47</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="1">
         <v>15.91</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="1">
         <v>11.99</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="1">
         <v>9.36</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="1">
         <v>0.78</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="1">
         <v>87.32</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="1">
         <v>7.58</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="1">
         <v>-10.16</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" s="1">
         <v>49</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AJ22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AK22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AL22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AM22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AN22" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>3209</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>2005321840</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="1">
         <v>19910415</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="1">
         <v>20081126</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="1">
         <v>6.8</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="1">
         <v>8.24</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="1">
         <v>1.68</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="1">
         <v>9</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="1">
         <v>32.04</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="1">
         <v>10</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="1">
         <v>35.6</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="1">
         <v>11</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="1">
         <v>39.159999999999997</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="1">
         <v>12</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="1">
         <v>42.72</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V23" s="1">
         <v>13</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="1">
         <v>46.28</v>
       </c>
-      <c r="X23" s="9">
+      <c r="X23" s="1">
         <v>14</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y23" s="1">
         <v>49.84</v>
       </c>
-      <c r="Z23" s="9">
+      <c r="Z23" s="1">
         <v>5.31</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA23" s="1">
         <v>2.25</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23" s="1">
         <v>22.5</v>
       </c>
-      <c r="AC23" s="9">
+      <c r="AC23" s="1">
         <v>2.11</v>
       </c>
-      <c r="AD23" s="9">
+      <c r="AD23" s="1">
         <v>1.63</v>
       </c>
-      <c r="AE23" s="9">
+      <c r="AE23" s="1">
         <v>3.25</v>
       </c>
-      <c r="AF23" s="9">
+      <c r="AF23" s="1">
         <v>106.64</v>
       </c>
-      <c r="AG23" s="9">
+      <c r="AG23" s="1">
         <v>0.7</v>
       </c>
-      <c r="AH23" s="9">
+      <c r="AH23" s="1">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="AI23" s="9">
+      <c r="AI23" s="1">
         <v>38</v>
       </c>
-      <c r="AJ23" s="9" t="s">
+      <c r="AJ23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AK23" s="9" t="s">
+      <c r="AK23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AL23" s="9" t="s">
+      <c r="AL23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AM23" s="9" t="s">
+      <c r="AM23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AN23" s="9" t="s">
+      <c r="AN23" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>3702</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="1">
         <v>18790568330</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="1">
         <v>20051109</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="1">
         <v>20051109</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="1">
         <v>5.89</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="1">
         <v>9.08</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="1">
         <v>1.45</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="1">
         <v>9</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="1">
         <v>55.71</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="1">
         <v>60.66</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="1">
         <v>10.6</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="1">
         <v>65.61</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="1">
         <v>11.4</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="1">
         <v>70.569999999999993</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="1">
         <v>12.2</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W24" s="1">
         <v>75.52</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X24" s="1">
         <v>13</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Y24" s="1">
         <v>80.47</v>
       </c>
-      <c r="Z24" s="9">
+      <c r="Z24" s="1">
         <v>3.89</v>
       </c>
-      <c r="AA24" s="9">
+      <c r="AA24" s="1">
         <v>1.82</v>
       </c>
-      <c r="AB24" s="9">
+      <c r="AB24" s="1">
         <v>17.649999999999999</v>
       </c>
-      <c r="AC24" s="9">
+      <c r="AC24" s="1">
         <v>1.87</v>
       </c>
-      <c r="AD24" s="9">
+      <c r="AD24" s="1">
         <v>1.54</v>
       </c>
-      <c r="AE24" s="9">
+      <c r="AE24" s="1">
         <v>2.9</v>
       </c>
-      <c r="AF24" s="9">
+      <c r="AF24" s="1">
         <v>97.33</v>
       </c>
-      <c r="AG24" s="9">
+      <c r="AG24" s="1">
         <v>-16.23</v>
       </c>
-      <c r="AH24" s="9">
+      <c r="AH24" s="1">
         <v>-16.72</v>
       </c>
-      <c r="AI24" s="9">
+      <c r="AI24" s="1">
         <v>28</v>
       </c>
-      <c r="AJ24" s="9" t="s">
+      <c r="AJ24" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AK24" s="9" t="s">
+      <c r="AK24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AL24" s="9" t="s">
+      <c r="AL24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AM24" s="9" t="s">
+      <c r="AM24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AN24" s="9" t="s">
+      <c r="AN24" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>3706</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <v>12065567890</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="1">
         <v>20130912</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="1">
         <v>20130912</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="1">
         <v>2.84</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="1">
         <v>3.41</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="1">
         <v>0.85</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="1">
         <v>8</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="1">
         <v>82.56</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="1">
         <v>9.4</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="1">
         <v>97.01</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="1">
         <v>10.8</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="1">
         <v>111.5</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="1">
         <v>12.2</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="1">
         <v>125.9</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="1">
         <v>13.6</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="1">
         <v>140.4</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X25" s="1">
         <v>15</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="Y25" s="1">
         <v>154.80000000000001</v>
       </c>
-      <c r="Z25" s="9">
+      <c r="Z25" s="1">
         <v>9.75</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AA25" s="1">
         <v>-0.09</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AB25" s="1">
         <v>33</v>
       </c>
-      <c r="AC25" s="9">
+      <c r="AC25" s="1">
         <v>55.14</v>
       </c>
-      <c r="AD25" s="9">
+      <c r="AD25" s="1">
         <v>34.869999999999997</v>
       </c>
-      <c r="AE25" s="9">
+      <c r="AE25" s="1">
         <v>0.68</v>
       </c>
-      <c r="AF25" s="9">
+      <c r="AF25" s="1">
         <v>-0.16</v>
       </c>
-      <c r="AG25" s="9">
+      <c r="AG25" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AH25" s="9">
+      <c r="AH25" s="1">
         <v>1.44</v>
       </c>
-      <c r="AI25" s="9">
+      <c r="AI25" s="1">
         <v>57</v>
       </c>
-      <c r="AJ25" s="9" t="s">
+      <c r="AJ25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AK25" s="9" t="s">
+      <c r="AK25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AL25" s="9" t="s">
+      <c r="AL25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AM25" s="9" t="s">
+      <c r="AM25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AN25" s="9" t="s">
+      <c r="AN25" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="1">
         <v>5515</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <v>2574401050</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="1">
         <v>19601121</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="1">
         <v>20031006</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="1">
         <v>5.67</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="1">
         <v>7.79</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="1">
         <v>0.78</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="1">
         <v>11</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="1">
         <v>19.8</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="1">
         <v>12.4</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="1">
         <v>22.32</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="1">
         <v>13.8</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="1">
         <v>24.84</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="1">
         <v>15.2</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="1">
         <v>27.36</v>
       </c>
-      <c r="V26" s="9">
+      <c r="V26" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W26" s="1">
         <v>29.88</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="1">
         <v>18</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Y26" s="1">
         <v>32.4</v>
       </c>
-      <c r="Z26" s="9">
+      <c r="Z26" s="1">
         <v>13.13</v>
       </c>
-      <c r="AA26" s="9">
+      <c r="AA26" s="1">
         <v>7.24</v>
       </c>
-      <c r="AB26" s="9">
+      <c r="AB26" s="1">
         <v>10.87</v>
       </c>
-      <c r="AC26" s="9">
+      <c r="AC26" s="1">
         <v>12.76</v>
       </c>
-      <c r="AD26" s="9">
+      <c r="AD26" s="1">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AE26" s="9">
+      <c r="AE26" s="1">
         <v>0.61</v>
       </c>
-      <c r="AF26" s="9">
+      <c r="AF26" s="1">
         <v>56.74</v>
       </c>
-      <c r="AG26" s="9">
+      <c r="AG26" s="1">
         <v>1.3</v>
       </c>
-      <c r="AH26" s="9">
+      <c r="AH26" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AI26" s="9">
+      <c r="AI26" s="1">
         <v>51</v>
       </c>
-      <c r="AJ26" s="9" t="s">
+      <c r="AJ26" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AK26" s="9" t="s">
+      <c r="AK26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AL26" s="9" t="s">
+      <c r="AL26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM26" s="9" t="s">
+      <c r="AM26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AN26" s="9" t="s">
+      <c r="AN26" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>6257</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="7">
         <v>4444791420</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>19881215</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>20030825</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="1">
         <v>4.88</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="1">
         <v>10.24</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="1">
         <v>1.84</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>9</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <v>52.47</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="1">
         <v>59.47</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>11.4</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>66.459999999999994</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="1">
         <v>12.6</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="1">
         <v>73.459999999999994</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="1">
         <v>13.8</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="1">
         <v>80.45</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="1">
         <v>15</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="1">
         <v>87.45</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <v>30.03</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="1">
         <v>21.36</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="1">
         <v>19.16</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="1">
         <v>22.37</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="1">
         <v>0.51</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="1">
         <v>95.49</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="1">
         <v>17.23</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="1">
         <v>-2.14</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" s="1">
         <v>64</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AJ27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AK27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AL27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AM27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AN27" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>8112</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="7">
         <v>4284964730</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>19870305</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>20071231</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="1">
         <v>5.94</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="1">
         <v>7.97</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>7</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>46.97</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>55.02</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>9.4</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>63.07</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="1">
         <v>10.6</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <v>71.13</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="1">
         <v>11.8</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <v>79.180000000000007</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="1">
         <v>13</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="1">
         <v>87.23</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="1">
         <v>3.26</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="1">
         <v>2.17</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="1">
         <v>31.83</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="1">
         <v>2.02</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="1">
         <v>1.53</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="1">
         <v>4.42</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="1">
         <v>107.43</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="1">
         <v>-12.76</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="1">
         <v>-8.07</v>
       </c>
-      <c r="AI28">
+      <c r="AI28" s="1">
         <v>32</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AJ28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AK28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AL28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AM28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AN28" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="1">
         <v>8150</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="7">
         <v>7272401260</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="1">
         <v>19970728</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="1">
         <v>20140411</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="1">
         <v>4.53</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="1">
         <v>8.17</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="1">
         <v>1.55</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="1">
         <v>9</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="1">
         <v>53.55</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="1">
         <v>10.8</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="1">
         <v>64.260000000000005</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R29" s="1">
         <v>12.6</v>
       </c>
-      <c r="S29" s="9">
+      <c r="S29" s="1">
         <v>74.97</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T29" s="1">
         <v>14.4</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U29" s="1">
         <v>85.68</v>
       </c>
-      <c r="V29" s="9">
+      <c r="V29" s="1">
         <v>16.2</v>
       </c>
-      <c r="W29" s="9">
+      <c r="W29" s="1">
         <v>96.39</v>
       </c>
-      <c r="X29" s="9">
+      <c r="X29" s="1">
         <v>18</v>
       </c>
-      <c r="Y29" s="9">
+      <c r="Y29" s="1">
         <v>107.1</v>
       </c>
-      <c r="Z29" s="9">
+      <c r="Z29" s="1">
         <v>26.62</v>
       </c>
-      <c r="AA29" s="9">
+      <c r="AA29" s="1">
         <v>20.51</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AB29" s="1">
         <v>22.24</v>
       </c>
-      <c r="AC29" s="9">
+      <c r="AC29" s="1">
         <v>21.26</v>
       </c>
-      <c r="AD29" s="9">
+      <c r="AD29" s="1">
         <v>17.670000000000002</v>
       </c>
-      <c r="AE29" s="9">
+      <c r="AE29" s="1">
         <v>0.74</v>
       </c>
-      <c r="AF29" s="9">
+      <c r="AF29" s="1">
         <v>96.47</v>
       </c>
-      <c r="AG29" s="9">
+      <c r="AG29" s="1">
         <v>7.35</v>
       </c>
-      <c r="AH29" s="9">
+      <c r="AH29" s="1">
         <v>1.02</v>
       </c>
-      <c r="AI29" s="9">
+      <c r="AI29" s="1">
         <v>66</v>
       </c>
-      <c r="AJ29" s="9" t="s">
+      <c r="AJ29" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AK29" s="9" t="s">
+      <c r="AK29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AL29" s="9" t="s">
+      <c r="AL29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AM29" s="9" t="s">
+      <c r="AM29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AN29" s="9" t="s">
+      <c r="AN29" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>8213</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="7">
         <v>2712424880</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>19980421</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>20091225</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="1">
         <v>7.21</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="1">
         <v>8.02</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>6</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>36.659999999999997</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>7</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>42.77</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>8</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>48.88</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="1">
         <v>9</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <v>54.99</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="1">
         <v>10</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <v>61.1</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="1">
         <v>11</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="1">
         <v>67.209999999999994</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="1">
         <v>15.64</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="1">
         <v>8.6</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="1">
         <v>13.51</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="1">
         <v>9.09</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="1">
         <v>6.58</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="1">
         <v>0.86</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="1">
         <v>94.61</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="1">
         <v>2.02</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" s="1">
         <v>0.38</v>
       </c>
-      <c r="AI30">
+      <c r="AI30" s="1">
         <v>47</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AJ30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AK30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AL30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AM30" t="s">
+      <c r="AM30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AN30" t="s">
+      <c r="AN30" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="1">
         <v>8215</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="7">
         <v>3206745140</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="1">
         <v>19980716</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="1">
         <v>20101112</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="1">
         <v>1.84</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="1">
         <v>13.85</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="1">
         <v>15</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="1">
         <v>41.1</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="1">
         <v>18</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="1">
         <v>49.32</v>
       </c>
-      <c r="R31" s="9">
+      <c r="R31" s="1">
         <v>21</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S31" s="1">
         <v>57.54</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T31" s="1">
         <v>24</v>
       </c>
-      <c r="U31" s="9">
+      <c r="U31" s="1">
         <v>65.760000000000005</v>
       </c>
-      <c r="V31" s="9">
+      <c r="V31" s="1">
         <v>27</v>
       </c>
-      <c r="W31" s="9">
+      <c r="W31" s="1">
         <v>73.98</v>
       </c>
-      <c r="X31" s="9">
+      <c r="X31" s="1">
         <v>30</v>
       </c>
-      <c r="Y31" s="9">
+      <c r="Y31" s="1">
         <v>82.2</v>
       </c>
-      <c r="Z31" s="9">
+      <c r="Z31" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="AA31" s="9">
+      <c r="AA31" s="1">
         <v>6.21</v>
       </c>
-      <c r="AB31" s="9">
+      <c r="AB31" s="1">
         <v>20.77</v>
       </c>
-      <c r="AC31" s="9">
+      <c r="AC31" s="1">
         <v>7.17</v>
       </c>
-      <c r="AD31" s="9">
+      <c r="AD31" s="1">
         <v>5.72</v>
       </c>
-      <c r="AE31" s="9">
+      <c r="AE31" s="1">
         <v>1.46</v>
       </c>
-      <c r="AF31" s="9">
+      <c r="AF31" s="1">
         <v>86.61</v>
       </c>
-      <c r="AG31" s="9">
+      <c r="AG31" s="1">
         <v>2.25</v>
       </c>
-      <c r="AH31" s="9">
+      <c r="AH31" s="1">
         <v>0.89</v>
       </c>
-      <c r="AI31" s="9">
+      <c r="AI31" s="1">
         <v>40</v>
       </c>
-      <c r="AJ31" s="9" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AK31" s="9" t="s">
+      <c r="AK31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AL31" s="9" t="s">
+      <c r="AL31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AM31" s="9" t="s">
+      <c r="AM31" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AN31" s="9" t="s">
+      <c r="AN31" s="1" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6277</v>
+      </c>
+      <c r="B32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32">
+        <v>1194711660</v>
+      </c>
+      <c r="E32">
+        <v>19790706</v>
+      </c>
+      <c r="F32">
+        <v>20031030</v>
+      </c>
+      <c r="G32">
+        <v>6.73</v>
+      </c>
+      <c r="H32">
+        <v>17.16</v>
+      </c>
+      <c r="I32">
+        <v>2.17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>309</v>
+      </c>
+      <c r="M32" t="s">
+        <v>171</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <v>38.08</v>
+      </c>
+      <c r="P32">
+        <v>9</v>
+      </c>
+      <c r="Q32">
+        <v>42.84</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>47.6</v>
+      </c>
+      <c r="T32">
+        <v>11</v>
+      </c>
+      <c r="U32">
+        <v>52.36</v>
+      </c>
+      <c r="V32">
+        <v>12</v>
+      </c>
+      <c r="W32">
+        <v>57.12</v>
+      </c>
+      <c r="X32">
+        <v>13</v>
+      </c>
+      <c r="Y32">
+        <v>61.88</v>
+      </c>
+      <c r="Z32">
+        <v>58.47</v>
+      </c>
+      <c r="AA32">
+        <v>15.51</v>
+      </c>
+      <c r="AB32">
+        <v>12.74</v>
+      </c>
+      <c r="AC32">
+        <v>16.32</v>
+      </c>
+      <c r="AD32">
+        <v>12.09</v>
+      </c>
+      <c r="AE32">
+        <v>0.68</v>
+      </c>
+      <c r="AF32">
+        <v>95.04</v>
+      </c>
+      <c r="AG32">
+        <v>7.71</v>
+      </c>
+      <c r="AH32">
+        <v>5.78</v>
+      </c>
+      <c r="AI32">
+        <v>62</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6261</v>
+      </c>
+      <c r="B33" t="s">
+        <v>313</v>
+      </c>
+      <c r="J33" t="s">
+        <v>314</v>
+      </c>
+      <c r="K33" t="s">
+        <v>315</v>
+      </c>
+      <c r="L33" t="s">
+        <v>316</v>
+      </c>
+      <c r="M33" t="s">
+        <v>317</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="P33">
+        <v>11.8</v>
+      </c>
+      <c r="Q33">
+        <v>88.97</v>
+      </c>
+      <c r="R33">
+        <v>13.6</v>
+      </c>
+      <c r="S33">
+        <v>102.5</v>
+      </c>
+      <c r="T33">
+        <v>15.4</v>
+      </c>
+      <c r="U33">
+        <v>116.1</v>
+      </c>
+      <c r="V33">
+        <v>17.2</v>
+      </c>
+      <c r="W33">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="X33">
+        <v>19</v>
+      </c>
+      <c r="Y33">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="Z33">
+        <v>41.17</v>
+      </c>
+      <c r="AA33">
+        <v>28.89</v>
+      </c>
+      <c r="AB33">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="AC33">
+        <v>28.24</v>
+      </c>
+      <c r="AD33">
+        <v>22.1</v>
+      </c>
+      <c r="AE33">
+        <v>0.65</v>
+      </c>
+      <c r="AF33">
+        <v>102.3</v>
+      </c>
+      <c r="AG33">
+        <v>4.76</v>
+      </c>
+      <c r="AH33">
+        <v>3.59</v>
+      </c>
+      <c r="AI33">
+        <v>72</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" t="s">
+        <v>321</v>
+      </c>
+      <c r="D34">
+        <v>1876621540</v>
+      </c>
+      <c r="E34">
+        <v>19861125</v>
+      </c>
+      <c r="F34">
+        <v>20040719</v>
+      </c>
+      <c r="G34">
+        <v>6.52</v>
+      </c>
+      <c r="H34">
+        <v>15.51</v>
+      </c>
+      <c r="I34">
+        <v>1.79</v>
+      </c>
+      <c r="J34" t="s">
+        <v>322</v>
+      </c>
+      <c r="K34" t="s">
+        <v>323</v>
+      </c>
+      <c r="L34" t="s">
+        <v>324</v>
+      </c>
+      <c r="M34" t="s">
+        <v>171</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>27.8</v>
+      </c>
+      <c r="P34">
+        <v>11.2</v>
+      </c>
+      <c r="Q34">
+        <v>31.14</v>
+      </c>
+      <c r="R34">
+        <v>12.4</v>
+      </c>
+      <c r="S34">
+        <v>34.47</v>
+      </c>
+      <c r="T34">
+        <v>13.6</v>
+      </c>
+      <c r="U34">
+        <v>37.81</v>
+      </c>
+      <c r="V34">
+        <v>14.8</v>
+      </c>
+      <c r="W34">
+        <v>41.14</v>
+      </c>
+      <c r="X34">
+        <v>16</v>
+      </c>
+      <c r="Y34">
+        <v>44.48</v>
+      </c>
+      <c r="Z34">
+        <v>15.63</v>
+      </c>
+      <c r="AA34">
+        <v>8.83</v>
+      </c>
+      <c r="AB34">
+        <v>10.47</v>
+      </c>
+      <c r="AC34">
+        <v>9.11</v>
+      </c>
+      <c r="AD34">
+        <v>6.48</v>
+      </c>
+      <c r="AE34">
+        <v>0.91</v>
+      </c>
+      <c r="AF34">
+        <v>96.93</v>
+      </c>
+      <c r="AG34">
+        <v>-1.07</v>
+      </c>
+      <c r="AH34">
+        <v>-0.82</v>
+      </c>
+      <c r="AI34">
+        <v>47</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5786,7 +6178,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF30">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5796,7 +6188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA30">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5806,7 +6198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z30">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5816,7 +6208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA30">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5826,7 +6218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD30">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5836,7 +6228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB30">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5846,7 +6238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z29:Z31">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5858,6 +6250,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AF31">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5867,7 +6269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AF31">
+  <conditionalFormatting sqref="AG3:AI31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5877,7 +6279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AI31">
+  <conditionalFormatting sqref="Z3:AI34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D887FB87-C30B-4477-92B1-0080F5C8E1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4131E589-96AC-42F8-B46F-FCCAAA7134D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -656,348 +656,6 @@
     <t xml:space="preserve">  2.29 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.08 /     0.08 /     0.07 /     0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.04 /     0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    61.9 /    61.38 /    58.64 /    57.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2425.0 /   2210.4 /  1327.05 /  1533.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.1 /    12.06 /    11.94 /    12.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.08 /     1.07 /     1.15 /     1.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    69.3 /     69.4 /    68.65 /    67.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   118.0 /   157.44 /   141.91 /   198.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.87 /     1.87 /     1.85 /     1.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.2 /    20.08 /    19.89 /    19.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2917.0 /   2694.2 /  3028.95 /  3547.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.2 /    14.06 /    13.79 /    13.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.83 /     0.79 /     0.58 /     0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15.5 /    15.45 /    15.19 /    15.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   552.0 /    563.8 /   528.85 /  1145.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.78 /     2.48 /     1.84 /     2.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.0 /    25.81 /    24.93 /    24.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   598.0 /    946.2 /    842.9 /   514.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.3 /    10.05 /     9.25 /     8.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    56.5 /     57.0 /    57.73 /    62.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1243.0 /    789.6 /  1279.55 /   796.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.76 /     7.79 /     7.71 /     8.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.21 /     5.21 /     3.81 /     1.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   26.15 /    26.21 /    25.61 /    25.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    78.8 /   122.58 /    98.27 /    161.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.7 /    21.68 /    21.55 /    21.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.47 /     0.36 /      0.4 /      0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.65 /    31.66 /    31.87 /    31.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   258.0 /    240.8 /    475.9 /   777.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.3 /     3.31 /     3.31 /      3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.52 /     0.39 /     0.39 /     0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   34.75 /    35.18 /    35.52 /    34.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1368.0 /   1058.0 /  2208.25 /   4202.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.48 /     1.75 /     1.58 /     1.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.31 /      5.5 /     5.33 /     5.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.2 /    24.17 /    23.94 /    23.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8491.0 /   7101.8 / 14629.85 / 13756.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.6 /     45.6 /    45.72 /    47.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.42 /     1.36 /     1.38 /      3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    66.2 /     66.4 /    64.44 /    58.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2106.0 /   3690.0 /  12251.3 /   7173.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /    32.84 /    34.24 /    34.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.57 /     9.39 /     5.69 /     5.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.45 /    30.25 /    30.05 /    30.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4777.0 /   3877.8 /  5241.95 /  7681.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /    19.92 /    20.01 /    21.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.0 /     1.04 /     1.18 /     1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    82.3 /    82.32 /    81.72 /    80.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1312.0 /   1273.6 /   1717.1 /  1725.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.9 /    33.86 /    33.54 /    33.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.33 /     0.17 /     0.08 /     0.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.0 /    31.77 /     26.7 /     26.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6487.0 /  18232.6 /   5358.5 /  2995.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.73 /     1.94 /     2.07 /     2.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    27.9 /    26.52 /    12.23 /    11.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   170.0 /    168.1 /   163.88 /   162.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1529.0 /   1160.0 /  2125.05 /   2995.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.4 /    22.16 /    21.72 /     22.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.6 /    20.14 /    20.96 /    23.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   37.75 /    37.64 /    38.09 /    38.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   794.0 /    783.0 /   1435.1 /  1628.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.7 /    20.78 /    21.26 /    21.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.79 /     0.74 /     0.67 /      0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.65 /    49.51 /    49.29 /    48.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   192.0 /   129.12 /    89.73 /   111.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.69 /      3.7 /     3.74 /     3.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    76.3 /    75.84 /    75.14 /     74.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13553.0 /  14542.6 / 19665.85 / 20033.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.0 /     21.9 /     21.9 /    22.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.7 /    10.82 /    10.55 /    18.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    55.7 /     54.8 /    54.08 /    53.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1541.0 /    817.4 /   948.85 /   864.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.0 /    30.96 /    31.03 /    31.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.28 /     0.41 /     0.62 /     0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   124.5 /    123.8 /   122.88 /   119.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   453.0 /    409.6 /    889.2 /   960.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.5 /    42.46 /    42.07 /    41.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.87 /     0.85 /     0.96 /     1.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.4 /    29.26 /    28.98 /    29.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   331.0 /    482.4 /   417.05 /    604.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.27 /     4.27 /     4.42 /      5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.05 /     0.38 /     0.43 /     0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    52.6 /    52.08 /    50.92 /    50.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3648.0 /   3665.2 /  3804.95 /  3744.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.8 /    26.84 /    26.55 /    26.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.31 /     0.32 /     0.38 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.2 /    34.56 /    33.72 /    31.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15721.0 /  10774.0 / 11616.05 / 11131.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.3 /    12.06 /    11.34 /    10.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.15 /     1.06 /     0.75 /     0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.1 /    14.02 /    13.93 /    13.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   309.0 /    267.0 /   296.25 /   268.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.19 /     6.18 /     6.18 /      6.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.22 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    58.8 /    58.88 /    58.54 /     58.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2118.0 /   1878.4 /   2088.8 /  3574.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.6 /    23.82 /    24.42 /    25.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.89 /     0.87 /     1.18 /     2.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.5 /     48.8 /    47.46 /    44.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16507.0 /   9487.4 /   6464.5 /  4136.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.1 /    23.66 /    23.04 /    22.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.19 /     0.88 /     0.61 /     0.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.6 /    48.62 /    47.16 /    46.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4043.0 /   6032.2 /   5964.0 /  6703.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.4 /    47.18 /     46.8 /    49.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.72 /     3.57 /      5.7 /     5.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   48.55 /    48.24 /    47.56 /    47.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1436.0 /   1046.0 /   720.95 /   902.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.3 /    20.96 /    20.73 /    20.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.19 /     0.19 /      0.2 /     0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   37.95 /    38.31 /    38.51 /    36.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4265.0 /   4575.0 /  14132.3 / 13317.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.86 /     2.86 /     3.51 /     4.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.73 /     2.57 /     3.27 /     6.42</t>
-  </si>
-  <si>
     <t>宏正</t>
   </si>
   <si>
@@ -1057,6 +715,348 @@
   </si>
   <si>
     <t xml:space="preserve">    8.16 /     8.17 /     8.18 /      8.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    61.6 /    61.74 /    58.88 /    57.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   985.0 /   2068.6 /   1342.4 /  1521.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.1 /    12.08 /    11.95 /    12.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.07 /     1.08 /     1.14 /     1.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    68.8 /    69.34 /    68.68 /    67.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   156.0 /    171.0 /   143.16 /   195.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.86 /     1.87 /     1.85 /     1.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.1 /    20.09 /    19.91 /    19.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2391.0 /   2803.0 /   3049.0 /  3530.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.2 /    14.12 /    13.82 /    13.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.91 /     0.83 /     0.61 /     0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.55 /    15.48 /    15.22 /    15.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   442.0 /    512.6 /    528.2 /  1140.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.83 /      2.6 /     1.91 /     2.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.12 /     0.09 /     0.07 /     0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.0 /    25.89 /    25.06 /    24.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   826.0 /    839.4 /   875.35 /   522.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.4 /    10.16 /     9.34 /     8.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.03 /     0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    55.9 /    56.82 /    57.38 /    62.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1044.0 /    896.6 /   1293.2 /   804.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.52 /     7.78 /     7.69 /     8.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.13 /     5.35 /     4.05 /     1.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.1 /    26.19 /    25.65 /    25.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   105.0 /   101.58 /   100.09 /   155.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.6 /    21.66 /    21.56 /    21.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.47 /     0.39 /      0.4 /      0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.5 /    31.62 /    31.84 /    31.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   447.0 /    290.0 /   466.25 /   769.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.28 /      3.3 /     3.31 /     3.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.52 /     0.42 /     0.39 /      0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   34.15 /    34.94 /    35.47 /    34.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1746.0 /   1208.4 /   2156.1 /  4166.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.39 /     1.67 /     1.57 /     1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.28 /     5.44 /     5.28 /     5.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.3 /    24.22 /    23.99 /    23.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7231.0 /   7256.8 / 14223.25 / 13598.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.6 /     45.6 /    45.72 /    46.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.44 /     1.39 /     1.37 /     3.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    66.1 /    66.32 /    64.76 /    58.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4186.0 /   3140.2 /  12247.0 /  7206.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /    32.84 /    34.13 /    34.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.1 /     9.66 /     6.03 /     5.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.75 /    30.39 /    30.08 /    30.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9110.0 /   5314.4 /   5422.0 /  7759.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /    19.94 /    19.98 /    21.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.96 /     1.02 /     1.17 /     1.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    82.4 /    82.36 /    81.78 /     80.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1187.0 /   1280.0 /  1735.95 /  1696.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.0 /     33.9 /    33.57 /    33.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.66 /     0.29 /     0.11 /     0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.55 /    32.08 /    27.01 /    26.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7873.0 /  16901.8 /   5716.9 /   3078.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.72 /     1.89 /     2.04 /     2.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.1 /     27.9 /    13.29 /    12.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   167.5 /    167.8 /   164.15 /   163.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1313.0 /   1203.6 /  2122.45 /  2978.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    22.18 /    21.75 /    22.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.4 /    20.28 /    20.84 /    23.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.7 /    37.69 /    38.04 /     38.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   910.0 /    771.4 /   1379.3 /  1624.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.7 /    20.74 /    21.22 /    21.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.79 /     0.76 /     0.68 /     0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.8 /    49.66 /     49.3 /    48.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   165.0 /    154.6 /    94.96 /    112.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.67 /      3.7 /     3.73 /     3.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    75.3 /    75.86 /    75.22 /    74.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15610.0 /  15231.6 /  19519.9 / 19915.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.9 /    21.92 /     21.9 /    22.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 /    10.74 /    10.61 /    17.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    56.3 /    55.24 /     54.2 /     53.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2042.0 /   1143.2 /   1010.3 /    893.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.0 /    30.96 /    31.02 /    31.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.31 /     0.33 /      0.6 /     0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   123.5 /    123.9 /    123.0 /   119.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   325.0 /    418.8 /   881.25 /   950.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.4 /    42.46 /    42.11 /    41.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.88 /     0.86 /     0.95 /     1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   29.25 /    29.33 /    28.99 /    29.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   351.0 /    477.6 /    418.7 /   592.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.24 /     4.28 /      4.4 /     5.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.05 /      0.3 /     0.41 /     0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    52.3 /     52.3 /    51.03 /    50.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6421.0 /   4216.2 /   4026.1 /   3761.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.8 /    26.84 /    26.57 /    26.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.27 /      0.3 /     0.36 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.5 /     34.7 /    33.83 /    31.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11643.0 /  12308.2 / 11893.35 / 11297.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /    12.18 /     11.4 /    10.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.13 /     1.09 /     0.78 /      0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.0 /    14.03 /    13.93 /    13.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   401.0 /    312.0 /   307.25 /   272.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.18 /     6.18 /     6.17 /      6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /      0.2 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    58.8 /    58.86 /    58.48 /    58.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1607.0 /   1849.8 /  2080.65 /   3544.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.6 /    23.72 /    24.34 /    25.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.91 /     0.88 /     1.14 /     2.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    51.0 /    49.56 /    47.77 /    45.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7554.0 /  10561.0 /   6781.6 /  4225.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.2 /    23.86 /    23.18 /    22.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.22 /     0.98 /     0.66 /     0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   47.95 /    48.55 /    47.23 /    46.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5772.0 /   6057.6 /   5954.0 /  6735.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.2 /    47.22 /     46.8 /    49.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.62 /     3.62 /     5.56 /     5.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.3 /    48.32 /    47.62 /    47.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1658.0 /   1273.8 /   770.45 /   916.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.1 /    21.04 /    20.74 /    20.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.2 /     0.19 /      0.2 /     0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.5 /    38.15 /    38.49 /    36.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4653.0 /   4806.2 / 13867.25 / 13330.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.93 /     2.88 /     3.49 /     4.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.83 /     2.64 /     3.21 /     6.25</t>
   </si>
 </sst>
 </file>
@@ -2066,10 +2066,10 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2285,26 +2285,26 @@
       <c r="F3" s="1">
         <v>19760719</v>
       </c>
-      <c r="G3" s="1">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="H3" s="1">
-        <v>17.59</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>196</v>
+      <c r="G3">
+        <v>4.38</v>
+      </c>
+      <c r="H3">
+        <v>17.5</v>
+      </c>
+      <c r="I3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" t="s">
+        <v>214</v>
       </c>
       <c r="N3" s="1">
         <v>11</v>
@@ -2407,25 +2407,25 @@
       <c r="F4" s="1">
         <v>19951102</v>
       </c>
-      <c r="G4" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="H4" s="1">
-        <v>17.59</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="G4">
+        <v>3.78</v>
+      </c>
+      <c r="H4">
+        <v>17.46</v>
+      </c>
+      <c r="I4">
+        <v>3.23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" t="s">
         <v>172</v>
       </c>
       <c r="N4" s="1">
@@ -2529,26 +2529,26 @@
       <c r="F5" s="1">
         <v>19730831</v>
       </c>
-      <c r="G5" s="1">
-        <v>5.45</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="G5">
+        <v>5.47</v>
+      </c>
+      <c r="H5">
+        <v>8.85</v>
+      </c>
+      <c r="I5">
         <v>0.95</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>203</v>
+      <c r="J5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M5" t="s">
+        <v>221</v>
       </c>
       <c r="N5" s="1">
         <v>9</v>
@@ -2651,26 +2651,26 @@
       <c r="F6" s="1">
         <v>20001031</v>
       </c>
-      <c r="G6" s="1">
-        <v>2.58</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10.99</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="G6">
+        <v>2.57</v>
+      </c>
+      <c r="H6">
+        <v>11.03</v>
+      </c>
+      <c r="I6">
         <v>0.99</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>191</v>
+      <c r="J6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M6" t="s">
+        <v>225</v>
       </c>
       <c r="N6" s="1">
         <v>13</v>
@@ -2773,26 +2773,26 @@
       <c r="F7" s="1">
         <v>19940326</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>4.62</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>17.11</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>1.76</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>192</v>
+      <c r="J7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M7" t="s">
+        <v>229</v>
       </c>
       <c r="N7" s="1">
         <v>13</v>
@@ -2895,26 +2895,26 @@
       <c r="F8" s="1">
         <v>19950204</v>
       </c>
-      <c r="G8" s="1">
-        <v>6.37</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2.64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>213</v>
+      <c r="G8">
+        <v>6.44</v>
+      </c>
+      <c r="H8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I8">
+        <v>2.61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" t="s">
+        <v>233</v>
       </c>
       <c r="N8" s="1">
         <v>12</v>
@@ -3017,26 +3017,26 @@
       <c r="F9" s="1">
         <v>20180416</v>
       </c>
-      <c r="G9" s="1">
-        <v>7.65</v>
-      </c>
-      <c r="H9" s="1">
-        <v>14.86</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="G9">
+        <v>7.66</v>
+      </c>
+      <c r="H9">
+        <v>14.83</v>
+      </c>
+      <c r="I9">
         <v>1.42</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>217</v>
+      <c r="J9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M9" t="s">
+        <v>237</v>
       </c>
       <c r="N9" s="1">
         <v>14</v>
@@ -3139,26 +3139,26 @@
       <c r="F10" s="1">
         <v>19930427</v>
       </c>
-      <c r="G10" s="1">
-        <v>5.37</v>
-      </c>
-      <c r="H10" s="1">
-        <v>8.89</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.97</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>221</v>
+      <c r="G10">
+        <v>5.4</v>
+      </c>
+      <c r="H10">
+        <v>8.85</v>
+      </c>
+      <c r="I10">
+        <v>1.96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" t="s">
+        <v>240</v>
+      </c>
+      <c r="M10" t="s">
+        <v>241</v>
       </c>
       <c r="N10" s="1">
         <v>12</v>
@@ -3261,26 +3261,26 @@
       <c r="F11" s="1">
         <v>20160322</v>
       </c>
-      <c r="G11" s="1">
-        <v>1.58</v>
-      </c>
-      <c r="H11" s="1">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>225</v>
+      <c r="G11">
+        <v>1.61</v>
+      </c>
+      <c r="H11">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="I11">
+        <v>1.43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>242</v>
+      </c>
+      <c r="K11" t="s">
+        <v>243</v>
+      </c>
+      <c r="L11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M11" t="s">
+        <v>245</v>
       </c>
       <c r="N11" s="1">
         <v>10</v>
@@ -3383,26 +3383,26 @@
       <c r="F12" s="1">
         <v>19920218</v>
       </c>
-      <c r="G12" s="1">
-        <v>6.61</v>
-      </c>
-      <c r="H12" s="1">
-        <v>7.52</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="G12">
+        <v>6.58</v>
+      </c>
+      <c r="H12">
+        <v>7.55</v>
+      </c>
+      <c r="I12">
         <v>0.98</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>229</v>
+      <c r="J12" t="s">
+        <v>246</v>
+      </c>
+      <c r="K12" t="s">
+        <v>247</v>
+      </c>
+      <c r="L12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M12" t="s">
+        <v>249</v>
       </c>
       <c r="N12" s="1">
         <v>9</v>
@@ -3505,26 +3505,26 @@
       <c r="F13" s="1">
         <v>19951213</v>
       </c>
-      <c r="G13" s="1">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="H13" s="1">
-        <v>6.61</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="G13">
+        <v>4.99</v>
+      </c>
+      <c r="H13">
+        <v>6.6</v>
+      </c>
+      <c r="I13">
         <v>1.87</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>233</v>
+      <c r="J13" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" t="s">
+        <v>251</v>
+      </c>
+      <c r="L13" t="s">
+        <v>252</v>
+      </c>
+      <c r="M13" t="s">
+        <v>253</v>
       </c>
       <c r="N13" s="1">
         <v>9</v>
@@ -3627,26 +3627,26 @@
       <c r="F14" s="1">
         <v>19960722</v>
       </c>
-      <c r="G14" s="1">
-        <v>4.93</v>
-      </c>
-      <c r="H14" s="1">
-        <v>6.61</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>237</v>
+      <c r="G14">
+        <v>4.88</v>
+      </c>
+      <c r="H14">
+        <v>6.67</v>
+      </c>
+      <c r="I14">
+        <v>1.67</v>
+      </c>
+      <c r="J14" t="s">
+        <v>254</v>
+      </c>
+      <c r="K14" t="s">
+        <v>255</v>
+      </c>
+      <c r="L14" t="s">
+        <v>256</v>
+      </c>
+      <c r="M14" t="s">
+        <v>257</v>
       </c>
       <c r="N14" s="1">
         <v>8</v>
@@ -3749,26 +3749,26 @@
       <c r="F15" s="1">
         <v>19990105</v>
       </c>
-      <c r="G15" s="1">
-        <v>6.68</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10.15</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="G15">
+        <v>6.67</v>
+      </c>
+      <c r="H15">
+        <v>10.16</v>
+      </c>
+      <c r="I15">
         <v>2.06</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>241</v>
+      <c r="J15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K15" t="s">
+        <v>259</v>
+      </c>
+      <c r="L15" t="s">
+        <v>260</v>
+      </c>
+      <c r="M15" t="s">
+        <v>261</v>
       </c>
       <c r="N15" s="1">
         <v>10</v>
@@ -3871,26 +3871,26 @@
       <c r="F16" s="1">
         <v>20000911</v>
       </c>
-      <c r="G16" s="1">
-        <v>6.25</v>
-      </c>
-      <c r="H16" s="1">
-        <v>11.85</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>245</v>
+      <c r="G16">
+        <v>6.34</v>
+      </c>
+      <c r="H16">
+        <v>11.69</v>
+      </c>
+      <c r="I16">
+        <v>1.44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16" t="s">
+        <v>263</v>
+      </c>
+      <c r="L16" t="s">
+        <v>264</v>
+      </c>
+      <c r="M16" t="s">
+        <v>265</v>
       </c>
       <c r="N16" s="1">
         <v>13</v>
@@ -3993,26 +3993,26 @@
       <c r="F17" s="1">
         <v>20010917</v>
       </c>
-      <c r="G17" s="1">
-        <v>5.29</v>
-      </c>
-      <c r="H17" s="1">
-        <v>9.74</v>
-      </c>
-      <c r="I17" s="1">
-        <v>5.09</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>249</v>
+      <c r="G17">
+        <v>5.37</v>
+      </c>
+      <c r="H17">
+        <v>9.59</v>
+      </c>
+      <c r="I17">
+        <v>5.01</v>
+      </c>
+      <c r="J17" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" t="s">
+        <v>268</v>
+      </c>
+      <c r="M17" t="s">
+        <v>269</v>
       </c>
       <c r="N17" s="1">
         <v>12</v>
@@ -4115,26 +4115,26 @@
       <c r="F18" s="1">
         <v>19931027</v>
       </c>
-      <c r="G18" s="1">
-        <v>9.01</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18">
+        <v>9.02</v>
+      </c>
+      <c r="H18">
         <v>4.4400000000000004</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>1.24</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>253</v>
+      <c r="J18" t="s">
+        <v>270</v>
+      </c>
+      <c r="K18" t="s">
+        <v>271</v>
+      </c>
+      <c r="L18" t="s">
+        <v>272</v>
+      </c>
+      <c r="M18" t="s">
+        <v>273</v>
       </c>
       <c r="N18" s="1">
         <v>7</v>
@@ -4237,25 +4237,25 @@
       <c r="F19" s="1">
         <v>20000911</v>
       </c>
-      <c r="G19" s="1">
-        <v>7.25</v>
-      </c>
-      <c r="H19" s="1">
-        <v>7.06</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1.57</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="G19">
+        <v>7.23</v>
+      </c>
+      <c r="H19">
+        <v>7.08</v>
+      </c>
+      <c r="I19">
+        <v>1.58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>274</v>
+      </c>
+      <c r="K19" t="s">
+        <v>275</v>
+      </c>
+      <c r="L19" t="s">
+        <v>276</v>
+      </c>
+      <c r="M19" t="s">
         <v>171</v>
       </c>
       <c r="N19" s="1">
@@ -4359,26 +4359,26 @@
       <c r="F20" s="1">
         <v>20011219</v>
       </c>
-      <c r="G20" s="1">
-        <v>3.93</v>
-      </c>
-      <c r="H20" s="1">
-        <v>6.29</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>260</v>
+      <c r="G20">
+        <v>3.98</v>
+      </c>
+      <c r="H20">
+        <v>6.2</v>
+      </c>
+      <c r="I20">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" t="s">
+        <v>280</v>
       </c>
       <c r="N20" s="1">
         <v>7</v>
@@ -4481,26 +4481,26 @@
       <c r="F21" s="1">
         <v>20020225</v>
       </c>
-      <c r="G21" s="1">
-        <v>6.45</v>
-      </c>
-      <c r="H21" s="1">
-        <v>7.67</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>264</v>
+      <c r="G21">
+        <v>6.38</v>
+      </c>
+      <c r="H21">
+        <v>7.75</v>
+      </c>
+      <c r="I21">
+        <v>1.96</v>
+      </c>
+      <c r="J21" t="s">
+        <v>281</v>
+      </c>
+      <c r="K21" t="s">
+        <v>282</v>
+      </c>
+      <c r="L21" t="s">
+        <v>283</v>
+      </c>
+      <c r="M21" t="s">
+        <v>284</v>
       </c>
       <c r="N21" s="1">
         <v>10</v>
@@ -4603,26 +4603,26 @@
       <c r="F22" s="1">
         <v>20020826</v>
       </c>
-      <c r="G22" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10.61</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1.79</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>268</v>
+      <c r="G22">
+        <v>5.95</v>
+      </c>
+      <c r="H22">
+        <v>10.53</v>
+      </c>
+      <c r="I22">
+        <v>1.78</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>286</v>
+      </c>
+      <c r="L22" t="s">
+        <v>287</v>
+      </c>
+      <c r="M22" t="s">
+        <v>288</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
@@ -4725,26 +4725,26 @@
       <c r="F23" s="1">
         <v>20081126</v>
       </c>
-      <c r="G23" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="H23" s="1">
-        <v>8.24</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>272</v>
+      <c r="G23">
+        <v>6.84</v>
+      </c>
+      <c r="H23">
+        <v>8.19</v>
+      </c>
+      <c r="I23">
+        <v>1.67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>289</v>
+      </c>
+      <c r="K23" t="s">
+        <v>290</v>
+      </c>
+      <c r="L23" t="s">
+        <v>291</v>
+      </c>
+      <c r="M23" t="s">
+        <v>292</v>
       </c>
       <c r="N23" s="1">
         <v>9</v>
@@ -4847,26 +4847,26 @@
       <c r="F24" s="1">
         <v>20051109</v>
       </c>
-      <c r="G24" s="1">
-        <v>5.89</v>
-      </c>
-      <c r="H24" s="1">
-        <v>9.08</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="G24">
+        <v>5.93</v>
+      </c>
+      <c r="H24">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="I24">
         <v>1.45</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>276</v>
+      <c r="J24" t="s">
+        <v>293</v>
+      </c>
+      <c r="K24" t="s">
+        <v>294</v>
+      </c>
+      <c r="L24" t="s">
+        <v>295</v>
+      </c>
+      <c r="M24" t="s">
+        <v>296</v>
       </c>
       <c r="N24" s="1">
         <v>9</v>
@@ -4969,26 +4969,26 @@
       <c r="F25" s="1">
         <v>20130912</v>
       </c>
-      <c r="G25" s="1">
-        <v>2.84</v>
-      </c>
-      <c r="H25" s="1">
-        <v>3.41</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>280</v>
+      <c r="G25">
+        <v>2.9</v>
+      </c>
+      <c r="H25">
+        <v>3.34</v>
+      </c>
+      <c r="I25">
+        <v>0.83</v>
+      </c>
+      <c r="J25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K25" t="s">
+        <v>298</v>
+      </c>
+      <c r="L25" t="s">
+        <v>299</v>
+      </c>
+      <c r="M25" t="s">
+        <v>300</v>
       </c>
       <c r="N25" s="1">
         <v>8</v>
@@ -5091,26 +5091,26 @@
       <c r="F26" s="1">
         <v>20031006</v>
       </c>
-      <c r="G26" s="1">
-        <v>5.67</v>
-      </c>
-      <c r="H26" s="1">
-        <v>7.79</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>284</v>
+      <c r="G26">
+        <v>5.71</v>
+      </c>
+      <c r="H26">
+        <v>7.73</v>
+      </c>
+      <c r="I26">
+        <v>0.77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" t="s">
+        <v>302</v>
+      </c>
+      <c r="L26" t="s">
+        <v>303</v>
+      </c>
+      <c r="M26" t="s">
+        <v>304</v>
       </c>
       <c r="N26" s="1">
         <v>11</v>
@@ -5213,26 +5213,26 @@
       <c r="F27" s="1">
         <v>20030825</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>4.88</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>10.24</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>1.84</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>288</v>
+      <c r="J27" t="s">
+        <v>305</v>
+      </c>
+      <c r="K27" t="s">
+        <v>306</v>
+      </c>
+      <c r="L27" t="s">
+        <v>307</v>
+      </c>
+      <c r="M27" t="s">
+        <v>308</v>
       </c>
       <c r="N27" s="1">
         <v>9</v>
@@ -5335,26 +5335,26 @@
       <c r="F28" s="1">
         <v>20071231</v>
       </c>
-      <c r="G28" s="1">
-        <v>5.94</v>
-      </c>
-      <c r="H28" s="1">
-        <v>7.97</v>
-      </c>
-      <c r="I28" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>292</v>
+      <c r="G28">
+        <v>5.88</v>
+      </c>
+      <c r="H28">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I28">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J28" t="s">
+        <v>309</v>
+      </c>
+      <c r="K28" t="s">
+        <v>310</v>
+      </c>
+      <c r="L28" t="s">
+        <v>311</v>
+      </c>
+      <c r="M28" t="s">
+        <v>312</v>
       </c>
       <c r="N28" s="1">
         <v>7</v>
@@ -5457,26 +5457,26 @@
       <c r="F29" s="1">
         <v>20140411</v>
       </c>
-      <c r="G29" s="1">
-        <v>4.53</v>
-      </c>
-      <c r="H29" s="1">
-        <v>8.17</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1.55</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>296</v>
+      <c r="G29">
+        <v>4.59</v>
+      </c>
+      <c r="H29">
+        <v>8.06</v>
+      </c>
+      <c r="I29">
+        <v>1.53</v>
+      </c>
+      <c r="J29" t="s">
+        <v>313</v>
+      </c>
+      <c r="K29" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" t="s">
+        <v>315</v>
+      </c>
+      <c r="M29" t="s">
+        <v>316</v>
       </c>
       <c r="N29" s="1">
         <v>9</v>
@@ -5579,26 +5579,26 @@
       <c r="F30" s="1">
         <v>20091225</v>
       </c>
-      <c r="G30" s="1">
-        <v>7.21</v>
-      </c>
-      <c r="H30" s="1">
-        <v>8.02</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="G30">
+        <v>7.25</v>
+      </c>
+      <c r="H30">
+        <v>7.98</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>300</v>
+      <c r="J30" t="s">
+        <v>317</v>
+      </c>
+      <c r="K30" t="s">
+        <v>318</v>
+      </c>
+      <c r="L30" t="s">
+        <v>319</v>
+      </c>
+      <c r="M30" t="s">
+        <v>320</v>
       </c>
       <c r="N30" s="1">
         <v>6</v>
@@ -5701,26 +5701,26 @@
       <c r="F31" s="1">
         <v>20101112</v>
       </c>
-      <c r="G31" s="1">
-        <v>1.84</v>
-      </c>
-      <c r="H31" s="1">
-        <v>13.85</v>
-      </c>
-      <c r="I31" s="1">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>304</v>
+      <c r="G31">
+        <v>1.87</v>
+      </c>
+      <c r="H31">
+        <v>13.69</v>
+      </c>
+      <c r="I31">
+        <v>2.52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>321</v>
+      </c>
+      <c r="K31" t="s">
+        <v>322</v>
+      </c>
+      <c r="L31" t="s">
+        <v>323</v>
+      </c>
+      <c r="M31" t="s">
+        <v>324</v>
       </c>
       <c r="N31" s="1">
         <v>15</v>
@@ -5809,10 +5809,10 @@
         <v>6277</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="D32">
         <v>1194711660</v>
@@ -5833,13 +5833,13 @@
         <v>2.17</v>
       </c>
       <c r="J32" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="K32" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="L32" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="M32" t="s">
         <v>171</v>
@@ -5914,13 +5914,13 @@
         <v>108</v>
       </c>
       <c r="AK32" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="AL32" t="s">
-        <v>311</v>
+        <v>197</v>
       </c>
       <c r="AM32" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="AN32" t="s">
         <v>177</v>
@@ -5931,19 +5931,19 @@
         <v>6261</v>
       </c>
       <c r="B33" t="s">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="J33" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="K33" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="L33" t="s">
-        <v>316</v>
+        <v>202</v>
       </c>
       <c r="M33" t="s">
-        <v>317</v>
+        <v>203</v>
       </c>
       <c r="N33">
         <v>10</v>
@@ -6012,7 +6012,7 @@
         <v>72</v>
       </c>
       <c r="AJ33" t="s">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c r="AK33" t="s">
         <v>132</v>
@@ -6021,7 +6021,7 @@
         <v>132</v>
       </c>
       <c r="AM33" t="s">
-        <v>319</v>
+        <v>205</v>
       </c>
       <c r="AN33" t="s">
         <v>188</v>
@@ -6032,10 +6032,10 @@
         <v>6115</v>
       </c>
       <c r="B34" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="D34">
         <v>1876621540</v>
@@ -6056,13 +6056,13 @@
         <v>1.79</v>
       </c>
       <c r="J34" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="K34" t="s">
-        <v>323</v>
+        <v>209</v>
       </c>
       <c r="L34" t="s">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="M34" t="s">
         <v>171</v>
@@ -6146,7 +6146,7 @@
         <v>132</v>
       </c>
       <c r="AN34" t="s">
-        <v>318</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6154,6 +6154,11 @@
     <sortCondition ref="A3:A31"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -6170,11 +6175,6 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF30">

--- a/彙整清單_整理版.xlsx
+++ b/彙整清單_整理版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4131E589-96AC-42F8-B46F-FCCAAA7134D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0867ED1-19A3-4359-B7FA-13E6426537F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="318">
   <si>
     <t>公司名稱</t>
   </si>
@@ -656,407 +656,385 @@
     <t xml:space="preserve">  2.29 /    0.0</t>
   </si>
   <si>
-    <t>宏正</t>
-  </si>
-  <si>
-    <t>宏正自動科技股份有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    81.7 /    81.74 /    81.52 /    82.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    52.0 /    54.44 /    70.43 /   103.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.8 /    13.88 /    13.96 /    14.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   5.3 /    0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   7.8 /    0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   8.0 /    0.0</t>
-  </si>
-  <si>
-    <t>久元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    84.3 /     83.6 /     83.3 /    84.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   915.0 /    599.2 /   716.65 /  1806.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.87 /     3.86 /      4.0 /     5.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.97 /     1.83 /     2.34 /     1.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   4.0 /    0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   4.1 /    0.0</t>
-  </si>
-  <si>
-    <t>鎰勝</t>
-  </si>
-  <si>
-    <t>鎰勝工業股份有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   42.95 /     42.9 /    42.68 /    42.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   109.0 /    84.32 /    73.68 /   153.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.16 /     8.17 /     8.18 /      8.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    61.6 /    61.74 /    58.88 /    57.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   985.0 /   2068.6 /   1342.4 /  1521.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.1 /    12.08 /    11.95 /    12.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.07 /     1.08 /     1.14 /     1.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    68.8 /    69.34 /    68.68 /    67.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   156.0 /    171.0 /   143.16 /   195.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.86 /     1.87 /     1.85 /     1.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.1 /    20.09 /    19.91 /    19.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2391.0 /   2803.0 /   3049.0 /  3530.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.2 /    14.12 /    13.82 /    13.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.91 /     0.83 /     0.61 /     0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.55 /    15.48 /    15.22 /    15.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   442.0 /    512.6 /    528.2 /  1140.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.83 /      2.6 /     1.91 /     2.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.12 /     0.09 /     0.07 /     0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.0 /    25.89 /    25.06 /    24.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   826.0 /    839.4 /   875.35 /   522.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.4 /    10.16 /     9.34 /     8.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.03 /     0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    55.9 /    56.82 /    57.38 /    62.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1044.0 /    896.6 /   1293.2 /   804.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.52 /     7.78 /     7.69 /     8.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.13 /     5.35 /     4.05 /     1.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.1 /    26.19 /    25.65 /    25.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   105.0 /   101.58 /   100.09 /   155.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.6 /    21.66 /    21.56 /    21.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.47 /     0.39 /      0.4 /      0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.5 /    31.62 /    31.84 /    31.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   447.0 /    290.0 /   466.25 /   769.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.28 /      3.3 /     3.31 /     3.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.52 /     0.42 /     0.39 /      0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   34.15 /    34.94 /    35.47 /    34.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1746.0 /   1208.4 /   2156.1 /  4166.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.39 /     1.67 /     1.57 /     1.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.28 /     5.44 /     5.28 /     5.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.3 /    24.22 /    23.99 /    23.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7231.0 /   7256.8 / 14223.25 / 13598.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.6 /     45.6 /    45.72 /    46.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.44 /     1.39 /     1.37 /     3.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    66.1 /    66.32 /    64.76 /    58.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4186.0 /   3140.2 /  12247.0 /  7206.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /    32.84 /    34.13 /    34.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.1 /     9.66 /     6.03 /     5.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.75 /    30.39 /    30.08 /    30.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9110.0 /   5314.4 /   5422.0 /  7759.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /    19.94 /    19.98 /    21.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.96 /     1.02 /     1.17 /     1.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    82.4 /    82.36 /    81.78 /     80.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1187.0 /   1280.0 /  1735.95 /  1696.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.0 /     33.9 /    33.57 /    33.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.66 /     0.29 /     0.11 /     0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.55 /    32.08 /    27.01 /    26.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7873.0 /  16901.8 /   5716.9 /   3078.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.72 /     1.89 /     2.04 /     2.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.1 /     27.9 /    13.29 /    12.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   167.5 /    167.8 /   164.15 /   163.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1313.0 /   1203.6 /  2122.45 /  2978.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /    22.18 /    21.75 /    22.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.4 /    20.28 /    20.84 /    23.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    37.7 /    37.69 /    38.04 /     38.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   910.0 /    771.4 /   1379.3 /  1624.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.7 /    20.74 /    21.22 /    21.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.79 /     0.76 /     0.68 /     0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.8 /    49.66 /     49.3 /    48.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   165.0 /    154.6 /    94.96 /    112.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.67 /      3.7 /     3.73 /     3.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    75.3 /    75.86 /    75.22 /    74.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15610.0 /  15231.6 /  19519.9 / 19915.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.9 /    21.92 /     21.9 /    22.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.6 /    10.74 /    10.61 /    17.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    56.3 /    55.24 /     54.2 /     53.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2042.0 /   1143.2 /   1010.3 /    893.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.0 /    30.96 /    31.02 /    31.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.31 /     0.33 /      0.6 /     0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   123.5 /    123.9 /    123.0 /   119.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   325.0 /    418.8 /   881.25 /   950.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.4 /    42.46 /    42.11 /    41.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.88 /     0.86 /     0.95 /     1.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   29.25 /    29.33 /    28.99 /    29.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   351.0 /    477.6 /    418.7 /   592.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.24 /     4.28 /      4.4 /     5.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.05 /      0.3 /     0.41 /     0.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    52.3 /     52.3 /    51.03 /    50.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6421.0 /   4216.2 /   4026.1 /   3761.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.8 /    26.84 /    26.57 /    26.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.27 /      0.3 /     0.36 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.5 /     34.7 /    33.83 /    31.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11643.0 /  12308.2 / 11893.35 / 11297.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /    12.18 /     11.4 /    10.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.13 /     1.09 /     0.78 /      0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /    14.03 /    13.93 /    13.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   401.0 /    312.0 /   307.25 /   272.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.18 /     6.18 /     6.17 /      6.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /      0.2 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    58.8 /    58.86 /    58.48 /    58.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1607.0 /   1849.8 /  2080.65 /   3544.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.6 /    23.72 /    24.34 /    25.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.91 /     0.88 /     1.14 /     2.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    51.0 /    49.56 /    47.77 /    45.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7554.0 /  10561.0 /   6781.6 /  4225.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.2 /    23.86 /    23.18 /    22.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.22 /     0.98 /     0.66 /     0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   47.95 /    48.55 /    47.23 /    46.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5772.0 /   6057.6 /   5954.0 /  6735.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.2 /    47.22 /     46.8 /    49.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.62 /     3.62 /     5.56 /     5.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.3 /    48.32 /    47.62 /    47.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1658.0 /   1273.8 /   770.45 /   916.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.1 /    21.04 /    20.74 /    20.49</t>
-  </si>
-  <si>
     <t xml:space="preserve">     0.2 /     0.19 /      0.2 /     0.23</t>
   </si>
   <si>
-    <t xml:space="preserve">    37.5 /    38.15 /    38.49 /    36.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4653.0 /   4806.2 / 13867.25 / 13330.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.93 /     2.88 /     3.49 /     4.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.83 /     2.64 /     3.21 /     6.25</t>
+    <t xml:space="preserve">    60.4 /    61.62 /    59.05 /    57.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2469.0 /   2147.2 /   1439.1 /  1538.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.1 /     12.1 /    11.96 /    12.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.05 /     1.08 /     1.13 /     1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    68.3 /    69.18 /    68.67 /    67.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   154.0 /    175.2 /   145.26 /   195.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.85 /     1.87 /     1.85 /     1.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /    20.08 /    19.93 /    19.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2223.0 /   2834.2 /   3048.2 /  3489.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.2 /    14.16 /    13.85 /    13.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.91 /     0.86 /     0.64 /     0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.6 /    15.51 /    15.25 /    15.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   582.0 /    541.8 /   529.65 /  1110.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.94 /     2.73 /     1.99 /      2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.12 /      0.1 /     0.07 /     0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25.95 /    25.92 /     25.2 /    24.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   526.0 /    773.2 /   892.05 /    528.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 /    10.27 /     9.44 /     8.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.13 /     0.03 /     0.02 /     0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    56.5 /    56.74 /    57.19 /    62.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1223.0 /    968.0 /   1216.5 /   821.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.78 /     7.78 /      7.7 /     8.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.31 /     5.82 /     4.31 /     1.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25.95 /    26.13 /    25.68 /    25.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    93.3 /    86.84 /   100.46 /   152.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.6 /    21.64 /    21.56 /    21.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.47 /     0.43 /     0.39 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.2 /    31.53 /    31.81 /    31.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   490.0 /    320.4 /    465.8 /   764.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.19 /     3.28 /     3.31 /     3.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.5 /     0.45 /     0.38 /      0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.65 /    34.56 /     35.4 /     34.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1634.0 /   1359.4 /  2139.55 /  4145.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.37 /     1.55 /     1.58 /     1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.29 /      5.4 /     5.24 /     5.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.35 /    24.26 /    24.02 /    23.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9724.0 /   8085.2 /  13836.0 / 13579.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.7 /    45.62 /     45.7 /    46.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.44 /     1.41 /     1.35 /     3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    65.9 /    66.26 /    65.01 /    58.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1940.0 /   2751.0 / 11748.85 /  7215.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /    32.84 /    34.02 /    34.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.1 /      9.8 /     6.37 /     5.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.55 /    30.45 /     30.1 /    30.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5429.0 /   5505.2 /  5243.85 /  7700.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /    19.96 /    19.97 /     21.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.96 /      1.0 /     1.16 /     1.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    84.3 /    82.74 /     81.9 /    80.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3738.0 /   1791.6 /  1774.85 /   1724.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.1 /    33.96 /     33.6 /    33.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.97 /     0.48 /     0.16 /     0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.7 /    32.92 /     27.5 /    26.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6134.0 /  13973.8 /   5995.2 /  3129.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.3 /     1.75 /     2.01 /     2.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.4 /     31.0 /    14.69 /    12.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   168.5 /    167.9 /   164.55 /   163.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1974.0 /   1433.6 /  2167.65 /  2944.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /     22.2 /    21.79 /    22.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.4 /    20.34 /    20.73 /     23.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37.55 /    37.68 /    37.98 /    38.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1100.0 /    850.6 /  1390.05 /   1627.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.6 /     20.7 /    21.18 /    21.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.75 /     0.76 /     0.68 /     0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.65 /    49.67 /    49.32 /    48.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   265.0 /    184.8 /    98.91 /   116.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.62 /     3.68 /     3.72 /     3.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    75.3 /    75.88 /    75.28 /    74.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12249.0 /  15762.8 /  19292.5 / 19949.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.9 /    21.94 /     21.9 /    22.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 /    10.62 /    10.67 /    17.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    55.9 /     55.5 /    54.32 /    53.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1430.0 /   1189.0 /   1047.2 /   910.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.8 /    30.92 /     31.0 /    31.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.31 /      0.3 /     0.58 /     0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   123.5 /    123.8 /   123.08 /   119.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   747.0 /    475.6 /   881.95 /   952.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.4 /    42.44 /    42.16 /     41.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.87 /     0.87 /     0.95 /     1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   29.35 /    29.37 /    29.02 /    29.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   252.0 /    395.8 /    417.2 /   589.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.27 /     4.28 /     4.37 /     5.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.05 /     0.22 /     0.39 /      0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    51.9 /     52.3 /    51.08 /    51.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5260.0 /   4382.0 /  4171.35 /  3779.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.8 /    26.82 /    26.58 /    26.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.27 /     0.29 /     0.35 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.5 /    34.73 /    33.95 /    31.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4311.0 /  11286.2 / 11913.85 / 11337.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 /    12.26 /    11.46 /     10.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.13 /     1.12 /     0.81 /     0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.05 /    14.04 /    13.94 /    13.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   166.0 /    292.0 /   306.55 /    273.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.18 /     6.18 /     6.16 /     6.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.17 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    58.3 /    58.74 /    58.38 /    58.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1910.0 /   1824.6 /  2085.85 /  3532.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.5 /    23.64 /    24.25 /    25.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.9 /     0.89 /     1.11 /      2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.9 /     50.2 /    48.08 /    45.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7055.0 /  11410.0 /  6994.85 /  4310.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.0 /    23.98 /     23.3 /     22.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.32 /     1.11 /     0.71 /     0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.05 /    48.34 /    47.27 /    46.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4222.0 /   5318.2 /  5879.05 /  6729.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.0 /     47.2 /    46.79 /    49.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.66 /     3.67 /     5.43 /     5.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.25 /    48.35 /    47.69 /    47.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1180.0 /   1311.8 /    809.2 /   928.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.3 /    21.14 /    20.76 /    20.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37.35 /    37.84 /     38.5 /    36.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3494.0 /   4586.8 / 13761.25 / 13334.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.74 /     2.82 /     3.47 /     4.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.7 /     2.66 /     3.16 /     6.07</t>
+  </si>
+  <si>
+    <t>志聖</t>
+  </si>
+  <si>
+    <t>志聖工業股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.0 /    52.16 /    50.87 /    48.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2265.0 /   1046.6 /    526.6 /   500.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.9 /    10.76 /    10.84 /    11.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.42 /     0.59 /     0.57 /     0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.51 /    0.2</t>
+  </si>
+  <si>
+    <t>26404.0  /  26421.0  /  26440.0  /  26456.0  /  26546.0</t>
+  </si>
+  <si>
+    <t>111.0  /  112.0  /  114.0  /  120.0  /  119.0</t>
+  </si>
+  <si>
+    <t>20.0  /  20.0  /  20.0  /  20.0  /  21.0</t>
+  </si>
+  <si>
+    <t>34.38  /  34.53  /  34.46  /  34.17  /  34.46</t>
+  </si>
+  <si>
+    <t>21.29  /  21.31  /  21.75  /  22.54  /  21.92</t>
+  </si>
+  <si>
+    <t>44.26  /  44.08  /  43.69  /  43.22  /  43.56</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1427,6 +1405,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1674,7 +1658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1697,6 +1681,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2063,13 +2050,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AU32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2091,31 +2078,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2130,68 +2117,68 @@
       <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
     </row>
     <row r="2" spans="1:40" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="4" t="s">
         <v>42</v>
       </c>
@@ -2240,16 +2227,16 @@
       <c r="Y2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
       <c r="AJ2" s="2">
         <v>2021</v>
       </c>
@@ -2286,25 +2273,25 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.38</v>
+        <v>4.47</v>
       </c>
       <c r="H3">
-        <v>17.5</v>
+        <v>17.16</v>
       </c>
       <c r="I3">
-        <v>2.2200000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="K3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="L3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="M3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="N3" s="1">
         <v>11</v>
@@ -2408,22 +2395,22 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
       <c r="H4">
-        <v>17.46</v>
+        <v>17.34</v>
       </c>
       <c r="I4">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="J4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="L4" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="M4" t="s">
         <v>172</v>
@@ -2530,25 +2517,25 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.47</v>
+        <v>5.5</v>
       </c>
       <c r="H5">
-        <v>8.85</v>
+        <v>8.81</v>
       </c>
       <c r="I5">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="K5" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="L5" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="M5" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="N5" s="1">
         <v>9</v>
@@ -2652,25 +2639,25 @@
         <v>20001031</v>
       </c>
       <c r="G6">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="H6">
-        <v>11.03</v>
+        <v>11.06</v>
       </c>
       <c r="I6">
         <v>0.99</v>
       </c>
       <c r="J6" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="L6" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="M6" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="N6" s="1">
         <v>13</v>
@@ -2777,22 +2764,22 @@
         <v>4.62</v>
       </c>
       <c r="H7">
-        <v>17.11</v>
+        <v>17.07</v>
       </c>
       <c r="I7">
         <v>1.76</v>
       </c>
       <c r="J7" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="K7" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="L7" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="M7" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="N7" s="1">
         <v>13</v>
@@ -2896,25 +2883,25 @@
         <v>19950204</v>
       </c>
       <c r="G8">
-        <v>6.44</v>
+        <v>6.37</v>
       </c>
       <c r="H8">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="I8">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="K8" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="L8" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="N8" s="1">
         <v>12</v>
@@ -3018,25 +3005,25 @@
         <v>20180416</v>
       </c>
       <c r="G9">
-        <v>7.66</v>
+        <v>7.71</v>
       </c>
       <c r="H9">
-        <v>14.83</v>
+        <v>14.74</v>
       </c>
       <c r="I9">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J9" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="K9" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="L9" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="M9" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="N9" s="1">
         <v>14</v>
@@ -3140,25 +3127,25 @@
         <v>19930427</v>
       </c>
       <c r="G10">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="H10">
-        <v>8.85</v>
+        <v>8.76</v>
       </c>
       <c r="I10">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="J10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="K10" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="L10" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="M10" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="N10" s="1">
         <v>12</v>
@@ -3262,25 +3249,25 @@
         <v>20160322</v>
       </c>
       <c r="G11">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="H11">
-        <v>8.8699999999999992</v>
+        <v>8.74</v>
       </c>
       <c r="I11">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="J11" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="K11" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="L11" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="M11" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="N11" s="1">
         <v>10</v>
@@ -3384,25 +3371,25 @@
         <v>19920218</v>
       </c>
       <c r="G12">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="H12">
-        <v>7.55</v>
+        <v>7.56</v>
       </c>
       <c r="I12">
         <v>0.98</v>
       </c>
       <c r="J12" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="K12" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="L12" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="M12" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="N12" s="1">
         <v>9</v>
@@ -3506,25 +3493,25 @@
         <v>19951213</v>
       </c>
       <c r="G13">
-        <v>4.99</v>
+        <v>5.01</v>
       </c>
       <c r="H13">
-        <v>6.6</v>
+        <v>6.58</v>
       </c>
       <c r="I13">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J13" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="K13" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="L13" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="M13" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="N13" s="1">
         <v>9</v>
@@ -3628,25 +3615,25 @@
         <v>19960722</v>
       </c>
       <c r="G14">
-        <v>4.88</v>
+        <v>4.91</v>
       </c>
       <c r="H14">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
       <c r="I14">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J14" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="K14" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="L14" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="M14" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="N14" s="1">
         <v>8</v>
@@ -3750,25 +3737,25 @@
         <v>19990105</v>
       </c>
       <c r="G15">
-        <v>6.67</v>
+        <v>6.52</v>
       </c>
       <c r="H15">
-        <v>10.16</v>
+        <v>10.39</v>
       </c>
       <c r="I15">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="J15" t="s">
-        <v>258</v>
-      </c>
-      <c r="K15" t="s">
-        <v>259</v>
+        <v>239</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="L15" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="M15" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="N15" s="1">
         <v>10</v>
@@ -3872,25 +3859,25 @@
         <v>20000911</v>
       </c>
       <c r="G16">
-        <v>6.34</v>
+        <v>5.76</v>
       </c>
       <c r="H16">
-        <v>11.69</v>
+        <v>12.85</v>
       </c>
       <c r="I16">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="J16" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="K16" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="L16" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="M16" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="N16" s="1">
         <v>13</v>
@@ -3974,7 +3961,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2458</v>
       </c>
@@ -3994,25 +3981,25 @@
         <v>20010917</v>
       </c>
       <c r="G17">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="H17">
-        <v>9.59</v>
+        <v>9.65</v>
       </c>
       <c r="I17">
-        <v>5.01</v>
+        <v>5.04</v>
       </c>
       <c r="J17" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="K17" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="L17" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="M17" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="N17" s="1">
         <v>12</v>
@@ -4096,7 +4083,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2520</v>
       </c>
@@ -4116,25 +4103,25 @@
         <v>19931027</v>
       </c>
       <c r="G18">
-        <v>9.02</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="H18">
-        <v>4.4400000000000004</v>
+        <v>4.42</v>
       </c>
       <c r="I18">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="J18" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="K18" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="L18" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="M18" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="N18" s="1">
         <v>7</v>
@@ -4218,7 +4205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2546</v>
       </c>
@@ -4238,22 +4225,22 @@
         <v>20000911</v>
       </c>
       <c r="G19">
-        <v>7.23</v>
+        <v>7.25</v>
       </c>
       <c r="H19">
-        <v>7.08</v>
+        <v>7.06</v>
       </c>
       <c r="I19">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J19" t="s">
-        <v>274</v>
-      </c>
-      <c r="K19" t="s">
-        <v>275</v>
+        <v>255</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="L19" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="M19" t="s">
         <v>171</v>
@@ -4340,7 +4327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2881</v>
       </c>
@@ -4369,16 +4356,16 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="K20" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="L20" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="M20" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="N20" s="1">
         <v>7</v>
@@ -4462,7 +4449,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3005</v>
       </c>
@@ -4482,25 +4469,25 @@
         <v>20020225</v>
       </c>
       <c r="G21">
-        <v>6.38</v>
+        <v>6.42</v>
       </c>
       <c r="H21">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="I21">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="J21" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="K21" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="L21" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="M21" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="N21" s="1">
         <v>10</v>
@@ -4584,7 +4571,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3044</v>
       </c>
@@ -4613,16 +4600,16 @@
         <v>1.78</v>
       </c>
       <c r="J22" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="K22" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="L22" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="M22" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
@@ -4706,7 +4693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3209</v>
       </c>
@@ -4726,25 +4713,25 @@
         <v>20081126</v>
       </c>
       <c r="G23">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="H23">
-        <v>8.19</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="I23">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J23" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="K23" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="L23" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="M23" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="N23" s="1">
         <v>9</v>
@@ -4828,7 +4815,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3702</v>
       </c>
@@ -4848,25 +4835,25 @@
         <v>20051109</v>
       </c>
       <c r="G24">
-        <v>5.93</v>
+        <v>5.97</v>
       </c>
       <c r="H24">
-        <v>9.0299999999999994</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="I24">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="J24" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="K24" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="N24" s="1">
         <v>9</v>
@@ -4950,7 +4937,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3706</v>
       </c>
@@ -4979,16 +4966,16 @@
         <v>0.83</v>
       </c>
       <c r="J25" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="L25" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="M25" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="N25" s="1">
         <v>8</v>
@@ -5072,7 +5059,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5515</v>
       </c>
@@ -5092,25 +5079,25 @@
         <v>20031006</v>
       </c>
       <c r="G26">
-        <v>5.71</v>
+        <v>5.69</v>
       </c>
       <c r="H26">
-        <v>7.73</v>
+        <v>7.76</v>
       </c>
       <c r="I26">
         <v>0.77</v>
       </c>
       <c r="J26" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="K26" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="L26" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="M26" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="N26" s="1">
         <v>11</v>
@@ -5194,7 +5181,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6257</v>
       </c>
@@ -5214,25 +5201,25 @@
         <v>20030825</v>
       </c>
       <c r="G27">
-        <v>4.88</v>
+        <v>4.92</v>
       </c>
       <c r="H27">
-        <v>10.24</v>
+        <v>10.16</v>
       </c>
       <c r="I27">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="J27" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="K27" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="N27" s="1">
         <v>9</v>
@@ -5316,7 +5303,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8112</v>
       </c>
@@ -5336,25 +5323,25 @@
         <v>20071231</v>
       </c>
       <c r="G28">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="H28">
-        <v>8.0399999999999991</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="I28">
         <v>2.0699999999999998</v>
       </c>
       <c r="J28" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="K28" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M28" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="N28" s="1">
         <v>7</v>
@@ -5438,7 +5425,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>8150</v>
       </c>
@@ -5458,25 +5445,25 @@
         <v>20140411</v>
       </c>
       <c r="G29">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="H29">
-        <v>8.06</v>
+        <v>8.08</v>
       </c>
       <c r="I29">
         <v>1.53</v>
       </c>
       <c r="J29" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="K29" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="N29" s="1">
         <v>9</v>
@@ -5560,7 +5547,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8213</v>
       </c>
@@ -5589,16 +5576,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s">
-        <v>320</v>
+        <v>191</v>
       </c>
       <c r="N30" s="1">
         <v>6</v>
@@ -5682,7 +5669,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8215</v>
       </c>
@@ -5705,22 +5692,22 @@
         <v>1.87</v>
       </c>
       <c r="H31">
-        <v>13.69</v>
+        <v>13.63</v>
       </c>
       <c r="I31">
-        <v>2.52</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J31" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="K31" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="L31" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="M31" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="N31" s="1">
         <v>15</v>
@@ -5804,350 +5791,146 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6277</v>
+        <v>2467</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32">
-        <v>1194711660</v>
+        <v>306</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1521896590</v>
       </c>
       <c r="E32">
-        <v>19790706</v>
+        <v>19780418</v>
       </c>
       <c r="F32">
-        <v>20031030</v>
+        <v>20010917</v>
       </c>
       <c r="G32">
-        <v>6.73</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="H32">
-        <v>17.16</v>
+        <v>12.95</v>
       </c>
       <c r="I32">
-        <v>2.17</v>
+        <v>3.16</v>
       </c>
       <c r="J32" t="s">
-        <v>193</v>
-      </c>
-      <c r="K32" t="s">
-        <v>194</v>
+        <v>307</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="L32" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="N32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O32">
-        <v>38.08</v>
+        <v>45.76</v>
       </c>
       <c r="P32">
-        <v>9</v>
+        <v>12.8</v>
       </c>
       <c r="Q32">
-        <v>42.84</v>
+        <v>53.25</v>
       </c>
       <c r="R32">
-        <v>10</v>
+        <v>14.6</v>
       </c>
       <c r="S32">
-        <v>47.6</v>
+        <v>60.74</v>
       </c>
       <c r="T32">
-        <v>11</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="U32">
-        <v>52.36</v>
+        <v>68.22</v>
       </c>
       <c r="V32">
-        <v>12</v>
+        <v>18.2</v>
       </c>
       <c r="W32">
-        <v>57.12</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="X32">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Y32">
-        <v>61.88</v>
+        <v>83.2</v>
       </c>
       <c r="Z32">
-        <v>58.47</v>
+        <v>34.07</v>
       </c>
       <c r="AA32">
-        <v>15.51</v>
+        <v>12.91</v>
       </c>
       <c r="AB32">
-        <v>12.74</v>
+        <v>26.43</v>
       </c>
       <c r="AC32">
-        <v>16.32</v>
+        <v>15.84</v>
       </c>
       <c r="AD32">
-        <v>12.09</v>
+        <v>12.85</v>
       </c>
       <c r="AE32">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="AF32">
-        <v>95.04</v>
+        <v>81.5</v>
       </c>
       <c r="AG32">
-        <v>7.71</v>
+        <v>2.44</v>
       </c>
       <c r="AH32">
-        <v>5.78</v>
+        <v>-2.57</v>
       </c>
       <c r="AI32">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AJ32" t="s">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="AK32" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="AL32" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AM32" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="AN32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>6261</v>
-      </c>
-      <c r="B33" t="s">
-        <v>199</v>
-      </c>
-      <c r="J33" t="s">
-        <v>200</v>
-      </c>
-      <c r="K33" t="s">
-        <v>201</v>
-      </c>
-      <c r="L33" t="s">
-        <v>202</v>
-      </c>
-      <c r="M33" t="s">
-        <v>203</v>
-      </c>
-      <c r="N33">
-        <v>10</v>
-      </c>
-      <c r="O33">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="P33">
-        <v>11.8</v>
-      </c>
-      <c r="Q33">
-        <v>88.97</v>
-      </c>
-      <c r="R33">
-        <v>13.6</v>
-      </c>
-      <c r="S33">
-        <v>102.5</v>
-      </c>
-      <c r="T33">
-        <v>15.4</v>
-      </c>
-      <c r="U33">
-        <v>116.1</v>
-      </c>
-      <c r="V33">
-        <v>17.2</v>
-      </c>
-      <c r="W33">
-        <v>129.69999999999999</v>
-      </c>
-      <c r="X33">
-        <v>19</v>
-      </c>
-      <c r="Y33">
-        <v>143.30000000000001</v>
-      </c>
-      <c r="Z33">
-        <v>41.17</v>
-      </c>
-      <c r="AA33">
-        <v>28.89</v>
-      </c>
-      <c r="AB33">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="AC33">
-        <v>28.24</v>
-      </c>
-      <c r="AD33">
-        <v>22.1</v>
-      </c>
-      <c r="AE33">
-        <v>0.65</v>
-      </c>
-      <c r="AF33">
-        <v>102.3</v>
-      </c>
-      <c r="AG33">
-        <v>4.76</v>
-      </c>
-      <c r="AH33">
-        <v>3.59</v>
-      </c>
-      <c r="AI33">
-        <v>72</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>6115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34">
-        <v>1876621540</v>
-      </c>
-      <c r="E34">
-        <v>19861125</v>
-      </c>
-      <c r="F34">
-        <v>20040719</v>
-      </c>
-      <c r="G34">
-        <v>6.52</v>
-      </c>
-      <c r="H34">
-        <v>15.51</v>
-      </c>
-      <c r="I34">
-        <v>1.79</v>
-      </c>
-      <c r="J34" t="s">
-        <v>208</v>
-      </c>
-      <c r="K34" t="s">
-        <v>209</v>
-      </c>
-      <c r="L34" t="s">
-        <v>210</v>
-      </c>
-      <c r="M34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N34">
-        <v>10</v>
-      </c>
-      <c r="O34">
-        <v>27.8</v>
-      </c>
-      <c r="P34">
-        <v>11.2</v>
-      </c>
-      <c r="Q34">
-        <v>31.14</v>
-      </c>
-      <c r="R34">
-        <v>12.4</v>
-      </c>
-      <c r="S34">
-        <v>34.47</v>
-      </c>
-      <c r="T34">
-        <v>13.6</v>
-      </c>
-      <c r="U34">
-        <v>37.81</v>
-      </c>
-      <c r="V34">
-        <v>14.8</v>
-      </c>
-      <c r="W34">
-        <v>41.14</v>
-      </c>
-      <c r="X34">
-        <v>16</v>
-      </c>
-      <c r="Y34">
-        <v>44.48</v>
-      </c>
-      <c r="Z34">
-        <v>15.63</v>
-      </c>
-      <c r="AA34">
-        <v>8.83</v>
-      </c>
-      <c r="AB34">
-        <v>10.47</v>
-      </c>
-      <c r="AC34">
-        <v>9.11</v>
-      </c>
-      <c r="AD34">
-        <v>6.48</v>
-      </c>
-      <c r="AE34">
-        <v>0.91</v>
-      </c>
-      <c r="AF34">
-        <v>96.93</v>
-      </c>
-      <c r="AG34">
-        <v>-1.07</v>
-      </c>
-      <c r="AH34">
-        <v>-0.82</v>
-      </c>
-      <c r="AI34">
-        <v>47</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>204</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>313</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>316</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU32"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AN31">
@@ -6178,7 +5961,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF30">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6188,7 +5971,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA30">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6198,7 +5981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z30">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6208,7 +5991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA30">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6218,7 +6001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD30">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6228,7 +6011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB30">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6238,7 +6021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z29:Z31">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6250,6 +6033,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AF31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6259,7 +6052,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AF31">
+  <conditionalFormatting sqref="AG3:AI31">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6269,8 +6062,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AI31">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="Z3:AI31">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6279,7 +6072,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AI34">
+  <conditionalFormatting sqref="Z3:AI32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
